--- a/models/sawg-stomach/source/sawg-stomach.xlsx
+++ b/models/sawg-stomach/source/sawg-stomach.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="616">
   <si>
     <t>id</t>
   </si>
@@ -397,6 +397,12 @@
     <t>UBERON:0009961</t>
   </si>
   <si>
+    <t>ob_eso</t>
+  </si>
+  <si>
+    <t>oblique muscle layer of esophagus</t>
+  </si>
+  <si>
     <t>my_plex_e</t>
   </si>
   <si>
@@ -1117,7 +1123,7 @@
     <t>ac_vag5b</t>
   </si>
   <si>
-    <t>Axon chain in the nodose ganglia to vagus_Neuron 5 (sto)</t>
+    <t>Dendrite chain in the nodose ganglia to vagus_Neuron 5 (sto)</t>
   </si>
   <si>
     <t>ns21</t>
@@ -1129,7 +1135,7 @@
     <t>ac_lm5b_ds</t>
   </si>
   <si>
-    <t>Axon chain in the vagus to distal stomach_long muscle_Neuron 5 (sto)</t>
+    <t>Dendrite chain in the vagus to distal stomach_long muscle_Neuron 5 (sto)</t>
   </si>
   <si>
     <t>ns22</t>
@@ -1144,7 +1150,7 @@
     <t>ac_mp5b_ds</t>
   </si>
   <si>
-    <t>Axon chain in the vagus to distal stomach_myenteric plexus_Neuron 5 (sto)</t>
+    <t>Dendrite chain in the vagus to distal stomach_myenteric plexus_Neuron 5 (sto)</t>
   </si>
   <si>
     <t>ns23</t>
@@ -1159,7 +1165,7 @@
     <t>ac_cm5b_ds</t>
   </si>
   <si>
-    <t>Axon chain in the vagus to distal stomach_cir muscle_Neuron 5 (sto)</t>
+    <t>Dendrite chain in the vagus to distal stomach_cir muscle_Neuron 5 (sto)</t>
   </si>
   <si>
     <t>ns24</t>
@@ -1174,7 +1180,7 @@
     <t>ac_muc5b_ds</t>
   </si>
   <si>
-    <t>Axon chain in the vagus to distal stomach_mucosa_Neuron 5 (sto)</t>
+    <t>Dendrite chain in the vagus to distal stomach_mucosa_Neuron 5 (sto)</t>
   </si>
   <si>
     <t>ns25</t>
@@ -1189,7 +1195,7 @@
     <t>ac_lm5b_ps</t>
   </si>
   <si>
-    <t>Axon chain in the vagus to proximal stomach_long muscle_Neuron 5 (sto)</t>
+    <t>Dendrite chain in the vagus to proximal stomach_long muscle_Neuron 5 (sto)</t>
   </si>
   <si>
     <t>ns26</t>
@@ -1201,7 +1207,7 @@
     <t>ac_mp5b_ps</t>
   </si>
   <si>
-    <t>Axon chain in the vagus to proximal stomach_myenteric plexus_Neuron 5 (sto)</t>
+    <t>Dendrite chain in the vagus to proximal stomach_myenteric plexus_Neuron 5 (sto)</t>
   </si>
   <si>
     <t>ns27</t>
@@ -1213,7 +1219,7 @@
     <t>ac_cm5b_ps</t>
   </si>
   <si>
-    <t>Axon chain in the vagus to proximal stomach_cir muscle_Neuron 5 (sto)</t>
+    <t>Dendrite chain in the vagus to proximal stomach_cir muscle_Neuron 5 (sto)</t>
   </si>
   <si>
     <t>ns28</t>
@@ -1225,7 +1231,7 @@
     <t>ac_muc5b_ps</t>
   </si>
   <si>
-    <t>Axon chain in the vagus to proximal  stomach_mucosa_Neuron 5 (sto)</t>
+    <t>Dendrite chain in the vagus to proximal  stomach_mucosa_Neuron 5 (sto)</t>
   </si>
   <si>
     <t>ns29</t>
@@ -1237,7 +1243,7 @@
     <t>ac_lm5b_le</t>
   </si>
   <si>
-    <t>Axon chain in the vagus to lower esophagus_long muscle_Neuron 5 (sto)</t>
+    <t>Dendrite chain in the vagus to lower esophagus_long muscle_Neuron 5 (sto)</t>
   </si>
   <si>
     <t>ns30</t>
@@ -1252,7 +1258,7 @@
     <t>ac_cm5b_le</t>
   </si>
   <si>
-    <t>Axon chain in the vagus to lower esophagus_cir muscle_Neuron 5 (sto)</t>
+    <t>Dendrite chain in the vagus to lower esophagus_cir muscle_Neuron 5 (sto)</t>
   </si>
   <si>
     <t>ns31</t>
@@ -1934,6 +1940,9 @@
       <name val="Arial"/>
     </font>
     <font>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color rgb="FF222222"/>
       <name val="Arial"/>
     </font>
@@ -1968,9 +1977,6 @@
       <b/>
       <sz val="9.0"/>
       <color rgb="FF660E7A"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <name val="Arial"/>
     </font>
     <font>
@@ -2052,7 +2058,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="94">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2119,171 +2125,179 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -2623,114 +2637,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="88" t="s">
-        <v>588</v>
-      </c>
-      <c r="B2" s="89" t="s">
-        <v>589</v>
+      <c r="A2" s="90" t="s">
+        <v>590</v>
+      </c>
+      <c r="B2" s="91" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="88" t="s">
-        <v>590</v>
-      </c>
-      <c r="B3" s="90" t="s">
-        <v>591</v>
+      <c r="A3" s="90" t="s">
+        <v>592</v>
+      </c>
+      <c r="B3" s="92" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="88" t="s">
-        <v>592</v>
-      </c>
-      <c r="B4" s="91" t="s">
-        <v>593</v>
+      <c r="A4" s="90" t="s">
+        <v>594</v>
+      </c>
+      <c r="B4" s="93" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="88" t="s">
-        <v>594</v>
-      </c>
-      <c r="B5" s="91" t="s">
-        <v>595</v>
+      <c r="A5" s="90" t="s">
+        <v>596</v>
+      </c>
+      <c r="B5" s="93" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="88" t="s">
-        <v>596</v>
-      </c>
-      <c r="B6" s="91" t="s">
-        <v>597</v>
+      <c r="A6" s="90" t="s">
+        <v>598</v>
+      </c>
+      <c r="B6" s="93" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="88" t="s">
-        <v>598</v>
-      </c>
-      <c r="B7" s="91" t="s">
-        <v>599</v>
+      <c r="A7" s="90" t="s">
+        <v>600</v>
+      </c>
+      <c r="B7" s="93" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="88" t="s">
-        <v>600</v>
-      </c>
-      <c r="B8" s="91" t="s">
-        <v>601</v>
+      <c r="A8" s="90" t="s">
+        <v>602</v>
+      </c>
+      <c r="B8" s="93" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="88" t="s">
-        <v>602</v>
-      </c>
-      <c r="B9" s="91" t="s">
-        <v>603</v>
+      <c r="A9" s="90" t="s">
+        <v>604</v>
+      </c>
+      <c r="B9" s="93" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="88" t="s">
-        <v>604</v>
-      </c>
-      <c r="B10" s="91" t="s">
-        <v>605</v>
+      <c r="A10" s="90" t="s">
+        <v>606</v>
+      </c>
+      <c r="B10" s="93" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="88" t="s">
-        <v>606</v>
-      </c>
-      <c r="B11" s="91" t="s">
-        <v>607</v>
+      <c r="A11" s="90" t="s">
+        <v>608</v>
+      </c>
+      <c r="B11" s="93" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="B12" s="85" t="s">
-        <v>609</v>
+        <v>610</v>
+      </c>
+      <c r="B12" s="87" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="B13" s="85" t="s">
-        <v>611</v>
+        <v>612</v>
+      </c>
+      <c r="B13" s="87" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="B14" s="85" t="s">
-        <v>613</v>
+        <v>614</v>
+      </c>
+      <c r="B14" s="87" t="s">
+        <v>615</v>
       </c>
     </row>
   </sheetData>
@@ -3301,7 +3315,7 @@
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="22" t="s">
+      <c r="I18" s="26" t="s">
         <v>80</v>
       </c>
       <c r="J18" s="18"/>
@@ -3310,7 +3324,7 @@
       <c r="M18" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="N18" s="26" t="s">
+      <c r="N18" s="27" t="s">
         <v>82</v>
       </c>
       <c r="O18" s="14"/>
@@ -3333,7 +3347,7 @@
       <c r="F19" s="13"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="22" t="s">
+      <c r="I19" s="26" t="s">
         <v>80</v>
       </c>
       <c r="J19" s="18"/>
@@ -3342,7 +3356,7 @@
       <c r="M19" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="N19" s="26" t="s">
+      <c r="N19" s="27" t="s">
         <v>82</v>
       </c>
       <c r="O19" s="14"/>
@@ -3365,7 +3379,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="22" t="s">
+      <c r="I20" s="26" t="s">
         <v>90</v>
       </c>
       <c r="J20" s="18"/>
@@ -3445,7 +3459,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="27"/>
+      <c r="I23" s="28"/>
       <c r="J23" s="18"/>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
@@ -3471,7 +3485,7 @@
       <c r="F24" s="13"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="27"/>
+      <c r="I24" s="28"/>
       <c r="J24" s="18"/>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
@@ -3541,7 +3555,7 @@
       <c r="B27" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="29" t="s">
         <v>111</v>
       </c>
       <c r="D27" s="14"/>
@@ -3567,7 +3581,7 @@
       <c r="B28" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="29" t="s">
         <v>114</v>
       </c>
       <c r="D28" s="14"/>
@@ -3587,15 +3601,13 @@
       <c r="R28" s="14"/>
     </row>
     <row r="29">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="B29" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>58</v>
-      </c>
+      <c r="B29" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="29"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="13"/>
@@ -3613,14 +3625,14 @@
       <c r="R29" s="14"/>
     </row>
     <row r="30">
-      <c r="A30" s="15" t="s">
-        <v>116</v>
+      <c r="A30" s="25" t="s">
+        <v>117</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>118</v>
+        <v>57</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>58</v>
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
@@ -3640,13 +3652,13 @@
     </row>
     <row r="31">
       <c r="A31" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="C31" s="29" t="s">
         <v>120</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>121</v>
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
@@ -3666,13 +3678,13 @@
     </row>
     <row r="32">
       <c r="A32" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="C32" s="29" t="s">
         <v>123</v>
-      </c>
-      <c r="C32" s="28" t="s">
-        <v>124</v>
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
@@ -3691,26 +3703,22 @@
       <c r="R32" s="14"/>
     </row>
     <row r="33">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="C33" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="C33" s="29" t="s">
-        <v>127</v>
-      </c>
       <c r="D33" s="14"/>
-      <c r="E33" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="F33" s="31"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="13"/>
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
-      <c r="I33" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="J33" s="31"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="18"/>
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
@@ -3721,28 +3729,26 @@
       <c r="R33" s="14"/>
     </row>
     <row r="34">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="32" t="s">
         <v>129</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>127</v>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="F34" s="13" t="s">
-        <v>130</v>
-      </c>
+      <c r="F34" s="34"/>
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="34">
-        <v>229.0</v>
-      </c>
+      <c r="I34" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="J34" s="34"/>
       <c r="K34" s="14"/>
       <c r="L34" s="14"/>
       <c r="M34" s="14"/>
@@ -3753,22 +3759,28 @@
       <c r="R34" s="14"/>
     </row>
     <row r="35">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" s="14"/>
+      <c r="E35" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="C35" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="13"/>
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="18"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="37">
+        <v>229.0</v>
+      </c>
       <c r="K35" s="14"/>
       <c r="L35" s="14"/>
       <c r="M35" s="14"/>
@@ -3780,13 +3792,13 @@
     </row>
     <row r="36">
       <c r="A36" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B36" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="C36" s="29" t="s">
         <v>135</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>136</v>
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
@@ -3806,12 +3818,12 @@
     </row>
     <row r="37">
       <c r="A37" s="15" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="B37" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="29" t="s">
         <v>138</v>
       </c>
       <c r="D37" s="14"/>
@@ -3828,19 +3840,17 @@
       <c r="O37" s="14"/>
       <c r="P37" s="14"/>
       <c r="Q37" s="14"/>
-      <c r="R37" s="3" t="s">
-        <v>139</v>
-      </c>
+      <c r="R37" s="14"/>
     </row>
     <row r="38">
       <c r="A38" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" s="38" t="s">
         <v>140</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="C38" s="35" t="s">
-        <v>138</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
@@ -3857,18 +3867,18 @@
       <c r="P38" s="14"/>
       <c r="Q38" s="14"/>
       <c r="R38" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B39" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="B39" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="C39" s="35" t="s">
-        <v>138</v>
+      <c r="C39" s="38" t="s">
+        <v>140</v>
       </c>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
@@ -3885,18 +3895,18 @@
       <c r="P39" s="14"/>
       <c r="Q39" s="14"/>
       <c r="R39" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B40" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="B40" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="C40" s="35" t="s">
-        <v>138</v>
+      <c r="C40" s="38" t="s">
+        <v>140</v>
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
@@ -3913,18 +3923,18 @@
       <c r="P40" s="14"/>
       <c r="Q40" s="14"/>
       <c r="R40" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="15" t="s">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="B41" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="C41" s="35" t="s">
-        <v>138</v>
+      <c r="C41" s="38" t="s">
+        <v>140</v>
       </c>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
@@ -3946,13 +3956,13 @@
     </row>
     <row r="42">
       <c r="A42" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="B42" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="C42" s="35" t="s">
-        <v>138</v>
+      <c r="C42" s="38" t="s">
+        <v>140</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
@@ -3969,18 +3979,18 @@
       <c r="P42" s="14"/>
       <c r="Q42" s="14"/>
       <c r="R42" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B43" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="B43" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="C43" s="35" t="s">
-        <v>138</v>
+      <c r="C43" s="38" t="s">
+        <v>140</v>
       </c>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
@@ -3997,18 +4007,18 @@
       <c r="P43" s="14"/>
       <c r="Q43" s="14"/>
       <c r="R43" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B44" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="B44" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="C44" s="35" t="s">
-        <v>138</v>
+      <c r="C44" s="38" t="s">
+        <v>140</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
@@ -4025,18 +4035,18 @@
       <c r="P44" s="14"/>
       <c r="Q44" s="14"/>
       <c r="R44" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B45" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="B45" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="C45" s="35" t="s">
-        <v>138</v>
+      <c r="C45" s="38" t="s">
+        <v>140</v>
       </c>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
@@ -4053,18 +4063,18 @@
       <c r="P45" s="14"/>
       <c r="Q45" s="14"/>
       <c r="R45" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B46" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="B46" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="C46" s="35" t="s">
-        <v>138</v>
+      <c r="C46" s="38" t="s">
+        <v>140</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
@@ -4081,18 +4091,18 @@
       <c r="P46" s="14"/>
       <c r="Q46" s="14"/>
       <c r="R46" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B47" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="B47" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="C47" s="35" t="s">
-        <v>138</v>
+      <c r="C47" s="38" t="s">
+        <v>140</v>
       </c>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
@@ -4109,18 +4119,18 @@
       <c r="P47" s="14"/>
       <c r="Q47" s="14"/>
       <c r="R47" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B48" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="B48" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="C48" s="35" t="s">
-        <v>138</v>
+      <c r="C48" s="38" t="s">
+        <v>140</v>
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
@@ -4137,18 +4147,18 @@
       <c r="P48" s="14"/>
       <c r="Q48" s="14"/>
       <c r="R48" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B49" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="B49" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="C49" s="35" t="s">
-        <v>138</v>
+      <c r="C49" s="38" t="s">
+        <v>140</v>
       </c>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
@@ -4165,18 +4175,18 @@
       <c r="P49" s="14"/>
       <c r="Q49" s="14"/>
       <c r="R49" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B50" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="B50" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="C50" s="35" t="s">
-        <v>138</v>
+      <c r="C50" s="38" t="s">
+        <v>140</v>
       </c>
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
@@ -4193,7 +4203,35 @@
       <c r="P50" s="14"/>
       <c r="Q50" s="14"/>
       <c r="R50" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="15" t="s">
         <v>177</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C51" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -4218,312 +4256,312 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="39" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="C2" s="39" t="s">
+      <c r="A2" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="D2" s="31"/>
+      <c r="B2" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="34"/>
     </row>
     <row r="3">
-      <c r="A3" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="C3" s="29" t="s">
+      <c r="A3" s="41" t="s">
         <v>183</v>
       </c>
+      <c r="B3" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>185</v>
+      </c>
       <c r="D3" s="14"/>
     </row>
     <row r="4">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="42"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>236</v>
+      </c>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>239</v>
+      </c>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="B23" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="D4" s="39"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="D8" s="14"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="D9" s="14"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="D10" s="14"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="38" t="s">
-        <v>206</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="D11" s="14"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="38" t="s">
-        <v>209</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>211</v>
-      </c>
-      <c r="D12" s="14"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="D13" s="14"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>216</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="D14" s="14"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="D15" s="14"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="38" t="s">
-        <v>221</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>222</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="D16" s="14"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="38" t="s">
-        <v>224</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="D17" s="14"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="D18" s="14"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="38" t="s">
-        <v>229</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>231</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="42" t="s">
-        <v>232</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="C20" s="43" t="s">
-        <v>234</v>
-      </c>
-      <c r="D20" s="14"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="42" t="s">
-        <v>235</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="C21" s="43" t="s">
-        <v>237</v>
-      </c>
-      <c r="D21" s="14"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="42" t="s">
-        <v>238</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>239</v>
-      </c>
-      <c r="C22" s="43" t="s">
-        <v>240</v>
-      </c>
-      <c r="D22" s="14"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="42" t="s">
-        <v>241</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="C23" s="44" t="s">
-        <v>242</v>
+      <c r="C23" s="47" t="s">
+        <v>244</v>
       </c>
       <c r="D23" s="14"/>
     </row>
     <row r="24">
-      <c r="A24" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>244</v>
-      </c>
-      <c r="C24" s="44" t="s">
+      <c r="A24" s="45" t="s">
         <v>245</v>
       </c>
+      <c r="B24" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>247</v>
+      </c>
       <c r="D24" s="14"/>
     </row>
     <row r="25">
-      <c r="A25" s="42" t="s">
-        <v>246</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="C25" s="45" t="s">
+      <c r="A25" s="45" t="s">
         <v>248</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>250</v>
       </c>
       <c r="D25" s="14"/>
     </row>
@@ -4551,292 +4589,292 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
-        <v>249</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>250</v>
-      </c>
-      <c r="E1" s="46" t="s">
+      <c r="C1" s="49" t="s">
         <v>251</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="D1" s="49" t="s">
+        <v>252</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>253</v>
+      </c>
+      <c r="F1" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="46" t="s">
-        <v>252</v>
+      <c r="G1" s="49" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>254</v>
+        <v>255</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>256</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="48"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="51"/>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>258</v>
+        <v>259</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>260</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="F3" s="42"/>
+        <v>142</v>
+      </c>
+      <c r="F3" s="45"/>
       <c r="G3" s="14"/>
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B4" s="47" t="s">
-        <v>262</v>
+        <v>263</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>264</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="F4" s="42"/>
+        <v>145</v>
+      </c>
+      <c r="F4" s="45"/>
       <c r="G4" s="14"/>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>266</v>
+        <v>267</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>268</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="F5" s="42"/>
+        <v>148</v>
+      </c>
+      <c r="F5" s="45"/>
       <c r="G5" s="14"/>
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>270</v>
+        <v>271</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>272</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="42"/>
+      <c r="F6" s="45"/>
       <c r="G6" s="14"/>
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>274</v>
+        <v>275</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>276</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="F7" s="42"/>
+        <v>153</v>
+      </c>
+      <c r="F7" s="45"/>
       <c r="G7" s="14"/>
     </row>
     <row r="8">
       <c r="A8" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>278</v>
+        <v>279</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>280</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="F8" s="42"/>
+        <v>156</v>
+      </c>
+      <c r="F8" s="45"/>
       <c r="G8" s="14"/>
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>282</v>
+        <v>283</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>284</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="F9" s="42"/>
+        <v>159</v>
+      </c>
+      <c r="F9" s="45"/>
       <c r="G9" s="14"/>
     </row>
     <row r="10">
       <c r="A10" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>286</v>
+        <v>287</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>288</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="F10" s="42"/>
+        <v>162</v>
+      </c>
+      <c r="F10" s="45"/>
       <c r="G10" s="14"/>
     </row>
     <row r="11">
       <c r="A11" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>290</v>
+        <v>291</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>292</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F11" s="42"/>
+        <v>165</v>
+      </c>
+      <c r="F11" s="45"/>
       <c r="G11" s="14"/>
     </row>
     <row r="12">
       <c r="A12" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="B12" s="47" t="s">
-        <v>294</v>
+        <v>295</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>296</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="F12" s="42"/>
+        <v>168</v>
+      </c>
+      <c r="F12" s="45"/>
       <c r="G12" s="14"/>
     </row>
     <row r="13">
       <c r="A13" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="B13" s="47" t="s">
-        <v>298</v>
+        <v>299</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>300</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="F13" s="42"/>
+        <v>171</v>
+      </c>
+      <c r="F13" s="45"/>
       <c r="G13" s="14"/>
     </row>
     <row r="14">
       <c r="A14" s="15" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="F14" s="42"/>
+        <v>174</v>
+      </c>
+      <c r="F14" s="45"/>
       <c r="G14" s="14"/>
     </row>
     <row r="15">
       <c r="A15" s="15" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="F15" s="42"/>
+        <v>177</v>
+      </c>
+      <c r="F15" s="45"/>
       <c r="G15" s="14"/>
     </row>
   </sheetData>
@@ -4875,1772 +4913,1810 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
-        <v>309</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>310</v>
-      </c>
-      <c r="F1" s="46" t="s">
+      <c r="D1" s="49" t="s">
         <v>311</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="E1" s="49" t="s">
         <v>312</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="F1" s="49" t="s">
+        <v>313</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>314</v>
+      </c>
+      <c r="H1" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="46" t="s">
-        <v>313</v>
-      </c>
-      <c r="J1" s="50" t="s">
-        <v>314</v>
-      </c>
-      <c r="K1" s="49" t="s">
+      <c r="I1" s="49" t="s">
         <v>315</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="J1" s="53" t="s">
         <v>316</v>
       </c>
+      <c r="K1" s="52" t="s">
+        <v>317</v>
+      </c>
+      <c r="L1" s="54" t="s">
+        <v>318</v>
+      </c>
       <c r="M1" s="21" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="21" t="s">
-        <v>317</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>318</v>
-      </c>
-      <c r="C2" s="53" t="s">
         <v>319</v>
       </c>
-      <c r="D2" s="54"/>
+      <c r="B2" s="55" t="s">
+        <v>320</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="D2" s="57"/>
       <c r="E2" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>320</v>
-      </c>
-      <c r="H2" s="42"/>
+        <v>322</v>
+      </c>
+      <c r="H2" s="45"/>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
-      <c r="L2" s="47" t="s">
+      <c r="K2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L2" s="50" t="s">
         <v>26</v>
       </c>
       <c r="M2" s="14"/>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>321</v>
-      </c>
-      <c r="B3" s="52" t="s">
-        <v>322</v>
-      </c>
-      <c r="C3" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55" t="s">
-        <v>129</v>
+      <c r="B3" s="55" t="s">
+        <v>324</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58" t="s">
+        <v>131</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="H3" s="42"/>
+        <v>326</v>
+      </c>
+      <c r="H3" s="45"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
-      <c r="L3" s="47" t="s">
-        <v>325</v>
+      <c r="K3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="50" t="s">
+        <v>327</v>
       </c>
       <c r="M3" s="14"/>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="B4" s="52" t="s">
-        <v>327</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="D4" s="31"/>
+        <v>328</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>329</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="D4" s="34"/>
       <c r="E4" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>328</v>
-      </c>
-      <c r="H4" s="42"/>
+        <v>330</v>
+      </c>
+      <c r="H4" s="45"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
-      <c r="L4" s="47" t="s">
+      <c r="K4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L4" s="50" t="s">
         <v>22</v>
       </c>
       <c r="M4" s="14"/>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>329</v>
-      </c>
-      <c r="B5" s="52" t="s">
-        <v>330</v>
-      </c>
-      <c r="C5" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55" t="s">
-        <v>129</v>
+        <v>331</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>332</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="D5" s="57"/>
+      <c r="E5" s="58" t="s">
+        <v>131</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>331</v>
-      </c>
-      <c r="H5" s="42"/>
+        <v>333</v>
+      </c>
+      <c r="H5" s="45"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
-      <c r="L5" s="47" t="s">
-        <v>332</v>
+      <c r="K5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="50" t="s">
+        <v>334</v>
       </c>
       <c r="M5" s="14"/>
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="B6" s="52" t="s">
-        <v>334</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="D6" s="31"/>
+        <v>335</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>336</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="D6" s="34"/>
       <c r="E6" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>335</v>
-      </c>
-      <c r="H6" s="42"/>
+        <v>337</v>
+      </c>
+      <c r="H6" s="45"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
-      <c r="L6" s="47" t="s">
+      <c r="K6" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L6" s="50" t="s">
         <v>22</v>
       </c>
       <c r="M6" s="14"/>
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
-        <v>336</v>
-      </c>
-      <c r="B7" s="52" t="s">
-        <v>337</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="55" t="s">
-        <v>129</v>
+        <v>338</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>339</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="D7" s="57"/>
+      <c r="E7" s="58" t="s">
+        <v>131</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>338</v>
-      </c>
-      <c r="H7" s="42"/>
+        <v>340</v>
+      </c>
+      <c r="H7" s="45"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
-      <c r="L7" s="47" t="s">
-        <v>339</v>
+      <c r="K7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="50" t="s">
+        <v>341</v>
       </c>
       <c r="M7" s="14"/>
     </row>
     <row r="8">
       <c r="A8" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="B8" s="52" t="s">
-        <v>341</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="D8" s="31"/>
+        <v>342</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>343</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="D8" s="34"/>
       <c r="E8" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="H8" s="42"/>
+        <v>270</v>
+      </c>
+      <c r="H8" s="45"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
-      <c r="L8" s="47" t="s">
+      <c r="K8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L8" s="50" t="s">
         <v>30</v>
       </c>
       <c r="M8" s="14"/>
     </row>
     <row r="9">
       <c r="A9" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="B9" s="52" t="s">
-        <v>343</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="55" t="s">
-        <v>129</v>
+        <v>344</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>345</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="D9" s="34"/>
+      <c r="E9" s="58" t="s">
+        <v>131</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>345</v>
-      </c>
-      <c r="H9" s="42"/>
+        <v>347</v>
+      </c>
+      <c r="H9" s="45"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
-      <c r="L9" s="47" t="s">
-        <v>346</v>
+      <c r="K9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" s="50" t="s">
+        <v>348</v>
       </c>
       <c r="M9" s="14"/>
     </row>
     <row r="10">
-      <c r="A10" s="56" t="s">
-        <v>347</v>
-      </c>
-      <c r="B10" s="57" t="s">
-        <v>348</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>319</v>
-      </c>
-      <c r="D10" s="59"/>
-      <c r="E10" s="56" t="s">
-        <v>129</v>
-      </c>
-      <c r="F10" s="56" t="s">
-        <v>271</v>
-      </c>
-      <c r="G10" s="56" t="s">
+      <c r="A10" s="59" t="s">
         <v>349</v>
       </c>
-      <c r="H10" s="60"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="63" t="s">
+      <c r="B10" s="60" t="s">
+        <v>350</v>
+      </c>
+      <c r="C10" s="61" t="s">
+        <v>321</v>
+      </c>
+      <c r="D10" s="62"/>
+      <c r="E10" s="59" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="59" t="s">
+        <v>273</v>
+      </c>
+      <c r="G10" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="H10" s="63"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="L10" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="M10" s="61"/>
+      <c r="M10" s="64"/>
     </row>
     <row r="11">
       <c r="A11" s="21" t="s">
-        <v>350</v>
-      </c>
-      <c r="B11" s="52" t="s">
-        <v>351</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="21">
-        <v>229.0</v>
+        <v>352</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>353</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="D11" s="34"/>
+      <c r="E11" s="58" t="s">
+        <v>131</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>352</v>
-      </c>
-      <c r="H11" s="42"/>
+        <v>354</v>
+      </c>
+      <c r="H11" s="45"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
+      <c r="K11" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="L11" s="15" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M11" s="14"/>
     </row>
     <row r="12">
-      <c r="A12" s="64" t="s">
-        <v>354</v>
-      </c>
-      <c r="B12" s="52" t="s">
-        <v>355</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="21">
+      <c r="A12" s="66" t="s">
+        <v>356</v>
+      </c>
+      <c r="B12" s="55" t="s">
+        <v>357</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="D12" s="34"/>
+      <c r="E12" s="58">
         <v>229.0</v>
       </c>
-      <c r="F12" s="21" t="s">
-        <v>272</v>
+      <c r="F12" s="58" t="s">
+        <v>351</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>356</v>
-      </c>
-      <c r="H12" s="42"/>
+        <v>358</v>
+      </c>
+      <c r="H12" s="45"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
-      <c r="L12" s="47" t="s">
-        <v>357</v>
+      <c r="K12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="50" t="s">
+        <v>359</v>
       </c>
       <c r="M12" s="14"/>
     </row>
     <row r="13">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="66" t="s">
+        <v>360</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>361</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="D13" s="34"/>
+      <c r="E13" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="21" t="s">
         <v>358</v>
       </c>
-      <c r="B13" s="52" t="s">
-        <v>359</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>356</v>
-      </c>
       <c r="G13" s="21" t="s">
-        <v>360</v>
-      </c>
-      <c r="H13" s="42"/>
+        <v>362</v>
+      </c>
+      <c r="H13" s="45"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
-      <c r="K13" s="47" t="s">
-        <v>361</v>
-      </c>
-      <c r="L13" s="65" t="s">
-        <v>362</v>
+      <c r="K13" s="50" t="s">
+        <v>363</v>
+      </c>
+      <c r="L13" s="67" t="s">
+        <v>364</v>
       </c>
       <c r="M13" s="14"/>
     </row>
     <row r="14">
-      <c r="A14" s="64" t="s">
-        <v>363</v>
-      </c>
-      <c r="B14" s="52" t="s">
-        <v>364</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="D14" s="31"/>
+      <c r="A14" s="66" t="s">
+        <v>365</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>366</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="D14" s="34"/>
       <c r="E14" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="H14" s="42"/>
+        <v>367</v>
+      </c>
+      <c r="H14" s="45"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
-      <c r="K14" s="47" t="s">
-        <v>366</v>
-      </c>
-      <c r="L14" s="65" t="s">
-        <v>367</v>
+      <c r="K14" s="50" t="s">
+        <v>368</v>
+      </c>
+      <c r="L14" s="67" t="s">
+        <v>369</v>
       </c>
       <c r="M14" s="14"/>
     </row>
     <row r="15">
-      <c r="A15" s="64" t="s">
-        <v>368</v>
-      </c>
-      <c r="B15" s="52" t="s">
-        <v>369</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="D15" s="31"/>
+      <c r="A15" s="66" t="s">
+        <v>370</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>371</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="D15" s="34"/>
       <c r="E15" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="H15" s="42"/>
+        <v>372</v>
+      </c>
+      <c r="H15" s="45"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
-      <c r="K15" s="47" t="s">
-        <v>371</v>
-      </c>
-      <c r="L15" s="65" t="s">
-        <v>372</v>
+      <c r="K15" s="50" t="s">
+        <v>373</v>
+      </c>
+      <c r="L15" s="67" t="s">
+        <v>374</v>
       </c>
       <c r="M15" s="14"/>
     </row>
     <row r="16">
-      <c r="A16" s="64" t="s">
-        <v>373</v>
-      </c>
-      <c r="B16" s="52" t="s">
-        <v>374</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="D16" s="31"/>
+      <c r="A16" s="66" t="s">
+        <v>375</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>376</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="D16" s="34"/>
       <c r="E16" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="H16" s="42"/>
+        <v>377</v>
+      </c>
+      <c r="H16" s="45"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
-      <c r="K16" s="47" t="s">
-        <v>376</v>
-      </c>
-      <c r="L16" s="65" t="s">
-        <v>377</v>
+      <c r="K16" s="50" t="s">
+        <v>378</v>
+      </c>
+      <c r="L16" s="67" t="s">
+        <v>379</v>
       </c>
       <c r="M16" s="14"/>
     </row>
     <row r="17">
-      <c r="A17" s="64" t="s">
-        <v>378</v>
-      </c>
-      <c r="B17" s="52" t="s">
-        <v>379</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="D17" s="31"/>
+      <c r="A17" s="66" t="s">
+        <v>380</v>
+      </c>
+      <c r="B17" s="55" t="s">
+        <v>381</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="D17" s="34"/>
       <c r="E17" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>380</v>
-      </c>
-      <c r="H17" s="42"/>
+        <v>382</v>
+      </c>
+      <c r="H17" s="45"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
-      <c r="K17" s="47" t="s">
-        <v>361</v>
-      </c>
-      <c r="L17" s="65" t="s">
-        <v>381</v>
+      <c r="K17" s="50" t="s">
+        <v>363</v>
+      </c>
+      <c r="L17" s="67" t="s">
+        <v>383</v>
       </c>
       <c r="M17" s="14"/>
     </row>
     <row r="18">
-      <c r="A18" s="64" t="s">
-        <v>382</v>
-      </c>
-      <c r="B18" s="52" t="s">
-        <v>383</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="D18" s="31"/>
+      <c r="A18" s="66" t="s">
+        <v>384</v>
+      </c>
+      <c r="B18" s="55" t="s">
+        <v>385</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="D18" s="34"/>
       <c r="E18" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>384</v>
-      </c>
-      <c r="H18" s="42"/>
+        <v>386</v>
+      </c>
+      <c r="H18" s="45"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
-      <c r="K18" s="47" t="s">
-        <v>366</v>
-      </c>
-      <c r="L18" s="65" t="s">
-        <v>385</v>
+      <c r="K18" s="50" t="s">
+        <v>368</v>
+      </c>
+      <c r="L18" s="67" t="s">
+        <v>387</v>
       </c>
       <c r="M18" s="14"/>
     </row>
     <row r="19">
-      <c r="A19" s="64" t="s">
-        <v>386</v>
-      </c>
-      <c r="B19" s="52" t="s">
-        <v>387</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="D19" s="31"/>
+      <c r="A19" s="66" t="s">
+        <v>388</v>
+      </c>
+      <c r="B19" s="55" t="s">
+        <v>389</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="D19" s="34"/>
       <c r="E19" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>388</v>
-      </c>
-      <c r="H19" s="42"/>
+        <v>390</v>
+      </c>
+      <c r="H19" s="45"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
-      <c r="K19" s="47" t="s">
-        <v>371</v>
-      </c>
-      <c r="L19" s="65" t="s">
-        <v>389</v>
+      <c r="K19" s="50" t="s">
+        <v>373</v>
+      </c>
+      <c r="L19" s="67" t="s">
+        <v>391</v>
       </c>
       <c r="M19" s="14"/>
     </row>
     <row r="20">
-      <c r="A20" s="64" t="s">
-        <v>390</v>
-      </c>
-      <c r="B20" s="52" t="s">
-        <v>391</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="D20" s="31"/>
+      <c r="A20" s="66" t="s">
+        <v>392</v>
+      </c>
+      <c r="B20" s="55" t="s">
+        <v>393</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="D20" s="34"/>
       <c r="E20" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>392</v>
-      </c>
-      <c r="H20" s="42"/>
+        <v>394</v>
+      </c>
+      <c r="H20" s="45"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
-      <c r="K20" s="47" t="s">
-        <v>376</v>
-      </c>
-      <c r="L20" s="65" t="s">
-        <v>393</v>
+      <c r="K20" s="50" t="s">
+        <v>378</v>
+      </c>
+      <c r="L20" s="67" t="s">
+        <v>395</v>
       </c>
       <c r="M20" s="14"/>
     </row>
     <row r="21">
-      <c r="A21" s="64" t="s">
-        <v>394</v>
-      </c>
-      <c r="B21" s="52" t="s">
-        <v>395</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="D21" s="31"/>
+      <c r="A21" s="66" t="s">
+        <v>396</v>
+      </c>
+      <c r="B21" s="55" t="s">
+        <v>397</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="D21" s="34"/>
       <c r="E21" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>396</v>
-      </c>
-      <c r="H21" s="42"/>
+        <v>398</v>
+      </c>
+      <c r="H21" s="45"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
-      <c r="K21" s="47" t="s">
-        <v>397</v>
-      </c>
-      <c r="L21" s="65" t="s">
-        <v>398</v>
+      <c r="K21" s="50" t="s">
+        <v>399</v>
+      </c>
+      <c r="L21" s="67" t="s">
+        <v>400</v>
       </c>
       <c r="M21" s="14"/>
     </row>
     <row r="22">
-      <c r="A22" s="64" t="s">
-        <v>399</v>
-      </c>
-      <c r="B22" s="52" t="s">
-        <v>400</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="D22" s="31"/>
+      <c r="A22" s="66" t="s">
+        <v>401</v>
+      </c>
+      <c r="B22" s="55" t="s">
+        <v>402</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="D22" s="34"/>
       <c r="E22" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="H22" s="42"/>
+        <v>403</v>
+      </c>
+      <c r="H22" s="45"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
-      <c r="K22" s="47" t="s">
-        <v>402</v>
-      </c>
-      <c r="L22" s="65" t="s">
-        <v>403</v>
+      <c r="K22" s="50" t="s">
+        <v>404</v>
+      </c>
+      <c r="L22" s="67" t="s">
+        <v>405</v>
       </c>
       <c r="M22" s="14"/>
     </row>
     <row r="23">
       <c r="A23" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="B23" s="52" t="s">
-        <v>405</v>
-      </c>
-      <c r="C23" s="53" t="s">
-        <v>319</v>
-      </c>
-      <c r="D23" s="66"/>
+        <v>406</v>
+      </c>
+      <c r="B23" s="55" t="s">
+        <v>407</v>
+      </c>
+      <c r="C23" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="D23" s="68"/>
       <c r="E23" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="H23" s="42"/>
-      <c r="I23" s="67"/>
+        <v>408</v>
+      </c>
+      <c r="H23" s="45"/>
+      <c r="I23" s="69"/>
       <c r="J23" s="14"/>
-      <c r="K23" s="47">
+      <c r="K23" s="50">
         <v>0.0</v>
       </c>
-      <c r="L23" s="65" t="s">
+      <c r="L23" s="67" t="s">
         <v>30</v>
       </c>
       <c r="M23" s="14"/>
     </row>
     <row r="24">
       <c r="A24" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="B24" s="52" t="s">
-        <v>408</v>
-      </c>
-      <c r="C24" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="D24" s="66"/>
+        <v>409</v>
+      </c>
+      <c r="B24" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="C24" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="D24" s="68"/>
       <c r="E24" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>409</v>
-      </c>
-      <c r="H24" s="42"/>
-      <c r="I24" s="67"/>
+        <v>411</v>
+      </c>
+      <c r="H24" s="45"/>
+      <c r="I24" s="69"/>
       <c r="J24" s="14"/>
-      <c r="K24" s="47" t="s">
+      <c r="K24" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="L24" s="65" t="s">
-        <v>410</v>
+      <c r="L24" s="67" t="s">
+        <v>412</v>
       </c>
       <c r="M24" s="14"/>
     </row>
     <row r="25">
       <c r="A25" s="21" t="s">
-        <v>411</v>
-      </c>
-      <c r="B25" s="52" t="s">
-        <v>412</v>
-      </c>
-      <c r="C25" s="53" t="s">
-        <v>319</v>
-      </c>
-      <c r="D25" s="66"/>
+        <v>413</v>
+      </c>
+      <c r="B25" s="55" t="s">
+        <v>414</v>
+      </c>
+      <c r="C25" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="D25" s="68"/>
       <c r="E25" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>413</v>
-      </c>
-      <c r="H25" s="42"/>
-      <c r="I25" s="67"/>
+        <v>415</v>
+      </c>
+      <c r="H25" s="45"/>
+      <c r="I25" s="69"/>
       <c r="J25" s="14"/>
-      <c r="K25" s="47">
+      <c r="K25" s="50">
         <v>0.0</v>
       </c>
-      <c r="L25" s="65" t="s">
+      <c r="L25" s="67" t="s">
         <v>38</v>
       </c>
       <c r="M25" s="14"/>
     </row>
     <row r="26">
       <c r="A26" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="B26" s="52" t="s">
-        <v>415</v>
-      </c>
-      <c r="C26" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="D26" s="31"/>
+        <v>416</v>
+      </c>
+      <c r="B26" s="55" t="s">
+        <v>417</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="D26" s="34"/>
       <c r="E26" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>416</v>
-      </c>
-      <c r="H26" s="42"/>
+        <v>418</v>
+      </c>
+      <c r="H26" s="45"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
-      <c r="K26" s="47" t="s">
-        <v>417</v>
-      </c>
-      <c r="L26" s="68" t="s">
-        <v>418</v>
+      <c r="K26" s="50" t="s">
+        <v>419</v>
+      </c>
+      <c r="L26" s="70" t="s">
+        <v>420</v>
       </c>
       <c r="M26" s="14"/>
     </row>
     <row r="27">
       <c r="A27" s="15" t="s">
-        <v>419</v>
-      </c>
-      <c r="B27" s="52" t="s">
-        <v>420</v>
-      </c>
-      <c r="C27" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="D27" s="31"/>
+        <v>421</v>
+      </c>
+      <c r="B27" s="55" t="s">
+        <v>422</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="D27" s="34"/>
       <c r="E27" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>421</v>
-      </c>
-      <c r="H27" s="42"/>
+        <v>423</v>
+      </c>
+      <c r="H27" s="45"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
-      <c r="K27" s="47">
+      <c r="K27" s="50">
         <v>0.0</v>
       </c>
-      <c r="L27" s="65" t="s">
+      <c r="L27" s="67" t="s">
         <v>38</v>
       </c>
       <c r="M27" s="14"/>
     </row>
     <row r="28">
       <c r="A28" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="B28" s="52" t="s">
-        <v>423</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="D28" s="31"/>
+        <v>424</v>
+      </c>
+      <c r="B28" s="55" t="s">
+        <v>425</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="D28" s="34"/>
       <c r="E28" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>424</v>
-      </c>
-      <c r="H28" s="42"/>
+        <v>426</v>
+      </c>
+      <c r="H28" s="45"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
-      <c r="K28" s="47" t="s">
-        <v>417</v>
-      </c>
-      <c r="L28" s="65" t="s">
-        <v>425</v>
+      <c r="K28" s="50" t="s">
+        <v>419</v>
+      </c>
+      <c r="L28" s="67" t="s">
+        <v>427</v>
       </c>
       <c r="M28" s="14"/>
     </row>
     <row r="29">
       <c r="A29" s="21" t="s">
-        <v>426</v>
-      </c>
-      <c r="B29" s="52" t="s">
-        <v>427</v>
-      </c>
-      <c r="C29" s="53" t="s">
-        <v>319</v>
-      </c>
-      <c r="D29" s="66"/>
+        <v>428</v>
+      </c>
+      <c r="B29" s="55" t="s">
+        <v>429</v>
+      </c>
+      <c r="C29" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="D29" s="68"/>
       <c r="E29" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="H29" s="42"/>
-      <c r="I29" s="67"/>
+        <v>430</v>
+      </c>
+      <c r="H29" s="45"/>
+      <c r="I29" s="69"/>
       <c r="J29" s="14"/>
-      <c r="K29" s="47">
+      <c r="K29" s="50">
         <v>0.0</v>
       </c>
-      <c r="L29" s="65" t="s">
+      <c r="L29" s="67" t="s">
         <v>38</v>
       </c>
       <c r="M29" s="14"/>
     </row>
     <row r="30">
       <c r="A30" s="21" t="s">
-        <v>429</v>
-      </c>
-      <c r="B30" s="52" t="s">
-        <v>430</v>
-      </c>
-      <c r="C30" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="D30" s="31"/>
+        <v>431</v>
+      </c>
+      <c r="B30" s="55" t="s">
+        <v>432</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="D30" s="34"/>
       <c r="E30" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>431</v>
-      </c>
-      <c r="H30" s="42"/>
+        <v>433</v>
+      </c>
+      <c r="H30" s="45"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
-      <c r="K30" s="47" t="s">
-        <v>417</v>
-      </c>
-      <c r="L30" s="65" t="s">
-        <v>432</v>
+      <c r="K30" s="50" t="s">
+        <v>419</v>
+      </c>
+      <c r="L30" s="67" t="s">
+        <v>434</v>
       </c>
       <c r="M30" s="14"/>
     </row>
     <row r="31">
       <c r="A31" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="B31" s="52" t="s">
-        <v>434</v>
-      </c>
-      <c r="C31" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="D31" s="31"/>
+        <v>435</v>
+      </c>
+      <c r="B31" s="55" t="s">
+        <v>436</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="D31" s="34"/>
       <c r="E31" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>435</v>
-      </c>
-      <c r="H31" s="42"/>
+        <v>437</v>
+      </c>
+      <c r="H31" s="45"/>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
-      <c r="K31" s="47">
+      <c r="K31" s="50">
         <v>0.0</v>
       </c>
-      <c r="L31" s="65" t="s">
+      <c r="L31" s="67" t="s">
         <v>38</v>
       </c>
       <c r="M31" s="14"/>
     </row>
     <row r="32">
       <c r="A32" s="21" t="s">
-        <v>436</v>
-      </c>
-      <c r="B32" s="52" t="s">
-        <v>437</v>
-      </c>
-      <c r="C32" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="D32" s="31"/>
+        <v>438</v>
+      </c>
+      <c r="B32" s="55" t="s">
+        <v>439</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="D32" s="34"/>
       <c r="E32" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>438</v>
-      </c>
-      <c r="H32" s="42"/>
+        <v>440</v>
+      </c>
+      <c r="H32" s="45"/>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
-      <c r="K32" s="47" t="s">
-        <v>417</v>
-      </c>
-      <c r="L32" s="65" t="s">
-        <v>432</v>
+      <c r="K32" s="50" t="s">
+        <v>419</v>
+      </c>
+      <c r="L32" s="67" t="s">
+        <v>434</v>
       </c>
       <c r="M32" s="14"/>
     </row>
     <row r="33">
       <c r="A33" s="21" t="s">
-        <v>439</v>
-      </c>
-      <c r="B33" s="52" t="s">
-        <v>440</v>
-      </c>
-      <c r="C33" s="53" t="s">
-        <v>319</v>
-      </c>
-      <c r="D33" s="66"/>
+        <v>441</v>
+      </c>
+      <c r="B33" s="55" t="s">
+        <v>442</v>
+      </c>
+      <c r="C33" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="D33" s="68"/>
       <c r="E33" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>441</v>
-      </c>
-      <c r="H33" s="42"/>
-      <c r="I33" s="67"/>
+        <v>443</v>
+      </c>
+      <c r="H33" s="45"/>
+      <c r="I33" s="69"/>
       <c r="J33" s="14"/>
-      <c r="K33" s="47">
+      <c r="K33" s="50">
         <v>6.0</v>
       </c>
-      <c r="L33" s="65" t="s">
+      <c r="L33" s="67" t="s">
         <v>83</v>
       </c>
       <c r="M33" s="14"/>
     </row>
     <row r="34">
       <c r="A34" s="23" t="s">
-        <v>442</v>
-      </c>
-      <c r="B34" s="57" t="s">
-        <v>443</v>
-      </c>
-      <c r="C34" s="58" t="s">
-        <v>323</v>
-      </c>
-      <c r="D34" s="69"/>
+        <v>444</v>
+      </c>
+      <c r="B34" s="60" t="s">
+        <v>445</v>
+      </c>
+      <c r="C34" s="61" t="s">
+        <v>325</v>
+      </c>
+      <c r="D34" s="71"/>
       <c r="E34" s="25">
         <v>229.0</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>444</v>
-      </c>
-      <c r="H34" s="70"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="72" t="s">
-        <v>445</v>
-      </c>
-      <c r="L34" s="73" t="s">
         <v>446</v>
       </c>
-      <c r="M34" s="71"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="73"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="74" t="s">
+        <v>447</v>
+      </c>
+      <c r="L34" s="75" t="s">
+        <v>448</v>
+      </c>
+      <c r="M34" s="73"/>
     </row>
     <row r="35">
       <c r="A35" s="23" t="s">
-        <v>447</v>
-      </c>
-      <c r="B35" s="57" t="s">
+        <v>449</v>
+      </c>
+      <c r="B35" s="60" t="s">
+        <v>450</v>
+      </c>
+      <c r="C35" s="61" t="s">
+        <v>325</v>
+      </c>
+      <c r="D35" s="71"/>
+      <c r="E35" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="F35" s="59" t="s">
+        <v>446</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>451</v>
+      </c>
+      <c r="H35" s="72"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="76" t="s">
+        <v>452</v>
+      </c>
+      <c r="L35" s="75" t="s">
         <v>448</v>
       </c>
-      <c r="C35" s="58" t="s">
-        <v>323</v>
-      </c>
-      <c r="D35" s="69"/>
-      <c r="E35" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="F35" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="G35" s="23" t="s">
-        <v>449</v>
-      </c>
-      <c r="H35" s="70"/>
-      <c r="I35" s="71"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="24" t="s">
-        <v>450</v>
-      </c>
-      <c r="L35" s="73" t="s">
-        <v>446</v>
-      </c>
-      <c r="M35" s="71"/>
+      <c r="M35" s="73"/>
     </row>
     <row r="36">
       <c r="A36" s="21" t="s">
-        <v>451</v>
-      </c>
-      <c r="B36" s="52" t="s">
-        <v>452</v>
-      </c>
-      <c r="C36" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="D36" s="66"/>
+        <v>453</v>
+      </c>
+      <c r="B36" s="55" t="s">
+        <v>454</v>
+      </c>
+      <c r="C36" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="D36" s="68"/>
       <c r="E36" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="F36" s="21" t="s">
-        <v>296</v>
+        <v>131</v>
+      </c>
+      <c r="F36" s="58" t="s">
+        <v>446</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>453</v>
-      </c>
-      <c r="H36" s="42"/>
-      <c r="I36" s="67"/>
+        <v>455</v>
+      </c>
+      <c r="H36" s="45"/>
+      <c r="I36" s="69"/>
       <c r="J36" s="14"/>
-      <c r="K36" s="47" t="s">
-        <v>454</v>
-      </c>
-      <c r="L36" s="65" t="s">
-        <v>455</v>
+      <c r="K36" s="50" t="s">
+        <v>456</v>
+      </c>
+      <c r="L36" s="67" t="s">
+        <v>457</v>
       </c>
       <c r="M36" s="14"/>
     </row>
     <row r="37">
       <c r="A37" s="15" t="s">
-        <v>456</v>
-      </c>
-      <c r="B37" s="52" t="s">
-        <v>457</v>
-      </c>
-      <c r="C37" s="53" t="s">
-        <v>319</v>
-      </c>
-      <c r="D37" s="66"/>
+        <v>458</v>
+      </c>
+      <c r="B37" s="55" t="s">
+        <v>459</v>
+      </c>
+      <c r="C37" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="D37" s="68"/>
       <c r="E37" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>458</v>
-      </c>
-      <c r="H37" s="42"/>
-      <c r="I37" s="67"/>
+        <v>460</v>
+      </c>
+      <c r="H37" s="45"/>
+      <c r="I37" s="69"/>
       <c r="J37" s="14"/>
-      <c r="K37" s="47">
+      <c r="K37" s="50">
         <v>6.0</v>
       </c>
-      <c r="L37" s="74" t="s">
+      <c r="L37" s="77" t="s">
         <v>83</v>
       </c>
       <c r="M37" s="14"/>
     </row>
     <row r="38">
       <c r="A38" s="15" t="s">
-        <v>459</v>
-      </c>
-      <c r="B38" s="52" t="s">
-        <v>460</v>
-      </c>
-      <c r="C38" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="D38" s="66"/>
+        <v>461</v>
+      </c>
+      <c r="B38" s="55" t="s">
+        <v>462</v>
+      </c>
+      <c r="C38" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="D38" s="68"/>
       <c r="E38" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>461</v>
-      </c>
-      <c r="H38" s="42"/>
-      <c r="I38" s="67"/>
+        <v>463</v>
+      </c>
+      <c r="H38" s="45"/>
+      <c r="I38" s="69"/>
       <c r="J38" s="14"/>
-      <c r="K38" s="47" t="s">
-        <v>445</v>
-      </c>
-      <c r="L38" s="74" t="s">
-        <v>462</v>
+      <c r="K38" s="50" t="s">
+        <v>447</v>
+      </c>
+      <c r="L38" s="77" t="s">
+        <v>464</v>
       </c>
       <c r="M38" s="14"/>
     </row>
     <row r="39">
       <c r="A39" s="15" t="s">
-        <v>463</v>
-      </c>
-      <c r="B39" s="52" t="s">
+        <v>465</v>
+      </c>
+      <c r="B39" s="55" t="s">
+        <v>466</v>
+      </c>
+      <c r="C39" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="D39" s="68"/>
+      <c r="E39" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="H39" s="45"/>
+      <c r="I39" s="69"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="50" t="s">
+        <v>452</v>
+      </c>
+      <c r="L39" s="77" t="s">
         <v>464</v>
-      </c>
-      <c r="C39" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="D39" s="66"/>
-      <c r="E39" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="F39" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="G39" s="21" t="s">
-        <v>465</v>
-      </c>
-      <c r="H39" s="42"/>
-      <c r="I39" s="67"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="47" t="s">
-        <v>450</v>
-      </c>
-      <c r="L39" s="74" t="s">
-        <v>462</v>
       </c>
       <c r="M39" s="14"/>
     </row>
     <row r="40">
       <c r="A40" s="15" t="s">
-        <v>466</v>
-      </c>
-      <c r="B40" s="52" t="s">
-        <v>467</v>
-      </c>
-      <c r="C40" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="D40" s="31"/>
+        <v>468</v>
+      </c>
+      <c r="B40" s="55" t="s">
+        <v>469</v>
+      </c>
+      <c r="C40" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="D40" s="34"/>
       <c r="E40" s="15">
         <v>229.0</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G40" s="21" t="s">
-        <v>468</v>
-      </c>
-      <c r="H40" s="42"/>
+        <v>470</v>
+      </c>
+      <c r="H40" s="45"/>
       <c r="I40" s="14"/>
       <c r="J40" s="14"/>
-      <c r="K40" s="47" t="s">
-        <v>450</v>
-      </c>
-      <c r="L40" s="48" t="s">
-        <v>462</v>
+      <c r="K40" s="50" t="s">
+        <v>452</v>
+      </c>
+      <c r="L40" s="51" t="s">
+        <v>464</v>
       </c>
       <c r="M40" s="14"/>
     </row>
     <row r="41">
       <c r="A41" s="15" t="s">
-        <v>469</v>
-      </c>
-      <c r="B41" s="52" t="s">
+        <v>471</v>
+      </c>
+      <c r="B41" s="55" t="s">
+        <v>472</v>
+      </c>
+      <c r="C41" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="D41" s="34"/>
+      <c r="E41" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="F41" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="C41" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="D41" s="31"/>
-      <c r="E41" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="F41" s="21" t="s">
-        <v>468</v>
-      </c>
       <c r="G41" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="H41" s="42"/>
+        <v>473</v>
+      </c>
+      <c r="H41" s="45"/>
       <c r="I41" s="14"/>
       <c r="J41" s="14"/>
-      <c r="K41" s="47" t="s">
-        <v>472</v>
-      </c>
-      <c r="L41" s="65" t="s">
-        <v>473</v>
+      <c r="K41" s="50" t="s">
+        <v>474</v>
+      </c>
+      <c r="L41" s="67" t="s">
+        <v>475</v>
       </c>
       <c r="M41" s="14"/>
     </row>
     <row r="42">
       <c r="A42" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="B42" s="52" t="s">
-        <v>475</v>
-      </c>
-      <c r="C42" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="D42" s="31"/>
+        <v>476</v>
+      </c>
+      <c r="B42" s="55" t="s">
+        <v>477</v>
+      </c>
+      <c r="C42" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="D42" s="34"/>
       <c r="E42" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G42" s="21" t="s">
-        <v>476</v>
-      </c>
-      <c r="H42" s="42"/>
+        <v>478</v>
+      </c>
+      <c r="H42" s="45"/>
       <c r="I42" s="14"/>
       <c r="J42" s="14"/>
-      <c r="K42" s="47" t="s">
-        <v>472</v>
-      </c>
-      <c r="L42" s="65" t="s">
-        <v>473</v>
+      <c r="K42" s="50" t="s">
+        <v>474</v>
+      </c>
+      <c r="L42" s="67" t="s">
+        <v>475</v>
       </c>
       <c r="M42" s="14"/>
     </row>
     <row r="43">
       <c r="A43" s="15" t="s">
-        <v>477</v>
-      </c>
-      <c r="B43" s="52" t="s">
-        <v>478</v>
-      </c>
-      <c r="C43" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="D43" s="31"/>
+        <v>479</v>
+      </c>
+      <c r="B43" s="55" t="s">
+        <v>480</v>
+      </c>
+      <c r="C43" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="D43" s="34"/>
       <c r="E43" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G43" s="21" t="s">
-        <v>479</v>
-      </c>
-      <c r="H43" s="42"/>
+        <v>481</v>
+      </c>
+      <c r="H43" s="45"/>
       <c r="I43" s="14"/>
       <c r="J43" s="14"/>
-      <c r="K43" s="47" t="s">
-        <v>472</v>
-      </c>
-      <c r="L43" s="65" t="s">
-        <v>473</v>
+      <c r="K43" s="50" t="s">
+        <v>474</v>
+      </c>
+      <c r="L43" s="67" t="s">
+        <v>475</v>
       </c>
       <c r="M43" s="14"/>
     </row>
     <row r="44">
       <c r="A44" s="15" t="s">
-        <v>480</v>
-      </c>
-      <c r="B44" s="52" t="s">
-        <v>481</v>
-      </c>
-      <c r="C44" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="D44" s="31"/>
+        <v>482</v>
+      </c>
+      <c r="B44" s="55" t="s">
+        <v>483</v>
+      </c>
+      <c r="C44" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="D44" s="34"/>
       <c r="E44" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G44" s="21" t="s">
-        <v>482</v>
-      </c>
-      <c r="H44" s="42"/>
+        <v>484</v>
+      </c>
+      <c r="H44" s="45"/>
       <c r="I44" s="14"/>
       <c r="J44" s="14"/>
-      <c r="K44" s="47">
+      <c r="K44" s="50">
         <v>6.0</v>
       </c>
-      <c r="L44" s="65" t="s">
+      <c r="L44" s="67" t="s">
         <v>83</v>
       </c>
       <c r="M44" s="14"/>
     </row>
     <row r="45">
       <c r="A45" s="15" t="s">
-        <v>483</v>
-      </c>
-      <c r="B45" s="52" t="s">
-        <v>484</v>
-      </c>
-      <c r="C45" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="D45" s="31"/>
+        <v>485</v>
+      </c>
+      <c r="B45" s="55" t="s">
+        <v>486</v>
+      </c>
+      <c r="C45" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="D45" s="34"/>
       <c r="E45" s="21">
         <v>229.0</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G45" s="21" t="s">
-        <v>485</v>
-      </c>
-      <c r="H45" s="42"/>
+        <v>487</v>
+      </c>
+      <c r="H45" s="45"/>
       <c r="I45" s="14"/>
       <c r="J45" s="14"/>
-      <c r="K45" s="47" t="s">
-        <v>445</v>
-      </c>
-      <c r="L45" s="65" t="s">
-        <v>462</v>
+      <c r="K45" s="50" t="s">
+        <v>447</v>
+      </c>
+      <c r="L45" s="67" t="s">
+        <v>464</v>
       </c>
       <c r="M45" s="14"/>
     </row>
     <row r="46">
       <c r="A46" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="B46" s="52" t="s">
+        <v>488</v>
+      </c>
+      <c r="B46" s="55" t="s">
+        <v>489</v>
+      </c>
+      <c r="C46" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="D46" s="34"/>
+      <c r="E46" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="F46" s="21" t="s">
         <v>487</v>
       </c>
-      <c r="C46" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="D46" s="31"/>
-      <c r="E46" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="F46" s="21" t="s">
-        <v>485</v>
-      </c>
       <c r="G46" s="21" t="s">
-        <v>488</v>
-      </c>
-      <c r="H46" s="42"/>
+        <v>490</v>
+      </c>
+      <c r="H46" s="45"/>
       <c r="I46" s="14"/>
       <c r="J46" s="14"/>
-      <c r="K46" s="47">
+      <c r="K46" s="50">
         <v>7.0</v>
       </c>
-      <c r="L46" s="65" t="s">
+      <c r="L46" s="67" t="s">
         <v>83</v>
       </c>
       <c r="M46" s="14"/>
     </row>
     <row r="47">
       <c r="A47" s="15" t="s">
-        <v>489</v>
-      </c>
-      <c r="B47" s="52" t="s">
-        <v>490</v>
-      </c>
-      <c r="C47" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="D47" s="31"/>
+        <v>491</v>
+      </c>
+      <c r="B47" s="55" t="s">
+        <v>492</v>
+      </c>
+      <c r="C47" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="D47" s="34"/>
       <c r="E47" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="G47" s="21" t="s">
-        <v>491</v>
-      </c>
-      <c r="H47" s="42"/>
+        <v>493</v>
+      </c>
+      <c r="H47" s="45"/>
       <c r="I47" s="14"/>
       <c r="J47" s="14"/>
-      <c r="K47" s="47">
+      <c r="K47" s="50">
         <v>7.0</v>
       </c>
-      <c r="L47" s="65" t="s">
+      <c r="L47" s="67" t="s">
         <v>83</v>
       </c>
       <c r="M47" s="14"/>
     </row>
     <row r="48">
       <c r="A48" s="15" t="s">
-        <v>492</v>
-      </c>
-      <c r="B48" s="52" t="s">
-        <v>493</v>
-      </c>
-      <c r="C48" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="D48" s="31"/>
+        <v>494</v>
+      </c>
+      <c r="B48" s="55" t="s">
+        <v>495</v>
+      </c>
+      <c r="C48" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="D48" s="34"/>
       <c r="E48" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="G48" s="21" t="s">
-        <v>494</v>
-      </c>
-      <c r="H48" s="42"/>
+        <v>496</v>
+      </c>
+      <c r="H48" s="45"/>
       <c r="I48" s="14"/>
       <c r="J48" s="14"/>
-      <c r="K48" s="47">
+      <c r="K48" s="50">
         <v>7.0</v>
       </c>
-      <c r="L48" s="65" t="s">
+      <c r="L48" s="67" t="s">
         <v>83</v>
       </c>
       <c r="M48" s="14"/>
     </row>
     <row r="49">
       <c r="A49" s="15" t="s">
-        <v>495</v>
-      </c>
-      <c r="B49" s="52" t="s">
-        <v>496</v>
-      </c>
-      <c r="C49" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="D49" s="31"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21" t="s">
-        <v>304</v>
+        <v>497</v>
+      </c>
+      <c r="B49" s="55" t="s">
+        <v>498</v>
+      </c>
+      <c r="C49" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="D49" s="34"/>
+      <c r="E49" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="F49" s="58" t="s">
+        <v>487</v>
       </c>
       <c r="G49" s="21" t="s">
-        <v>497</v>
-      </c>
-      <c r="H49" s="42"/>
+        <v>499</v>
+      </c>
+      <c r="H49" s="45"/>
       <c r="I49" s="14"/>
       <c r="J49" s="14"/>
-      <c r="K49" s="47" t="s">
-        <v>450</v>
-      </c>
-      <c r="L49" s="65" t="s">
-        <v>462</v>
+      <c r="K49" s="50" t="s">
+        <v>452</v>
+      </c>
+      <c r="L49" s="67" t="s">
+        <v>464</v>
       </c>
       <c r="M49" s="14"/>
     </row>
     <row r="50">
       <c r="A50" s="15" t="s">
-        <v>498</v>
-      </c>
-      <c r="B50" s="52" t="s">
+        <v>500</v>
+      </c>
+      <c r="B50" s="55" t="s">
+        <v>501</v>
+      </c>
+      <c r="C50" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="D50" s="34"/>
+      <c r="E50" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="F50" s="21" t="s">
         <v>499</v>
       </c>
-      <c r="C50" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="D50" s="31"/>
-      <c r="E50" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="F50" s="21" t="s">
-        <v>497</v>
-      </c>
       <c r="G50" s="21" t="s">
-        <v>500</v>
-      </c>
-      <c r="H50" s="42"/>
+        <v>502</v>
+      </c>
+      <c r="H50" s="45"/>
       <c r="I50" s="14"/>
       <c r="J50" s="14"/>
-      <c r="K50" s="47">
+      <c r="K50" s="50">
         <v>5.0</v>
       </c>
-      <c r="L50" s="65" t="s">
+      <c r="L50" s="67" t="s">
         <v>83</v>
       </c>
       <c r="M50" s="14"/>
     </row>
     <row r="51">
       <c r="A51" s="15" t="s">
-        <v>501</v>
-      </c>
-      <c r="B51" s="52" t="s">
-        <v>502</v>
-      </c>
-      <c r="C51" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="D51" s="31"/>
+        <v>503</v>
+      </c>
+      <c r="B51" s="55" t="s">
+        <v>504</v>
+      </c>
+      <c r="C51" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="D51" s="34"/>
       <c r="E51" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="G51" s="21" t="s">
-        <v>503</v>
-      </c>
-      <c r="H51" s="42"/>
+        <v>505</v>
+      </c>
+      <c r="H51" s="45"/>
       <c r="I51" s="14"/>
       <c r="J51" s="14"/>
-      <c r="K51" s="47">
+      <c r="K51" s="50">
         <v>5.0</v>
       </c>
-      <c r="L51" s="65" t="s">
+      <c r="L51" s="67" t="s">
         <v>83</v>
       </c>
       <c r="M51" s="14"/>
     </row>
     <row r="52">
       <c r="A52" s="15" t="s">
-        <v>504</v>
-      </c>
-      <c r="B52" s="52" t="s">
-        <v>505</v>
-      </c>
-      <c r="C52" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="D52" s="31"/>
+        <v>506</v>
+      </c>
+      <c r="B52" s="55" t="s">
+        <v>507</v>
+      </c>
+      <c r="C52" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="D52" s="34"/>
       <c r="E52" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="G52" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="H52" s="42"/>
+        <v>508</v>
+      </c>
+      <c r="H52" s="45"/>
       <c r="I52" s="14"/>
       <c r="J52" s="14"/>
-      <c r="K52" s="47">
+      <c r="K52" s="50">
         <v>5.0</v>
       </c>
-      <c r="L52" s="65" t="s">
+      <c r="L52" s="67" t="s">
         <v>83</v>
       </c>
       <c r="M52" s="14"/>
     </row>
     <row r="53">
       <c r="A53" s="15" t="s">
-        <v>507</v>
-      </c>
-      <c r="B53" s="52" t="s">
-        <v>508</v>
-      </c>
-      <c r="C53" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="D53" s="31"/>
+        <v>509</v>
+      </c>
+      <c r="B53" s="55" t="s">
+        <v>510</v>
+      </c>
+      <c r="C53" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="D53" s="34"/>
       <c r="E53" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G53" s="21" t="s">
-        <v>509</v>
-      </c>
-      <c r="H53" s="42"/>
+        <v>511</v>
+      </c>
+      <c r="H53" s="45"/>
       <c r="I53" s="14"/>
       <c r="J53" s="14"/>
-      <c r="K53" s="47">
+      <c r="K53" s="50">
         <v>6.0</v>
       </c>
-      <c r="L53" s="65" t="s">
+      <c r="L53" s="67" t="s">
         <v>83</v>
       </c>
       <c r="M53" s="14"/>
     </row>
     <row r="54">
       <c r="A54" s="15" t="s">
-        <v>510</v>
-      </c>
-      <c r="B54" s="52" t="s">
-        <v>511</v>
-      </c>
-      <c r="C54" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="D54" s="31"/>
+        <v>512</v>
+      </c>
+      <c r="B54" s="55" t="s">
+        <v>513</v>
+      </c>
+      <c r="C54" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="D54" s="34"/>
       <c r="E54" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G54" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="H54" s="42"/>
+        <v>514</v>
+      </c>
+      <c r="H54" s="45"/>
       <c r="I54" s="14"/>
       <c r="J54" s="14"/>
-      <c r="K54" s="47" t="s">
-        <v>445</v>
-      </c>
-      <c r="L54" s="65" t="s">
-        <v>446</v>
+      <c r="K54" s="50" t="s">
+        <v>447</v>
+      </c>
+      <c r="L54" s="67" t="s">
+        <v>448</v>
       </c>
       <c r="M54" s="14"/>
     </row>
     <row r="55">
       <c r="A55" s="15" t="s">
-        <v>513</v>
-      </c>
-      <c r="B55" s="52" t="s">
-        <v>514</v>
-      </c>
-      <c r="C55" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="D55" s="31"/>
+        <v>515</v>
+      </c>
+      <c r="B55" s="55" t="s">
+        <v>516</v>
+      </c>
+      <c r="C55" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="D55" s="34"/>
       <c r="E55" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G55" s="21" t="s">
-        <v>515</v>
-      </c>
-      <c r="H55" s="42"/>
+        <v>517</v>
+      </c>
+      <c r="H55" s="45"/>
       <c r="I55" s="14"/>
       <c r="J55" s="14"/>
-      <c r="K55" s="47" t="s">
-        <v>450</v>
-      </c>
-      <c r="L55" s="65" t="s">
-        <v>446</v>
+      <c r="K55" s="50" t="s">
+        <v>452</v>
+      </c>
+      <c r="L55" s="67" t="s">
+        <v>448</v>
       </c>
       <c r="M55" s="14"/>
     </row>
     <row r="56">
       <c r="A56" s="15" t="s">
-        <v>516</v>
-      </c>
-      <c r="B56" s="52" t="s">
-        <v>517</v>
-      </c>
-      <c r="C56" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="D56" s="31"/>
-      <c r="E56" s="21"/>
+        <v>518</v>
+      </c>
+      <c r="B56" s="55" t="s">
+        <v>519</v>
+      </c>
+      <c r="C56" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="D56" s="34"/>
+      <c r="E56" s="58" t="s">
+        <v>131</v>
+      </c>
       <c r="F56" s="21" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G56" s="21" t="s">
-        <v>518</v>
-      </c>
-      <c r="H56" s="42"/>
+        <v>520</v>
+      </c>
+      <c r="H56" s="45"/>
       <c r="I56" s="14"/>
       <c r="J56" s="14"/>
-      <c r="K56" s="47" t="s">
-        <v>450</v>
-      </c>
-      <c r="L56" s="65" t="s">
-        <v>446</v>
+      <c r="K56" s="50" t="s">
+        <v>452</v>
+      </c>
+      <c r="L56" s="67" t="s">
+        <v>448</v>
       </c>
       <c r="M56" s="14"/>
     </row>
     <row r="57">
       <c r="A57" s="15" t="s">
-        <v>519</v>
-      </c>
-      <c r="B57" s="52" t="s">
+        <v>521</v>
+      </c>
+      <c r="B57" s="55" t="s">
+        <v>522</v>
+      </c>
+      <c r="C57" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="D57" s="34"/>
+      <c r="E57" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="F57" s="21" t="s">
         <v>520</v>
       </c>
-      <c r="C57" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="D57" s="31"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21" t="s">
-        <v>518</v>
-      </c>
       <c r="G57" s="21" t="s">
-        <v>521</v>
-      </c>
-      <c r="H57" s="42"/>
+        <v>523</v>
+      </c>
+      <c r="H57" s="45"/>
       <c r="I57" s="14"/>
       <c r="J57" s="14"/>
-      <c r="K57" s="47" t="s">
-        <v>522</v>
-      </c>
-      <c r="L57" s="65" t="s">
-        <v>523</v>
+      <c r="K57" s="50" t="s">
+        <v>524</v>
+      </c>
+      <c r="L57" s="67" t="s">
+        <v>525</v>
       </c>
       <c r="M57" s="14"/>
     </row>
     <row r="58">
       <c r="A58" s="15" t="s">
-        <v>524</v>
-      </c>
-      <c r="B58" s="52" t="s">
-        <v>525</v>
-      </c>
-      <c r="C58" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="D58" s="31"/>
+        <v>526</v>
+      </c>
+      <c r="B58" s="55" t="s">
+        <v>527</v>
+      </c>
+      <c r="C58" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="D58" s="34"/>
       <c r="E58" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="G58" s="21" t="s">
-        <v>526</v>
-      </c>
-      <c r="H58" s="42"/>
+        <v>528</v>
+      </c>
+      <c r="H58" s="45"/>
       <c r="I58" s="14"/>
       <c r="J58" s="14"/>
-      <c r="K58" s="47" t="s">
-        <v>522</v>
-      </c>
-      <c r="L58" s="65" t="s">
-        <v>523</v>
+      <c r="K58" s="50" t="s">
+        <v>524</v>
+      </c>
+      <c r="L58" s="67" t="s">
+        <v>525</v>
       </c>
       <c r="M58" s="14"/>
     </row>
@@ -6663,20 +6739,20 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
-        <v>527</v>
+      <c r="D1" s="49" t="s">
+        <v>529</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="2">
@@ -6724,17 +6800,17 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="31" t="s">
-        <v>529</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>530</v>
-      </c>
-      <c r="C1" s="31" t="s">
+      <c r="A1" s="34" t="s">
         <v>531</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="B1" s="34" t="s">
         <v>532</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>533</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>534</v>
       </c>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
@@ -6745,17 +6821,17 @@
       <c r="K1" s="14"/>
     </row>
     <row r="2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>533</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>534</v>
-      </c>
-      <c r="D2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>535</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>536</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>537</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
@@ -6792,14 +6868,14 @@
       <c r="K4" s="14"/>
     </row>
     <row r="5">
-      <c r="A5" s="31" t="s">
-        <v>536</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>537</v>
-      </c>
-      <c r="C5" s="31" t="s">
+      <c r="A5" s="34" t="s">
         <v>538</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>539</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>540</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -6811,14 +6887,14 @@
       <c r="K5" s="14"/>
     </row>
     <row r="6">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="31" t="s">
-        <v>539</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>540</v>
+      <c r="B6" s="34" t="s">
+        <v>541</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>542</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -6831,11 +6907,11 @@
     </row>
     <row r="7">
       <c r="A7" s="14"/>
-      <c r="B7" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>540</v>
+      <c r="B7" s="34" t="s">
+        <v>543</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>542</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
@@ -6848,11 +6924,11 @@
     </row>
     <row r="8">
       <c r="A8" s="14"/>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="34" t="s">
+        <v>544</v>
+      </c>
+      <c r="C8" s="34" t="s">
         <v>542</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>540</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
@@ -6865,11 +6941,11 @@
     </row>
     <row r="9">
       <c r="A9" s="14"/>
-      <c r="B9" s="31" t="s">
-        <v>543</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>540</v>
+      <c r="B9" s="34" t="s">
+        <v>545</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>542</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -6895,10 +6971,10 @@
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -6912,10 +6988,10 @@
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>546</v>
-      </c>
-      <c r="B12" s="75" t="s">
-        <v>547</v>
+        <v>548</v>
+      </c>
+      <c r="B12" s="78" t="s">
+        <v>549</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -6929,10 +7005,10 @@
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>548</v>
-      </c>
-      <c r="B13" s="75" t="s">
-        <v>549</v>
+        <v>550</v>
+      </c>
+      <c r="B13" s="78" t="s">
+        <v>551</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -6946,10 +7022,10 @@
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>550</v>
-      </c>
-      <c r="B14" s="75" t="s">
-        <v>551</v>
+        <v>552</v>
+      </c>
+      <c r="B14" s="78" t="s">
+        <v>553</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -6963,10 +7039,10 @@
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>552</v>
-      </c>
-      <c r="B15" s="75" t="s">
-        <v>553</v>
+        <v>554</v>
+      </c>
+      <c r="B15" s="78" t="s">
+        <v>555</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
@@ -6980,10 +7056,10 @@
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
-        <v>554</v>
-      </c>
-      <c r="B16" s="75" t="s">
-        <v>555</v>
+        <v>556</v>
+      </c>
+      <c r="B16" s="78" t="s">
+        <v>557</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
@@ -6997,10 +7073,10 @@
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>556</v>
-      </c>
-      <c r="B17" s="75" t="s">
-        <v>557</v>
+        <v>558</v>
+      </c>
+      <c r="B17" s="78" t="s">
+        <v>559</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -7027,10 +7103,10 @@
     </row>
     <row r="19">
       <c r="A19" s="14" t="s">
-        <v>558</v>
-      </c>
-      <c r="B19" s="76" t="s">
-        <v>559</v>
+        <v>560</v>
+      </c>
+      <c r="B19" s="79" t="s">
+        <v>561</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
@@ -7044,9 +7120,9 @@
     </row>
     <row r="20">
       <c r="A20" s="14" t="s">
-        <v>560</v>
-      </c>
-      <c r="B20" s="77" t="s">
+        <v>562</v>
+      </c>
+      <c r="B20" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="17"/>
@@ -7061,10 +7137,10 @@
     </row>
     <row r="21">
       <c r="A21" s="14" t="s">
-        <v>561</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>562</v>
+        <v>563</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="22">
@@ -7087,36 +7163,36 @@
     </row>
     <row r="28">
       <c r="A28" s="17" t="s">
-        <v>563</v>
-      </c>
-      <c r="B28" s="78" t="s">
-        <v>564</v>
+        <v>565</v>
+      </c>
+      <c r="B28" s="80" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="17" t="s">
-        <v>565</v>
-      </c>
-      <c r="B29" s="79" t="s">
-        <v>566</v>
+        <v>567</v>
+      </c>
+      <c r="B29" s="81" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="17" t="s">
-        <v>567</v>
-      </c>
-      <c r="B30" s="78" t="s">
-        <v>568</v>
+        <v>569</v>
+      </c>
+      <c r="B30" s="80" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="14" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="14" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="33">
@@ -7170,247 +7246,247 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="80" t="s">
-        <v>309</v>
-      </c>
-      <c r="D1" s="80" t="s">
-        <v>571</v>
+      <c r="C1" s="82" t="s">
+        <v>311</v>
+      </c>
+      <c r="D1" s="82" t="s">
+        <v>573</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="H1" s="81" t="s">
-        <v>252</v>
-      </c>
-      <c r="I1" s="31" t="s">
+        <v>576</v>
+      </c>
+      <c r="H1" s="83" t="s">
+        <v>254</v>
+      </c>
+      <c r="I1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="31" t="s">
-        <v>575</v>
+      <c r="J1" s="34" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B15" si="1">CONCATENATE("Neuron ",RIGHT(A2,LEN(A2) - (FIND("-",A2))))</f>
         <v>Neuron 1</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="H2" s="27"/>
+        <v>255</v>
+      </c>
+      <c r="H2" s="28"/>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 2</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="E3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
+        <v>259</v>
+      </c>
+      <c r="E3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 3</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="H4" s="27"/>
+        <v>263</v>
+      </c>
+      <c r="H4" s="28"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B5" s="82" t="str">
+        <v>150</v>
+      </c>
+      <c r="B5" s="84" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 4</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="H5" s="27"/>
+        <v>267</v>
+      </c>
+      <c r="H5" s="28"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B6" s="82" t="str">
+        <v>152</v>
+      </c>
+      <c r="B6" s="84" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 5</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="H6" s="27"/>
+        <v>271</v>
+      </c>
+      <c r="H6" s="28"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B7" s="82" t="str">
+        <v>155</v>
+      </c>
+      <c r="B7" s="84" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 6</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="H7" s="27"/>
+        <v>275</v>
+      </c>
+      <c r="H7" s="28"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B8" s="82" t="str">
+        <v>158</v>
+      </c>
+      <c r="B8" s="84" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 7</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="H8" s="27"/>
+        <v>279</v>
+      </c>
+      <c r="H8" s="28"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B9" s="82" t="str">
+        <v>161</v>
+      </c>
+      <c r="B9" s="84" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 8</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="H9" s="27"/>
+        <v>283</v>
+      </c>
+      <c r="H9" s="28"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B10" s="82" t="str">
+        <v>164</v>
+      </c>
+      <c r="B10" s="84" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 9</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="H10" s="27"/>
+        <v>287</v>
+      </c>
+      <c r="H10" s="28"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B11" s="82" t="str">
+        <v>167</v>
+      </c>
+      <c r="B11" s="84" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 10</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="H11" s="27"/>
+        <v>291</v>
+      </c>
+      <c r="H11" s="28"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B12" s="82" t="str">
+        <v>170</v>
+      </c>
+      <c r="B12" s="84" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 11</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="H12" s="27"/>
+        <v>295</v>
+      </c>
+      <c r="H12" s="28"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B13" s="82" t="str">
+        <v>173</v>
+      </c>
+      <c r="B13" s="84" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 12</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="H13" s="27"/>
+        <v>299</v>
+      </c>
+      <c r="H13" s="28"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B14" s="82" t="str">
+        <v>176</v>
+      </c>
+      <c r="B14" s="84" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 13</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
+        <v>303</v>
+      </c>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B15" s="82" t="str">
+        <v>179</v>
+      </c>
+      <c r="B15" s="84" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 14</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
+        <v>307</v>
+      </c>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -7432,106 +7508,88 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="84" t="s">
-        <v>578</v>
-      </c>
-      <c r="C2" s="85" t="str">
+      <c r="A2" s="86" t="s">
+        <v>580</v>
+      </c>
+      <c r="C2" s="87" t="str">
         <f t="array" ref="C2">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A2,6,LEN(A2))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/12576302</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="86" t="s">
-        <v>579</v>
-      </c>
-      <c r="C3" s="85" t="str">
+      <c r="A3" s="88" t="s">
+        <v>581</v>
+      </c>
+      <c r="C3" s="87" t="str">
         <f t="array" ref="C3">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A3,6,LEN(A3))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/24306100</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="87" t="s">
-        <v>580</v>
-      </c>
-      <c r="C4" s="85" t="str">
+      <c r="A4" s="89" t="s">
+        <v>582</v>
+      </c>
+      <c r="C4" s="87" t="str">
         <f t="array" ref="C4">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A4,6,LEN(A4))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/18924442</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="87" t="s">
-        <v>581</v>
-      </c>
-      <c r="C5" s="85" t="str">
+      <c r="A5" s="89" t="s">
+        <v>583</v>
+      </c>
+      <c r="C5" s="87" t="str">
         <f t="array" ref="C5">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A5,6,LEN(A5))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/23438947</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="87" t="s">
-        <v>582</v>
-      </c>
-      <c r="C6" s="85" t="str">
+      <c r="A6" s="89" t="s">
+        <v>584</v>
+      </c>
+      <c r="C6" s="87" t="str">
         <f t="array" ref="C6">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A6,6,LEN(A6))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/11437981</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="87" t="s">
-        <v>583</v>
-      </c>
-      <c r="C7" s="85" t="str">
+      <c r="A7" s="89" t="s">
+        <v>585</v>
+      </c>
+      <c r="C7" s="87" t="str">
         <f t="array" ref="C7">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A7,6,LEN(A7))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/18364578</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="87" t="s">
-        <v>584</v>
-      </c>
-      <c r="C8" s="85" t="str">
+      <c r="A8" s="89" t="s">
+        <v>586</v>
+      </c>
+      <c r="C8" s="87" t="str">
         <f t="array" ref="C8">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A8,6,LEN(A8))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/2902218</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="87" t="s">
-        <v>579</v>
-      </c>
-      <c r="C9" s="85" t="str">
+      <c r="A9" s="89" t="s">
+        <v>587</v>
+      </c>
+      <c r="C9" s="87" t="str">
         <f t="array" ref="C9">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A9,6,LEN(A9))</f>
-        <v>https://pubmed.ncbi.nlm.nih.gov/24306100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="87" t="s">
-        <v>583</v>
-      </c>
-      <c r="C10" s="85" t="str">
-        <f t="array" ref="C10">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A10,6,LEN(A10))</f>
-        <v>https://pubmed.ncbi.nlm.nih.gov/18364578</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="87" t="s">
-        <v>585</v>
-      </c>
-      <c r="C11" s="85" t="str">
-        <f t="array" ref="C11">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A11,6,LEN(A11))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/18286675</v>
       </c>
     </row>

--- a/models/sawg-stomach/source/sawg-stomach.xlsx
+++ b/models/sawg-stomach/source/sawg-stomach.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="643">
   <si>
     <t>id</t>
   </si>
@@ -1819,6 +1819,48 @@
     <t>seed</t>
   </si>
   <si>
+    <t>ilxtr:neuron-type-sstom-1</t>
+  </si>
+  <si>
+    <t>ilxtr:neuron-type-sstom-2</t>
+  </si>
+  <si>
+    <t>ilxtr:neuron-type-sstom-3</t>
+  </si>
+  <si>
+    <t>ilxtr:neuron-type-sstom-4</t>
+  </si>
+  <si>
+    <t>ilxtr:neuron-type-sstom-5</t>
+  </si>
+  <si>
+    <t>ilxtr:neuron-type-sstom-6</t>
+  </si>
+  <si>
+    <t>ilxtr:neuron-type-sstom-7</t>
+  </si>
+  <si>
+    <t>ilxtr:neuron-type-sstom-8</t>
+  </si>
+  <si>
+    <t>ilxtr:neuron-type-sstom-9</t>
+  </si>
+  <si>
+    <t>ilxtr:neuron-type-sstom-10</t>
+  </si>
+  <si>
+    <t>ilxtr:neuron-type-sstom-11</t>
+  </si>
+  <si>
+    <t>ilxtr:neuron-type-sstom-12</t>
+  </si>
+  <si>
+    <t>ilxtr:neuron-type-sstom-13</t>
+  </si>
+  <si>
+    <t>ilxtr:neuron-type-sstom-14</t>
+  </si>
+  <si>
     <t>uri</t>
   </si>
   <si>
@@ -1931,13 +1973,19 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/XAO_</t>
+  </si>
+  <si>
+    <t>ilxtr</t>
+  </si>
+  <si>
+    <t>http://uri.interlex.org/tgbugs/uris/readable/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2005,9 +2053,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <name val="Arial"/>
-    </font>
-    <font>
       <u/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
@@ -2032,18 +2077,11 @@
     </font>
     <font>
       <u/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
+      <color rgb="FF0000FF"/>
     </font>
     <font>
       <u/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2086,7 +2124,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="82">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2249,9 +2287,6 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2272,9 +2307,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -2297,10 +2329,10 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2310,33 +2342,25 @@
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2589,7 +2613,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="4" width="19.43"/>
+    <col customWidth="1" min="2" max="2" width="30.0"/>
+    <col customWidth="1" min="3" max="4" width="19.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2632,117 +2657,128 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="35.57"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>600</v>
+      <c r="A1" s="78" t="s">
+        <v>613</v>
+      </c>
+      <c r="B1" s="78" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="80" t="s">
-        <v>601</v>
-      </c>
-      <c r="B2" s="81" t="s">
-        <v>602</v>
+      <c r="A2" s="72" t="s">
+        <v>615</v>
+      </c>
+      <c r="B2" s="79" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="80" t="s">
-        <v>603</v>
-      </c>
-      <c r="B3" s="82" t="s">
-        <v>604</v>
+      <c r="A3" s="72" t="s">
+        <v>617</v>
+      </c>
+      <c r="B3" s="79" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="80" t="s">
-        <v>605</v>
-      </c>
-      <c r="B4" s="83" t="s">
-        <v>606</v>
+      <c r="A4" s="72" t="s">
+        <v>619</v>
+      </c>
+      <c r="B4" s="80" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="80" t="s">
-        <v>607</v>
-      </c>
-      <c r="B5" s="83" t="s">
-        <v>608</v>
+      <c r="A5" s="72" t="s">
+        <v>621</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="80" t="s">
-        <v>609</v>
-      </c>
-      <c r="B6" s="83" t="s">
-        <v>610</v>
+      <c r="A6" s="72" t="s">
+        <v>623</v>
+      </c>
+      <c r="B6" s="80" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="80" t="s">
-        <v>611</v>
-      </c>
-      <c r="B7" s="83" t="s">
-        <v>612</v>
+      <c r="A7" s="72" t="s">
+        <v>625</v>
+      </c>
+      <c r="B7" s="80" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="80" t="s">
-        <v>613</v>
-      </c>
-      <c r="B8" s="83" t="s">
-        <v>614</v>
+      <c r="A8" s="72" t="s">
+        <v>627</v>
+      </c>
+      <c r="B8" s="80" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="80" t="s">
-        <v>615</v>
-      </c>
-      <c r="B9" s="83" t="s">
-        <v>616</v>
+      <c r="A9" s="72" t="s">
+        <v>629</v>
+      </c>
+      <c r="B9" s="80" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="80" t="s">
-        <v>617</v>
-      </c>
-      <c r="B10" s="83" t="s">
-        <v>618</v>
+      <c r="A10" s="72" t="s">
+        <v>631</v>
+      </c>
+      <c r="B10" s="80" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="80" t="s">
-        <v>619</v>
-      </c>
-      <c r="B11" s="83" t="s">
-        <v>620</v>
+      <c r="A11" s="72" t="s">
+        <v>633</v>
+      </c>
+      <c r="B11" s="80" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="B12" s="77" t="s">
-        <v>622</v>
+      <c r="A12" s="81" t="s">
+        <v>635</v>
+      </c>
+      <c r="B12" s="79" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="B13" s="77" t="s">
-        <v>624</v>
+      <c r="A13" s="81" t="s">
+        <v>637</v>
+      </c>
+      <c r="B13" s="79" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="B14" s="77" t="s">
-        <v>626</v>
+      <c r="A14" s="81" t="s">
+        <v>639</v>
+      </c>
+      <c r="B14" s="79" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="81" t="s">
+        <v>641</v>
+      </c>
+      <c r="B15" s="79" t="s">
+        <v>642</v>
       </c>
     </row>
   </sheetData>
@@ -2760,8 +2796,9 @@
     <hyperlink r:id="rId11" ref="B12"/>
     <hyperlink r:id="rId12" ref="B13"/>
     <hyperlink r:id="rId13" ref="B14"/>
+    <hyperlink r:id="rId14" ref="B15"/>
   </hyperlinks>
-  <drawing r:id="rId14"/>
+  <drawing r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -5149,7 +5186,7 @@
         <v>337</v>
       </c>
       <c r="D3" s="53"/>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="31" t="s">
         <v>133</v>
       </c>
       <c r="F3" s="13" t="s">
@@ -5211,7 +5248,7 @@
         <v>337</v>
       </c>
       <c r="D5" s="53"/>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="31" t="s">
         <v>133</v>
       </c>
       <c r="F5" s="19" t="s">
@@ -5273,7 +5310,7 @@
         <v>337</v>
       </c>
       <c r="D7" s="53"/>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="31" t="s">
         <v>133</v>
       </c>
       <c r="F7" s="19" t="s">
@@ -5335,7 +5372,7 @@
         <v>337</v>
       </c>
       <c r="D9" s="30"/>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="31" t="s">
         <v>133</v>
       </c>
       <c r="F9" s="19" t="s">
@@ -5359,13 +5396,13 @@
       <c r="A10" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="54" t="s">
         <v>362</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="55" t="s">
         <v>333</v>
       </c>
-      <c r="D10" s="57"/>
+      <c r="D10" s="56"/>
       <c r="E10" s="31" t="s">
         <v>140</v>
       </c>
@@ -5375,16 +5412,16 @@
       <c r="G10" s="21" t="s">
         <v>363</v>
       </c>
-      <c r="H10" s="58"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
       <c r="K10" s="22">
         <v>0.0</v>
       </c>
-      <c r="L10" s="60" t="s">
+      <c r="L10" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="M10" s="59"/>
+      <c r="M10" s="58"/>
     </row>
     <row r="11">
       <c r="A11" s="19" t="s">
@@ -5397,7 +5434,7 @@
         <v>337</v>
       </c>
       <c r="D11" s="30"/>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="31" t="s">
         <v>133</v>
       </c>
       <c r="F11" s="19" t="s">
@@ -5418,7 +5455,7 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="60" t="s">
         <v>368</v>
       </c>
       <c r="B12" s="51" t="s">
@@ -5428,7 +5465,7 @@
         <v>333</v>
       </c>
       <c r="D12" s="30"/>
-      <c r="E12" s="62" t="s">
+      <c r="E12" s="19" t="s">
         <v>143</v>
       </c>
       <c r="F12" s="19" t="s">
@@ -5449,7 +5486,7 @@
       <c r="M12" s="12"/>
     </row>
     <row r="13">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="60" t="s">
         <v>372</v>
       </c>
       <c r="B13" s="51" t="s">
@@ -5459,7 +5496,7 @@
         <v>333</v>
       </c>
       <c r="D13" s="30"/>
-      <c r="E13" s="54" t="s">
+      <c r="E13" s="31" t="s">
         <v>140</v>
       </c>
       <c r="F13" s="19" t="s">
@@ -5474,13 +5511,13 @@
       <c r="K13" s="46" t="s">
         <v>375</v>
       </c>
-      <c r="L13" s="63" t="s">
+      <c r="L13" s="61" t="s">
         <v>376</v>
       </c>
       <c r="M13" s="12"/>
     </row>
     <row r="14">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="60" t="s">
         <v>377</v>
       </c>
       <c r="B14" s="51" t="s">
@@ -5490,7 +5527,7 @@
         <v>333</v>
       </c>
       <c r="D14" s="30"/>
-      <c r="E14" s="54" t="s">
+      <c r="E14" s="31" t="s">
         <v>140</v>
       </c>
       <c r="F14" s="19" t="s">
@@ -5505,13 +5542,13 @@
       <c r="K14" s="46" t="s">
         <v>380</v>
       </c>
-      <c r="L14" s="63" t="s">
+      <c r="L14" s="61" t="s">
         <v>381</v>
       </c>
       <c r="M14" s="12"/>
     </row>
     <row r="15">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="60" t="s">
         <v>382</v>
       </c>
       <c r="B15" s="51" t="s">
@@ -5521,7 +5558,7 @@
         <v>333</v>
       </c>
       <c r="D15" s="30"/>
-      <c r="E15" s="54" t="s">
+      <c r="E15" s="31" t="s">
         <v>140</v>
       </c>
       <c r="F15" s="19" t="s">
@@ -5536,13 +5573,13 @@
       <c r="K15" s="46" t="s">
         <v>385</v>
       </c>
-      <c r="L15" s="63" t="s">
+      <c r="L15" s="61" t="s">
         <v>386</v>
       </c>
       <c r="M15" s="12"/>
     </row>
     <row r="16">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="60" t="s">
         <v>387</v>
       </c>
       <c r="B16" s="51" t="s">
@@ -5552,7 +5589,7 @@
         <v>333</v>
       </c>
       <c r="D16" s="30"/>
-      <c r="E16" s="54" t="s">
+      <c r="E16" s="31" t="s">
         <v>140</v>
       </c>
       <c r="F16" s="19" t="s">
@@ -5567,13 +5604,13 @@
       <c r="K16" s="46" t="s">
         <v>390</v>
       </c>
-      <c r="L16" s="63" t="s">
+      <c r="L16" s="61" t="s">
         <v>391</v>
       </c>
       <c r="M16" s="12"/>
     </row>
     <row r="17">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="60" t="s">
         <v>392</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -5583,7 +5620,7 @@
         <v>333</v>
       </c>
       <c r="D17" s="30"/>
-      <c r="E17" s="54" t="s">
+      <c r="E17" s="31" t="s">
         <v>140</v>
       </c>
       <c r="F17" s="19" t="s">
@@ -5598,13 +5635,13 @@
       <c r="K17" s="46" t="s">
         <v>375</v>
       </c>
-      <c r="L17" s="63" t="s">
+      <c r="L17" s="61" t="s">
         <v>395</v>
       </c>
       <c r="M17" s="12"/>
     </row>
     <row r="18">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="60" t="s">
         <v>396</v>
       </c>
       <c r="B18" s="51" t="s">
@@ -5614,7 +5651,7 @@
         <v>333</v>
       </c>
       <c r="D18" s="30"/>
-      <c r="E18" s="54" t="s">
+      <c r="E18" s="31" t="s">
         <v>140</v>
       </c>
       <c r="F18" s="19" t="s">
@@ -5629,13 +5666,13 @@
       <c r="K18" s="46" t="s">
         <v>380</v>
       </c>
-      <c r="L18" s="63" t="s">
+      <c r="L18" s="61" t="s">
         <v>399</v>
       </c>
       <c r="M18" s="12"/>
     </row>
     <row r="19">
-      <c r="A19" s="61" t="s">
+      <c r="A19" s="60" t="s">
         <v>400</v>
       </c>
       <c r="B19" s="51" t="s">
@@ -5645,7 +5682,7 @@
         <v>333</v>
       </c>
       <c r="D19" s="30"/>
-      <c r="E19" s="54" t="s">
+      <c r="E19" s="31" t="s">
         <v>140</v>
       </c>
       <c r="F19" s="19" t="s">
@@ -5660,13 +5697,13 @@
       <c r="K19" s="46" t="s">
         <v>385</v>
       </c>
-      <c r="L19" s="63" t="s">
+      <c r="L19" s="61" t="s">
         <v>403</v>
       </c>
       <c r="M19" s="12"/>
     </row>
     <row r="20">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="60" t="s">
         <v>404</v>
       </c>
       <c r="B20" s="51" t="s">
@@ -5676,7 +5713,7 @@
         <v>333</v>
       </c>
       <c r="D20" s="30"/>
-      <c r="E20" s="54" t="s">
+      <c r="E20" s="31" t="s">
         <v>140</v>
       </c>
       <c r="F20" s="19" t="s">
@@ -5691,13 +5728,13 @@
       <c r="K20" s="46" t="s">
         <v>390</v>
       </c>
-      <c r="L20" s="63" t="s">
+      <c r="L20" s="61" t="s">
         <v>407</v>
       </c>
       <c r="M20" s="12"/>
     </row>
     <row r="21">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="60" t="s">
         <v>408</v>
       </c>
       <c r="B21" s="51" t="s">
@@ -5707,7 +5744,7 @@
         <v>333</v>
       </c>
       <c r="D21" s="30"/>
-      <c r="E21" s="54" t="s">
+      <c r="E21" s="31" t="s">
         <v>140</v>
       </c>
       <c r="F21" s="19" t="s">
@@ -5722,13 +5759,13 @@
       <c r="K21" s="46" t="s">
         <v>411</v>
       </c>
-      <c r="L21" s="63" t="s">
+      <c r="L21" s="61" t="s">
         <v>412</v>
       </c>
       <c r="M21" s="12"/>
     </row>
     <row r="22">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="60" t="s">
         <v>413</v>
       </c>
       <c r="B22" s="51" t="s">
@@ -5738,7 +5775,7 @@
         <v>333</v>
       </c>
       <c r="D22" s="30"/>
-      <c r="E22" s="54" t="s">
+      <c r="E22" s="31" t="s">
         <v>140</v>
       </c>
       <c r="F22" s="19" t="s">
@@ -5753,7 +5790,7 @@
       <c r="K22" s="46" t="s">
         <v>416</v>
       </c>
-      <c r="L22" s="63" t="s">
+      <c r="L22" s="61" t="s">
         <v>417</v>
       </c>
       <c r="M22" s="12"/>
@@ -5768,7 +5805,7 @@
       <c r="C23" s="52" t="s">
         <v>333</v>
       </c>
-      <c r="D23" s="64"/>
+      <c r="D23" s="62"/>
       <c r="E23" s="31" t="s">
         <v>140</v>
       </c>
@@ -5779,12 +5816,12 @@
         <v>420</v>
       </c>
       <c r="H23" s="41"/>
-      <c r="I23" s="65"/>
+      <c r="I23" s="63"/>
       <c r="J23" s="12"/>
       <c r="K23" s="46">
         <v>0.0</v>
       </c>
-      <c r="L23" s="63" t="s">
+      <c r="L23" s="61" t="s">
         <v>30</v>
       </c>
       <c r="M23" s="12"/>
@@ -5799,8 +5836,8 @@
       <c r="C24" s="52" t="s">
         <v>337</v>
       </c>
-      <c r="D24" s="64"/>
-      <c r="E24" s="54" t="s">
+      <c r="D24" s="62"/>
+      <c r="E24" s="31" t="s">
         <v>133</v>
       </c>
       <c r="F24" s="19" t="s">
@@ -5810,12 +5847,12 @@
         <v>423</v>
       </c>
       <c r="H24" s="41"/>
-      <c r="I24" s="65"/>
+      <c r="I24" s="63"/>
       <c r="J24" s="12"/>
       <c r="K24" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="L24" s="63" t="s">
+      <c r="L24" s="61" t="s">
         <v>424</v>
       </c>
       <c r="M24" s="12"/>
@@ -5830,7 +5867,7 @@
       <c r="C25" s="52" t="s">
         <v>333</v>
       </c>
-      <c r="D25" s="64"/>
+      <c r="D25" s="62"/>
       <c r="E25" s="31" t="s">
         <v>140</v>
       </c>
@@ -5841,12 +5878,12 @@
         <v>427</v>
       </c>
       <c r="H25" s="41"/>
-      <c r="I25" s="65"/>
+      <c r="I25" s="63"/>
       <c r="J25" s="12"/>
       <c r="K25" s="46">
         <v>0.0</v>
       </c>
-      <c r="L25" s="63" t="s">
+      <c r="L25" s="61" t="s">
         <v>38</v>
       </c>
       <c r="M25" s="12"/>
@@ -5862,7 +5899,7 @@
         <v>337</v>
       </c>
       <c r="D26" s="30"/>
-      <c r="E26" s="54" t="s">
+      <c r="E26" s="31" t="s">
         <v>133</v>
       </c>
       <c r="F26" s="19" t="s">
@@ -5877,7 +5914,7 @@
       <c r="K26" s="46" t="s">
         <v>431</v>
       </c>
-      <c r="L26" s="63" t="s">
+      <c r="L26" s="61" t="s">
         <v>432</v>
       </c>
       <c r="M26" s="12"/>
@@ -5908,7 +5945,7 @@
       <c r="K27" s="46">
         <v>0.0</v>
       </c>
-      <c r="L27" s="63" t="s">
+      <c r="L27" s="61" t="s">
         <v>38</v>
       </c>
       <c r="M27" s="12"/>
@@ -5924,7 +5961,7 @@
         <v>337</v>
       </c>
       <c r="D28" s="30"/>
-      <c r="E28" s="54" t="s">
+      <c r="E28" s="31" t="s">
         <v>133</v>
       </c>
       <c r="F28" s="19" t="s">
@@ -5939,7 +5976,7 @@
       <c r="K28" s="46" t="s">
         <v>431</v>
       </c>
-      <c r="L28" s="63" t="s">
+      <c r="L28" s="61" t="s">
         <v>439</v>
       </c>
       <c r="M28" s="12"/>
@@ -5954,8 +5991,8 @@
       <c r="C29" s="52" t="s">
         <v>333</v>
       </c>
-      <c r="D29" s="64"/>
-      <c r="E29" s="54" t="s">
+      <c r="D29" s="62"/>
+      <c r="E29" s="31" t="s">
         <v>140</v>
       </c>
       <c r="F29" s="19" t="s">
@@ -5965,12 +6002,12 @@
         <v>442</v>
       </c>
       <c r="H29" s="41"/>
-      <c r="I29" s="65"/>
+      <c r="I29" s="63"/>
       <c r="J29" s="12"/>
       <c r="K29" s="46">
         <v>0.0</v>
       </c>
-      <c r="L29" s="63" t="s">
+      <c r="L29" s="61" t="s">
         <v>38</v>
       </c>
       <c r="M29" s="12"/>
@@ -5986,7 +6023,7 @@
         <v>337</v>
       </c>
       <c r="D30" s="30"/>
-      <c r="E30" s="54" t="s">
+      <c r="E30" s="31" t="s">
         <v>133</v>
       </c>
       <c r="F30" s="19" t="s">
@@ -6001,7 +6038,7 @@
       <c r="K30" s="46" t="s">
         <v>431</v>
       </c>
-      <c r="L30" s="63" t="s">
+      <c r="L30" s="61" t="s">
         <v>446</v>
       </c>
       <c r="M30" s="12"/>
@@ -6017,7 +6054,7 @@
         <v>333</v>
       </c>
       <c r="D31" s="30"/>
-      <c r="E31" s="54" t="s">
+      <c r="E31" s="31" t="s">
         <v>140</v>
       </c>
       <c r="F31" s="19" t="s">
@@ -6032,7 +6069,7 @@
       <c r="K31" s="46">
         <v>0.0</v>
       </c>
-      <c r="L31" s="63" t="s">
+      <c r="L31" s="61" t="s">
         <v>38</v>
       </c>
       <c r="M31" s="12"/>
@@ -6048,7 +6085,7 @@
         <v>337</v>
       </c>
       <c r="D32" s="30"/>
-      <c r="E32" s="54" t="s">
+      <c r="E32" s="31" t="s">
         <v>133</v>
       </c>
       <c r="F32" s="19" t="s">
@@ -6063,7 +6100,7 @@
       <c r="K32" s="46" t="s">
         <v>431</v>
       </c>
-      <c r="L32" s="63" t="s">
+      <c r="L32" s="61" t="s">
         <v>446</v>
       </c>
       <c r="M32" s="12"/>
@@ -6078,8 +6115,8 @@
       <c r="C33" s="52" t="s">
         <v>333</v>
       </c>
-      <c r="D33" s="64"/>
-      <c r="E33" s="54" t="s">
+      <c r="D33" s="62"/>
+      <c r="E33" s="31" t="s">
         <v>140</v>
       </c>
       <c r="F33" s="19" t="s">
@@ -6089,12 +6126,12 @@
         <v>455</v>
       </c>
       <c r="H33" s="41"/>
-      <c r="I33" s="65"/>
+      <c r="I33" s="63"/>
       <c r="J33" s="12"/>
       <c r="K33" s="46">
         <v>6.0</v>
       </c>
-      <c r="L33" s="63" t="s">
+      <c r="L33" s="61" t="s">
         <v>83</v>
       </c>
       <c r="M33" s="12"/>
@@ -6103,14 +6140,14 @@
       <c r="A34" s="21" t="s">
         <v>456</v>
       </c>
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="54" t="s">
         <v>457</v>
       </c>
-      <c r="C34" s="56" t="s">
+      <c r="C34" s="55" t="s">
         <v>337</v>
       </c>
-      <c r="D34" s="57"/>
-      <c r="E34" s="54" t="s">
+      <c r="D34" s="56"/>
+      <c r="E34" s="31" t="s">
         <v>137</v>
       </c>
       <c r="F34" s="21" t="s">
@@ -6119,29 +6156,29 @@
       <c r="G34" s="21" t="s">
         <v>458</v>
       </c>
-      <c r="H34" s="58"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="60" t="s">
+      <c r="H34" s="57"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="59" t="s">
         <v>459</v>
       </c>
-      <c r="L34" s="66" t="s">
+      <c r="L34" s="64" t="s">
         <v>460</v>
       </c>
-      <c r="M34" s="59"/>
+      <c r="M34" s="58"/>
     </row>
     <row r="35">
       <c r="A35" s="21" t="s">
         <v>461</v>
       </c>
-      <c r="B35" s="55" t="s">
+      <c r="B35" s="54" t="s">
         <v>462</v>
       </c>
-      <c r="C35" s="56" t="s">
+      <c r="C35" s="55" t="s">
         <v>337</v>
       </c>
-      <c r="D35" s="57"/>
-      <c r="E35" s="54" t="s">
+      <c r="D35" s="56"/>
+      <c r="E35" s="31" t="s">
         <v>133</v>
       </c>
       <c r="F35" s="21" t="s">
@@ -6150,16 +6187,16 @@
       <c r="G35" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="H35" s="58"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="59"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
       <c r="K35" s="22" t="s">
         <v>464</v>
       </c>
-      <c r="L35" s="66" t="s">
+      <c r="L35" s="64" t="s">
         <v>460</v>
       </c>
-      <c r="M35" s="59"/>
+      <c r="M35" s="58"/>
     </row>
     <row r="36">
       <c r="A36" s="19" t="s">
@@ -6171,8 +6208,8 @@
       <c r="C36" s="52" t="s">
         <v>337</v>
       </c>
-      <c r="D36" s="64"/>
-      <c r="E36" s="54" t="s">
+      <c r="D36" s="62"/>
+      <c r="E36" s="31" t="s">
         <v>133</v>
       </c>
       <c r="F36" s="19" t="s">
@@ -6182,12 +6219,12 @@
         <v>467</v>
       </c>
       <c r="H36" s="41"/>
-      <c r="I36" s="65"/>
+      <c r="I36" s="63"/>
       <c r="J36" s="12"/>
       <c r="K36" s="46" t="s">
         <v>468</v>
       </c>
-      <c r="L36" s="63" t="s">
+      <c r="L36" s="61" t="s">
         <v>469</v>
       </c>
       <c r="M36" s="12"/>
@@ -6202,8 +6239,8 @@
       <c r="C37" s="52" t="s">
         <v>333</v>
       </c>
-      <c r="D37" s="64"/>
-      <c r="E37" s="54" t="s">
+      <c r="D37" s="62"/>
+      <c r="E37" s="31" t="s">
         <v>140</v>
       </c>
       <c r="F37" s="19" t="s">
@@ -6213,12 +6250,12 @@
         <v>472</v>
       </c>
       <c r="H37" s="41"/>
-      <c r="I37" s="65"/>
+      <c r="I37" s="63"/>
       <c r="J37" s="12"/>
       <c r="K37" s="46">
         <v>6.0</v>
       </c>
-      <c r="L37" s="67" t="s">
+      <c r="L37" s="65" t="s">
         <v>83</v>
       </c>
       <c r="M37" s="12"/>
@@ -6233,8 +6270,8 @@
       <c r="C38" s="52" t="s">
         <v>337</v>
       </c>
-      <c r="D38" s="64"/>
-      <c r="E38" s="54" t="s">
+      <c r="D38" s="62"/>
+      <c r="E38" s="31" t="s">
         <v>133</v>
       </c>
       <c r="F38" s="19" t="s">
@@ -6244,12 +6281,12 @@
         <v>475</v>
       </c>
       <c r="H38" s="41"/>
-      <c r="I38" s="65"/>
+      <c r="I38" s="63"/>
       <c r="J38" s="12"/>
       <c r="K38" s="46" t="s">
         <v>459</v>
       </c>
-      <c r="L38" s="67" t="s">
+      <c r="L38" s="65" t="s">
         <v>476</v>
       </c>
       <c r="M38" s="12"/>
@@ -6264,8 +6301,8 @@
       <c r="C39" s="52" t="s">
         <v>337</v>
       </c>
-      <c r="D39" s="64"/>
-      <c r="E39" s="54" t="s">
+      <c r="D39" s="62"/>
+      <c r="E39" s="31" t="s">
         <v>133</v>
       </c>
       <c r="F39" s="19" t="s">
@@ -6275,12 +6312,12 @@
         <v>479</v>
       </c>
       <c r="H39" s="41"/>
-      <c r="I39" s="65"/>
+      <c r="I39" s="63"/>
       <c r="J39" s="12"/>
       <c r="K39" s="46" t="s">
         <v>464</v>
       </c>
-      <c r="L39" s="67" t="s">
+      <c r="L39" s="65" t="s">
         <v>476</v>
       </c>
       <c r="M39" s="12"/>
@@ -6296,7 +6333,7 @@
         <v>337</v>
       </c>
       <c r="D40" s="30"/>
-      <c r="E40" s="54" t="s">
+      <c r="E40" s="31" t="s">
         <v>137</v>
       </c>
       <c r="F40" s="19" t="s">
@@ -6327,7 +6364,7 @@
         <v>337</v>
       </c>
       <c r="D41" s="30"/>
-      <c r="E41" s="54" t="s">
+      <c r="E41" s="31" t="s">
         <v>133</v>
       </c>
       <c r="F41" s="19" t="s">
@@ -6342,7 +6379,7 @@
       <c r="K41" s="46" t="s">
         <v>486</v>
       </c>
-      <c r="L41" s="63" t="s">
+      <c r="L41" s="61" t="s">
         <v>487</v>
       </c>
       <c r="M41" s="12"/>
@@ -6358,7 +6395,7 @@
         <v>337</v>
       </c>
       <c r="D42" s="30"/>
-      <c r="E42" s="54" t="s">
+      <c r="E42" s="31" t="s">
         <v>133</v>
       </c>
       <c r="F42" s="19" t="s">
@@ -6373,7 +6410,7 @@
       <c r="K42" s="46" t="s">
         <v>486</v>
       </c>
-      <c r="L42" s="63" t="s">
+      <c r="L42" s="61" t="s">
         <v>487</v>
       </c>
       <c r="M42" s="12"/>
@@ -6389,7 +6426,7 @@
         <v>337</v>
       </c>
       <c r="D43" s="30"/>
-      <c r="E43" s="54" t="s">
+      <c r="E43" s="31" t="s">
         <v>133</v>
       </c>
       <c r="F43" s="19" t="s">
@@ -6404,7 +6441,7 @@
       <c r="K43" s="46" t="s">
         <v>486</v>
       </c>
-      <c r="L43" s="63" t="s">
+      <c r="L43" s="61" t="s">
         <v>487</v>
       </c>
       <c r="M43" s="12"/>
@@ -6435,7 +6472,7 @@
       <c r="K44" s="46">
         <v>6.0</v>
       </c>
-      <c r="L44" s="63" t="s">
+      <c r="L44" s="61" t="s">
         <v>83</v>
       </c>
       <c r="M44" s="12"/>
@@ -6451,7 +6488,7 @@
         <v>337</v>
       </c>
       <c r="D45" s="30"/>
-      <c r="E45" s="54" t="s">
+      <c r="E45" s="31" t="s">
         <v>137</v>
       </c>
       <c r="F45" s="19" t="s">
@@ -6466,7 +6503,7 @@
       <c r="K45" s="46" t="s">
         <v>459</v>
       </c>
-      <c r="L45" s="63" t="s">
+      <c r="L45" s="61" t="s">
         <v>476</v>
       </c>
       <c r="M45" s="12"/>
@@ -6482,7 +6519,7 @@
         <v>337</v>
       </c>
       <c r="D46" s="30"/>
-      <c r="E46" s="54" t="s">
+      <c r="E46" s="31" t="s">
         <v>133</v>
       </c>
       <c r="F46" s="19" t="s">
@@ -6497,7 +6534,7 @@
       <c r="K46" s="46">
         <v>7.0</v>
       </c>
-      <c r="L46" s="63" t="s">
+      <c r="L46" s="61" t="s">
         <v>83</v>
       </c>
       <c r="M46" s="12"/>
@@ -6513,7 +6550,7 @@
         <v>337</v>
       </c>
       <c r="D47" s="30"/>
-      <c r="E47" s="54" t="s">
+      <c r="E47" s="31" t="s">
         <v>133</v>
       </c>
       <c r="F47" s="19" t="s">
@@ -6528,7 +6565,7 @@
       <c r="K47" s="46">
         <v>7.0</v>
       </c>
-      <c r="L47" s="63" t="s">
+      <c r="L47" s="61" t="s">
         <v>83</v>
       </c>
       <c r="M47" s="12"/>
@@ -6544,7 +6581,7 @@
         <v>337</v>
       </c>
       <c r="D48" s="30"/>
-      <c r="E48" s="54" t="s">
+      <c r="E48" s="31" t="s">
         <v>133</v>
       </c>
       <c r="F48" s="19" t="s">
@@ -6559,7 +6596,7 @@
       <c r="K48" s="46">
         <v>7.0</v>
       </c>
-      <c r="L48" s="63" t="s">
+      <c r="L48" s="61" t="s">
         <v>83</v>
       </c>
       <c r="M48" s="12"/>
@@ -6575,7 +6612,7 @@
         <v>337</v>
       </c>
       <c r="D49" s="30"/>
-      <c r="E49" s="54" t="s">
+      <c r="E49" s="31" t="s">
         <v>137</v>
       </c>
       <c r="F49" s="19" t="s">
@@ -6590,7 +6627,7 @@
       <c r="K49" s="46" t="s">
         <v>464</v>
       </c>
-      <c r="L49" s="63" t="s">
+      <c r="L49" s="61" t="s">
         <v>476</v>
       </c>
       <c r="M49" s="12"/>
@@ -6606,7 +6643,7 @@
         <v>337</v>
       </c>
       <c r="D50" s="30"/>
-      <c r="E50" s="54" t="s">
+      <c r="E50" s="31" t="s">
         <v>133</v>
       </c>
       <c r="F50" s="19" t="s">
@@ -6621,7 +6658,7 @@
       <c r="K50" s="46">
         <v>5.0</v>
       </c>
-      <c r="L50" s="63" t="s">
+      <c r="L50" s="61" t="s">
         <v>83</v>
       </c>
       <c r="M50" s="12"/>
@@ -6637,7 +6674,7 @@
         <v>337</v>
       </c>
       <c r="D51" s="30"/>
-      <c r="E51" s="54" t="s">
+      <c r="E51" s="31" t="s">
         <v>133</v>
       </c>
       <c r="F51" s="19" t="s">
@@ -6652,7 +6689,7 @@
       <c r="K51" s="46">
         <v>5.0</v>
       </c>
-      <c r="L51" s="63" t="s">
+      <c r="L51" s="61" t="s">
         <v>83</v>
       </c>
       <c r="M51" s="12"/>
@@ -6668,7 +6705,7 @@
         <v>337</v>
       </c>
       <c r="D52" s="30"/>
-      <c r="E52" s="54" t="s">
+      <c r="E52" s="31" t="s">
         <v>133</v>
       </c>
       <c r="F52" s="19" t="s">
@@ -6683,7 +6720,7 @@
       <c r="K52" s="46">
         <v>5.0</v>
       </c>
-      <c r="L52" s="63" t="s">
+      <c r="L52" s="61" t="s">
         <v>83</v>
       </c>
       <c r="M52" s="12"/>
@@ -6714,7 +6751,7 @@
       <c r="K53" s="46">
         <v>6.0</v>
       </c>
-      <c r="L53" s="63" t="s">
+      <c r="L53" s="61" t="s">
         <v>83</v>
       </c>
       <c r="M53" s="12"/>
@@ -6730,7 +6767,7 @@
         <v>337</v>
       </c>
       <c r="D54" s="30"/>
-      <c r="E54" s="54" t="s">
+      <c r="E54" s="31" t="s">
         <v>133</v>
       </c>
       <c r="F54" s="19" t="s">
@@ -6745,7 +6782,7 @@
       <c r="K54" s="46" t="s">
         <v>459</v>
       </c>
-      <c r="L54" s="63" t="s">
+      <c r="L54" s="61" t="s">
         <v>460</v>
       </c>
       <c r="M54" s="12"/>
@@ -6761,7 +6798,7 @@
         <v>337</v>
       </c>
       <c r="D55" s="30"/>
-      <c r="E55" s="54" t="s">
+      <c r="E55" s="31" t="s">
         <v>133</v>
       </c>
       <c r="F55" s="19" t="s">
@@ -6776,7 +6813,7 @@
       <c r="K55" s="46" t="s">
         <v>464</v>
       </c>
-      <c r="L55" s="63" t="s">
+      <c r="L55" s="61" t="s">
         <v>460</v>
       </c>
       <c r="M55" s="12"/>
@@ -6792,7 +6829,7 @@
         <v>337</v>
       </c>
       <c r="D56" s="30"/>
-      <c r="E56" s="54" t="s">
+      <c r="E56" s="31" t="s">
         <v>137</v>
       </c>
       <c r="F56" s="19" t="s">
@@ -6807,7 +6844,7 @@
       <c r="K56" s="46" t="s">
         <v>464</v>
       </c>
-      <c r="L56" s="63" t="s">
+      <c r="L56" s="61" t="s">
         <v>460</v>
       </c>
       <c r="M56" s="12"/>
@@ -6823,7 +6860,7 @@
         <v>337</v>
       </c>
       <c r="D57" s="30"/>
-      <c r="E57" s="54" t="s">
+      <c r="E57" s="31" t="s">
         <v>133</v>
       </c>
       <c r="F57" s="19" t="s">
@@ -6838,7 +6875,7 @@
       <c r="K57" s="46" t="s">
         <v>536</v>
       </c>
-      <c r="L57" s="63" t="s">
+      <c r="L57" s="61" t="s">
         <v>537</v>
       </c>
       <c r="M57" s="12"/>
@@ -6854,7 +6891,7 @@
         <v>337</v>
       </c>
       <c r="D58" s="30"/>
-      <c r="E58" s="54" t="s">
+      <c r="E58" s="31" t="s">
         <v>133</v>
       </c>
       <c r="F58" s="19" t="s">
@@ -6869,7 +6906,7 @@
       <c r="K58" s="46" t="s">
         <v>536</v>
       </c>
-      <c r="L58" s="63" t="s">
+      <c r="L58" s="61" t="s">
         <v>537</v>
       </c>
       <c r="M58" s="12"/>
@@ -6951,6 +6988,7 @@
     <col customWidth="1" min="1" max="1" width="24.29"/>
     <col customWidth="1" min="2" max="2" width="18.43"/>
     <col customWidth="1" min="3" max="3" width="24.0"/>
+    <col customWidth="1" min="4" max="4" width="12.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6966,13 +7004,6 @@
       <c r="D1" s="30" t="s">
         <v>546</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
     </row>
     <row r="2">
       <c r="A2" s="30" t="s">
@@ -6987,39 +7018,18 @@
       <c r="D2" s="30" t="s">
         <v>549</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
     </row>
     <row r="3">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
     </row>
     <row r="4">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
     </row>
     <row r="5">
       <c r="A5" s="30" t="s">
@@ -7032,13 +7042,6 @@
         <v>552</v>
       </c>
       <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
     </row>
     <row r="6">
       <c r="A6" s="30" t="s">
@@ -7051,13 +7054,6 @@
         <v>554</v>
       </c>
       <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
     </row>
     <row r="7">
       <c r="A7" s="12"/>
@@ -7068,13 +7064,6 @@
         <v>554</v>
       </c>
       <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
     </row>
     <row r="8">
       <c r="A8" s="12"/>
@@ -7085,13 +7074,6 @@
         <v>554</v>
       </c>
       <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
     </row>
     <row r="9">
       <c r="A9" s="12"/>
@@ -7102,26 +7084,12 @@
         <v>554</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
     </row>
     <row r="10">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
     </row>
     <row r="11">
       <c r="A11" s="12" t="s">
@@ -7132,145 +7100,82 @@
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
     </row>
     <row r="12">
       <c r="A12" s="12" t="s">
         <v>560</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="66" t="s">
         <v>561</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
     </row>
     <row r="13">
       <c r="A13" s="12" t="s">
         <v>562</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="66" t="s">
         <v>563</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
     </row>
     <row r="14">
       <c r="A14" s="12" t="s">
         <v>564</v>
       </c>
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="66" t="s">
         <v>565</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
     </row>
     <row r="15">
       <c r="A15" s="12" t="s">
         <v>566</v>
       </c>
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="66" t="s">
         <v>567</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
     </row>
     <row r="16">
       <c r="A16" s="12" t="s">
         <v>568</v>
       </c>
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="66" t="s">
         <v>569</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
     </row>
     <row r="17">
       <c r="A17" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="66" t="s">
         <v>571</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
     </row>
     <row r="18">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
     </row>
     <row r="19">
       <c r="A19" s="12" t="s">
         <v>572</v>
       </c>
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="67" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
     </row>
     <row r="20">
       <c r="A20" s="12" t="s">
@@ -7281,13 +7186,6 @@
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
     </row>
     <row r="21">
       <c r="A21" s="12" t="s">
@@ -7319,7 +7217,7 @@
       <c r="A28" s="15" t="s">
         <v>576</v>
       </c>
-      <c r="B28" s="70" t="s">
+      <c r="B28" s="68" t="s">
         <v>577</v>
       </c>
     </row>
@@ -7327,7 +7225,7 @@
       <c r="A29" s="15" t="s">
         <v>578</v>
       </c>
-      <c r="B29" s="71" t="s">
+      <c r="B29" s="69" t="s">
         <v>579</v>
       </c>
     </row>
@@ -7335,7 +7233,7 @@
       <c r="A30" s="15" t="s">
         <v>580</v>
       </c>
-      <c r="B30" s="70" t="s">
+      <c r="B30" s="68" t="s">
         <v>581</v>
       </c>
     </row>
@@ -7354,22 +7252,15 @@
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B21:K27"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B29:K29"/>
-    <mergeCell ref="B30:K30"/>
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B21:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B28"/>
@@ -7394,38 +7285,39 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="29.14"/>
-    <col customWidth="1" min="4" max="4" width="30.86"/>
-    <col customWidth="1" min="5" max="5" width="28.0"/>
+    <col customWidth="1" min="3" max="3" width="22.71"/>
+    <col customWidth="1" min="4" max="4" width="29.14"/>
+    <col customWidth="1" min="5" max="5" width="30.86"/>
+    <col customWidth="1" min="6" max="6" width="28.0"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="70" t="s">
         <v>323</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="E1" s="70" t="s">
         <v>584</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="H1" s="73" t="s">
+      <c r="I1" s="71" t="s">
         <v>266</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>2</v>
       </c>
       <c r="J1" s="30" t="s">
         <v>588</v>
@@ -7439,11 +7331,11 @@
         <f t="shared" ref="B2:B15" si="1">CONCATENATE("Neuron ",RIGHT(A2,LEN(A2) - (FIND("-",A2))))</f>
         <v>Neuron 1</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="12"/>
+      <c r="C2" s="19" t="s">
+        <v>589</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="I2" s="25"/>
       <c r="J2" s="12"/>
     </row>
     <row r="3">
@@ -7454,12 +7346,12 @@
         <f t="shared" si="1"/>
         <v>Neuron 2</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="E3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="30"/>
+      <c r="C3" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="71"/>
+      <c r="I3" s="71"/>
       <c r="J3" s="30"/>
     </row>
     <row r="4">
@@ -7470,160 +7362,160 @@
         <f t="shared" si="1"/>
         <v>Neuron 3</v>
       </c>
-      <c r="D4" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="12"/>
+      <c r="C4" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="I4" s="25"/>
       <c r="J4" s="12"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B5" s="74" t="str">
+      <c r="B5" s="72" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 4</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="12"/>
+      <c r="C5" s="19" t="s">
+        <v>592</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="I5" s="25"/>
       <c r="J5" s="12"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B6" s="74" t="str">
+      <c r="B6" s="72" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 5</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="12"/>
+      <c r="C6" s="19" t="s">
+        <v>593</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="I6" s="25"/>
       <c r="J6" s="12"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B7" s="74" t="str">
+      <c r="B7" s="72" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 6</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="12"/>
+      <c r="C7" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="I7" s="25"/>
       <c r="J7" s="12"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B8" s="74" t="str">
+      <c r="B8" s="72" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 7</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="12"/>
+      <c r="C8" s="19" t="s">
+        <v>595</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="I8" s="25"/>
       <c r="J8" s="12"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B9" s="74" t="str">
+      <c r="B9" s="72" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 8</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="12"/>
+      <c r="C9" s="19" t="s">
+        <v>596</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="I9" s="25"/>
       <c r="J9" s="12"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B10" s="74" t="str">
+      <c r="B10" s="72" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 9</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="12"/>
+      <c r="C10" s="19" t="s">
+        <v>597</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="I10" s="25"/>
       <c r="J10" s="12"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B11" s="74" t="str">
+      <c r="B11" s="72" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 10</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="12"/>
+      <c r="C11" s="19" t="s">
+        <v>598</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="I11" s="25"/>
       <c r="J11" s="12"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B12" s="74" t="str">
+      <c r="B12" s="72" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 11</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>307</v>
-      </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="12"/>
+      <c r="C12" s="19" t="s">
+        <v>599</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="I12" s="25"/>
       <c r="J12" s="12"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B13" s="74" t="str">
+      <c r="B13" s="72" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 12</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>311</v>
-      </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="12"/>
+      <c r="C13" s="19" t="s">
+        <v>600</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="I13" s="25"/>
       <c r="J13" s="12"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B14" s="74" t="str">
+      <c r="B14" s="72" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 13</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="H14" s="25"/>
+      <c r="C14" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="E14" s="13"/>
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
     </row>
@@ -7631,14 +7523,14 @@
       <c r="A15" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B15" s="74" t="str">
+      <c r="B15" s="72" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 14</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="H15" s="25"/>
+      <c r="C15" s="19" t="s">
+        <v>602</v>
+      </c>
+      <c r="E15" s="13"/>
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
     </row>
@@ -7662,87 +7554,87 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>590</v>
+        <v>604</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="76" t="s">
-        <v>591</v>
-      </c>
-      <c r="C2" s="77" t="str">
+      <c r="A2" s="74" t="s">
+        <v>605</v>
+      </c>
+      <c r="C2" s="75" t="str">
         <f t="array" ref="C2">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A2,6,LEN(A2))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/12576302</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="C3" s="77" t="str">
+      <c r="A3" s="76" t="s">
+        <v>606</v>
+      </c>
+      <c r="C3" s="75" t="str">
         <f t="array" ref="C3">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A3,6,LEN(A3))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/24306100</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="79" t="s">
-        <v>593</v>
-      </c>
-      <c r="C4" s="77" t="str">
+      <c r="A4" s="77" t="s">
+        <v>607</v>
+      </c>
+      <c r="C4" s="75" t="str">
         <f t="array" ref="C4">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A4,6,LEN(A4))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/18924442</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="79" t="s">
-        <v>594</v>
-      </c>
-      <c r="C5" s="77" t="str">
+      <c r="A5" s="77" t="s">
+        <v>608</v>
+      </c>
+      <c r="C5" s="75" t="str">
         <f t="array" ref="C5">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A5,6,LEN(A5))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/23438947</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="79" t="s">
-        <v>595</v>
-      </c>
-      <c r="C6" s="77" t="str">
+      <c r="A6" s="77" t="s">
+        <v>609</v>
+      </c>
+      <c r="C6" s="75" t="str">
         <f t="array" ref="C6">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A6,6,LEN(A6))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/11437981</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="79" t="s">
-        <v>596</v>
-      </c>
-      <c r="C7" s="77" t="str">
+      <c r="A7" s="77" t="s">
+        <v>610</v>
+      </c>
+      <c r="C7" s="75" t="str">
         <f t="array" ref="C7">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A7,6,LEN(A7))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/18364578</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="79" t="s">
-        <v>597</v>
-      </c>
-      <c r="C8" s="77" t="str">
+      <c r="A8" s="77" t="s">
+        <v>611</v>
+      </c>
+      <c r="C8" s="75" t="str">
         <f t="array" ref="C8">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A8,6,LEN(A8))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/2902218</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="79" t="s">
-        <v>598</v>
-      </c>
-      <c r="C9" s="77" t="str">
+      <c r="A9" s="77" t="s">
+        <v>612</v>
+      </c>
+      <c r="C9" s="75" t="str">
         <f t="array" ref="C9">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A9,6,LEN(A9))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/18286675</v>
       </c>

--- a/models/sawg-stomach/source/sawg-stomach.xlsx
+++ b/models/sawg-stomach/source/sawg-stomach.xlsx
@@ -13,6 +13,7 @@
     <sheet state="visible" name="groups" sheetId="8" r:id="rId11"/>
     <sheet state="visible" name="publications" sheetId="9" r:id="rId12"/>
     <sheet state="visible" name="localConventions" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="contributors" sheetId="11" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="657">
   <si>
     <t>id</t>
   </si>
@@ -1979,13 +1980,55 @@
   </si>
   <si>
     <t>http://uri.interlex.org/tgbugs/uris/readable/</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>John Furness</t>
+  </si>
+  <si>
+    <t>Terry Powley</t>
+  </si>
+  <si>
+    <t>Kent Sanders</t>
+  </si>
+  <si>
+    <t>consultant?</t>
+  </si>
+  <si>
+    <t>Kirsteen Browning</t>
+  </si>
+  <si>
+    <t>Alberto Travagli</t>
+  </si>
+  <si>
+    <t>Gary Mawe</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0003-0638-5274</t>
+  </si>
+  <si>
+    <t>Bernard de Bono</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://orcid.org/0000-0002-2308-8813 </t>
+  </si>
+  <si>
+    <t>Monique Surles-Zeigler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://orcid.org/0000-0002-7509-4801 </t>
+  </si>
+  <si>
+    <t>Thomas H Gillespie</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="21">
+  <fonts count="25">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2083,6 +2126,19 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
+    <font/>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2124,7 +2180,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="86">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2361,6 +2417,18 @@
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2374,6 +2442,10 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -2802,6 +2874,100 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="82" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="82" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="83" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="83" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="83" t="s">
+        <v>646</v>
+      </c>
+      <c r="C4" s="82" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="83" t="s">
+        <v>648</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="83" t="s">
+        <v>649</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="83" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="84" t="s">
+        <v>651</v>
+      </c>
+      <c r="B8" s="85" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="84" t="s">
+        <v>653</v>
+      </c>
+      <c r="B9" s="85" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="84" t="s">
+        <v>655</v>
+      </c>
+      <c r="B10" s="85" t="s">
+        <v>656</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A8"/>
+    <hyperlink r:id="rId2" ref="A9"/>
+    <hyperlink r:id="rId3" ref="A10"/>
+  </hyperlinks>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>

--- a/models/sawg-stomach/source/sawg-stomach.xlsx
+++ b/models/sawg-stomach/source/sawg-stomach.xlsx
@@ -11,7 +11,7 @@
     <sheet state="visible" name="nodes" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="neurons" sheetId="7" r:id="rId10"/>
     <sheet state="visible" name="groups" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="publications" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="references" sheetId="9" r:id="rId12"/>
     <sheet state="visible" name="localConventions" sheetId="10" r:id="rId13"/>
     <sheet state="visible" name="contributors" sheetId="11" r:id="rId14"/>
   </sheets>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="660">
   <si>
     <t>id</t>
   </si>
@@ -59,7 +59,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>external</t>
+    <t>ontologyTerms</t>
   </si>
   <si>
     <t>abbreviation</t>
@@ -851,7 +851,7 @@
     <t>conveyingLyph</t>
   </si>
   <si>
-    <t>publications</t>
+    <t>references</t>
   </si>
   <si>
     <t>lnk-soma_dn_1</t>
@@ -1715,7 +1715,7 @@
     <t>soma</t>
   </si>
   <si>
-    <t>housing lyph or external id</t>
+    <t>housing lyph or ontologyTerms id</t>
   </si>
   <si>
     <t>axon</t>
@@ -1778,7 +1778,7 @@
     <t>Model Decription</t>
   </si>
   <si>
-    <t>This digital record documents the ApiNATOMY representation of neural circuits innervating the proximal and distal regions of the stomach.  These tools are used to build routing and connectivity graphs (or wiring diagrams). This record contains a docs folder, a source folder, and a README text file. The Docs folder contains 2 PDF documents, with a schematic image of the ApiNATOMY model and a slide presentation documenting the anatomical structures each neuron population travels through in the schematic image. The Source folder contains the ApiNATOMY representation of the model in JSON and .xlsx formats. Lastly, the README .md document includes a brief description, keywords, and reference publications to construct the knowledge within the model. Please note, the focus of SPARC is on peripheral connectivity of the ANS and its main points of interaction with the CNS. Therefore, any CNS circuitry represented is not comprehensive unless otherwise specified.</t>
+    <t>This digital record documents the ApiNATOMY representation of neural circuits innervating the proximal and distal regions of the stomach.  These tools are used to build routing and connectivity graphs (or wiring diagrams). This record contains a docs folder, a source folder, and a README text file. The Docs folder contains 2 PDF documents, with a schematic image of the ApiNATOMY model and a slide presentation documenting the anatomical structures each neuron population travels through in the schematic image. The Source folder contains the ApiNATOMY representation of the model in JSON and .xlsx formats. Lastly, the README .md document includes a brief description, keywords, and reference references to construct the knowledge within the model. Please note, the focus of SPARC is on peripheral connectivity of the ANS and its main points of interaction with the CNS. Therefore, any CNS circuitry represented is not comprehensive unless otherwise specified.</t>
   </si>
   <si>
     <t>Link to annotated map in Google Slides</t>
@@ -1820,6 +1820,9 @@
     <t>seed</t>
   </si>
   <si>
+    <t>neuronTypes</t>
+  </si>
+  <si>
     <t>ilxtr:neuron-type-sstom-1</t>
   </si>
   <si>
@@ -1985,6 +1988,30 @@
     <t>notes</t>
   </si>
   <si>
+    <t>https://orcid.org/0000-0003-0638-5274</t>
+  </si>
+  <si>
+    <t>Bernard de Bono</t>
+  </si>
+  <si>
+    <t>permission received</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://orcid.org/0000-0002-2308-8813 </t>
+  </si>
+  <si>
+    <t>Monique Surles-Zeigler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://orcid.org/0000-0002-7509-4801 </t>
+  </si>
+  <si>
+    <t>Thomas H Gillespie</t>
+  </si>
+  <si>
+    <t>Jackie Bresnahan</t>
+  </si>
+  <si>
     <t>John Furness</t>
   </si>
   <si>
@@ -2004,31 +2031,13 @@
   </si>
   <si>
     <t>Gary Mawe</t>
-  </si>
-  <si>
-    <t>https://orcid.org/0000-0003-0638-5274</t>
-  </si>
-  <si>
-    <t>Bernard de Bono</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://orcid.org/0000-0002-2308-8813 </t>
-  </si>
-  <si>
-    <t>Monique Surles-Zeigler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://orcid.org/0000-0002-7509-4801 </t>
-  </si>
-  <si>
-    <t>Thomas H Gillespie</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2037,6 +2046,10 @@
     <font>
       <b/>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
       <name val="Arial"/>
     </font>
     <font>
@@ -2096,6 +2109,9 @@
       <name val="Arial"/>
     </font>
     <font>
+      <name val="Arial"/>
+    </font>
+    <font>
       <u/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
@@ -2105,6 +2121,7 @@
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <b/>
       <color theme="1"/>
@@ -2125,11 +2142,6 @@
     <font>
       <u/>
       <color rgb="FF0000FF"/>
-    </font>
-    <font/>
-    <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
     </font>
     <font>
       <u/>
@@ -2180,18 +2192,42 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="90">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -2200,233 +2236,221 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -2699,19 +2723,19 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2734,123 +2758,123 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="78" t="s">
-        <v>613</v>
-      </c>
-      <c r="B1" s="78" t="s">
+      <c r="A1" s="82" t="s">
         <v>614</v>
       </c>
+      <c r="B1" s="82" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="72" t="s">
-        <v>615</v>
-      </c>
-      <c r="B2" s="79" t="s">
+      <c r="A2" s="76" t="s">
         <v>616</v>
       </c>
+      <c r="B2" s="83" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="72" t="s">
-        <v>617</v>
-      </c>
-      <c r="B3" s="79" t="s">
+      <c r="A3" s="76" t="s">
         <v>618</v>
       </c>
+      <c r="B3" s="83" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="72" t="s">
-        <v>619</v>
-      </c>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="76" t="s">
         <v>620</v>
       </c>
+      <c r="B4" s="84" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="72" t="s">
-        <v>621</v>
-      </c>
-      <c r="B5" s="80" t="s">
+      <c r="A5" s="76" t="s">
         <v>622</v>
       </c>
+      <c r="B5" s="84" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="72" t="s">
-        <v>623</v>
-      </c>
-      <c r="B6" s="80" t="s">
+      <c r="A6" s="76" t="s">
         <v>624</v>
       </c>
+      <c r="B6" s="84" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="72" t="s">
-        <v>625</v>
-      </c>
-      <c r="B7" s="80" t="s">
+      <c r="A7" s="76" t="s">
         <v>626</v>
       </c>
+      <c r="B7" s="84" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="72" t="s">
-        <v>627</v>
-      </c>
-      <c r="B8" s="80" t="s">
+      <c r="A8" s="76" t="s">
         <v>628</v>
       </c>
+      <c r="B8" s="84" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="72" t="s">
-        <v>629</v>
-      </c>
-      <c r="B9" s="80" t="s">
+      <c r="A9" s="76" t="s">
         <v>630</v>
       </c>
+      <c r="B9" s="84" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="72" t="s">
-        <v>631</v>
-      </c>
-      <c r="B10" s="80" t="s">
+      <c r="A10" s="76" t="s">
         <v>632</v>
       </c>
+      <c r="B10" s="84" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="72" t="s">
-        <v>633</v>
-      </c>
-      <c r="B11" s="80" t="s">
+      <c r="A11" s="76" t="s">
         <v>634</v>
       </c>
+      <c r="B11" s="84" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="81" t="s">
-        <v>635</v>
-      </c>
-      <c r="B12" s="79" t="s">
+      <c r="A12" s="85" t="s">
         <v>636</v>
       </c>
+      <c r="B12" s="83" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="81" t="s">
-        <v>637</v>
-      </c>
-      <c r="B13" s="79" t="s">
+      <c r="A13" s="85" t="s">
         <v>638</v>
       </c>
+      <c r="B13" s="83" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="81" t="s">
-        <v>639</v>
-      </c>
-      <c r="B14" s="79" t="s">
+      <c r="A14" s="85" t="s">
         <v>640</v>
       </c>
+      <c r="B14" s="83" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="81" t="s">
-        <v>641</v>
-      </c>
-      <c r="B15" s="79" t="s">
+      <c r="A15" s="85" t="s">
         <v>642</v>
+      </c>
+      <c r="B15" s="83" t="s">
+        <v>643</v>
       </c>
     </row>
   </sheetData>
@@ -2885,84 +2909,104 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="82" t="s">
-        <v>643</v>
+      <c r="C1" s="86" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="2">
-      <c r="B2" s="83" t="s">
-        <v>644</v>
+      <c r="A2" s="87" t="s">
+        <v>645</v>
+      </c>
+      <c r="B2" s="88" t="s">
+        <v>646</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="83" t="s">
-        <v>645</v>
+      <c r="A3" s="87" t="s">
+        <v>648</v>
+      </c>
+      <c r="B3" s="88" t="s">
+        <v>649</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="83" t="s">
-        <v>646</v>
-      </c>
-      <c r="C4" s="82" t="s">
+      <c r="A4" s="87" t="s">
+        <v>650</v>
+      </c>
+      <c r="B4" s="88" t="s">
+        <v>651</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="83" t="s">
-        <v>648</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C5" s="86" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="83" t="s">
-        <v>649</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="89" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="89" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="89" t="s">
+        <v>655</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="89" t="s">
+        <v>657</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="89" t="s">
+        <v>658</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="89" t="s">
+        <v>659</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>647</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="83" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="84" t="s">
-        <v>651</v>
-      </c>
-      <c r="B8" s="85" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="84" t="s">
-        <v>653</v>
-      </c>
-      <c r="B9" s="85" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="84" t="s">
-        <v>655</v>
-      </c>
-      <c r="B10" s="85" t="s">
-        <v>656</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A8"/>
-    <hyperlink r:id="rId2" ref="A9"/>
-    <hyperlink r:id="rId3" ref="A10"/>
+    <hyperlink r:id="rId1" ref="A2"/>
+    <hyperlink r:id="rId2" ref="A3"/>
+    <hyperlink r:id="rId3" ref="A4"/>
   </hyperlinks>
   <drawing r:id="rId4"/>
 </worksheet>
@@ -2997,1597 +3041,1597 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="13" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="17"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
     </row>
     <row r="3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="13" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="17"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
     </row>
     <row r="4">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="13" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="17"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
     </row>
     <row r="5">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="13" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="17"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
     </row>
     <row r="6">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="19" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="N6" s="17"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
     </row>
     <row r="7">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="19" t="b">
+      <c r="D8" s="13"/>
+      <c r="E8" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="21" t="s">
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="N8" s="22" t="s">
+      <c r="N8" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
     </row>
     <row r="9">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="19" t="b">
+      <c r="D9" s="13"/>
+      <c r="E9" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
     </row>
     <row r="10">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="19" t="b">
+      <c r="D10" s="13"/>
+      <c r="E10" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
     </row>
     <row r="11">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="19" t="b">
+      <c r="D11" s="13"/>
+      <c r="E11" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
     </row>
     <row r="12">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="19" t="b">
+      <c r="D12" s="13"/>
+      <c r="E12" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
     </row>
     <row r="13">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="19" t="b">
+      <c r="D13" s="13"/>
+      <c r="E13" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
     </row>
     <row r="14">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="19" t="b">
+      <c r="D14" s="13"/>
+      <c r="E14" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
     </row>
     <row r="15">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="19" t="b">
+      <c r="D15" s="13"/>
+      <c r="E15" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
     </row>
     <row r="16">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="19" t="b">
+      <c r="D16" s="13"/>
+      <c r="E16" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
     </row>
     <row r="17">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="19" t="b">
+      <c r="D17" s="13"/>
+      <c r="E17" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
     </row>
     <row r="18">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="20" t="s">
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="J18" s="16"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="19" t="s">
+      <c r="J18" s="17"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="N18" s="24" t="s">
+      <c r="N18" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
     </row>
     <row r="19">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="20" t="s">
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="J19" s="16"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="19" t="s">
+      <c r="J19" s="17"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="N19" s="24" t="s">
+      <c r="N19" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
     </row>
     <row r="20">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="20" t="s">
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="J20" s="16"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
     </row>
     <row r="21">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
     </row>
     <row r="22">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
     </row>
     <row r="23">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
     </row>
     <row r="24">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
     </row>
     <row r="25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
     </row>
     <row r="26">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
     </row>
     <row r="27">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
     </row>
     <row r="28">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
     </row>
     <row r="29">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
     </row>
     <row r="30">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
     </row>
     <row r="31">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
     </row>
     <row r="32">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
     </row>
     <row r="33">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
     </row>
     <row r="34">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="29" t="b">
+      <c r="D34" s="13"/>
+      <c r="E34" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="F34" s="30"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="19" t="s">
+      <c r="F34" s="31"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="J34" s="30"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
     </row>
     <row r="35">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="32" t="b">
+      <c r="D35" s="13"/>
+      <c r="E35" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="33">
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="34">
         <v>229.0</v>
       </c>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="32" t="b">
+      <c r="D36" s="13"/>
+      <c r="E36" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="19" t="s">
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="J36" s="30"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
     </row>
     <row r="37">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="32" t="b">
+      <c r="D37" s="13"/>
+      <c r="E37" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="F37" s="11" t="s">
+      <c r="F37" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="19" t="s">
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="J37" s="30"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13"/>
     </row>
     <row r="38">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="32" t="b">
+      <c r="D38" s="13"/>
+      <c r="E38" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="F38" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="19" t="s">
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="J38" s="30"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="12"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
     </row>
     <row r="39">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C39" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="32" t="b">
+      <c r="D39" s="13"/>
+      <c r="E39" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="F39" s="11" t="s">
+      <c r="F39" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="19" t="s">
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="J39" s="30"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="12"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
     </row>
     <row r="40">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="12"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
     </row>
     <row r="41">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="12"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
     </row>
     <row r="42">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="C42" s="34" t="s">
+      <c r="C42" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="33">
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="34">
         <v>229.0</v>
       </c>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="12"/>
-      <c r="R42" s="3" t="s">
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="4" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C43" s="34" t="s">
+      <c r="C43" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="33">
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="34">
         <v>229.0</v>
       </c>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="12"/>
-      <c r="R43" s="3" t="s">
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="4" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="C44" s="34" t="s">
+      <c r="C44" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="33">
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="34">
         <v>229.0</v>
       </c>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="12"/>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="3" t="s">
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="18"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="4" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="C45" s="34" t="s">
+      <c r="C45" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="33">
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="34">
         <v>229.0</v>
       </c>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="12"/>
-      <c r="P45" s="12"/>
-      <c r="Q45" s="12"/>
-      <c r="R45" s="3" t="s">
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
+      <c r="R45" s="4" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="C46" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="33">
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="34">
         <v>229.0</v>
       </c>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="12"/>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="12"/>
-      <c r="R46" s="3" t="s">
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="4" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="C47" s="34" t="s">
+      <c r="C47" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="33">
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="34">
         <v>229.0</v>
       </c>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="12"/>
-      <c r="P47" s="12"/>
-      <c r="Q47" s="12"/>
-      <c r="R47" s="3" t="s">
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="18"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="4" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="C48" s="34" t="s">
+      <c r="C48" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="33">
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="34">
         <v>229.0</v>
       </c>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="12"/>
-      <c r="P48" s="12"/>
-      <c r="Q48" s="12"/>
-      <c r="R48" s="3" t="s">
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
+      <c r="R48" s="4" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="C49" s="34" t="s">
+      <c r="C49" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="33">
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="34">
         <v>229.0</v>
       </c>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="12"/>
-      <c r="P49" s="12"/>
-      <c r="Q49" s="12"/>
-      <c r="R49" s="3" t="s">
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
+      <c r="R49" s="4" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="C50" s="34" t="s">
+      <c r="C50" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="33">
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="34">
         <v>229.0</v>
       </c>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="12"/>
-      <c r="P50" s="12"/>
-      <c r="Q50" s="12"/>
-      <c r="R50" s="3" t="s">
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13"/>
+      <c r="R50" s="4" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="C51" s="34" t="s">
+      <c r="C51" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="33">
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="34">
         <v>229.0</v>
       </c>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="12"/>
-      <c r="P51" s="12"/>
-      <c r="Q51" s="12"/>
-      <c r="R51" s="3" t="s">
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="13"/>
+      <c r="R51" s="4" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="C52" s="34" t="s">
+      <c r="C52" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="33">
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="34">
         <v>229.0</v>
       </c>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="12"/>
-      <c r="P52" s="12"/>
-      <c r="Q52" s="12"/>
-      <c r="R52" s="3" t="s">
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="18"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="13"/>
+      <c r="R52" s="4" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="C53" s="34" t="s">
+      <c r="C53" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="33">
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="34">
         <v>229.0</v>
       </c>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="12"/>
-      <c r="P53" s="12"/>
-      <c r="Q53" s="12"/>
-      <c r="R53" s="3" t="s">
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13"/>
+      <c r="R53" s="4" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C54" s="34" t="s">
+      <c r="C54" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="33">
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="34">
         <v>229.0</v>
       </c>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="12"/>
-      <c r="P54" s="12"/>
-      <c r="Q54" s="12"/>
-      <c r="R54" s="3" t="s">
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="13"/>
+      <c r="R54" s="4" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="C55" s="34" t="s">
+      <c r="C55" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="33">
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="34">
         <v>229.0</v>
       </c>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="12"/>
-      <c r="P55" s="12"/>
-      <c r="Q55" s="12"/>
-      <c r="R55" s="3" t="s">
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13"/>
+      <c r="R55" s="4" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4613,314 +4657,314 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="36" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="30"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="38"/>
+      <c r="D4" s="39"/>
     </row>
     <row r="5">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="39" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="40" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="39" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="13"/>
     </row>
     <row r="9">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="13"/>
     </row>
     <row r="12">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="13"/>
     </row>
     <row r="13">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="D13" s="12"/>
+      <c r="D13" s="13"/>
     </row>
     <row r="14">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="D14" s="12"/>
+      <c r="D14" s="13"/>
     </row>
     <row r="15">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="D15" s="12"/>
+      <c r="D15" s="13"/>
     </row>
     <row r="16">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="D16" s="12"/>
+      <c r="D16" s="13"/>
     </row>
     <row r="17">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="D17" s="12"/>
+      <c r="D17" s="13"/>
     </row>
     <row r="18">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="D18" s="12"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="D19" s="38" t="s">
+      <c r="D19" s="39" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="42" t="s">
         <v>246</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="D20" s="12"/>
+      <c r="D20" s="13"/>
     </row>
     <row r="21">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="42" t="s">
         <v>249</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="D21" s="12"/>
+      <c r="D21" s="13"/>
     </row>
     <row r="22">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="43" t="s">
         <v>254</v>
       </c>
-      <c r="D22" s="12"/>
+      <c r="D22" s="13"/>
     </row>
     <row r="23">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="42" t="s">
         <v>255</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="44" t="s">
         <v>256</v>
       </c>
-      <c r="D23" s="12"/>
+      <c r="D23" s="13"/>
     </row>
     <row r="24">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="42" t="s">
         <v>257</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="44" t="s">
         <v>259</v>
       </c>
-      <c r="D24" s="12"/>
+      <c r="D24" s="13"/>
     </row>
     <row r="25">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="C25" s="44" t="s">
+      <c r="C25" s="45" t="s">
         <v>262</v>
       </c>
-      <c r="D25" s="12"/>
+      <c r="D25" s="13"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4946,293 +4990,293 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="46" t="s">
         <v>263</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="46" t="s">
         <v>264</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="46" t="s">
         <v>265</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="47" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="48" t="s">
         <v>268</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="47"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="49"/>
     </row>
     <row r="3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="48" t="s">
         <v>272</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="12"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="48" t="s">
         <v>276</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="12"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="48" t="s">
         <v>280</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="12"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="48" t="s">
         <v>284</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="12"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="48" t="s">
         <v>288</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="12"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="48" t="s">
         <v>292</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="12"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="48" t="s">
         <v>296</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="12"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="48" t="s">
         <v>300</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="12"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="48" t="s">
         <v>304</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="12"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="48" t="s">
         <v>308</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="12"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="48" t="s">
         <v>312</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="20" t="s">
         <v>313</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="F13" s="41"/>
-      <c r="G13" s="12"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="F14" s="41"/>
-      <c r="G14" s="12"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="12"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="13"/>
     </row>
   </sheetData>
   <printOptions gridLines="1" horizontalCentered="1"/>
@@ -5270,1812 +5314,1812 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="46" t="s">
         <v>323</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="46" t="s">
         <v>324</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="46" t="s">
         <v>325</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="46" t="s">
         <v>326</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="46" t="s">
         <v>327</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="51" t="s">
         <v>328</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="50" t="s">
         <v>329</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="L1" s="52" t="s">
         <v>330</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="53" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="54" t="s">
         <v>332</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="55" t="s">
         <v>333</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="31" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="20" t="s">
         <v>334</v>
       </c>
-      <c r="H2" s="41"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="3">
+      <c r="H2" s="42"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="4">
         <v>0.0</v>
       </c>
-      <c r="L2" s="46" t="s">
+      <c r="L2" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="12"/>
+      <c r="M2" s="13"/>
     </row>
     <row r="3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>335</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="54" t="s">
         <v>336</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="55" t="s">
         <v>337</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="31" t="s">
+      <c r="D3" s="56"/>
+      <c r="E3" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="20" t="s">
         <v>338</v>
       </c>
-      <c r="H3" s="41"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="3" t="s">
+      <c r="H3" s="42"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L3" s="46" t="s">
+      <c r="L3" s="48" t="s">
         <v>339</v>
       </c>
-      <c r="M3" s="12"/>
+      <c r="M3" s="13"/>
     </row>
     <row r="4">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="54" t="s">
         <v>341</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="35" t="s">
         <v>333</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31" t="s">
+      <c r="D4" s="31"/>
+      <c r="E4" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="H4" s="41"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="3">
+      <c r="H4" s="42"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="4">
         <v>0.0</v>
       </c>
-      <c r="L4" s="46" t="s">
+      <c r="L4" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="12"/>
+      <c r="M4" s="13"/>
     </row>
     <row r="5">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="54" t="s">
         <v>344</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="55" t="s">
         <v>337</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="31" t="s">
+      <c r="D5" s="56"/>
+      <c r="E5" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="3" t="s">
+      <c r="H5" s="42"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="46" t="s">
+      <c r="L5" s="48" t="s">
         <v>346</v>
       </c>
-      <c r="M5" s="12"/>
+      <c r="M5" s="13"/>
     </row>
     <row r="6">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="54" t="s">
         <v>348</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="35" t="s">
         <v>333</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="31" t="s">
+      <c r="D6" s="31"/>
+      <c r="E6" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="3">
+      <c r="H6" s="42"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="4">
         <v>0.0</v>
       </c>
-      <c r="L6" s="46" t="s">
+      <c r="L6" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="12"/>
+      <c r="M6" s="13"/>
     </row>
     <row r="7">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="54" t="s">
         <v>351</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="35" t="s">
         <v>337</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="31" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="H7" s="41"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="3" t="s">
+      <c r="H7" s="42"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="46" t="s">
+      <c r="L7" s="48" t="s">
         <v>353</v>
       </c>
-      <c r="M7" s="12"/>
+      <c r="M7" s="13"/>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="54" t="s">
         <v>355</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="35" t="s">
         <v>333</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="31" t="s">
+      <c r="D8" s="31"/>
+      <c r="E8" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="H8" s="41"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="3">
+      <c r="H8" s="42"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="4">
         <v>0.0</v>
       </c>
-      <c r="L8" s="46" t="s">
+      <c r="L8" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="12"/>
+      <c r="M8" s="13"/>
     </row>
     <row r="9">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="54" t="s">
         <v>357</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="35" t="s">
         <v>337</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="31" t="s">
+      <c r="D9" s="31"/>
+      <c r="E9" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="H9" s="41"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="3" t="s">
+      <c r="H9" s="42"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L9" s="46" t="s">
+      <c r="L9" s="48" t="s">
         <v>360</v>
       </c>
-      <c r="M9" s="12"/>
+      <c r="M9" s="13"/>
     </row>
     <row r="10">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="57" t="s">
         <v>362</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="58" t="s">
         <v>333</v>
       </c>
-      <c r="D10" s="56"/>
-      <c r="E10" s="31" t="s">
+      <c r="D10" s="59"/>
+      <c r="E10" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="22" t="s">
         <v>363</v>
       </c>
-      <c r="H10" s="57"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="22">
+      <c r="H10" s="60"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="23">
         <v>0.0</v>
       </c>
-      <c r="L10" s="59" t="s">
+      <c r="L10" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="M10" s="58"/>
+      <c r="M10" s="61"/>
     </row>
     <row r="11">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="54" t="s">
         <v>365</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="35" t="s">
         <v>337</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31" t="s">
+      <c r="D11" s="31"/>
+      <c r="E11" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="20" t="s">
         <v>366</v>
       </c>
-      <c r="H11" s="41"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="3" t="s">
+      <c r="H11" s="42"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="L11" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="M11" s="12"/>
+      <c r="M11" s="13"/>
     </row>
     <row r="12">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="63" t="s">
         <v>368</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="54" t="s">
         <v>369</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="35" t="s">
         <v>333</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="19" t="s">
+      <c r="D12" s="31"/>
+      <c r="E12" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="H12" s="41"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="3" t="s">
+      <c r="H12" s="42"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L12" s="46" t="s">
+      <c r="L12" s="48" t="s">
         <v>371</v>
       </c>
-      <c r="M12" s="12"/>
+      <c r="M12" s="13"/>
     </row>
     <row r="13">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="63" t="s">
         <v>372</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="54" t="s">
         <v>373</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="35" t="s">
         <v>333</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31" t="s">
+      <c r="D13" s="31"/>
+      <c r="E13" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="H13" s="41"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="46" t="s">
+      <c r="H13" s="42"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="48" t="s">
         <v>375</v>
       </c>
-      <c r="L13" s="61" t="s">
+      <c r="L13" s="64" t="s">
         <v>376</v>
       </c>
-      <c r="M13" s="12"/>
+      <c r="M13" s="13"/>
     </row>
     <row r="14">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="63" t="s">
         <v>377</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="54" t="s">
         <v>378</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="35" t="s">
         <v>333</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31" t="s">
+      <c r="D14" s="31"/>
+      <c r="E14" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="H14" s="41"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="46" t="s">
+      <c r="H14" s="42"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="48" t="s">
         <v>380</v>
       </c>
-      <c r="L14" s="61" t="s">
+      <c r="L14" s="64" t="s">
         <v>381</v>
       </c>
-      <c r="M14" s="12"/>
+      <c r="M14" s="13"/>
     </row>
     <row r="15">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="63" t="s">
         <v>382</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="54" t="s">
         <v>383</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="35" t="s">
         <v>333</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="31" t="s">
+      <c r="D15" s="31"/>
+      <c r="E15" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="20" t="s">
         <v>384</v>
       </c>
-      <c r="H15" s="41"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="46" t="s">
+      <c r="H15" s="42"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="48" t="s">
         <v>385</v>
       </c>
-      <c r="L15" s="61" t="s">
+      <c r="L15" s="64" t="s">
         <v>386</v>
       </c>
-      <c r="M15" s="12"/>
+      <c r="M15" s="13"/>
     </row>
     <row r="16">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="63" t="s">
         <v>387</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="54" t="s">
         <v>388</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="35" t="s">
         <v>333</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="31" t="s">
+      <c r="D16" s="31"/>
+      <c r="E16" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="20" t="s">
         <v>389</v>
       </c>
-      <c r="H16" s="41"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="46" t="s">
+      <c r="H16" s="42"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="L16" s="61" t="s">
+      <c r="L16" s="64" t="s">
         <v>391</v>
       </c>
-      <c r="M16" s="12"/>
+      <c r="M16" s="13"/>
     </row>
     <row r="17">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="63" t="s">
         <v>392</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="54" t="s">
         <v>393</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="35" t="s">
         <v>333</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31" t="s">
+      <c r="D17" s="31"/>
+      <c r="E17" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="20" t="s">
         <v>394</v>
       </c>
-      <c r="H17" s="41"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="46" t="s">
+      <c r="H17" s="42"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="48" t="s">
         <v>375</v>
       </c>
-      <c r="L17" s="61" t="s">
+      <c r="L17" s="64" t="s">
         <v>395</v>
       </c>
-      <c r="M17" s="12"/>
+      <c r="M17" s="13"/>
     </row>
     <row r="18">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="63" t="s">
         <v>396</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="54" t="s">
         <v>397</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="35" t="s">
         <v>333</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31" t="s">
+      <c r="D18" s="31"/>
+      <c r="E18" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="46" t="s">
+      <c r="H18" s="42"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="48" t="s">
         <v>380</v>
       </c>
-      <c r="L18" s="61" t="s">
+      <c r="L18" s="64" t="s">
         <v>399</v>
       </c>
-      <c r="M18" s="12"/>
+      <c r="M18" s="13"/>
     </row>
     <row r="19">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="63" t="s">
         <v>400</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="54" t="s">
         <v>401</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="35" t="s">
         <v>333</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31" t="s">
+      <c r="D19" s="31"/>
+      <c r="E19" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="20" t="s">
         <v>402</v>
       </c>
-      <c r="H19" s="41"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="46" t="s">
+      <c r="H19" s="42"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="48" t="s">
         <v>385</v>
       </c>
-      <c r="L19" s="61" t="s">
+      <c r="L19" s="64" t="s">
         <v>403</v>
       </c>
-      <c r="M19" s="12"/>
+      <c r="M19" s="13"/>
     </row>
     <row r="20">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="63" t="s">
         <v>404</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="54" t="s">
         <v>405</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="35" t="s">
         <v>333</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="31" t="s">
+      <c r="D20" s="31"/>
+      <c r="E20" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="20" t="s">
         <v>406</v>
       </c>
-      <c r="H20" s="41"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="46" t="s">
+      <c r="H20" s="42"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="L20" s="61" t="s">
+      <c r="L20" s="64" t="s">
         <v>407</v>
       </c>
-      <c r="M20" s="12"/>
+      <c r="M20" s="13"/>
     </row>
     <row r="21">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="63" t="s">
         <v>408</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="54" t="s">
         <v>409</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="35" t="s">
         <v>333</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31" t="s">
+      <c r="D21" s="31"/>
+      <c r="E21" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="20" t="s">
         <v>410</v>
       </c>
-      <c r="H21" s="41"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="46" t="s">
+      <c r="H21" s="42"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="48" t="s">
         <v>411</v>
       </c>
-      <c r="L21" s="61" t="s">
+      <c r="L21" s="64" t="s">
         <v>412</v>
       </c>
-      <c r="M21" s="12"/>
+      <c r="M21" s="13"/>
     </row>
     <row r="22">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="63" t="s">
         <v>413</v>
       </c>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="54" t="s">
         <v>414</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="35" t="s">
         <v>333</v>
       </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31" t="s">
+      <c r="D22" s="31"/>
+      <c r="E22" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="G22" s="20" t="s">
         <v>415</v>
       </c>
-      <c r="H22" s="41"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="46" t="s">
+      <c r="H22" s="42"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="48" t="s">
         <v>416</v>
       </c>
-      <c r="L22" s="61" t="s">
+      <c r="L22" s="64" t="s">
         <v>417</v>
       </c>
-      <c r="M22" s="12"/>
+      <c r="M22" s="13"/>
     </row>
     <row r="23">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="14" t="s">
         <v>418</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="54" t="s">
         <v>419</v>
       </c>
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="55" t="s">
         <v>333</v>
       </c>
-      <c r="D23" s="62"/>
-      <c r="E23" s="31" t="s">
+      <c r="D23" s="65"/>
+      <c r="E23" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="G23" s="19" t="s">
+      <c r="G23" s="20" t="s">
         <v>420</v>
       </c>
-      <c r="H23" s="41"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="46">
+      <c r="H23" s="42"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="48">
         <v>0.0</v>
       </c>
-      <c r="L23" s="61" t="s">
+      <c r="L23" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="M23" s="12"/>
+      <c r="M23" s="13"/>
     </row>
     <row r="24">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="14" t="s">
         <v>421</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="54" t="s">
         <v>422</v>
       </c>
-      <c r="C24" s="52" t="s">
+      <c r="C24" s="55" t="s">
         <v>337</v>
       </c>
-      <c r="D24" s="62"/>
-      <c r="E24" s="31" t="s">
+      <c r="D24" s="65"/>
+      <c r="E24" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="G24" s="20" t="s">
         <v>423</v>
       </c>
-      <c r="H24" s="41"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="46" t="s">
+      <c r="H24" s="42"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="L24" s="61" t="s">
+      <c r="L24" s="64" t="s">
         <v>424</v>
       </c>
-      <c r="M24" s="12"/>
+      <c r="M24" s="13"/>
     </row>
     <row r="25">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="20" t="s">
         <v>425</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="54" t="s">
         <v>426</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="55" t="s">
         <v>333</v>
       </c>
-      <c r="D25" s="62"/>
-      <c r="E25" s="31" t="s">
+      <c r="D25" s="65"/>
+      <c r="E25" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="G25" s="19" t="s">
+      <c r="G25" s="20" t="s">
         <v>427</v>
       </c>
-      <c r="H25" s="41"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="46">
+      <c r="H25" s="42"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="48">
         <v>0.0</v>
       </c>
-      <c r="L25" s="61" t="s">
+      <c r="L25" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="M25" s="12"/>
+      <c r="M25" s="13"/>
     </row>
     <row r="26">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="20" t="s">
         <v>428</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="54" t="s">
         <v>429</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="35" t="s">
         <v>337</v>
       </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="31" t="s">
+      <c r="D26" s="31"/>
+      <c r="E26" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="G26" s="19" t="s">
+      <c r="G26" s="20" t="s">
         <v>430</v>
       </c>
-      <c r="H26" s="41"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="46" t="s">
+      <c r="H26" s="42"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="48" t="s">
         <v>431</v>
       </c>
-      <c r="L26" s="61" t="s">
+      <c r="L26" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="M26" s="12"/>
+      <c r="M26" s="13"/>
     </row>
     <row r="27">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="14" t="s">
         <v>433</v>
       </c>
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="54" t="s">
         <v>434</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="35" t="s">
         <v>333</v>
       </c>
-      <c r="D27" s="30"/>
-      <c r="E27" s="31" t="s">
+      <c r="D27" s="31"/>
+      <c r="E27" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="G27" s="19" t="s">
+      <c r="G27" s="20" t="s">
         <v>435</v>
       </c>
-      <c r="H27" s="41"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="46">
+      <c r="H27" s="42"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="48">
         <v>0.0</v>
       </c>
-      <c r="L27" s="61" t="s">
+      <c r="L27" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="M27" s="12"/>
+      <c r="M27" s="13"/>
     </row>
     <row r="28">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="14" t="s">
         <v>436</v>
       </c>
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="54" t="s">
         <v>437</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="35" t="s">
         <v>337</v>
       </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="31" t="s">
+      <c r="D28" s="31"/>
+      <c r="E28" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="F28" s="19" t="s">
+      <c r="F28" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="G28" s="19" t="s">
+      <c r="G28" s="20" t="s">
         <v>438</v>
       </c>
-      <c r="H28" s="41"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="46" t="s">
+      <c r="H28" s="42"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="48" t="s">
         <v>431</v>
       </c>
-      <c r="L28" s="61" t="s">
+      <c r="L28" s="64" t="s">
         <v>439</v>
       </c>
-      <c r="M28" s="12"/>
+      <c r="M28" s="13"/>
     </row>
     <row r="29">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="20" t="s">
         <v>440</v>
       </c>
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="54" t="s">
         <v>441</v>
       </c>
-      <c r="C29" s="52" t="s">
+      <c r="C29" s="55" t="s">
         <v>333</v>
       </c>
-      <c r="D29" s="62"/>
-      <c r="E29" s="31" t="s">
+      <c r="D29" s="65"/>
+      <c r="E29" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="F29" s="19" t="s">
+      <c r="F29" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="G29" s="19" t="s">
+      <c r="G29" s="20" t="s">
         <v>442</v>
       </c>
-      <c r="H29" s="41"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="46">
+      <c r="H29" s="42"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="48">
         <v>0.0</v>
       </c>
-      <c r="L29" s="61" t="s">
+      <c r="L29" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="M29" s="12"/>
+      <c r="M29" s="13"/>
     </row>
     <row r="30">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="20" t="s">
         <v>443</v>
       </c>
-      <c r="B30" s="51" t="s">
+      <c r="B30" s="54" t="s">
         <v>444</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="35" t="s">
         <v>337</v>
       </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="31" t="s">
+      <c r="D30" s="31"/>
+      <c r="E30" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="F30" s="19" t="s">
+      <c r="F30" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="G30" s="19" t="s">
+      <c r="G30" s="20" t="s">
         <v>445</v>
       </c>
-      <c r="H30" s="41"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="46" t="s">
+      <c r="H30" s="42"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="48" t="s">
         <v>431</v>
       </c>
-      <c r="L30" s="61" t="s">
+      <c r="L30" s="64" t="s">
         <v>446</v>
       </c>
-      <c r="M30" s="12"/>
+      <c r="M30" s="13"/>
     </row>
     <row r="31">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="B31" s="51" t="s">
+      <c r="B31" s="54" t="s">
         <v>448</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="35" t="s">
         <v>333</v>
       </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="31" t="s">
+      <c r="D31" s="31"/>
+      <c r="E31" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="F31" s="19" t="s">
+      <c r="F31" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="G31" s="19" t="s">
+      <c r="G31" s="20" t="s">
         <v>449</v>
       </c>
-      <c r="H31" s="41"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="46">
+      <c r="H31" s="42"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="48">
         <v>0.0</v>
       </c>
-      <c r="L31" s="61" t="s">
+      <c r="L31" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="M31" s="12"/>
+      <c r="M31" s="13"/>
     </row>
     <row r="32">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="20" t="s">
         <v>450</v>
       </c>
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="54" t="s">
         <v>451</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="35" t="s">
         <v>337</v>
       </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="31" t="s">
+      <c r="D32" s="31"/>
+      <c r="E32" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="F32" s="19" t="s">
+      <c r="F32" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="G32" s="19" t="s">
+      <c r="G32" s="20" t="s">
         <v>452</v>
       </c>
-      <c r="H32" s="41"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="46" t="s">
+      <c r="H32" s="42"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="48" t="s">
         <v>431</v>
       </c>
-      <c r="L32" s="61" t="s">
+      <c r="L32" s="64" t="s">
         <v>446</v>
       </c>
-      <c r="M32" s="12"/>
+      <c r="M32" s="13"/>
     </row>
     <row r="33">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="20" t="s">
         <v>453</v>
       </c>
-      <c r="B33" s="51" t="s">
+      <c r="B33" s="54" t="s">
         <v>454</v>
       </c>
-      <c r="C33" s="52" t="s">
+      <c r="C33" s="55" t="s">
         <v>333</v>
       </c>
-      <c r="D33" s="62"/>
-      <c r="E33" s="31" t="s">
+      <c r="D33" s="65"/>
+      <c r="E33" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="F33" s="19" t="s">
+      <c r="F33" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="G33" s="19" t="s">
+      <c r="G33" s="20" t="s">
         <v>455</v>
       </c>
-      <c r="H33" s="41"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="46">
+      <c r="H33" s="42"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="48">
         <v>6.0</v>
       </c>
-      <c r="L33" s="61" t="s">
+      <c r="L33" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="M33" s="12"/>
+      <c r="M33" s="13"/>
     </row>
     <row r="34">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="22" t="s">
         <v>456</v>
       </c>
-      <c r="B34" s="54" t="s">
+      <c r="B34" s="57" t="s">
         <v>457</v>
       </c>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="58" t="s">
         <v>337</v>
       </c>
-      <c r="D34" s="56"/>
-      <c r="E34" s="31" t="s">
+      <c r="D34" s="59"/>
+      <c r="E34" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="F34" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="G34" s="21" t="s">
+      <c r="G34" s="22" t="s">
         <v>458</v>
       </c>
-      <c r="H34" s="57"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="59" t="s">
+      <c r="H34" s="60"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="62" t="s">
         <v>459</v>
       </c>
-      <c r="L34" s="64" t="s">
+      <c r="L34" s="67" t="s">
         <v>460</v>
       </c>
-      <c r="M34" s="58"/>
+      <c r="M34" s="61"/>
     </row>
     <row r="35">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="22" t="s">
         <v>461</v>
       </c>
-      <c r="B35" s="54" t="s">
+      <c r="B35" s="57" t="s">
         <v>462</v>
       </c>
-      <c r="C35" s="55" t="s">
+      <c r="C35" s="58" t="s">
         <v>337</v>
       </c>
-      <c r="D35" s="56"/>
-      <c r="E35" s="31" t="s">
+      <c r="D35" s="59"/>
+      <c r="E35" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="F35" s="21" t="s">
+      <c r="F35" s="22" t="s">
         <v>458</v>
       </c>
-      <c r="G35" s="21" t="s">
+      <c r="G35" s="22" t="s">
         <v>463</v>
       </c>
-      <c r="H35" s="57"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="22" t="s">
+      <c r="H35" s="60"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="23" t="s">
         <v>464</v>
       </c>
-      <c r="L35" s="64" t="s">
+      <c r="L35" s="67" t="s">
         <v>460</v>
       </c>
-      <c r="M35" s="58"/>
+      <c r="M35" s="61"/>
     </row>
     <row r="36">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="54" t="s">
         <v>466</v>
       </c>
-      <c r="C36" s="52" t="s">
+      <c r="C36" s="55" t="s">
         <v>337</v>
       </c>
-      <c r="D36" s="62"/>
-      <c r="E36" s="31" t="s">
+      <c r="D36" s="65"/>
+      <c r="E36" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="F36" s="19" t="s">
+      <c r="F36" s="20" t="s">
         <v>458</v>
       </c>
-      <c r="G36" s="19" t="s">
+      <c r="G36" s="20" t="s">
         <v>467</v>
       </c>
-      <c r="H36" s="41"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="46" t="s">
+      <c r="H36" s="42"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="48" t="s">
         <v>468</v>
       </c>
-      <c r="L36" s="61" t="s">
+      <c r="L36" s="64" t="s">
         <v>469</v>
       </c>
-      <c r="M36" s="12"/>
+      <c r="M36" s="13"/>
     </row>
     <row r="37">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="14" t="s">
         <v>470</v>
       </c>
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="54" t="s">
         <v>471</v>
       </c>
-      <c r="C37" s="52" t="s">
+      <c r="C37" s="55" t="s">
         <v>333</v>
       </c>
-      <c r="D37" s="62"/>
-      <c r="E37" s="31" t="s">
+      <c r="D37" s="65"/>
+      <c r="E37" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="F37" s="19" t="s">
+      <c r="F37" s="20" t="s">
         <v>313</v>
       </c>
-      <c r="G37" s="19" t="s">
+      <c r="G37" s="20" t="s">
         <v>472</v>
       </c>
-      <c r="H37" s="41"/>
-      <c r="I37" s="63"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="46">
+      <c r="H37" s="42"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="48">
         <v>6.0</v>
       </c>
-      <c r="L37" s="65" t="s">
+      <c r="L37" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="M37" s="12"/>
+      <c r="M37" s="13"/>
     </row>
     <row r="38">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="14" t="s">
         <v>473</v>
       </c>
-      <c r="B38" s="51" t="s">
+      <c r="B38" s="54" t="s">
         <v>474</v>
       </c>
-      <c r="C38" s="52" t="s">
+      <c r="C38" s="55" t="s">
         <v>337</v>
       </c>
-      <c r="D38" s="62"/>
-      <c r="E38" s="31" t="s">
+      <c r="D38" s="65"/>
+      <c r="E38" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="F38" s="19" t="s">
+      <c r="F38" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="G38" s="19" t="s">
+      <c r="G38" s="20" t="s">
         <v>475</v>
       </c>
-      <c r="H38" s="41"/>
-      <c r="I38" s="63"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="46" t="s">
+      <c r="H38" s="42"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="48" t="s">
         <v>459</v>
       </c>
-      <c r="L38" s="65" t="s">
+      <c r="L38" s="68" t="s">
         <v>476</v>
       </c>
-      <c r="M38" s="12"/>
+      <c r="M38" s="13"/>
     </row>
     <row r="39">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="14" t="s">
         <v>477</v>
       </c>
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="54" t="s">
         <v>478</v>
       </c>
-      <c r="C39" s="52" t="s">
+      <c r="C39" s="55" t="s">
         <v>337</v>
       </c>
-      <c r="D39" s="62"/>
-      <c r="E39" s="31" t="s">
+      <c r="D39" s="65"/>
+      <c r="E39" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="F39" s="19" t="s">
+      <c r="F39" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="G39" s="19" t="s">
+      <c r="G39" s="20" t="s">
         <v>479</v>
       </c>
-      <c r="H39" s="41"/>
-      <c r="I39" s="63"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="46" t="s">
+      <c r="H39" s="42"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="48" t="s">
         <v>464</v>
       </c>
-      <c r="L39" s="65" t="s">
+      <c r="L39" s="68" t="s">
         <v>476</v>
       </c>
-      <c r="M39" s="12"/>
+      <c r="M39" s="13"/>
     </row>
     <row r="40">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="14" t="s">
         <v>480</v>
       </c>
-      <c r="B40" s="51" t="s">
+      <c r="B40" s="54" t="s">
         <v>481</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C40" s="35" t="s">
         <v>337</v>
       </c>
-      <c r="D40" s="30"/>
-      <c r="E40" s="31" t="s">
+      <c r="D40" s="31"/>
+      <c r="E40" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="F40" s="19" t="s">
+      <c r="F40" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="G40" s="19" t="s">
+      <c r="G40" s="20" t="s">
         <v>482</v>
       </c>
-      <c r="H40" s="41"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="46" t="s">
+      <c r="H40" s="42"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="48" t="s">
         <v>464</v>
       </c>
-      <c r="L40" s="47" t="s">
+      <c r="L40" s="49" t="s">
         <v>476</v>
       </c>
-      <c r="M40" s="12"/>
+      <c r="M40" s="13"/>
     </row>
     <row r="41">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="14" t="s">
         <v>483</v>
       </c>
-      <c r="B41" s="51" t="s">
+      <c r="B41" s="54" t="s">
         <v>484</v>
       </c>
-      <c r="C41" s="34" t="s">
+      <c r="C41" s="35" t="s">
         <v>337</v>
       </c>
-      <c r="D41" s="30"/>
-      <c r="E41" s="31" t="s">
+      <c r="D41" s="31"/>
+      <c r="E41" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="F41" s="19" t="s">
+      <c r="F41" s="20" t="s">
         <v>482</v>
       </c>
-      <c r="G41" s="19" t="s">
+      <c r="G41" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="H41" s="41"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="46" t="s">
+      <c r="H41" s="42"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="48" t="s">
         <v>486</v>
       </c>
-      <c r="L41" s="61" t="s">
+      <c r="L41" s="64" t="s">
         <v>487</v>
       </c>
-      <c r="M41" s="12"/>
+      <c r="M41" s="13"/>
     </row>
     <row r="42">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="54" t="s">
         <v>489</v>
       </c>
-      <c r="C42" s="34" t="s">
+      <c r="C42" s="35" t="s">
         <v>337</v>
       </c>
-      <c r="D42" s="30"/>
-      <c r="E42" s="31" t="s">
+      <c r="D42" s="31"/>
+      <c r="E42" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="F42" s="19" t="s">
+      <c r="F42" s="20" t="s">
         <v>482</v>
       </c>
-      <c r="G42" s="19" t="s">
+      <c r="G42" s="20" t="s">
         <v>490</v>
       </c>
-      <c r="H42" s="41"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="46" t="s">
+      <c r="H42" s="42"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="48" t="s">
         <v>486</v>
       </c>
-      <c r="L42" s="61" t="s">
+      <c r="L42" s="64" t="s">
         <v>487</v>
       </c>
-      <c r="M42" s="12"/>
+      <c r="M42" s="13"/>
     </row>
     <row r="43">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="14" t="s">
         <v>491</v>
       </c>
-      <c r="B43" s="51" t="s">
+      <c r="B43" s="54" t="s">
         <v>492</v>
       </c>
-      <c r="C43" s="34" t="s">
+      <c r="C43" s="35" t="s">
         <v>337</v>
       </c>
-      <c r="D43" s="30"/>
-      <c r="E43" s="31" t="s">
+      <c r="D43" s="31"/>
+      <c r="E43" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="F43" s="19" t="s">
+      <c r="F43" s="20" t="s">
         <v>482</v>
       </c>
-      <c r="G43" s="19" t="s">
+      <c r="G43" s="20" t="s">
         <v>493</v>
       </c>
-      <c r="H43" s="41"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="46" t="s">
+      <c r="H43" s="42"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="48" t="s">
         <v>486</v>
       </c>
-      <c r="L43" s="61" t="s">
+      <c r="L43" s="64" t="s">
         <v>487</v>
       </c>
-      <c r="M43" s="12"/>
+      <c r="M43" s="13"/>
     </row>
     <row r="44">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="14" t="s">
         <v>494</v>
       </c>
-      <c r="B44" s="51" t="s">
+      <c r="B44" s="54" t="s">
         <v>495</v>
       </c>
-      <c r="C44" s="34" t="s">
+      <c r="C44" s="35" t="s">
         <v>333</v>
       </c>
-      <c r="D44" s="30"/>
-      <c r="E44" s="31" t="s">
+      <c r="D44" s="31"/>
+      <c r="E44" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="F44" s="19" t="s">
+      <c r="F44" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="G44" s="19" t="s">
+      <c r="G44" s="20" t="s">
         <v>496</v>
       </c>
-      <c r="H44" s="41"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="46">
+      <c r="H44" s="42"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="48">
         <v>6.0</v>
       </c>
-      <c r="L44" s="61" t="s">
+      <c r="L44" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="M44" s="12"/>
+      <c r="M44" s="13"/>
     </row>
     <row r="45">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="14" t="s">
         <v>497</v>
       </c>
-      <c r="B45" s="51" t="s">
+      <c r="B45" s="54" t="s">
         <v>498</v>
       </c>
-      <c r="C45" s="34" t="s">
+      <c r="C45" s="35" t="s">
         <v>337</v>
       </c>
-      <c r="D45" s="30"/>
-      <c r="E45" s="31" t="s">
+      <c r="D45" s="31"/>
+      <c r="E45" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="F45" s="19" t="s">
+      <c r="F45" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="G45" s="19" t="s">
+      <c r="G45" s="20" t="s">
         <v>499</v>
       </c>
-      <c r="H45" s="41"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="46" t="s">
+      <c r="H45" s="42"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="48" t="s">
         <v>459</v>
       </c>
-      <c r="L45" s="61" t="s">
+      <c r="L45" s="64" t="s">
         <v>476</v>
       </c>
-      <c r="M45" s="12"/>
+      <c r="M45" s="13"/>
     </row>
     <row r="46">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="14" t="s">
         <v>500</v>
       </c>
-      <c r="B46" s="51" t="s">
+      <c r="B46" s="54" t="s">
         <v>501</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="C46" s="35" t="s">
         <v>337</v>
       </c>
-      <c r="D46" s="30"/>
-      <c r="E46" s="31" t="s">
+      <c r="D46" s="31"/>
+      <c r="E46" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="F46" s="19" t="s">
+      <c r="F46" s="20" t="s">
         <v>499</v>
       </c>
-      <c r="G46" s="19" t="s">
+      <c r="G46" s="20" t="s">
         <v>502</v>
       </c>
-      <c r="H46" s="41"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="46">
+      <c r="H46" s="42"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="48">
         <v>7.0</v>
       </c>
-      <c r="L46" s="61" t="s">
+      <c r="L46" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="M46" s="12"/>
+      <c r="M46" s="13"/>
     </row>
     <row r="47">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="14" t="s">
         <v>503</v>
       </c>
-      <c r="B47" s="51" t="s">
+      <c r="B47" s="54" t="s">
         <v>504</v>
       </c>
-      <c r="C47" s="34" t="s">
+      <c r="C47" s="35" t="s">
         <v>337</v>
       </c>
-      <c r="D47" s="30"/>
-      <c r="E47" s="31" t="s">
+      <c r="D47" s="31"/>
+      <c r="E47" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="F47" s="19" t="s">
+      <c r="F47" s="20" t="s">
         <v>499</v>
       </c>
-      <c r="G47" s="19" t="s">
+      <c r="G47" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="H47" s="41"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="46">
+      <c r="H47" s="42"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="48">
         <v>7.0</v>
       </c>
-      <c r="L47" s="61" t="s">
+      <c r="L47" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="M47" s="12"/>
+      <c r="M47" s="13"/>
     </row>
     <row r="48">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="14" t="s">
         <v>506</v>
       </c>
-      <c r="B48" s="51" t="s">
+      <c r="B48" s="54" t="s">
         <v>507</v>
       </c>
-      <c r="C48" s="34" t="s">
+      <c r="C48" s="35" t="s">
         <v>337</v>
       </c>
-      <c r="D48" s="30"/>
-      <c r="E48" s="31" t="s">
+      <c r="D48" s="31"/>
+      <c r="E48" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="F48" s="19" t="s">
+      <c r="F48" s="20" t="s">
         <v>499</v>
       </c>
-      <c r="G48" s="19" t="s">
+      <c r="G48" s="20" t="s">
         <v>508</v>
       </c>
-      <c r="H48" s="41"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="46">
+      <c r="H48" s="42"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="48">
         <v>7.0</v>
       </c>
-      <c r="L48" s="61" t="s">
+      <c r="L48" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="M48" s="12"/>
+      <c r="M48" s="13"/>
     </row>
     <row r="49">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="14" t="s">
         <v>509</v>
       </c>
-      <c r="B49" s="51" t="s">
+      <c r="B49" s="54" t="s">
         <v>510</v>
       </c>
-      <c r="C49" s="34" t="s">
+      <c r="C49" s="35" t="s">
         <v>337</v>
       </c>
-      <c r="D49" s="30"/>
-      <c r="E49" s="31" t="s">
+      <c r="D49" s="31"/>
+      <c r="E49" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="F49" s="19" t="s">
+      <c r="F49" s="20" t="s">
         <v>499</v>
       </c>
-      <c r="G49" s="19" t="s">
+      <c r="G49" s="20" t="s">
         <v>511</v>
       </c>
-      <c r="H49" s="41"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="46" t="s">
+      <c r="H49" s="42"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="48" t="s">
         <v>464</v>
       </c>
-      <c r="L49" s="61" t="s">
+      <c r="L49" s="64" t="s">
         <v>476</v>
       </c>
-      <c r="M49" s="12"/>
+      <c r="M49" s="13"/>
     </row>
     <row r="50">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="14" t="s">
         <v>512</v>
       </c>
-      <c r="B50" s="51" t="s">
+      <c r="B50" s="54" t="s">
         <v>513</v>
       </c>
-      <c r="C50" s="34" t="s">
+      <c r="C50" s="35" t="s">
         <v>337</v>
       </c>
-      <c r="D50" s="30"/>
-      <c r="E50" s="31" t="s">
+      <c r="D50" s="31"/>
+      <c r="E50" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="F50" s="19" t="s">
+      <c r="F50" s="20" t="s">
         <v>511</v>
       </c>
-      <c r="G50" s="19" t="s">
+      <c r="G50" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="H50" s="41"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="46">
+      <c r="H50" s="42"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="48">
         <v>5.0</v>
       </c>
-      <c r="L50" s="61" t="s">
+      <c r="L50" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="M50" s="12"/>
+      <c r="M50" s="13"/>
     </row>
     <row r="51">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="14" t="s">
         <v>515</v>
       </c>
-      <c r="B51" s="51" t="s">
+      <c r="B51" s="54" t="s">
         <v>516</v>
       </c>
-      <c r="C51" s="34" t="s">
+      <c r="C51" s="35" t="s">
         <v>337</v>
       </c>
-      <c r="D51" s="30"/>
-      <c r="E51" s="31" t="s">
+      <c r="D51" s="31"/>
+      <c r="E51" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="F51" s="19" t="s">
+      <c r="F51" s="20" t="s">
         <v>511</v>
       </c>
-      <c r="G51" s="19" t="s">
+      <c r="G51" s="20" t="s">
         <v>517</v>
       </c>
-      <c r="H51" s="41"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="46">
+      <c r="H51" s="42"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="48">
         <v>5.0</v>
       </c>
-      <c r="L51" s="61" t="s">
+      <c r="L51" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="M51" s="12"/>
+      <c r="M51" s="13"/>
     </row>
     <row r="52">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="14" t="s">
         <v>518</v>
       </c>
-      <c r="B52" s="51" t="s">
+      <c r="B52" s="54" t="s">
         <v>519</v>
       </c>
-      <c r="C52" s="34" t="s">
+      <c r="C52" s="35" t="s">
         <v>337</v>
       </c>
-      <c r="D52" s="30"/>
-      <c r="E52" s="31" t="s">
+      <c r="D52" s="31"/>
+      <c r="E52" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="F52" s="19" t="s">
+      <c r="F52" s="20" t="s">
         <v>511</v>
       </c>
-      <c r="G52" s="19" t="s">
+      <c r="G52" s="20" t="s">
         <v>520</v>
       </c>
-      <c r="H52" s="41"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="46">
+      <c r="H52" s="42"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="48">
         <v>5.0</v>
       </c>
-      <c r="L52" s="61" t="s">
+      <c r="L52" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="M52" s="12"/>
+      <c r="M52" s="13"/>
     </row>
     <row r="53">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="14" t="s">
         <v>521</v>
       </c>
-      <c r="B53" s="51" t="s">
+      <c r="B53" s="54" t="s">
         <v>522</v>
       </c>
-      <c r="C53" s="34" t="s">
+      <c r="C53" s="35" t="s">
         <v>333</v>
       </c>
-      <c r="D53" s="30"/>
-      <c r="E53" s="31" t="s">
+      <c r="D53" s="31"/>
+      <c r="E53" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="F53" s="19" t="s">
+      <c r="F53" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="G53" s="19" t="s">
+      <c r="G53" s="20" t="s">
         <v>523</v>
       </c>
-      <c r="H53" s="41"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="46">
+      <c r="H53" s="42"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="48">
         <v>6.0</v>
       </c>
-      <c r="L53" s="61" t="s">
+      <c r="L53" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="M53" s="12"/>
+      <c r="M53" s="13"/>
     </row>
     <row r="54">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="14" t="s">
         <v>524</v>
       </c>
-      <c r="B54" s="51" t="s">
+      <c r="B54" s="54" t="s">
         <v>525</v>
       </c>
-      <c r="C54" s="34" t="s">
+      <c r="C54" s="35" t="s">
         <v>337</v>
       </c>
-      <c r="D54" s="30"/>
-      <c r="E54" s="31" t="s">
+      <c r="D54" s="31"/>
+      <c r="E54" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="F54" s="19" t="s">
+      <c r="F54" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="G54" s="19" t="s">
+      <c r="G54" s="20" t="s">
         <v>526</v>
       </c>
-      <c r="H54" s="41"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="46" t="s">
+      <c r="H54" s="42"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="48" t="s">
         <v>459</v>
       </c>
-      <c r="L54" s="61" t="s">
+      <c r="L54" s="64" t="s">
         <v>460</v>
       </c>
-      <c r="M54" s="12"/>
+      <c r="M54" s="13"/>
     </row>
     <row r="55">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="14" t="s">
         <v>527</v>
       </c>
-      <c r="B55" s="51" t="s">
+      <c r="B55" s="54" t="s">
         <v>528</v>
       </c>
-      <c r="C55" s="34" t="s">
+      <c r="C55" s="35" t="s">
         <v>337</v>
       </c>
-      <c r="D55" s="30"/>
-      <c r="E55" s="31" t="s">
+      <c r="D55" s="31"/>
+      <c r="E55" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="F55" s="19" t="s">
+      <c r="F55" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="G55" s="19" t="s">
+      <c r="G55" s="20" t="s">
         <v>529</v>
       </c>
-      <c r="H55" s="41"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="46" t="s">
+      <c r="H55" s="42"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="48" t="s">
         <v>464</v>
       </c>
-      <c r="L55" s="61" t="s">
+      <c r="L55" s="64" t="s">
         <v>460</v>
       </c>
-      <c r="M55" s="12"/>
+      <c r="M55" s="13"/>
     </row>
     <row r="56">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="14" t="s">
         <v>530</v>
       </c>
-      <c r="B56" s="51" t="s">
+      <c r="B56" s="54" t="s">
         <v>531</v>
       </c>
-      <c r="C56" s="34" t="s">
+      <c r="C56" s="35" t="s">
         <v>337</v>
       </c>
-      <c r="D56" s="30"/>
-      <c r="E56" s="31" t="s">
+      <c r="D56" s="31"/>
+      <c r="E56" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="F56" s="19" t="s">
+      <c r="F56" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="G56" s="19" t="s">
+      <c r="G56" s="20" t="s">
         <v>532</v>
       </c>
-      <c r="H56" s="41"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="46" t="s">
+      <c r="H56" s="42"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="48" t="s">
         <v>464</v>
       </c>
-      <c r="L56" s="61" t="s">
+      <c r="L56" s="64" t="s">
         <v>460</v>
       </c>
-      <c r="M56" s="12"/>
+      <c r="M56" s="13"/>
     </row>
     <row r="57">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="14" t="s">
         <v>533</v>
       </c>
-      <c r="B57" s="51" t="s">
+      <c r="B57" s="54" t="s">
         <v>534</v>
       </c>
-      <c r="C57" s="34" t="s">
+      <c r="C57" s="35" t="s">
         <v>337</v>
       </c>
-      <c r="D57" s="30"/>
-      <c r="E57" s="31" t="s">
+      <c r="D57" s="31"/>
+      <c r="E57" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="F57" s="19" t="s">
+      <c r="F57" s="20" t="s">
         <v>532</v>
       </c>
-      <c r="G57" s="19" t="s">
+      <c r="G57" s="20" t="s">
         <v>535</v>
       </c>
-      <c r="H57" s="41"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="46" t="s">
+      <c r="H57" s="42"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="48" t="s">
         <v>536</v>
       </c>
-      <c r="L57" s="61" t="s">
+      <c r="L57" s="64" t="s">
         <v>537</v>
       </c>
-      <c r="M57" s="12"/>
+      <c r="M57" s="13"/>
     </row>
     <row r="58">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="14" t="s">
         <v>538</v>
       </c>
-      <c r="B58" s="51" t="s">
+      <c r="B58" s="54" t="s">
         <v>539</v>
       </c>
-      <c r="C58" s="34" t="s">
+      <c r="C58" s="35" t="s">
         <v>337</v>
       </c>
-      <c r="D58" s="30"/>
-      <c r="E58" s="31" t="s">
+      <c r="D58" s="31"/>
+      <c r="E58" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="F58" s="19" t="s">
+      <c r="F58" s="20" t="s">
         <v>532</v>
       </c>
-      <c r="G58" s="19" t="s">
+      <c r="G58" s="20" t="s">
         <v>540</v>
       </c>
-      <c r="H58" s="41"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="46" t="s">
+      <c r="H58" s="42"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="48" t="s">
         <v>536</v>
       </c>
-      <c r="L58" s="61" t="s">
+      <c r="L58" s="64" t="s">
         <v>537</v>
       </c>
-      <c r="M58" s="12"/>
+      <c r="M58" s="13"/>
     </row>
   </sheetData>
   <printOptions gridLines="1" horizontalCentered="1"/>
@@ -7096,45 +7140,45 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="46" t="s">
         <v>541</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="2">
-      <c r="D2" s="12"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3">
-      <c r="D3" s="12"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4">
-      <c r="D4" s="19"/>
+      <c r="D4" s="20"/>
     </row>
     <row r="5">
-      <c r="D5" s="19"/>
+      <c r="D5" s="20"/>
     </row>
     <row r="6">
-      <c r="D6" s="19"/>
+      <c r="D6" s="20"/>
     </row>
     <row r="7">
-      <c r="D7" s="19"/>
+      <c r="D7" s="20"/>
     </row>
     <row r="8">
-      <c r="D8" s="19"/>
+      <c r="D8" s="20"/>
     </row>
     <row r="9">
-      <c r="D9" s="19"/>
+      <c r="D9" s="20"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -7158,266 +7202,266 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>543</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="31" t="s">
         <v>544</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="31" t="s">
         <v>545</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="31" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>547</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="31" t="s">
         <v>548</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="31" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="31" t="s">
         <v>550</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="31" t="s">
         <v>551</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="31" t="s">
         <v>552</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="31" t="s">
         <v>553</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="53" t="s">
         <v>554</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7">
-      <c r="A7" s="12"/>
-      <c r="B7" s="30" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="31" t="s">
         <v>555</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="53" t="s">
         <v>554</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8">
-      <c r="A8" s="12"/>
-      <c r="B8" s="30" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="31" t="s">
         <v>556</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="53" t="s">
         <v>554</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="13"/>
     </row>
     <row r="9">
-      <c r="A9" s="12"/>
-      <c r="B9" s="30" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="31" t="s">
         <v>557</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="53" t="s">
         <v>554</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="13" t="s">
         <v>559</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
     </row>
     <row r="12">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>560</v>
       </c>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="69" t="s">
         <v>561</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
     </row>
     <row r="13">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13" t="s">
         <v>562</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="69" t="s">
         <v>563</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
     </row>
     <row r="14">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="13" t="s">
         <v>564</v>
       </c>
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="69" t="s">
         <v>565</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
     </row>
     <row r="15">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="13" t="s">
         <v>566</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="69" t="s">
         <v>567</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
     </row>
     <row r="16">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="13" t="s">
         <v>568</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="69" t="s">
         <v>569</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
     </row>
     <row r="17">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="13" t="s">
         <v>570</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="69" t="s">
         <v>571</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
     </row>
     <row r="18">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="13" t="s">
         <v>572</v>
       </c>
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
     </row>
     <row r="20">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="13" t="s">
         <v>573</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
     </row>
     <row r="21">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="21" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="12"/>
+      <c r="A22" s="13"/>
     </row>
     <row r="23">
-      <c r="A23" s="12"/>
+      <c r="A23" s="13"/>
     </row>
     <row r="24">
-      <c r="A24" s="12"/>
+      <c r="A24" s="13"/>
     </row>
     <row r="25">
-      <c r="A25" s="12"/>
+      <c r="A25" s="13"/>
     </row>
     <row r="26">
-      <c r="A26" s="12"/>
+      <c r="A26" s="13"/>
     </row>
     <row r="27">
-      <c r="A27" s="12"/>
+      <c r="A27" s="13"/>
     </row>
     <row r="28">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="B28" s="68" t="s">
+      <c r="B28" s="71" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="16" t="s">
         <v>578</v>
       </c>
-      <c r="B29" s="69" t="s">
+      <c r="B29" s="72" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="16" t="s">
         <v>580</v>
       </c>
-      <c r="B30" s="68" t="s">
+      <c r="B30" s="71" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="13" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="13" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="12"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7458,247 +7502,264 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="73" t="s">
         <v>323</v>
       </c>
-      <c r="E1" s="70" t="s">
+      <c r="E1" s="73" t="s">
         <v>584</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="I1" s="71" t="s">
+      <c r="I1" s="74" t="s">
         <v>266</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="31" t="s">
         <v>588</v>
       </c>
+      <c r="K1" s="53" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="3" t="str">
+      <c r="B2" s="4" t="str">
         <f t="shared" ref="B2:B15" si="1">CONCATENATE("Neuron ",RIGHT(A2,LEN(A2) - (FIND("-",A2))))</f>
         <v>Neuron 1</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>589</v>
-      </c>
-      <c r="E2" s="19"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="12"/>
+      <c r="C2" s="20" t="s">
+        <v>590</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="3" t="str">
+      <c r="B3" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 2</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>590</v>
-      </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="20" t="s">
+        <v>591</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="3" t="str">
+      <c r="B4" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 3</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>591</v>
-      </c>
-      <c r="E4" s="19"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="12"/>
+      <c r="C4" s="20" t="s">
+        <v>592</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B5" s="72" t="str">
+      <c r="B5" s="76" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 4</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>592</v>
-      </c>
-      <c r="E5" s="19"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="12"/>
+      <c r="C5" s="20" t="s">
+        <v>593</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B6" s="72" t="str">
+      <c r="B6" s="76" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 5</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>593</v>
-      </c>
-      <c r="E6" s="19"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="12"/>
+      <c r="C6" s="20" t="s">
+        <v>594</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B7" s="72" t="str">
+      <c r="B7" s="76" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 6</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>594</v>
-      </c>
-      <c r="E7" s="19"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="12"/>
+      <c r="C7" s="20" t="s">
+        <v>595</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B8" s="72" t="str">
+      <c r="B8" s="76" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 7</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>595</v>
-      </c>
-      <c r="E8" s="19"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="12"/>
+      <c r="C8" s="20" t="s">
+        <v>596</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B9" s="72" t="str">
+      <c r="B9" s="76" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 8</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>596</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="12"/>
+      <c r="C9" s="20" t="s">
+        <v>597</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B10" s="72" t="str">
+      <c r="B10" s="76" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 9</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>597</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="12"/>
+      <c r="C10" s="20" t="s">
+        <v>598</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B11" s="72" t="str">
+      <c r="B11" s="76" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 10</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>598</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="12"/>
+      <c r="C11" s="20" t="s">
+        <v>599</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B12" s="72" t="str">
+      <c r="B12" s="76" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 11</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>599</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="12"/>
+      <c r="C12" s="20" t="s">
+        <v>600</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B13" s="72" t="str">
+      <c r="B13" s="76" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 12</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>600</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="12"/>
+      <c r="C13" s="20" t="s">
+        <v>601</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B14" s="72" t="str">
+      <c r="B14" s="76" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 13</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>601</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
+      <c r="C14" s="20" t="s">
+        <v>602</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B15" s="72" t="str">
+      <c r="B15" s="76" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 14</v>
       </c>
-      <c r="C15" s="19" t="s">
-        <v>602</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
+      <c r="C15" s="20" t="s">
+        <v>603</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -7720,87 +7781,87 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="74" t="s">
-        <v>605</v>
-      </c>
-      <c r="C2" s="75" t="str">
+      <c r="A2" s="78" t="s">
+        <v>606</v>
+      </c>
+      <c r="C2" s="79" t="str">
         <f t="array" ref="C2">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A2,6,LEN(A2))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/12576302</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="76" t="s">
-        <v>606</v>
-      </c>
-      <c r="C3" s="75" t="str">
+      <c r="A3" s="80" t="s">
+        <v>607</v>
+      </c>
+      <c r="C3" s="79" t="str">
         <f t="array" ref="C3">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A3,6,LEN(A3))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/24306100</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="77" t="s">
-        <v>607</v>
-      </c>
-      <c r="C4" s="75" t="str">
+      <c r="A4" s="81" t="s">
+        <v>608</v>
+      </c>
+      <c r="C4" s="79" t="str">
         <f t="array" ref="C4">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A4,6,LEN(A4))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/18924442</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="77" t="s">
-        <v>608</v>
-      </c>
-      <c r="C5" s="75" t="str">
+      <c r="A5" s="81" t="s">
+        <v>609</v>
+      </c>
+      <c r="C5" s="79" t="str">
         <f t="array" ref="C5">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A5,6,LEN(A5))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/23438947</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="77" t="s">
-        <v>609</v>
-      </c>
-      <c r="C6" s="75" t="str">
+      <c r="A6" s="81" t="s">
+        <v>610</v>
+      </c>
+      <c r="C6" s="79" t="str">
         <f t="array" ref="C6">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A6,6,LEN(A6))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/11437981</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="77" t="s">
-        <v>610</v>
-      </c>
-      <c r="C7" s="75" t="str">
+      <c r="A7" s="81" t="s">
+        <v>611</v>
+      </c>
+      <c r="C7" s="79" t="str">
         <f t="array" ref="C7">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A7,6,LEN(A7))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/18364578</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="77" t="s">
-        <v>611</v>
-      </c>
-      <c r="C8" s="75" t="str">
+      <c r="A8" s="81" t="s">
+        <v>612</v>
+      </c>
+      <c r="C8" s="79" t="str">
         <f t="array" ref="C8">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A8,6,LEN(A8))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/2902218</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="77" t="s">
-        <v>612</v>
-      </c>
-      <c r="C9" s="75" t="str">
+      <c r="A9" s="81" t="s">
+        <v>613</v>
+      </c>
+      <c r="C9" s="79" t="str">
         <f t="array" ref="C9">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A9,6,LEN(A9))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/18286675</v>
       </c>

--- a/models/sawg-stomach/source/sawg-stomach.xlsx
+++ b/models/sawg-stomach/source/sawg-stomach.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="665">
   <si>
     <t>id</t>
   </si>
@@ -494,7 +494,7 @@
     <t>mucosa of esophagus</t>
   </si>
   <si>
-    <t>FMA:62996</t>
+    <t>UBERON:0002469</t>
   </si>
   <si>
     <t>lum_eso</t>
@@ -1826,6 +1826,9 @@
     <t>ilxtr:neuron-type-sstom-1</t>
   </si>
   <si>
+    <t>visceral sensory neuron</t>
+  </si>
+  <si>
     <t>ilxtr:neuron-type-sstom-2</t>
   </si>
   <si>
@@ -1838,12 +1841,18 @@
     <t>ilxtr:neuron-type-sstom-5</t>
   </si>
   <si>
+    <t>vagal afferent neuron</t>
+  </si>
+  <si>
     <t>ilxtr:neuron-type-sstom-6</t>
   </si>
   <si>
     <t>ilxtr:neuron-type-sstom-7</t>
   </si>
   <si>
+    <t>parasympathetic preganglionic neuron</t>
+  </si>
+  <si>
     <t>ilxtr:neuron-type-sstom-8</t>
   </si>
   <si>
@@ -1856,7 +1865,13 @@
     <t>ilxtr:neuron-type-sstom-11</t>
   </si>
   <si>
+    <t>inhibitory neuron</t>
+  </si>
+  <si>
     <t>ilxtr:neuron-type-sstom-12</t>
+  </si>
+  <si>
+    <t>excitatory neuron</t>
   </si>
   <si>
     <t>ilxtr:neuron-type-sstom-13</t>
@@ -2037,11 +2052,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2049,17 +2071,18 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -2109,9 +2132,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <name val="Arial"/>
-    </font>
-    <font>
       <u/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
@@ -2121,7 +2141,6 @@
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <b/>
       <color theme="1"/>
@@ -2141,7 +2160,7 @@
     </font>
     <font>
       <u/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
       <u/>
@@ -2150,9 +2169,11 @@
     </font>
     <font>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2163,6 +2184,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
     <fill>
@@ -2192,7 +2219,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="94">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2202,7 +2229,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2229,183 +2256,201 @@
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -2415,39 +2460,35 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2707,10 +2748,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="30.0"/>
-    <col customWidth="1" min="3" max="4" width="19.43"/>
+    <col customWidth="1" min="2" max="2" width="26.25"/>
+    <col customWidth="1" min="3" max="4" width="17.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2752,129 +2793,129 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="35.57"/>
+    <col customWidth="1" min="2" max="2" width="31.13"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="82" t="s">
-        <v>614</v>
-      </c>
-      <c r="B1" s="82" t="s">
-        <v>615</v>
+      <c r="A1" s="87" t="s">
+        <v>619</v>
+      </c>
+      <c r="B1" s="87" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="76" t="s">
-        <v>616</v>
-      </c>
-      <c r="B2" s="83" t="s">
-        <v>617</v>
+      <c r="A2" s="81" t="s">
+        <v>621</v>
+      </c>
+      <c r="B2" s="88" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="76" t="s">
-        <v>618</v>
-      </c>
-      <c r="B3" s="83" t="s">
-        <v>619</v>
+      <c r="A3" s="81" t="s">
+        <v>623</v>
+      </c>
+      <c r="B3" s="88" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="76" t="s">
-        <v>620</v>
-      </c>
-      <c r="B4" s="84" t="s">
-        <v>621</v>
+      <c r="A4" s="81" t="s">
+        <v>625</v>
+      </c>
+      <c r="B4" s="89" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="76" t="s">
-        <v>622</v>
-      </c>
-      <c r="B5" s="84" t="s">
-        <v>623</v>
+      <c r="A5" s="81" t="s">
+        <v>627</v>
+      </c>
+      <c r="B5" s="89" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="76" t="s">
-        <v>624</v>
-      </c>
-      <c r="B6" s="84" t="s">
-        <v>625</v>
+      <c r="A6" s="81" t="s">
+        <v>629</v>
+      </c>
+      <c r="B6" s="89" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="76" t="s">
-        <v>626</v>
-      </c>
-      <c r="B7" s="84" t="s">
-        <v>627</v>
+      <c r="A7" s="81" t="s">
+        <v>631</v>
+      </c>
+      <c r="B7" s="89" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="76" t="s">
-        <v>628</v>
-      </c>
-      <c r="B8" s="84" t="s">
-        <v>629</v>
+      <c r="A8" s="81" t="s">
+        <v>633</v>
+      </c>
+      <c r="B8" s="89" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="76" t="s">
-        <v>630</v>
-      </c>
-      <c r="B9" s="84" t="s">
-        <v>631</v>
+      <c r="A9" s="81" t="s">
+        <v>635</v>
+      </c>
+      <c r="B9" s="89" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="76" t="s">
-        <v>632</v>
-      </c>
-      <c r="B10" s="84" t="s">
-        <v>633</v>
+      <c r="A10" s="81" t="s">
+        <v>637</v>
+      </c>
+      <c r="B10" s="89" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="76" t="s">
-        <v>634</v>
-      </c>
-      <c r="B11" s="84" t="s">
-        <v>635</v>
+      <c r="A11" s="81" t="s">
+        <v>639</v>
+      </c>
+      <c r="B11" s="89" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="85" t="s">
-        <v>636</v>
-      </c>
-      <c r="B12" s="83" t="s">
-        <v>637</v>
+      <c r="A12" s="90" t="s">
+        <v>641</v>
+      </c>
+      <c r="B12" s="88" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="85" t="s">
-        <v>638</v>
-      </c>
-      <c r="B13" s="83" t="s">
-        <v>639</v>
+      <c r="A13" s="90" t="s">
+        <v>643</v>
+      </c>
+      <c r="B13" s="88" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="85" t="s">
-        <v>640</v>
-      </c>
-      <c r="B14" s="83" t="s">
-        <v>641</v>
+      <c r="A14" s="90" t="s">
+        <v>645</v>
+      </c>
+      <c r="B14" s="88" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="85" t="s">
-        <v>642</v>
-      </c>
-      <c r="B15" s="83" t="s">
-        <v>643</v>
+      <c r="A15" s="90" t="s">
+        <v>647</v>
+      </c>
+      <c r="B15" s="88" t="s">
+        <v>648</v>
       </c>
     </row>
   </sheetData>
@@ -2906,100 +2947,103 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="42.63"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="86" t="s">
-        <v>644</v>
+      <c r="C1" s="4" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="87" t="s">
-        <v>645</v>
-      </c>
-      <c r="B2" s="88" t="s">
-        <v>646</v>
+      <c r="A2" s="91" t="s">
+        <v>650</v>
+      </c>
+      <c r="B2" s="92" t="s">
+        <v>651</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="87" t="s">
-        <v>648</v>
-      </c>
-      <c r="B3" s="88" t="s">
-        <v>649</v>
+      <c r="A3" s="91" t="s">
+        <v>653</v>
+      </c>
+      <c r="B3" s="92" t="s">
+        <v>654</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="87" t="s">
-        <v>650</v>
-      </c>
-      <c r="B4" s="88" t="s">
-        <v>651</v>
+      <c r="A4" s="91" t="s">
+        <v>655</v>
+      </c>
+      <c r="B4" s="92" t="s">
+        <v>656</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="C5" s="86" t="s">
-        <v>647</v>
-      </c>
     </row>
     <row r="6">
-      <c r="B6" s="89" t="s">
-        <v>653</v>
+      <c r="B6" s="93" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="89" t="s">
-        <v>654</v>
+      <c r="B7" s="93" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="89" t="s">
-        <v>655</v>
+      <c r="B8" s="93" t="s">
+        <v>660</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="89" t="s">
-        <v>657</v>
+      <c r="B9" s="93" t="s">
+        <v>662</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="89" t="s">
-        <v>658</v>
+      <c r="B10" s="93" t="s">
+        <v>663</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="89" t="s">
-        <v>659</v>
+      <c r="B11" s="93" t="s">
+        <v>664</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
     </row>
   </sheetData>
@@ -3025,19 +3069,19 @@
       <selection activeCell="C2" sqref="C2" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.71"/>
-    <col customWidth="1" min="2" max="2" width="60.14"/>
-    <col customWidth="1" min="3" max="3" width="18.57"/>
-    <col customWidth="1" min="4" max="4" width="11.29"/>
-    <col customWidth="1" min="5" max="5" width="13.29"/>
-    <col customWidth="1" min="6" max="9" width="25.0"/>
-    <col customWidth="1" min="10" max="10" width="10.86"/>
-    <col customWidth="1" min="11" max="11" width="12.29"/>
-    <col customWidth="1" min="12" max="12" width="16.29"/>
-    <col customWidth="1" min="13" max="13" width="20.14"/>
-    <col customWidth="1" min="14" max="14" width="27.86"/>
+    <col customWidth="1" min="1" max="1" width="12.0"/>
+    <col customWidth="1" min="2" max="2" width="52.63"/>
+    <col customWidth="1" min="3" max="3" width="16.25"/>
+    <col customWidth="1" min="4" max="4" width="9.88"/>
+    <col customWidth="1" min="5" max="5" width="11.63"/>
+    <col customWidth="1" min="6" max="9" width="21.88"/>
+    <col customWidth="1" min="10" max="10" width="9.5"/>
+    <col customWidth="1" min="11" max="11" width="10.75"/>
+    <col customWidth="1" min="12" max="12" width="14.25"/>
+    <col customWidth="1" min="13" max="13" width="17.63"/>
+    <col customWidth="1" min="14" max="14" width="24.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3664,30 +3708,30 @@
       <c r="R21" s="13"/>
     </row>
     <row r="22">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
     </row>
     <row r="23">
       <c r="A23" s="14" t="s">
@@ -3704,7 +3748,7 @@
       <c r="F23" s="12"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
-      <c r="I23" s="26"/>
+      <c r="I23" s="33"/>
       <c r="J23" s="17"/>
       <c r="K23" s="13"/>
       <c r="L23" s="13"/>
@@ -3730,7 +3774,7 @@
       <c r="F24" s="12"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
-      <c r="I24" s="26"/>
+      <c r="I24" s="33"/>
       <c r="J24" s="17"/>
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
@@ -3742,7 +3786,7 @@
       <c r="R24" s="13"/>
     </row>
     <row r="25">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="26" t="s">
         <v>103</v>
       </c>
       <c r="B25" s="15" t="s">
@@ -3800,7 +3844,7 @@
       <c r="B27" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="34" t="s">
         <v>111</v>
       </c>
       <c r="D27" s="13"/>
@@ -3826,7 +3870,7 @@
       <c r="B28" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="34" t="s">
         <v>114</v>
       </c>
       <c r="D28" s="13"/>
@@ -3849,10 +3893,10 @@
       <c r="A29" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="C29" s="27"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="12"/>
@@ -3876,7 +3920,7 @@
       <c r="B30" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="34" t="s">
         <v>58</v>
       </c>
       <c r="D30" s="13"/>
@@ -3902,7 +3946,7 @@
       <c r="B31" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="34" t="s">
         <v>120</v>
       </c>
       <c r="D31" s="13"/>
@@ -3928,7 +3972,7 @@
       <c r="B32" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="34" t="s">
         <v>123</v>
       </c>
       <c r="D32" s="13"/>
@@ -3954,7 +3998,7 @@
       <c r="B33" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="34" t="s">
         <v>126</v>
       </c>
       <c r="D33" s="13"/>
@@ -3980,20 +4024,20 @@
       <c r="B34" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="36" t="s">
         <v>129</v>
       </c>
       <c r="D34" s="13"/>
-      <c r="E34" s="30" t="b">
+      <c r="E34" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="F34" s="31"/>
+      <c r="F34" s="38"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
       <c r="I34" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="J34" s="31"/>
+      <c r="J34" s="38"/>
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
@@ -4004,17 +4048,17 @@
       <c r="R34" s="13"/>
     </row>
     <row r="35">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="39" t="s">
         <v>131</v>
       </c>
       <c r="B35" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="36" t="s">
         <v>129</v>
       </c>
       <c r="D35" s="13"/>
-      <c r="E35" s="33" t="b">
+      <c r="E35" s="40" t="b">
         <v>1</v>
       </c>
       <c r="F35" s="12" t="s">
@@ -4023,7 +4067,7 @@
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
-      <c r="J35" s="34">
+      <c r="J35" s="41">
         <v>229.0</v>
       </c>
       <c r="K35" s="13"/>
@@ -4042,11 +4086,11 @@
       <c r="B36" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C36" s="29" t="s">
+      <c r="C36" s="36" t="s">
         <v>135</v>
       </c>
       <c r="D36" s="13"/>
-      <c r="E36" s="33" t="b">
+      <c r="E36" s="40" t="b">
         <v>1</v>
       </c>
       <c r="F36" s="12" t="s">
@@ -4057,7 +4101,7 @@
       <c r="I36" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="J36" s="31"/>
+      <c r="J36" s="38"/>
       <c r="K36" s="13"/>
       <c r="L36" s="13"/>
       <c r="M36" s="13"/>
@@ -4068,17 +4112,17 @@
       <c r="R36" s="13"/>
     </row>
     <row r="37">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="39" t="s">
         <v>137</v>
       </c>
       <c r="B37" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="C37" s="36" t="s">
         <v>135</v>
       </c>
       <c r="D37" s="13"/>
-      <c r="E37" s="33" t="b">
+      <c r="E37" s="40" t="b">
         <v>1</v>
       </c>
       <c r="F37" s="12" t="s">
@@ -4089,7 +4133,7 @@
       <c r="I37" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="J37" s="31"/>
+      <c r="J37" s="38"/>
       <c r="K37" s="13"/>
       <c r="L37" s="13"/>
       <c r="M37" s="13"/>
@@ -4100,17 +4144,17 @@
       <c r="R37" s="13"/>
     </row>
     <row r="38">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="39" t="s">
         <v>140</v>
       </c>
       <c r="B38" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="36" t="s">
         <v>142</v>
       </c>
       <c r="D38" s="13"/>
-      <c r="E38" s="33" t="b">
+      <c r="E38" s="40" t="b">
         <v>1</v>
       </c>
       <c r="F38" s="12" t="s">
@@ -4121,7 +4165,7 @@
       <c r="I38" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="J38" s="31"/>
+      <c r="J38" s="38"/>
       <c r="K38" s="13"/>
       <c r="L38" s="13"/>
       <c r="M38" s="13"/>
@@ -4132,17 +4176,17 @@
       <c r="R38" s="13"/>
     </row>
     <row r="39">
-      <c r="A39" s="32" t="s">
+      <c r="A39" s="39" t="s">
         <v>143</v>
       </c>
       <c r="B39" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="36" t="s">
         <v>142</v>
       </c>
       <c r="D39" s="13"/>
-      <c r="E39" s="33" t="b">
+      <c r="E39" s="40" t="b">
         <v>1</v>
       </c>
       <c r="F39" s="12" t="s">
@@ -4153,7 +4197,7 @@
       <c r="I39" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="J39" s="31"/>
+      <c r="J39" s="38"/>
       <c r="K39" s="13"/>
       <c r="L39" s="13"/>
       <c r="M39" s="13"/>
@@ -4170,7 +4214,7 @@
       <c r="B40" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="4" t="s">
         <v>147</v>
       </c>
       <c r="D40" s="13"/>
@@ -4196,7 +4240,7 @@
       <c r="B41" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="34" t="s">
         <v>150</v>
       </c>
       <c r="D41" s="13"/>
@@ -4222,7 +4266,7 @@
       <c r="B42" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="42" t="s">
         <v>152</v>
       </c>
       <c r="D42" s="13"/>
@@ -4231,7 +4275,7 @@
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
       <c r="I42" s="16"/>
-      <c r="J42" s="34">
+      <c r="J42" s="41">
         <v>229.0</v>
       </c>
       <c r="K42" s="13"/>
@@ -4252,7 +4296,7 @@
       <c r="B43" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="42" t="s">
         <v>152</v>
       </c>
       <c r="D43" s="13"/>
@@ -4261,7 +4305,7 @@
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
       <c r="I43" s="16"/>
-      <c r="J43" s="34">
+      <c r="J43" s="41">
         <v>229.0</v>
       </c>
       <c r="K43" s="13"/>
@@ -4282,7 +4326,7 @@
       <c r="B44" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="42" t="s">
         <v>152</v>
       </c>
       <c r="D44" s="13"/>
@@ -4291,7 +4335,7 @@
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
       <c r="I44" s="16"/>
-      <c r="J44" s="34">
+      <c r="J44" s="41">
         <v>229.0</v>
       </c>
       <c r="K44" s="13"/>
@@ -4312,7 +4356,7 @@
       <c r="B45" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="C45" s="42" t="s">
         <v>152</v>
       </c>
       <c r="D45" s="13"/>
@@ -4321,7 +4365,7 @@
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
       <c r="I45" s="16"/>
-      <c r="J45" s="34">
+      <c r="J45" s="41">
         <v>229.0</v>
       </c>
       <c r="K45" s="13"/>
@@ -4342,7 +4386,7 @@
       <c r="B46" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="C46" s="35" t="s">
+      <c r="C46" s="42" t="s">
         <v>152</v>
       </c>
       <c r="D46" s="13"/>
@@ -4351,7 +4395,7 @@
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
       <c r="I46" s="16"/>
-      <c r="J46" s="34">
+      <c r="J46" s="41">
         <v>229.0</v>
       </c>
       <c r="K46" s="13"/>
@@ -4372,7 +4416,7 @@
       <c r="B47" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="42" t="s">
         <v>152</v>
       </c>
       <c r="D47" s="13"/>
@@ -4381,7 +4425,7 @@
       <c r="G47" s="13"/>
       <c r="H47" s="13"/>
       <c r="I47" s="16"/>
-      <c r="J47" s="34">
+      <c r="J47" s="41">
         <v>229.0</v>
       </c>
       <c r="K47" s="13"/>
@@ -4402,7 +4446,7 @@
       <c r="B48" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="42" t="s">
         <v>152</v>
       </c>
       <c r="D48" s="13"/>
@@ -4411,7 +4455,7 @@
       <c r="G48" s="13"/>
       <c r="H48" s="13"/>
       <c r="I48" s="16"/>
-      <c r="J48" s="34">
+      <c r="J48" s="41">
         <v>229.0</v>
       </c>
       <c r="K48" s="13"/>
@@ -4432,7 +4476,7 @@
       <c r="B49" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="42" t="s">
         <v>152</v>
       </c>
       <c r="D49" s="13"/>
@@ -4441,7 +4485,7 @@
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
       <c r="I49" s="16"/>
-      <c r="J49" s="34">
+      <c r="J49" s="41">
         <v>229.0</v>
       </c>
       <c r="K49" s="13"/>
@@ -4462,7 +4506,7 @@
       <c r="B50" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="C50" s="35" t="s">
+      <c r="C50" s="42" t="s">
         <v>152</v>
       </c>
       <c r="D50" s="13"/>
@@ -4471,7 +4515,7 @@
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
       <c r="I50" s="16"/>
-      <c r="J50" s="34">
+      <c r="J50" s="41">
         <v>229.0</v>
       </c>
       <c r="K50" s="13"/>
@@ -4492,7 +4536,7 @@
       <c r="B51" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="C51" s="35" t="s">
+      <c r="C51" s="42" t="s">
         <v>152</v>
       </c>
       <c r="D51" s="13"/>
@@ -4501,7 +4545,7 @@
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
       <c r="I51" s="16"/>
-      <c r="J51" s="34">
+      <c r="J51" s="41">
         <v>229.0</v>
       </c>
       <c r="K51" s="13"/>
@@ -4522,7 +4566,7 @@
       <c r="B52" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="C52" s="35" t="s">
+      <c r="C52" s="42" t="s">
         <v>152</v>
       </c>
       <c r="D52" s="13"/>
@@ -4531,7 +4575,7 @@
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
       <c r="I52" s="16"/>
-      <c r="J52" s="34">
+      <c r="J52" s="41">
         <v>229.0</v>
       </c>
       <c r="K52" s="13"/>
@@ -4552,7 +4596,7 @@
       <c r="B53" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="42" t="s">
         <v>152</v>
       </c>
       <c r="D53" s="13"/>
@@ -4561,7 +4605,7 @@
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
       <c r="I53" s="16"/>
-      <c r="J53" s="34">
+      <c r="J53" s="41">
         <v>229.0</v>
       </c>
       <c r="K53" s="13"/>
@@ -4582,7 +4626,7 @@
       <c r="B54" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C54" s="35" t="s">
+      <c r="C54" s="42" t="s">
         <v>152</v>
       </c>
       <c r="D54" s="13"/>
@@ -4591,7 +4635,7 @@
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
       <c r="I54" s="16"/>
-      <c r="J54" s="34">
+      <c r="J54" s="41">
         <v>229.0</v>
       </c>
       <c r="K54" s="13"/>
@@ -4612,7 +4656,7 @@
       <c r="B55" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="C55" s="35" t="s">
+      <c r="C55" s="42" t="s">
         <v>152</v>
       </c>
       <c r="D55" s="13"/>
@@ -4621,7 +4665,7 @@
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
       <c r="I55" s="16"/>
-      <c r="J55" s="34">
+      <c r="J55" s="41">
         <v>229.0</v>
       </c>
       <c r="K55" s="13"/>
@@ -4649,218 +4693,218 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="20.86"/>
-    <col customWidth="1" min="3" max="3" width="26.29"/>
-    <col customWidth="1" min="4" max="4" width="28.86"/>
+    <col customWidth="1" min="2" max="2" width="18.25"/>
+    <col customWidth="1" min="3" max="3" width="23.0"/>
+    <col customWidth="1" min="4" max="4" width="25.25"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="31"/>
+      <c r="D2" s="38"/>
     </row>
     <row r="3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="45" t="s">
         <v>195</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="36" t="s">
         <v>197</v>
       </c>
       <c r="D3" s="13"/>
     </row>
     <row r="4">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="45" t="s">
         <v>198</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="46"/>
     </row>
     <row r="5">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="46" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="47" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="45" t="s">
         <v>208</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="46" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="45" t="s">
         <v>211</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="36" t="s">
         <v>213</v>
       </c>
       <c r="D8" s="13"/>
     </row>
     <row r="9">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="36" t="s">
         <v>216</v>
       </c>
       <c r="D9" s="13"/>
     </row>
     <row r="10">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="36" t="s">
         <v>219</v>
       </c>
       <c r="D10" s="13"/>
     </row>
     <row r="11">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="45" t="s">
         <v>220</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="36" t="s">
         <v>222</v>
       </c>
       <c r="D11" s="13"/>
     </row>
     <row r="12">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="36" t="s">
         <v>225</v>
       </c>
       <c r="D12" s="13"/>
     </row>
     <row r="13">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="36" t="s">
         <v>228</v>
       </c>
       <c r="D13" s="13"/>
     </row>
     <row r="14">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="36" t="s">
         <v>231</v>
       </c>
       <c r="D14" s="13"/>
     </row>
     <row r="15">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="45" t="s">
         <v>232</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="36" t="s">
         <v>234</v>
       </c>
       <c r="D15" s="13"/>
     </row>
     <row r="16">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="36" t="s">
         <v>237</v>
       </c>
       <c r="D16" s="13"/>
     </row>
     <row r="17">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="45" t="s">
         <v>238</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="36" t="s">
         <v>239</v>
       </c>
       <c r="C17" s="17" t="s">
@@ -4869,10 +4913,10 @@
       <c r="D17" s="13"/>
     </row>
     <row r="18">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="36" t="s">
         <v>241</v>
       </c>
       <c r="C18" s="17" t="s">
@@ -4881,87 +4925,87 @@
       <c r="D18" s="13"/>
     </row>
     <row r="19">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="45" t="s">
         <v>243</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="36" t="s">
         <v>244</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="48" t="s">
         <v>245</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="46" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="49" t="s">
         <v>246</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="50" t="s">
         <v>248</v>
       </c>
       <c r="D20" s="13"/>
     </row>
     <row r="21">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="49" t="s">
         <v>249</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="38" t="s">
         <v>250</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="50" t="s">
         <v>251</v>
       </c>
       <c r="D21" s="13"/>
     </row>
     <row r="22">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="49" t="s">
         <v>252</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="50" t="s">
         <v>254</v>
       </c>
       <c r="D22" s="13"/>
     </row>
     <row r="23">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="51" t="s">
         <v>256</v>
       </c>
       <c r="D23" s="13"/>
     </row>
     <row r="24">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="49" t="s">
         <v>257</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="51" t="s">
         <v>259</v>
       </c>
       <c r="D24" s="13"/>
     </row>
     <row r="25">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="49" t="s">
         <v>260</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="52" t="s">
         <v>262</v>
       </c>
       <c r="D25" s="13"/>
@@ -4983,32 +5027,32 @@
       <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="30.86"/>
-    <col customWidth="1" min="2" max="2" width="25.71"/>
+    <col customWidth="1" min="1" max="1" width="27.0"/>
+    <col customWidth="1" min="2" max="2" width="51.38"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="53" t="s">
         <v>263</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="53" t="s">
         <v>264</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="53" t="s">
         <v>265</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="54" t="s">
         <v>266</v>
       </c>
     </row>
@@ -5016,7 +5060,7 @@
       <c r="A2" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="55" t="s">
         <v>268</v>
       </c>
       <c r="C2" s="20" t="s">
@@ -5028,14 +5072,14 @@
       <c r="E2" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="56"/>
     </row>
     <row r="3">
       <c r="A3" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="55" t="s">
         <v>272</v>
       </c>
       <c r="C3" s="20" t="s">
@@ -5047,14 +5091,14 @@
       <c r="E3" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="F3" s="42"/>
+      <c r="F3" s="49"/>
       <c r="G3" s="13"/>
     </row>
     <row r="4">
       <c r="A4" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="55" t="s">
         <v>276</v>
       </c>
       <c r="C4" s="20" t="s">
@@ -5066,14 +5110,14 @@
       <c r="E4" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="F4" s="42"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="13"/>
     </row>
     <row r="5">
       <c r="A5" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="55" t="s">
         <v>280</v>
       </c>
       <c r="C5" s="20" t="s">
@@ -5085,14 +5129,14 @@
       <c r="E5" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="F5" s="42"/>
+      <c r="F5" s="49"/>
       <c r="G5" s="13"/>
     </row>
     <row r="6">
       <c r="A6" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="55" t="s">
         <v>284</v>
       </c>
       <c r="C6" s="20" t="s">
@@ -5104,14 +5148,14 @@
       <c r="E6" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="42"/>
+      <c r="F6" s="49"/>
       <c r="G6" s="13"/>
     </row>
     <row r="7">
       <c r="A7" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="55" t="s">
         <v>288</v>
       </c>
       <c r="C7" s="20" t="s">
@@ -5123,14 +5167,14 @@
       <c r="E7" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="F7" s="42"/>
+      <c r="F7" s="49"/>
       <c r="G7" s="13"/>
     </row>
     <row r="8">
       <c r="A8" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="55" t="s">
         <v>292</v>
       </c>
       <c r="C8" s="20" t="s">
@@ -5142,14 +5186,14 @@
       <c r="E8" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="F8" s="42"/>
+      <c r="F8" s="49"/>
       <c r="G8" s="13"/>
     </row>
     <row r="9">
       <c r="A9" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="55" t="s">
         <v>296</v>
       </c>
       <c r="C9" s="20" t="s">
@@ -5161,14 +5205,14 @@
       <c r="E9" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="F9" s="42"/>
+      <c r="F9" s="49"/>
       <c r="G9" s="13"/>
     </row>
     <row r="10">
       <c r="A10" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="55" t="s">
         <v>300</v>
       </c>
       <c r="C10" s="20" t="s">
@@ -5180,14 +5224,14 @@
       <c r="E10" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="F10" s="42"/>
+      <c r="F10" s="49"/>
       <c r="G10" s="13"/>
     </row>
     <row r="11">
       <c r="A11" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="55" t="s">
         <v>304</v>
       </c>
       <c r="C11" s="20" t="s">
@@ -5199,14 +5243,14 @@
       <c r="E11" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="F11" s="42"/>
+      <c r="F11" s="49"/>
       <c r="G11" s="13"/>
     </row>
     <row r="12">
       <c r="A12" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="55" t="s">
         <v>308</v>
       </c>
       <c r="C12" s="20" t="s">
@@ -5218,14 +5262,14 @@
       <c r="E12" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="F12" s="42"/>
+      <c r="F12" s="49"/>
       <c r="G12" s="13"/>
     </row>
     <row r="13">
       <c r="A13" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="55" t="s">
         <v>312</v>
       </c>
       <c r="C13" s="20" t="s">
@@ -5237,7 +5281,7 @@
       <c r="E13" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="F13" s="42"/>
+      <c r="F13" s="49"/>
       <c r="G13" s="13"/>
     </row>
     <row r="14">
@@ -5256,7 +5300,7 @@
       <c r="E14" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="F14" s="42"/>
+      <c r="F14" s="49"/>
       <c r="G14" s="13"/>
     </row>
     <row r="15">
@@ -5275,7 +5319,7 @@
       <c r="E15" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="F15" s="42"/>
+      <c r="F15" s="49"/>
       <c r="G15" s="13"/>
     </row>
   </sheetData>
@@ -5300,57 +5344,57 @@
       <selection activeCell="C2" sqref="C2" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.0"/>
-    <col customWidth="1" min="2" max="2" width="49.71"/>
-    <col customWidth="1" min="3" max="3" width="18.43"/>
-    <col customWidth="1" min="4" max="4" width="28.57"/>
-    <col customWidth="1" min="6" max="7" width="18.86"/>
-    <col customWidth="1" min="9" max="9" width="4.0"/>
-    <col customWidth="1" min="10" max="10" width="4.57"/>
-    <col customWidth="1" min="11" max="11" width="18.43"/>
-    <col customWidth="1" min="12" max="12" width="25.86"/>
+    <col customWidth="1" min="1" max="1" width="21.88"/>
+    <col customWidth="1" min="2" max="2" width="93.38"/>
+    <col customWidth="1" min="3" max="3" width="16.13"/>
+    <col customWidth="1" min="4" max="4" width="25.0"/>
+    <col customWidth="1" min="6" max="7" width="16.5"/>
+    <col customWidth="1" min="9" max="9" width="3.5"/>
+    <col customWidth="1" min="10" max="10" width="4.0"/>
+    <col customWidth="1" min="11" max="11" width="16.13"/>
+    <col customWidth="1" min="12" max="12" width="22.63"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="53" t="s">
         <v>324</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="53" t="s">
         <v>325</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="53" t="s">
         <v>326</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="53" t="s">
         <v>327</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="58" t="s">
         <v>328</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="57" t="s">
         <v>329</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="L1" s="59" t="s">
         <v>330</v>
       </c>
-      <c r="M1" s="53" t="s">
+      <c r="M1" s="20" t="s">
         <v>266</v>
       </c>
     </row>
@@ -5358,14 +5402,14 @@
       <c r="A2" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="60" t="s">
         <v>332</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="61" t="s">
         <v>333</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="32" t="s">
+      <c r="D2" s="62"/>
+      <c r="E2" s="39" t="s">
         <v>140</v>
       </c>
       <c r="F2" s="20" t="s">
@@ -5374,13 +5418,13 @@
       <c r="G2" s="20" t="s">
         <v>334</v>
       </c>
-      <c r="H2" s="42"/>
+      <c r="H2" s="49"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
       <c r="K2" s="4">
         <v>0.0</v>
       </c>
-      <c r="L2" s="48" t="s">
+      <c r="L2" s="55" t="s">
         <v>26</v>
       </c>
       <c r="M2" s="13"/>
@@ -5389,14 +5433,14 @@
       <c r="A3" s="20" t="s">
         <v>335</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="60" t="s">
         <v>336</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="61" t="s">
         <v>337</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="32" t="s">
+      <c r="D3" s="62"/>
+      <c r="E3" s="39" t="s">
         <v>133</v>
       </c>
       <c r="F3" s="14" t="s">
@@ -5405,13 +5449,13 @@
       <c r="G3" s="20" t="s">
         <v>338</v>
       </c>
-      <c r="H3" s="42"/>
+      <c r="H3" s="49"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
       <c r="K3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L3" s="48" t="s">
+      <c r="L3" s="55" t="s">
         <v>339</v>
       </c>
       <c r="M3" s="13"/>
@@ -5420,14 +5464,14 @@
       <c r="A4" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="60" t="s">
         <v>341</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="42" t="s">
         <v>333</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32" t="s">
+      <c r="D4" s="38"/>
+      <c r="E4" s="39" t="s">
         <v>140</v>
       </c>
       <c r="F4" s="20" t="s">
@@ -5436,13 +5480,13 @@
       <c r="G4" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="H4" s="42"/>
+      <c r="H4" s="49"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
       <c r="K4" s="4">
         <v>0.0</v>
       </c>
-      <c r="L4" s="48" t="s">
+      <c r="L4" s="55" t="s">
         <v>22</v>
       </c>
       <c r="M4" s="13"/>
@@ -5451,14 +5495,14 @@
       <c r="A5" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="60" t="s">
         <v>344</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="61" t="s">
         <v>337</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="32" t="s">
+      <c r="D5" s="62"/>
+      <c r="E5" s="39" t="s">
         <v>133</v>
       </c>
       <c r="F5" s="20" t="s">
@@ -5467,13 +5511,13 @@
       <c r="G5" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="H5" s="42"/>
+      <c r="H5" s="49"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
       <c r="K5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="48" t="s">
+      <c r="L5" s="55" t="s">
         <v>346</v>
       </c>
       <c r="M5" s="13"/>
@@ -5482,14 +5526,14 @@
       <c r="A6" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="60" t="s">
         <v>348</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="42" t="s">
         <v>333</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="32" t="s">
+      <c r="D6" s="38"/>
+      <c r="E6" s="39" t="s">
         <v>140</v>
       </c>
       <c r="F6" s="20" t="s">
@@ -5498,13 +5542,13 @@
       <c r="G6" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="H6" s="42"/>
+      <c r="H6" s="49"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="4">
         <v>0.0</v>
       </c>
-      <c r="L6" s="48" t="s">
+      <c r="L6" s="55" t="s">
         <v>22</v>
       </c>
       <c r="M6" s="13"/>
@@ -5513,14 +5557,14 @@
       <c r="A7" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="60" t="s">
         <v>351</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="32" t="s">
+      <c r="D7" s="62"/>
+      <c r="E7" s="39" t="s">
         <v>133</v>
       </c>
       <c r="F7" s="20" t="s">
@@ -5529,13 +5573,13 @@
       <c r="G7" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="H7" s="42"/>
+      <c r="H7" s="49"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
       <c r="K7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="48" t="s">
+      <c r="L7" s="55" t="s">
         <v>353</v>
       </c>
       <c r="M7" s="13"/>
@@ -5544,14 +5588,14 @@
       <c r="A8" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="60" t="s">
         <v>355</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="42" t="s">
         <v>333</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="32" t="s">
+      <c r="D8" s="38"/>
+      <c r="E8" s="39" t="s">
         <v>140</v>
       </c>
       <c r="F8" s="20" t="s">
@@ -5560,13 +5604,13 @@
       <c r="G8" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="H8" s="42"/>
+      <c r="H8" s="49"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
       <c r="K8" s="4">
         <v>0.0</v>
       </c>
-      <c r="L8" s="48" t="s">
+      <c r="L8" s="55" t="s">
         <v>30</v>
       </c>
       <c r="M8" s="13"/>
@@ -5575,14 +5619,14 @@
       <c r="A9" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="60" t="s">
         <v>357</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32" t="s">
+      <c r="D9" s="38"/>
+      <c r="E9" s="39" t="s">
         <v>133</v>
       </c>
       <c r="F9" s="20" t="s">
@@ -5591,13 +5635,13 @@
       <c r="G9" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="H9" s="42"/>
+      <c r="H9" s="49"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
       <c r="K9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L9" s="48" t="s">
+      <c r="L9" s="55" t="s">
         <v>360</v>
       </c>
       <c r="M9" s="13"/>
@@ -5606,14 +5650,14 @@
       <c r="A10" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="63" t="s">
         <v>362</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="64" t="s">
         <v>333</v>
       </c>
-      <c r="D10" s="59"/>
-      <c r="E10" s="32" t="s">
+      <c r="D10" s="65"/>
+      <c r="E10" s="39" t="s">
         <v>140</v>
       </c>
       <c r="F10" s="22" t="s">
@@ -5622,29 +5666,29 @@
       <c r="G10" s="22" t="s">
         <v>363</v>
       </c>
-      <c r="H10" s="60"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
       <c r="K10" s="23">
         <v>0.0</v>
       </c>
-      <c r="L10" s="62" t="s">
+      <c r="L10" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="M10" s="61"/>
+      <c r="M10" s="67"/>
     </row>
     <row r="11">
       <c r="A11" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="60" t="s">
         <v>365</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="32" t="s">
+      <c r="D11" s="38"/>
+      <c r="E11" s="39" t="s">
         <v>133</v>
       </c>
       <c r="F11" s="20" t="s">
@@ -5653,7 +5697,7 @@
       <c r="G11" s="20" t="s">
         <v>366</v>
       </c>
-      <c r="H11" s="42"/>
+      <c r="H11" s="49"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
       <c r="K11" s="4" t="s">
@@ -5665,16 +5709,16 @@
       <c r="M11" s="13"/>
     </row>
     <row r="12">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="69" t="s">
         <v>368</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="60" t="s">
         <v>369</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="42" t="s">
         <v>333</v>
       </c>
-      <c r="D12" s="31"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="20" t="s">
         <v>143</v>
       </c>
@@ -5684,29 +5728,29 @@
       <c r="G12" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="H12" s="42"/>
+      <c r="H12" s="49"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
       <c r="K12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L12" s="48" t="s">
+      <c r="L12" s="55" t="s">
         <v>371</v>
       </c>
       <c r="M12" s="13"/>
     </row>
     <row r="13">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="69" t="s">
         <v>372</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="60" t="s">
         <v>373</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="42" t="s">
         <v>333</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="32" t="s">
+      <c r="D13" s="38"/>
+      <c r="E13" s="39" t="s">
         <v>140</v>
       </c>
       <c r="F13" s="20" t="s">
@@ -5715,29 +5759,29 @@
       <c r="G13" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="H13" s="42"/>
+      <c r="H13" s="49"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
-      <c r="K13" s="48" t="s">
+      <c r="K13" s="55" t="s">
         <v>375</v>
       </c>
-      <c r="L13" s="64" t="s">
+      <c r="L13" s="70" t="s">
         <v>376</v>
       </c>
       <c r="M13" s="13"/>
     </row>
     <row r="14">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="69" t="s">
         <v>377</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="60" t="s">
         <v>378</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="42" t="s">
         <v>333</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="32" t="s">
+      <c r="D14" s="38"/>
+      <c r="E14" s="39" t="s">
         <v>140</v>
       </c>
       <c r="F14" s="20" t="s">
@@ -5746,29 +5790,29 @@
       <c r="G14" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="H14" s="42"/>
+      <c r="H14" s="49"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
-      <c r="K14" s="48" t="s">
+      <c r="K14" s="55" t="s">
         <v>380</v>
       </c>
-      <c r="L14" s="64" t="s">
+      <c r="L14" s="70" t="s">
         <v>381</v>
       </c>
       <c r="M14" s="13"/>
     </row>
     <row r="15">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="69" t="s">
         <v>382</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="60" t="s">
         <v>383</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="42" t="s">
         <v>333</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="32" t="s">
+      <c r="D15" s="38"/>
+      <c r="E15" s="39" t="s">
         <v>140</v>
       </c>
       <c r="F15" s="20" t="s">
@@ -5777,29 +5821,29 @@
       <c r="G15" s="20" t="s">
         <v>384</v>
       </c>
-      <c r="H15" s="42"/>
+      <c r="H15" s="49"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
-      <c r="K15" s="48" t="s">
+      <c r="K15" s="55" t="s">
         <v>385</v>
       </c>
-      <c r="L15" s="64" t="s">
+      <c r="L15" s="70" t="s">
         <v>386</v>
       </c>
       <c r="M15" s="13"/>
     </row>
     <row r="16">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="69" t="s">
         <v>387</v>
       </c>
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="60" t="s">
         <v>388</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="42" t="s">
         <v>333</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32" t="s">
+      <c r="D16" s="38"/>
+      <c r="E16" s="39" t="s">
         <v>140</v>
       </c>
       <c r="F16" s="20" t="s">
@@ -5808,29 +5852,29 @@
       <c r="G16" s="20" t="s">
         <v>389</v>
       </c>
-      <c r="H16" s="42"/>
+      <c r="H16" s="49"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
-      <c r="K16" s="48" t="s">
+      <c r="K16" s="55" t="s">
         <v>390</v>
       </c>
-      <c r="L16" s="64" t="s">
+      <c r="L16" s="70" t="s">
         <v>391</v>
       </c>
       <c r="M16" s="13"/>
     </row>
     <row r="17">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="69" t="s">
         <v>392</v>
       </c>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="60" t="s">
         <v>393</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="42" t="s">
         <v>333</v>
       </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="32" t="s">
+      <c r="D17" s="38"/>
+      <c r="E17" s="39" t="s">
         <v>140</v>
       </c>
       <c r="F17" s="20" t="s">
@@ -5839,29 +5883,29 @@
       <c r="G17" s="20" t="s">
         <v>394</v>
       </c>
-      <c r="H17" s="42"/>
+      <c r="H17" s="49"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
-      <c r="K17" s="48" t="s">
+      <c r="K17" s="55" t="s">
         <v>375</v>
       </c>
-      <c r="L17" s="64" t="s">
+      <c r="L17" s="70" t="s">
         <v>395</v>
       </c>
       <c r="M17" s="13"/>
     </row>
     <row r="18">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="69" t="s">
         <v>396</v>
       </c>
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="60" t="s">
         <v>397</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="42" t="s">
         <v>333</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="32" t="s">
+      <c r="D18" s="38"/>
+      <c r="E18" s="39" t="s">
         <v>140</v>
       </c>
       <c r="F18" s="20" t="s">
@@ -5870,29 +5914,29 @@
       <c r="G18" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="H18" s="42"/>
+      <c r="H18" s="49"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
-      <c r="K18" s="48" t="s">
+      <c r="K18" s="55" t="s">
         <v>380</v>
       </c>
-      <c r="L18" s="64" t="s">
+      <c r="L18" s="70" t="s">
         <v>399</v>
       </c>
       <c r="M18" s="13"/>
     </row>
     <row r="19">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="69" t="s">
         <v>400</v>
       </c>
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="60" t="s">
         <v>401</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="42" t="s">
         <v>333</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="32" t="s">
+      <c r="D19" s="38"/>
+      <c r="E19" s="39" t="s">
         <v>140</v>
       </c>
       <c r="F19" s="20" t="s">
@@ -5901,29 +5945,29 @@
       <c r="G19" s="20" t="s">
         <v>402</v>
       </c>
-      <c r="H19" s="42"/>
+      <c r="H19" s="49"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
-      <c r="K19" s="48" t="s">
+      <c r="K19" s="55" t="s">
         <v>385</v>
       </c>
-      <c r="L19" s="64" t="s">
+      <c r="L19" s="70" t="s">
         <v>403</v>
       </c>
       <c r="M19" s="13"/>
     </row>
     <row r="20">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="69" t="s">
         <v>404</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="60" t="s">
         <v>405</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="42" t="s">
         <v>333</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="32" t="s">
+      <c r="D20" s="38"/>
+      <c r="E20" s="39" t="s">
         <v>140</v>
       </c>
       <c r="F20" s="20" t="s">
@@ -5932,29 +5976,29 @@
       <c r="G20" s="20" t="s">
         <v>406</v>
       </c>
-      <c r="H20" s="42"/>
+      <c r="H20" s="49"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
-      <c r="K20" s="48" t="s">
+      <c r="K20" s="55" t="s">
         <v>390</v>
       </c>
-      <c r="L20" s="64" t="s">
+      <c r="L20" s="70" t="s">
         <v>407</v>
       </c>
       <c r="M20" s="13"/>
     </row>
     <row r="21">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="69" t="s">
         <v>408</v>
       </c>
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="60" t="s">
         <v>409</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="42" t="s">
         <v>333</v>
       </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32" t="s">
+      <c r="D21" s="38"/>
+      <c r="E21" s="39" t="s">
         <v>140</v>
       </c>
       <c r="F21" s="20" t="s">
@@ -5963,29 +6007,29 @@
       <c r="G21" s="20" t="s">
         <v>410</v>
       </c>
-      <c r="H21" s="42"/>
+      <c r="H21" s="49"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
-      <c r="K21" s="48" t="s">
+      <c r="K21" s="55" t="s">
         <v>411</v>
       </c>
-      <c r="L21" s="64" t="s">
+      <c r="L21" s="70" t="s">
         <v>412</v>
       </c>
       <c r="M21" s="13"/>
     </row>
     <row r="22">
-      <c r="A22" s="63" t="s">
+      <c r="A22" s="69" t="s">
         <v>413</v>
       </c>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="60" t="s">
         <v>414</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="42" t="s">
         <v>333</v>
       </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="32" t="s">
+      <c r="D22" s="38"/>
+      <c r="E22" s="39" t="s">
         <v>140</v>
       </c>
       <c r="F22" s="20" t="s">
@@ -5994,13 +6038,13 @@
       <c r="G22" s="20" t="s">
         <v>415</v>
       </c>
-      <c r="H22" s="42"/>
+      <c r="H22" s="49"/>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
-      <c r="K22" s="48" t="s">
+      <c r="K22" s="55" t="s">
         <v>416</v>
       </c>
-      <c r="L22" s="64" t="s">
+      <c r="L22" s="70" t="s">
         <v>417</v>
       </c>
       <c r="M22" s="13"/>
@@ -6009,14 +6053,14 @@
       <c r="A23" s="14" t="s">
         <v>418</v>
       </c>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="60" t="s">
         <v>419</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="61" t="s">
         <v>333</v>
       </c>
-      <c r="D23" s="65"/>
-      <c r="E23" s="32" t="s">
+      <c r="D23" s="71"/>
+      <c r="E23" s="39" t="s">
         <v>140</v>
       </c>
       <c r="F23" s="20" t="s">
@@ -6025,13 +6069,13 @@
       <c r="G23" s="20" t="s">
         <v>420</v>
       </c>
-      <c r="H23" s="42"/>
-      <c r="I23" s="66"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="72"/>
       <c r="J23" s="13"/>
-      <c r="K23" s="48">
+      <c r="K23" s="55">
         <v>0.0</v>
       </c>
-      <c r="L23" s="64" t="s">
+      <c r="L23" s="70" t="s">
         <v>30</v>
       </c>
       <c r="M23" s="13"/>
@@ -6040,14 +6084,14 @@
       <c r="A24" s="14" t="s">
         <v>421</v>
       </c>
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="60" t="s">
         <v>422</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="61" t="s">
         <v>337</v>
       </c>
-      <c r="D24" s="65"/>
-      <c r="E24" s="32" t="s">
+      <c r="D24" s="71"/>
+      <c r="E24" s="39" t="s">
         <v>133</v>
       </c>
       <c r="F24" s="20" t="s">
@@ -6056,13 +6100,13 @@
       <c r="G24" s="20" t="s">
         <v>423</v>
       </c>
-      <c r="H24" s="42"/>
-      <c r="I24" s="66"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="72"/>
       <c r="J24" s="13"/>
-      <c r="K24" s="48" t="s">
+      <c r="K24" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="L24" s="64" t="s">
+      <c r="L24" s="70" t="s">
         <v>424</v>
       </c>
       <c r="M24" s="13"/>
@@ -6071,14 +6115,14 @@
       <c r="A25" s="20" t="s">
         <v>425</v>
       </c>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="60" t="s">
         <v>426</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="61" t="s">
         <v>333</v>
       </c>
-      <c r="D25" s="65"/>
-      <c r="E25" s="32" t="s">
+      <c r="D25" s="71"/>
+      <c r="E25" s="39" t="s">
         <v>140</v>
       </c>
       <c r="F25" s="20" t="s">
@@ -6087,13 +6131,13 @@
       <c r="G25" s="20" t="s">
         <v>427</v>
       </c>
-      <c r="H25" s="42"/>
-      <c r="I25" s="66"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="72"/>
       <c r="J25" s="13"/>
-      <c r="K25" s="48">
+      <c r="K25" s="55">
         <v>0.0</v>
       </c>
-      <c r="L25" s="64" t="s">
+      <c r="L25" s="70" t="s">
         <v>38</v>
       </c>
       <c r="M25" s="13"/>
@@ -6102,14 +6146,14 @@
       <c r="A26" s="20" t="s">
         <v>428</v>
       </c>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="60" t="s">
         <v>429</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="32" t="s">
+      <c r="D26" s="38"/>
+      <c r="E26" s="39" t="s">
         <v>133</v>
       </c>
       <c r="F26" s="20" t="s">
@@ -6118,13 +6162,13 @@
       <c r="G26" s="20" t="s">
         <v>430</v>
       </c>
-      <c r="H26" s="42"/>
+      <c r="H26" s="49"/>
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
-      <c r="K26" s="48" t="s">
+      <c r="K26" s="55" t="s">
         <v>431</v>
       </c>
-      <c r="L26" s="64" t="s">
+      <c r="L26" s="70" t="s">
         <v>432</v>
       </c>
       <c r="M26" s="13"/>
@@ -6133,14 +6177,14 @@
       <c r="A27" s="14" t="s">
         <v>433</v>
       </c>
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="60" t="s">
         <v>434</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="42" t="s">
         <v>333</v>
       </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="32" t="s">
+      <c r="D27" s="38"/>
+      <c r="E27" s="39" t="s">
         <v>140</v>
       </c>
       <c r="F27" s="20" t="s">
@@ -6149,13 +6193,13 @@
       <c r="G27" s="20" t="s">
         <v>435</v>
       </c>
-      <c r="H27" s="42"/>
+      <c r="H27" s="49"/>
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
-      <c r="K27" s="48">
+      <c r="K27" s="55">
         <v>0.0</v>
       </c>
-      <c r="L27" s="64" t="s">
+      <c r="L27" s="70" t="s">
         <v>38</v>
       </c>
       <c r="M27" s="13"/>
@@ -6164,14 +6208,14 @@
       <c r="A28" s="14" t="s">
         <v>436</v>
       </c>
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="60" t="s">
         <v>437</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="32" t="s">
+      <c r="D28" s="38"/>
+      <c r="E28" s="39" t="s">
         <v>133</v>
       </c>
       <c r="F28" s="20" t="s">
@@ -6180,13 +6224,13 @@
       <c r="G28" s="20" t="s">
         <v>438</v>
       </c>
-      <c r="H28" s="42"/>
+      <c r="H28" s="49"/>
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
-      <c r="K28" s="48" t="s">
+      <c r="K28" s="55" t="s">
         <v>431</v>
       </c>
-      <c r="L28" s="64" t="s">
+      <c r="L28" s="70" t="s">
         <v>439</v>
       </c>
       <c r="M28" s="13"/>
@@ -6195,14 +6239,14 @@
       <c r="A29" s="20" t="s">
         <v>440</v>
       </c>
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="60" t="s">
         <v>441</v>
       </c>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="61" t="s">
         <v>333</v>
       </c>
-      <c r="D29" s="65"/>
-      <c r="E29" s="32" t="s">
+      <c r="D29" s="71"/>
+      <c r="E29" s="39" t="s">
         <v>140</v>
       </c>
       <c r="F29" s="20" t="s">
@@ -6211,13 +6255,13 @@
       <c r="G29" s="20" t="s">
         <v>442</v>
       </c>
-      <c r="H29" s="42"/>
-      <c r="I29" s="66"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="72"/>
       <c r="J29" s="13"/>
-      <c r="K29" s="48">
+      <c r="K29" s="55">
         <v>0.0</v>
       </c>
-      <c r="L29" s="64" t="s">
+      <c r="L29" s="70" t="s">
         <v>38</v>
       </c>
       <c r="M29" s="13"/>
@@ -6226,14 +6270,14 @@
       <c r="A30" s="20" t="s">
         <v>443</v>
       </c>
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="60" t="s">
         <v>444</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="32" t="s">
+      <c r="D30" s="38"/>
+      <c r="E30" s="39" t="s">
         <v>133</v>
       </c>
       <c r="F30" s="20" t="s">
@@ -6242,13 +6286,13 @@
       <c r="G30" s="20" t="s">
         <v>445</v>
       </c>
-      <c r="H30" s="42"/>
+      <c r="H30" s="49"/>
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
-      <c r="K30" s="48" t="s">
+      <c r="K30" s="55" t="s">
         <v>431</v>
       </c>
-      <c r="L30" s="64" t="s">
+      <c r="L30" s="70" t="s">
         <v>446</v>
       </c>
       <c r="M30" s="13"/>
@@ -6257,14 +6301,14 @@
       <c r="A31" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="B31" s="54" t="s">
+      <c r="B31" s="60" t="s">
         <v>448</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="42" t="s">
         <v>333</v>
       </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="32" t="s">
+      <c r="D31" s="38"/>
+      <c r="E31" s="39" t="s">
         <v>140</v>
       </c>
       <c r="F31" s="20" t="s">
@@ -6273,13 +6317,13 @@
       <c r="G31" s="20" t="s">
         <v>449</v>
       </c>
-      <c r="H31" s="42"/>
+      <c r="H31" s="49"/>
       <c r="I31" s="13"/>
       <c r="J31" s="13"/>
-      <c r="K31" s="48">
+      <c r="K31" s="55">
         <v>0.0</v>
       </c>
-      <c r="L31" s="64" t="s">
+      <c r="L31" s="70" t="s">
         <v>38</v>
       </c>
       <c r="M31" s="13"/>
@@ -6288,14 +6332,14 @@
       <c r="A32" s="20" t="s">
         <v>450</v>
       </c>
-      <c r="B32" s="54" t="s">
+      <c r="B32" s="60" t="s">
         <v>451</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="32" t="s">
+      <c r="D32" s="38"/>
+      <c r="E32" s="39" t="s">
         <v>133</v>
       </c>
       <c r="F32" s="20" t="s">
@@ -6304,13 +6348,13 @@
       <c r="G32" s="20" t="s">
         <v>452</v>
       </c>
-      <c r="H32" s="42"/>
+      <c r="H32" s="49"/>
       <c r="I32" s="13"/>
       <c r="J32" s="13"/>
-      <c r="K32" s="48" t="s">
+      <c r="K32" s="55" t="s">
         <v>431</v>
       </c>
-      <c r="L32" s="64" t="s">
+      <c r="L32" s="70" t="s">
         <v>446</v>
       </c>
       <c r="M32" s="13"/>
@@ -6319,14 +6363,14 @@
       <c r="A33" s="20" t="s">
         <v>453</v>
       </c>
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="60" t="s">
         <v>454</v>
       </c>
-      <c r="C33" s="55" t="s">
+      <c r="C33" s="61" t="s">
         <v>333</v>
       </c>
-      <c r="D33" s="65"/>
-      <c r="E33" s="32" t="s">
+      <c r="D33" s="71"/>
+      <c r="E33" s="39" t="s">
         <v>140</v>
       </c>
       <c r="F33" s="20" t="s">
@@ -6335,13 +6379,13 @@
       <c r="G33" s="20" t="s">
         <v>455</v>
       </c>
-      <c r="H33" s="42"/>
-      <c r="I33" s="66"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="72"/>
       <c r="J33" s="13"/>
-      <c r="K33" s="48">
+      <c r="K33" s="55">
         <v>6.0</v>
       </c>
-      <c r="L33" s="64" t="s">
+      <c r="L33" s="70" t="s">
         <v>83</v>
       </c>
       <c r="M33" s="13"/>
@@ -6350,14 +6394,14 @@
       <c r="A34" s="22" t="s">
         <v>456</v>
       </c>
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="63" t="s">
         <v>457</v>
       </c>
-      <c r="C34" s="58" t="s">
+      <c r="C34" s="64" t="s">
         <v>337</v>
       </c>
-      <c r="D34" s="59"/>
-      <c r="E34" s="32" t="s">
+      <c r="D34" s="65"/>
+      <c r="E34" s="39" t="s">
         <v>137</v>
       </c>
       <c r="F34" s="22" t="s">
@@ -6366,29 +6410,29 @@
       <c r="G34" s="22" t="s">
         <v>458</v>
       </c>
-      <c r="H34" s="60"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="62" t="s">
+      <c r="H34" s="66"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="68" t="s">
         <v>459</v>
       </c>
-      <c r="L34" s="67" t="s">
+      <c r="L34" s="73" t="s">
         <v>460</v>
       </c>
-      <c r="M34" s="61"/>
+      <c r="M34" s="67"/>
     </row>
     <row r="35">
       <c r="A35" s="22" t="s">
         <v>461</v>
       </c>
-      <c r="B35" s="57" t="s">
+      <c r="B35" s="63" t="s">
         <v>462</v>
       </c>
-      <c r="C35" s="58" t="s">
+      <c r="C35" s="64" t="s">
         <v>337</v>
       </c>
-      <c r="D35" s="59"/>
-      <c r="E35" s="32" t="s">
+      <c r="D35" s="65"/>
+      <c r="E35" s="39" t="s">
         <v>133</v>
       </c>
       <c r="F35" s="22" t="s">
@@ -6397,29 +6441,29 @@
       <c r="G35" s="22" t="s">
         <v>463</v>
       </c>
-      <c r="H35" s="60"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="61"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
       <c r="K35" s="23" t="s">
         <v>464</v>
       </c>
-      <c r="L35" s="67" t="s">
+      <c r="L35" s="73" t="s">
         <v>460</v>
       </c>
-      <c r="M35" s="61"/>
+      <c r="M35" s="67"/>
     </row>
     <row r="36">
       <c r="A36" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="B36" s="54" t="s">
+      <c r="B36" s="60" t="s">
         <v>466</v>
       </c>
-      <c r="C36" s="55" t="s">
+      <c r="C36" s="61" t="s">
         <v>337</v>
       </c>
-      <c r="D36" s="65"/>
-      <c r="E36" s="32" t="s">
+      <c r="D36" s="71"/>
+      <c r="E36" s="39" t="s">
         <v>133</v>
       </c>
       <c r="F36" s="20" t="s">
@@ -6428,13 +6472,13 @@
       <c r="G36" s="20" t="s">
         <v>467</v>
       </c>
-      <c r="H36" s="42"/>
-      <c r="I36" s="66"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="72"/>
       <c r="J36" s="13"/>
-      <c r="K36" s="48" t="s">
+      <c r="K36" s="55" t="s">
         <v>468</v>
       </c>
-      <c r="L36" s="64" t="s">
+      <c r="L36" s="70" t="s">
         <v>469</v>
       </c>
       <c r="M36" s="13"/>
@@ -6443,14 +6487,14 @@
       <c r="A37" s="14" t="s">
         <v>470</v>
       </c>
-      <c r="B37" s="54" t="s">
+      <c r="B37" s="60" t="s">
         <v>471</v>
       </c>
-      <c r="C37" s="55" t="s">
+      <c r="C37" s="61" t="s">
         <v>333</v>
       </c>
-      <c r="D37" s="65"/>
-      <c r="E37" s="32" t="s">
+      <c r="D37" s="71"/>
+      <c r="E37" s="39" t="s">
         <v>140</v>
       </c>
       <c r="F37" s="20" t="s">
@@ -6459,13 +6503,13 @@
       <c r="G37" s="20" t="s">
         <v>472</v>
       </c>
-      <c r="H37" s="42"/>
-      <c r="I37" s="66"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="72"/>
       <c r="J37" s="13"/>
-      <c r="K37" s="48">
+      <c r="K37" s="55">
         <v>6.0</v>
       </c>
-      <c r="L37" s="68" t="s">
+      <c r="L37" s="74" t="s">
         <v>83</v>
       </c>
       <c r="M37" s="13"/>
@@ -6474,14 +6518,14 @@
       <c r="A38" s="14" t="s">
         <v>473</v>
       </c>
-      <c r="B38" s="54" t="s">
+      <c r="B38" s="60" t="s">
         <v>474</v>
       </c>
-      <c r="C38" s="55" t="s">
+      <c r="C38" s="61" t="s">
         <v>337</v>
       </c>
-      <c r="D38" s="65"/>
-      <c r="E38" s="32" t="s">
+      <c r="D38" s="71"/>
+      <c r="E38" s="39" t="s">
         <v>133</v>
       </c>
       <c r="F38" s="20" t="s">
@@ -6490,13 +6534,13 @@
       <c r="G38" s="20" t="s">
         <v>475</v>
       </c>
-      <c r="H38" s="42"/>
-      <c r="I38" s="66"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="72"/>
       <c r="J38" s="13"/>
-      <c r="K38" s="48" t="s">
+      <c r="K38" s="55" t="s">
         <v>459</v>
       </c>
-      <c r="L38" s="68" t="s">
+      <c r="L38" s="74" t="s">
         <v>476</v>
       </c>
       <c r="M38" s="13"/>
@@ -6505,14 +6549,14 @@
       <c r="A39" s="14" t="s">
         <v>477</v>
       </c>
-      <c r="B39" s="54" t="s">
+      <c r="B39" s="60" t="s">
         <v>478</v>
       </c>
-      <c r="C39" s="55" t="s">
+      <c r="C39" s="61" t="s">
         <v>337</v>
       </c>
-      <c r="D39" s="65"/>
-      <c r="E39" s="32" t="s">
+      <c r="D39" s="71"/>
+      <c r="E39" s="39" t="s">
         <v>133</v>
       </c>
       <c r="F39" s="20" t="s">
@@ -6521,13 +6565,13 @@
       <c r="G39" s="20" t="s">
         <v>479</v>
       </c>
-      <c r="H39" s="42"/>
-      <c r="I39" s="66"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="72"/>
       <c r="J39" s="13"/>
-      <c r="K39" s="48" t="s">
+      <c r="K39" s="55" t="s">
         <v>464</v>
       </c>
-      <c r="L39" s="68" t="s">
+      <c r="L39" s="74" t="s">
         <v>476</v>
       </c>
       <c r="M39" s="13"/>
@@ -6536,14 +6580,14 @@
       <c r="A40" s="14" t="s">
         <v>480</v>
       </c>
-      <c r="B40" s="54" t="s">
+      <c r="B40" s="60" t="s">
         <v>481</v>
       </c>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="D40" s="31"/>
-      <c r="E40" s="32" t="s">
+      <c r="D40" s="38"/>
+      <c r="E40" s="39" t="s">
         <v>137</v>
       </c>
       <c r="F40" s="20" t="s">
@@ -6552,13 +6596,13 @@
       <c r="G40" s="20" t="s">
         <v>482</v>
       </c>
-      <c r="H40" s="42"/>
+      <c r="H40" s="49"/>
       <c r="I40" s="13"/>
       <c r="J40" s="13"/>
-      <c r="K40" s="48" t="s">
+      <c r="K40" s="55" t="s">
         <v>464</v>
       </c>
-      <c r="L40" s="49" t="s">
+      <c r="L40" s="56" t="s">
         <v>476</v>
       </c>
       <c r="M40" s="13"/>
@@ -6567,14 +6611,14 @@
       <c r="A41" s="14" t="s">
         <v>483</v>
       </c>
-      <c r="B41" s="54" t="s">
+      <c r="B41" s="60" t="s">
         <v>484</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="D41" s="31"/>
-      <c r="E41" s="32" t="s">
+      <c r="D41" s="38"/>
+      <c r="E41" s="39" t="s">
         <v>133</v>
       </c>
       <c r="F41" s="20" t="s">
@@ -6583,13 +6627,13 @@
       <c r="G41" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="H41" s="42"/>
+      <c r="H41" s="49"/>
       <c r="I41" s="13"/>
       <c r="J41" s="13"/>
-      <c r="K41" s="48" t="s">
+      <c r="K41" s="55" t="s">
         <v>486</v>
       </c>
-      <c r="L41" s="64" t="s">
+      <c r="L41" s="70" t="s">
         <v>487</v>
       </c>
       <c r="M41" s="13"/>
@@ -6598,14 +6642,14 @@
       <c r="A42" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="B42" s="54" t="s">
+      <c r="B42" s="60" t="s">
         <v>489</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="32" t="s">
+      <c r="D42" s="38"/>
+      <c r="E42" s="39" t="s">
         <v>133</v>
       </c>
       <c r="F42" s="20" t="s">
@@ -6614,13 +6658,13 @@
       <c r="G42" s="20" t="s">
         <v>490</v>
       </c>
-      <c r="H42" s="42"/>
+      <c r="H42" s="49"/>
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
-      <c r="K42" s="48" t="s">
+      <c r="K42" s="55" t="s">
         <v>486</v>
       </c>
-      <c r="L42" s="64" t="s">
+      <c r="L42" s="70" t="s">
         <v>487</v>
       </c>
       <c r="M42" s="13"/>
@@ -6629,14 +6673,14 @@
       <c r="A43" s="14" t="s">
         <v>491</v>
       </c>
-      <c r="B43" s="54" t="s">
+      <c r="B43" s="60" t="s">
         <v>492</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="32" t="s">
+      <c r="D43" s="38"/>
+      <c r="E43" s="39" t="s">
         <v>133</v>
       </c>
       <c r="F43" s="20" t="s">
@@ -6645,13 +6689,13 @@
       <c r="G43" s="20" t="s">
         <v>493</v>
       </c>
-      <c r="H43" s="42"/>
+      <c r="H43" s="49"/>
       <c r="I43" s="13"/>
       <c r="J43" s="13"/>
-      <c r="K43" s="48" t="s">
+      <c r="K43" s="55" t="s">
         <v>486</v>
       </c>
-      <c r="L43" s="64" t="s">
+      <c r="L43" s="70" t="s">
         <v>487</v>
       </c>
       <c r="M43" s="13"/>
@@ -6660,14 +6704,14 @@
       <c r="A44" s="14" t="s">
         <v>494</v>
       </c>
-      <c r="B44" s="54" t="s">
+      <c r="B44" s="60" t="s">
         <v>495</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="42" t="s">
         <v>333</v>
       </c>
-      <c r="D44" s="31"/>
-      <c r="E44" s="32" t="s">
+      <c r="D44" s="38"/>
+      <c r="E44" s="39" t="s">
         <v>140</v>
       </c>
       <c r="F44" s="20" t="s">
@@ -6676,13 +6720,13 @@
       <c r="G44" s="20" t="s">
         <v>496</v>
       </c>
-      <c r="H44" s="42"/>
+      <c r="H44" s="49"/>
       <c r="I44" s="13"/>
       <c r="J44" s="13"/>
-      <c r="K44" s="48">
+      <c r="K44" s="55">
         <v>6.0</v>
       </c>
-      <c r="L44" s="64" t="s">
+      <c r="L44" s="70" t="s">
         <v>83</v>
       </c>
       <c r="M44" s="13"/>
@@ -6691,14 +6735,14 @@
       <c r="A45" s="14" t="s">
         <v>497</v>
       </c>
-      <c r="B45" s="54" t="s">
+      <c r="B45" s="60" t="s">
         <v>498</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="C45" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="D45" s="31"/>
-      <c r="E45" s="32" t="s">
+      <c r="D45" s="38"/>
+      <c r="E45" s="39" t="s">
         <v>137</v>
       </c>
       <c r="F45" s="20" t="s">
@@ -6707,13 +6751,13 @@
       <c r="G45" s="20" t="s">
         <v>499</v>
       </c>
-      <c r="H45" s="42"/>
+      <c r="H45" s="49"/>
       <c r="I45" s="13"/>
       <c r="J45" s="13"/>
-      <c r="K45" s="48" t="s">
+      <c r="K45" s="55" t="s">
         <v>459</v>
       </c>
-      <c r="L45" s="64" t="s">
+      <c r="L45" s="70" t="s">
         <v>476</v>
       </c>
       <c r="M45" s="13"/>
@@ -6722,14 +6766,14 @@
       <c r="A46" s="14" t="s">
         <v>500</v>
       </c>
-      <c r="B46" s="54" t="s">
+      <c r="B46" s="60" t="s">
         <v>501</v>
       </c>
-      <c r="C46" s="35" t="s">
+      <c r="C46" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="D46" s="31"/>
-      <c r="E46" s="32" t="s">
+      <c r="D46" s="38"/>
+      <c r="E46" s="39" t="s">
         <v>133</v>
       </c>
       <c r="F46" s="20" t="s">
@@ -6738,13 +6782,13 @@
       <c r="G46" s="20" t="s">
         <v>502</v>
       </c>
-      <c r="H46" s="42"/>
+      <c r="H46" s="49"/>
       <c r="I46" s="13"/>
       <c r="J46" s="13"/>
-      <c r="K46" s="48">
+      <c r="K46" s="55">
         <v>7.0</v>
       </c>
-      <c r="L46" s="64" t="s">
+      <c r="L46" s="70" t="s">
         <v>83</v>
       </c>
       <c r="M46" s="13"/>
@@ -6753,14 +6797,14 @@
       <c r="A47" s="14" t="s">
         <v>503</v>
       </c>
-      <c r="B47" s="54" t="s">
+      <c r="B47" s="60" t="s">
         <v>504</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="32" t="s">
+      <c r="D47" s="38"/>
+      <c r="E47" s="39" t="s">
         <v>133</v>
       </c>
       <c r="F47" s="20" t="s">
@@ -6769,13 +6813,13 @@
       <c r="G47" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="H47" s="42"/>
+      <c r="H47" s="49"/>
       <c r="I47" s="13"/>
       <c r="J47" s="13"/>
-      <c r="K47" s="48">
+      <c r="K47" s="55">
         <v>7.0</v>
       </c>
-      <c r="L47" s="64" t="s">
+      <c r="L47" s="70" t="s">
         <v>83</v>
       </c>
       <c r="M47" s="13"/>
@@ -6784,14 +6828,14 @@
       <c r="A48" s="14" t="s">
         <v>506</v>
       </c>
-      <c r="B48" s="54" t="s">
+      <c r="B48" s="60" t="s">
         <v>507</v>
       </c>
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="D48" s="31"/>
-      <c r="E48" s="32" t="s">
+      <c r="D48" s="38"/>
+      <c r="E48" s="39" t="s">
         <v>133</v>
       </c>
       <c r="F48" s="20" t="s">
@@ -6800,13 +6844,13 @@
       <c r="G48" s="20" t="s">
         <v>508</v>
       </c>
-      <c r="H48" s="42"/>
+      <c r="H48" s="49"/>
       <c r="I48" s="13"/>
       <c r="J48" s="13"/>
-      <c r="K48" s="48">
+      <c r="K48" s="55">
         <v>7.0</v>
       </c>
-      <c r="L48" s="64" t="s">
+      <c r="L48" s="70" t="s">
         <v>83</v>
       </c>
       <c r="M48" s="13"/>
@@ -6815,14 +6859,14 @@
       <c r="A49" s="14" t="s">
         <v>509</v>
       </c>
-      <c r="B49" s="54" t="s">
+      <c r="B49" s="60" t="s">
         <v>510</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="D49" s="31"/>
-      <c r="E49" s="32" t="s">
+      <c r="D49" s="38"/>
+      <c r="E49" s="39" t="s">
         <v>137</v>
       </c>
       <c r="F49" s="20" t="s">
@@ -6831,13 +6875,13 @@
       <c r="G49" s="20" t="s">
         <v>511</v>
       </c>
-      <c r="H49" s="42"/>
+      <c r="H49" s="49"/>
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
-      <c r="K49" s="48" t="s">
+      <c r="K49" s="55" t="s">
         <v>464</v>
       </c>
-      <c r="L49" s="64" t="s">
+      <c r="L49" s="70" t="s">
         <v>476</v>
       </c>
       <c r="M49" s="13"/>
@@ -6846,14 +6890,14 @@
       <c r="A50" s="14" t="s">
         <v>512</v>
       </c>
-      <c r="B50" s="54" t="s">
+      <c r="B50" s="60" t="s">
         <v>513</v>
       </c>
-      <c r="C50" s="35" t="s">
+      <c r="C50" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="D50" s="31"/>
-      <c r="E50" s="32" t="s">
+      <c r="D50" s="38"/>
+      <c r="E50" s="39" t="s">
         <v>133</v>
       </c>
       <c r="F50" s="20" t="s">
@@ -6862,13 +6906,13 @@
       <c r="G50" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="H50" s="42"/>
+      <c r="H50" s="49"/>
       <c r="I50" s="13"/>
       <c r="J50" s="13"/>
-      <c r="K50" s="48">
+      <c r="K50" s="55">
         <v>5.0</v>
       </c>
-      <c r="L50" s="64" t="s">
+      <c r="L50" s="70" t="s">
         <v>83</v>
       </c>
       <c r="M50" s="13"/>
@@ -6877,14 +6921,14 @@
       <c r="A51" s="14" t="s">
         <v>515</v>
       </c>
-      <c r="B51" s="54" t="s">
+      <c r="B51" s="60" t="s">
         <v>516</v>
       </c>
-      <c r="C51" s="35" t="s">
+      <c r="C51" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="32" t="s">
+      <c r="D51" s="38"/>
+      <c r="E51" s="39" t="s">
         <v>133</v>
       </c>
       <c r="F51" s="20" t="s">
@@ -6893,13 +6937,13 @@
       <c r="G51" s="20" t="s">
         <v>517</v>
       </c>
-      <c r="H51" s="42"/>
+      <c r="H51" s="49"/>
       <c r="I51" s="13"/>
       <c r="J51" s="13"/>
-      <c r="K51" s="48">
+      <c r="K51" s="55">
         <v>5.0</v>
       </c>
-      <c r="L51" s="64" t="s">
+      <c r="L51" s="70" t="s">
         <v>83</v>
       </c>
       <c r="M51" s="13"/>
@@ -6908,14 +6952,14 @@
       <c r="A52" s="14" t="s">
         <v>518</v>
       </c>
-      <c r="B52" s="54" t="s">
+      <c r="B52" s="60" t="s">
         <v>519</v>
       </c>
-      <c r="C52" s="35" t="s">
+      <c r="C52" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="D52" s="31"/>
-      <c r="E52" s="32" t="s">
+      <c r="D52" s="38"/>
+      <c r="E52" s="39" t="s">
         <v>133</v>
       </c>
       <c r="F52" s="20" t="s">
@@ -6924,13 +6968,13 @@
       <c r="G52" s="20" t="s">
         <v>520</v>
       </c>
-      <c r="H52" s="42"/>
+      <c r="H52" s="49"/>
       <c r="I52" s="13"/>
       <c r="J52" s="13"/>
-      <c r="K52" s="48">
+      <c r="K52" s="55">
         <v>5.0</v>
       </c>
-      <c r="L52" s="64" t="s">
+      <c r="L52" s="70" t="s">
         <v>83</v>
       </c>
       <c r="M52" s="13"/>
@@ -6939,14 +6983,14 @@
       <c r="A53" s="14" t="s">
         <v>521</v>
       </c>
-      <c r="B53" s="54" t="s">
+      <c r="B53" s="60" t="s">
         <v>522</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="42" t="s">
         <v>333</v>
       </c>
-      <c r="D53" s="31"/>
-      <c r="E53" s="32" t="s">
+      <c r="D53" s="38"/>
+      <c r="E53" s="39" t="s">
         <v>140</v>
       </c>
       <c r="F53" s="20" t="s">
@@ -6955,13 +6999,13 @@
       <c r="G53" s="20" t="s">
         <v>523</v>
       </c>
-      <c r="H53" s="42"/>
+      <c r="H53" s="49"/>
       <c r="I53" s="13"/>
       <c r="J53" s="13"/>
-      <c r="K53" s="48">
+      <c r="K53" s="55">
         <v>6.0</v>
       </c>
-      <c r="L53" s="64" t="s">
+      <c r="L53" s="70" t="s">
         <v>83</v>
       </c>
       <c r="M53" s="13"/>
@@ -6970,14 +7014,14 @@
       <c r="A54" s="14" t="s">
         <v>524</v>
       </c>
-      <c r="B54" s="54" t="s">
+      <c r="B54" s="60" t="s">
         <v>525</v>
       </c>
-      <c r="C54" s="35" t="s">
+      <c r="C54" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="D54" s="31"/>
-      <c r="E54" s="32" t="s">
+      <c r="D54" s="38"/>
+      <c r="E54" s="39" t="s">
         <v>133</v>
       </c>
       <c r="F54" s="20" t="s">
@@ -6986,13 +7030,13 @@
       <c r="G54" s="20" t="s">
         <v>526</v>
       </c>
-      <c r="H54" s="42"/>
+      <c r="H54" s="49"/>
       <c r="I54" s="13"/>
       <c r="J54" s="13"/>
-      <c r="K54" s="48" t="s">
+      <c r="K54" s="55" t="s">
         <v>459</v>
       </c>
-      <c r="L54" s="64" t="s">
+      <c r="L54" s="70" t="s">
         <v>460</v>
       </c>
       <c r="M54" s="13"/>
@@ -7001,14 +7045,14 @@
       <c r="A55" s="14" t="s">
         <v>527</v>
       </c>
-      <c r="B55" s="54" t="s">
+      <c r="B55" s="60" t="s">
         <v>528</v>
       </c>
-      <c r="C55" s="35" t="s">
+      <c r="C55" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="D55" s="31"/>
-      <c r="E55" s="32" t="s">
+      <c r="D55" s="38"/>
+      <c r="E55" s="39" t="s">
         <v>133</v>
       </c>
       <c r="F55" s="20" t="s">
@@ -7017,13 +7061,13 @@
       <c r="G55" s="20" t="s">
         <v>529</v>
       </c>
-      <c r="H55" s="42"/>
+      <c r="H55" s="49"/>
       <c r="I55" s="13"/>
       <c r="J55" s="13"/>
-      <c r="K55" s="48" t="s">
+      <c r="K55" s="55" t="s">
         <v>464</v>
       </c>
-      <c r="L55" s="64" t="s">
+      <c r="L55" s="70" t="s">
         <v>460</v>
       </c>
       <c r="M55" s="13"/>
@@ -7032,14 +7076,14 @@
       <c r="A56" s="14" t="s">
         <v>530</v>
       </c>
-      <c r="B56" s="54" t="s">
+      <c r="B56" s="60" t="s">
         <v>531</v>
       </c>
-      <c r="C56" s="35" t="s">
+      <c r="C56" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="D56" s="31"/>
-      <c r="E56" s="32" t="s">
+      <c r="D56" s="38"/>
+      <c r="E56" s="39" t="s">
         <v>137</v>
       </c>
       <c r="F56" s="20" t="s">
@@ -7048,13 +7092,13 @@
       <c r="G56" s="20" t="s">
         <v>532</v>
       </c>
-      <c r="H56" s="42"/>
+      <c r="H56" s="49"/>
       <c r="I56" s="13"/>
       <c r="J56" s="13"/>
-      <c r="K56" s="48" t="s">
+      <c r="K56" s="55" t="s">
         <v>464</v>
       </c>
-      <c r="L56" s="64" t="s">
+      <c r="L56" s="70" t="s">
         <v>460</v>
       </c>
       <c r="M56" s="13"/>
@@ -7063,14 +7107,14 @@
       <c r="A57" s="14" t="s">
         <v>533</v>
       </c>
-      <c r="B57" s="54" t="s">
+      <c r="B57" s="60" t="s">
         <v>534</v>
       </c>
-      <c r="C57" s="35" t="s">
+      <c r="C57" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="D57" s="31"/>
-      <c r="E57" s="32" t="s">
+      <c r="D57" s="38"/>
+      <c r="E57" s="39" t="s">
         <v>133</v>
       </c>
       <c r="F57" s="20" t="s">
@@ -7079,13 +7123,13 @@
       <c r="G57" s="20" t="s">
         <v>535</v>
       </c>
-      <c r="H57" s="42"/>
+      <c r="H57" s="49"/>
       <c r="I57" s="13"/>
       <c r="J57" s="13"/>
-      <c r="K57" s="48" t="s">
+      <c r="K57" s="55" t="s">
         <v>536</v>
       </c>
-      <c r="L57" s="64" t="s">
+      <c r="L57" s="70" t="s">
         <v>537</v>
       </c>
       <c r="M57" s="13"/>
@@ -7094,14 +7138,14 @@
       <c r="A58" s="14" t="s">
         <v>538</v>
       </c>
-      <c r="B58" s="54" t="s">
+      <c r="B58" s="60" t="s">
         <v>539</v>
       </c>
-      <c r="C58" s="35" t="s">
+      <c r="C58" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="D58" s="31"/>
-      <c r="E58" s="32" t="s">
+      <c r="D58" s="38"/>
+      <c r="E58" s="39" t="s">
         <v>133</v>
       </c>
       <c r="F58" s="20" t="s">
@@ -7110,13 +7154,13 @@
       <c r="G58" s="20" t="s">
         <v>540</v>
       </c>
-      <c r="H58" s="42"/>
+      <c r="H58" s="49"/>
       <c r="I58" s="13"/>
       <c r="J58" s="13"/>
-      <c r="K58" s="48" t="s">
+      <c r="K58" s="55" t="s">
         <v>536</v>
       </c>
-      <c r="L58" s="64" t="s">
+      <c r="L58" s="70" t="s">
         <v>537</v>
       </c>
       <c r="M58" s="13"/>
@@ -7137,19 +7181,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="53" t="s">
         <v>541</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -7193,39 +7237,39 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="24.29"/>
-    <col customWidth="1" min="2" max="2" width="18.43"/>
-    <col customWidth="1" min="3" max="3" width="24.0"/>
-    <col customWidth="1" min="4" max="4" width="12.71"/>
+    <col customWidth="1" min="1" max="1" width="21.25"/>
+    <col customWidth="1" min="2" max="2" width="16.13"/>
+    <col customWidth="1" min="3" max="3" width="21.0"/>
+    <col customWidth="1" min="4" max="4" width="11.13"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="38" t="s">
         <v>543</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="38" t="s">
         <v>544</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="38" t="s">
         <v>545</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="38" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="38" t="s">
         <v>547</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="38" t="s">
         <v>548</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="38" t="s">
         <v>549</v>
       </c>
     </row>
@@ -7242,55 +7286,55 @@
       <c r="D4" s="13"/>
     </row>
     <row r="5">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="38" t="s">
         <v>550</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="38" t="s">
         <v>551</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="38" t="s">
         <v>552</v>
       </c>
       <c r="D5" s="13"/>
     </row>
     <row r="6">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="38" t="s">
         <v>553</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="20" t="s">
         <v>554</v>
       </c>
       <c r="D6" s="13"/>
     </row>
     <row r="7">
       <c r="A7" s="13"/>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="38" t="s">
         <v>555</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="20" t="s">
         <v>554</v>
       </c>
       <c r="D7" s="13"/>
     </row>
     <row r="8">
       <c r="A8" s="13"/>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="38" t="s">
         <v>556</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="20" t="s">
         <v>554</v>
       </c>
       <c r="D8" s="13"/>
     </row>
     <row r="9">
       <c r="A9" s="13"/>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="38" t="s">
         <v>557</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="20" t="s">
         <v>554</v>
       </c>
       <c r="D9" s="13"/>
@@ -7315,7 +7359,7 @@
       <c r="A12" s="13" t="s">
         <v>560</v>
       </c>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="75" t="s">
         <v>561</v>
       </c>
       <c r="C12" s="13"/>
@@ -7325,7 +7369,7 @@
       <c r="A13" s="13" t="s">
         <v>562</v>
       </c>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="75" t="s">
         <v>563</v>
       </c>
       <c r="C13" s="13"/>
@@ -7335,7 +7379,7 @@
       <c r="A14" s="13" t="s">
         <v>564</v>
       </c>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="75" t="s">
         <v>565</v>
       </c>
       <c r="C14" s="13"/>
@@ -7345,7 +7389,7 @@
       <c r="A15" s="13" t="s">
         <v>566</v>
       </c>
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="75" t="s">
         <v>567</v>
       </c>
       <c r="C15" s="13"/>
@@ -7355,7 +7399,7 @@
       <c r="A16" s="13" t="s">
         <v>568</v>
       </c>
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="75" t="s">
         <v>569</v>
       </c>
       <c r="C16" s="13"/>
@@ -7365,7 +7409,7 @@
       <c r="A17" s="13" t="s">
         <v>570</v>
       </c>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="75" t="s">
         <v>571</v>
       </c>
       <c r="C17" s="13"/>
@@ -7381,7 +7425,7 @@
       <c r="A19" s="13" t="s">
         <v>572</v>
       </c>
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="13"/>
@@ -7427,7 +7471,7 @@
       <c r="A28" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="B28" s="71" t="s">
+      <c r="B28" s="77" t="s">
         <v>577</v>
       </c>
     </row>
@@ -7435,7 +7479,7 @@
       <c r="A29" s="16" t="s">
         <v>578</v>
       </c>
-      <c r="B29" s="72" t="s">
+      <c r="B29" s="78" t="s">
         <v>579</v>
       </c>
     </row>
@@ -7443,7 +7487,7 @@
       <c r="A30" s="16" t="s">
         <v>580</v>
       </c>
-      <c r="B30" s="71" t="s">
+      <c r="B30" s="77" t="s">
         <v>581</v>
       </c>
     </row>
@@ -7493,28 +7537,29 @@
       <selection activeCell="B2" sqref="B2" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="22.71"/>
-    <col customWidth="1" min="4" max="4" width="29.14"/>
-    <col customWidth="1" min="5" max="5" width="30.86"/>
-    <col customWidth="1" min="6" max="6" width="28.0"/>
+    <col customWidth="1" min="3" max="3" width="38.13"/>
+    <col customWidth="1" min="4" max="4" width="25.5"/>
+    <col customWidth="1" min="5" max="5" width="27.0"/>
+    <col customWidth="1" min="6" max="6" width="24.5"/>
+    <col customWidth="1" min="11" max="11" width="34.13"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="79" t="s">
         <v>323</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="79" t="s">
         <v>584</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -7526,13 +7571,13 @@
       <c r="H1" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="I1" s="74" t="s">
+      <c r="I1" s="80" t="s">
         <v>266</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="38" t="s">
         <v>588</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="20" t="s">
         <v>589</v>
       </c>
     </row>
@@ -7548,9 +7593,11 @@
         <v>590</v>
       </c>
       <c r="E2" s="20"/>
-      <c r="I2" s="26"/>
+      <c r="I2" s="33"/>
       <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
+      <c r="K2" s="22" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
@@ -7561,13 +7608,15 @@
         <v>Neuron 2</v>
       </c>
       <c r="C3" s="20" t="s">
+        <v>592</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="22" t="s">
         <v>591</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
@@ -7578,188 +7627,212 @@
         <v>Neuron 3</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E4" s="20"/>
-      <c r="I4" s="26"/>
+      <c r="I4" s="33"/>
       <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
+      <c r="K4" s="22" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B5" s="76" t="str">
+      <c r="B5" s="81" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 4</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E5" s="20"/>
-      <c r="I5" s="26"/>
+      <c r="I5" s="33"/>
       <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
+      <c r="K5" s="20" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B6" s="76" t="str">
+      <c r="B6" s="81" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 5</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E6" s="20"/>
-      <c r="I6" s="26"/>
+      <c r="I6" s="33"/>
       <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
+      <c r="K6" s="20" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B7" s="76" t="str">
+      <c r="B7" s="81" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 6</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="E7" s="20"/>
-      <c r="I7" s="26"/>
+      <c r="I7" s="33"/>
       <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
+      <c r="K7" s="22" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B8" s="76" t="str">
+      <c r="B8" s="81" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 7</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E8" s="20"/>
-      <c r="I8" s="26"/>
+      <c r="I8" s="33"/>
       <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
+      <c r="K8" s="20" t="s">
+        <v>599</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B9" s="76" t="str">
+      <c r="B9" s="81" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 8</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="E9" s="20"/>
-      <c r="I9" s="26"/>
+      <c r="I9" s="33"/>
       <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
+      <c r="K9" s="20" t="s">
+        <v>599</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B10" s="76" t="str">
+      <c r="B10" s="81" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 9</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="E10" s="20"/>
-      <c r="I10" s="26"/>
+      <c r="I10" s="33"/>
       <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
+      <c r="K10" s="20" t="s">
+        <v>599</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B11" s="76" t="str">
+      <c r="B11" s="81" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 10</v>
       </c>
       <c r="C11" s="20" t="s">
+        <v>602</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="20" t="s">
         <v>599</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B12" s="76" t="str">
+      <c r="B12" s="81" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 11</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="E12" s="20"/>
-      <c r="I12" s="26"/>
+      <c r="I12" s="33"/>
       <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
+      <c r="K12" s="20" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B13" s="76" t="str">
+      <c r="B13" s="81" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 12</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="E13" s="20"/>
-      <c r="I13" s="26"/>
+      <c r="I13" s="33"/>
       <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
+      <c r="K13" s="20" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B14" s="76" t="str">
+      <c r="B14" s="81" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 13</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="E14" s="14"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="20" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B15" s="76" t="str">
+      <c r="B15" s="81" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 14</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="E15" s="14"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="20" t="s">
+        <v>606</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -7774,94 +7847,94 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.0"/>
-    <col customWidth="1" min="3" max="3" width="38.14"/>
+    <col customWidth="1" min="1" max="1" width="14.0"/>
+    <col customWidth="1" min="3" max="3" width="33.38"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="78" t="s">
-        <v>606</v>
-      </c>
-      <c r="C2" s="79" t="str">
+      <c r="A2" s="83" t="s">
+        <v>611</v>
+      </c>
+      <c r="C2" s="84" t="str">
         <f t="array" ref="C2">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A2,6,LEN(A2))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/12576302</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="80" t="s">
-        <v>607</v>
-      </c>
-      <c r="C3" s="79" t="str">
+      <c r="A3" s="85" t="s">
+        <v>612</v>
+      </c>
+      <c r="C3" s="84" t="str">
         <f t="array" ref="C3">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A3,6,LEN(A3))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/24306100</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="81" t="s">
-        <v>608</v>
-      </c>
-      <c r="C4" s="79" t="str">
+      <c r="A4" s="86" t="s">
+        <v>613</v>
+      </c>
+      <c r="C4" s="84" t="str">
         <f t="array" ref="C4">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A4,6,LEN(A4))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/18924442</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="81" t="s">
-        <v>609</v>
-      </c>
-      <c r="C5" s="79" t="str">
+      <c r="A5" s="86" t="s">
+        <v>614</v>
+      </c>
+      <c r="C5" s="84" t="str">
         <f t="array" ref="C5">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A5,6,LEN(A5))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/23438947</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="81" t="s">
-        <v>610</v>
-      </c>
-      <c r="C6" s="79" t="str">
+      <c r="A6" s="86" t="s">
+        <v>615</v>
+      </c>
+      <c r="C6" s="84" t="str">
         <f t="array" ref="C6">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A6,6,LEN(A6))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/11437981</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="81" t="s">
-        <v>611</v>
-      </c>
-      <c r="C7" s="79" t="str">
+      <c r="A7" s="86" t="s">
+        <v>616</v>
+      </c>
+      <c r="C7" s="84" t="str">
         <f t="array" ref="C7">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A7,6,LEN(A7))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/18364578</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="81" t="s">
-        <v>612</v>
-      </c>
-      <c r="C8" s="79" t="str">
+      <c r="A8" s="86" t="s">
+        <v>617</v>
+      </c>
+      <c r="C8" s="84" t="str">
         <f t="array" ref="C8">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A8,6,LEN(A8))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/2902218</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="81" t="s">
-        <v>613</v>
-      </c>
-      <c r="C9" s="79" t="str">
+      <c r="A9" s="86" t="s">
+        <v>618</v>
+      </c>
+      <c r="C9" s="84" t="str">
         <f t="array" ref="C9">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A9,6,LEN(A9))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/18286675</v>
       </c>

--- a/models/sawg-stomach/source/sawg-stomach.xlsx
+++ b/models/sawg-stomach/source/sawg-stomach.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="666">
   <si>
     <t>id</t>
   </si>
@@ -224,7 +224,7 @@
     <t>my_plex</t>
   </si>
   <si>
-    <t>myenteric plexus</t>
+    <t>myenteric plexus of stomach</t>
   </si>
   <si>
     <t>UBERON:0002439</t>
@@ -405,6 +405,9 @@
   </si>
   <si>
     <t>my_plex_e</t>
+  </si>
+  <si>
+    <t>myenteric plexus of espohagus</t>
   </si>
   <si>
     <t>cir_eso</t>
@@ -2219,7 +2222,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="99">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2295,6 +2298,21 @@
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
@@ -2328,6 +2346,9 @@
     <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -2420,9 +2441,6 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -2799,123 +2817,123 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="87" t="s">
-        <v>619</v>
-      </c>
-      <c r="B1" s="87" t="s">
+      <c r="A1" s="92" t="s">
         <v>620</v>
       </c>
+      <c r="B1" s="92" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="81" t="s">
-        <v>621</v>
-      </c>
-      <c r="B2" s="88" t="s">
+      <c r="A2" s="86" t="s">
         <v>622</v>
       </c>
+      <c r="B2" s="93" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="81" t="s">
-        <v>623</v>
-      </c>
-      <c r="B3" s="88" t="s">
+      <c r="A3" s="86" t="s">
         <v>624</v>
       </c>
+      <c r="B3" s="93" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="81" t="s">
-        <v>625</v>
-      </c>
-      <c r="B4" s="89" t="s">
+      <c r="A4" s="86" t="s">
         <v>626</v>
       </c>
+      <c r="B4" s="94" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="81" t="s">
-        <v>627</v>
-      </c>
-      <c r="B5" s="89" t="s">
+      <c r="A5" s="86" t="s">
         <v>628</v>
       </c>
+      <c r="B5" s="94" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="81" t="s">
-        <v>629</v>
-      </c>
-      <c r="B6" s="89" t="s">
+      <c r="A6" s="86" t="s">
         <v>630</v>
       </c>
+      <c r="B6" s="94" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="81" t="s">
-        <v>631</v>
-      </c>
-      <c r="B7" s="89" t="s">
+      <c r="A7" s="86" t="s">
         <v>632</v>
       </c>
+      <c r="B7" s="94" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="81" t="s">
-        <v>633</v>
-      </c>
-      <c r="B8" s="89" t="s">
+      <c r="A8" s="86" t="s">
         <v>634</v>
       </c>
+      <c r="B8" s="94" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="81" t="s">
-        <v>635</v>
-      </c>
-      <c r="B9" s="89" t="s">
+      <c r="A9" s="86" t="s">
         <v>636</v>
       </c>
+      <c r="B9" s="94" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="81" t="s">
-        <v>637</v>
-      </c>
-      <c r="B10" s="89" t="s">
+      <c r="A10" s="86" t="s">
         <v>638</v>
       </c>
+      <c r="B10" s="94" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="81" t="s">
-        <v>639</v>
-      </c>
-      <c r="B11" s="89" t="s">
+      <c r="A11" s="86" t="s">
         <v>640</v>
       </c>
+      <c r="B11" s="94" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="90" t="s">
-        <v>641</v>
-      </c>
-      <c r="B12" s="88" t="s">
+      <c r="A12" s="95" t="s">
         <v>642</v>
       </c>
+      <c r="B12" s="93" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="90" t="s">
-        <v>643</v>
-      </c>
-      <c r="B13" s="88" t="s">
+      <c r="A13" s="95" t="s">
         <v>644</v>
       </c>
+      <c r="B13" s="93" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="90" t="s">
-        <v>645</v>
-      </c>
-      <c r="B14" s="88" t="s">
+      <c r="A14" s="95" t="s">
         <v>646</v>
       </c>
+      <c r="B14" s="93" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="90" t="s">
-        <v>647</v>
-      </c>
-      <c r="B15" s="88" t="s">
+      <c r="A15" s="95" t="s">
         <v>648</v>
+      </c>
+      <c r="B15" s="93" t="s">
+        <v>649</v>
       </c>
     </row>
   </sheetData>
@@ -2960,90 +2978,90 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="91" t="s">
-        <v>650</v>
-      </c>
-      <c r="B2" s="92" t="s">
+      <c r="A2" s="96" t="s">
         <v>651</v>
       </c>
+      <c r="B2" s="97" t="s">
+        <v>652</v>
+      </c>
       <c r="C2" s="4" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="96" t="s">
+        <v>654</v>
+      </c>
+      <c r="B3" s="97" t="s">
+        <v>655</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="B3" s="92" t="s">
-        <v>654</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>652</v>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" s="91" t="s">
-        <v>655</v>
-      </c>
-      <c r="B4" s="92" t="s">
+      <c r="A4" s="96" t="s">
         <v>656</v>
       </c>
+      <c r="B4" s="97" t="s">
+        <v>657</v>
+      </c>
       <c r="C4" s="4" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="4" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="93" t="s">
-        <v>658</v>
+      <c r="B6" s="98" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="93" t="s">
-        <v>659</v>
+      <c r="B7" s="98" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="93" t="s">
-        <v>660</v>
+      <c r="B8" s="98" t="s">
+        <v>661</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="98" t="s">
+        <v>663</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>661</v>
-      </c>
     </row>
     <row r="10">
-      <c r="B10" s="93" t="s">
-        <v>663</v>
+      <c r="B10" s="98" t="s">
+        <v>664</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="93" t="s">
-        <v>664</v>
+      <c r="B11" s="98" t="s">
+        <v>665</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -3071,7 +3089,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.0"/>
+    <col customWidth="1" min="1" max="1" width="27.0"/>
     <col customWidth="1" min="2" max="2" width="52.63"/>
     <col customWidth="1" min="3" max="3" width="16.25"/>
     <col customWidth="1" min="4" max="4" width="9.88"/>
@@ -3394,32 +3412,32 @@
       <c r="R10" s="13"/>
     </row>
     <row r="11">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="19" t="s">
         <v>57</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="20" t="b">
+      <c r="D11" s="25"/>
+      <c r="E11" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
@@ -3613,7 +3631,7 @@
       <c r="M18" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="N18" s="25" t="s">
+      <c r="N18" s="30" t="s">
         <v>82</v>
       </c>
       <c r="O18" s="13"/>
@@ -3645,7 +3663,7 @@
       <c r="M19" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="N19" s="25" t="s">
+      <c r="N19" s="30" t="s">
         <v>82</v>
       </c>
       <c r="O19" s="13"/>
@@ -3708,30 +3726,30 @@
       <c r="R21" s="13"/>
     </row>
     <row r="22">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
     </row>
     <row r="23">
       <c r="A23" s="14" t="s">
@@ -3748,7 +3766,7 @@
       <c r="F23" s="12"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
-      <c r="I23" s="33"/>
+      <c r="I23" s="38"/>
       <c r="J23" s="17"/>
       <c r="K23" s="13"/>
       <c r="L23" s="13"/>
@@ -3774,7 +3792,7 @@
       <c r="F24" s="12"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
-      <c r="I24" s="33"/>
+      <c r="I24" s="38"/>
       <c r="J24" s="17"/>
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
@@ -3786,7 +3804,7 @@
       <c r="R24" s="13"/>
     </row>
     <row r="25">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="31" t="s">
         <v>103</v>
       </c>
       <c r="B25" s="15" t="s">
@@ -3844,7 +3862,7 @@
       <c r="B27" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="39" t="s">
         <v>111</v>
       </c>
       <c r="D27" s="13"/>
@@ -3870,7 +3888,7 @@
       <c r="B28" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="39" t="s">
         <v>114</v>
       </c>
       <c r="D28" s="13"/>
@@ -3893,10 +3911,10 @@
       <c r="A29" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="C29" s="34"/>
+      <c r="C29" s="39"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="12"/>
@@ -3917,37 +3935,37 @@
       <c r="A30" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="B30" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="34" t="s">
+      <c r="B30" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
     </row>
     <row r="31">
       <c r="A31" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C31" s="34" t="s">
         <v>120</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>121</v>
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
@@ -3967,13 +3985,13 @@
     </row>
     <row r="32">
       <c r="A32" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C32" s="34" t="s">
         <v>123</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>124</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
@@ -3993,13 +4011,13 @@
     </row>
     <row r="33">
       <c r="A33" s="14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="C33" s="34" t="s">
         <v>126</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>127</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
@@ -4019,25 +4037,25 @@
     </row>
     <row r="34">
       <c r="A34" s="18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C34" s="36" t="s">
         <v>129</v>
       </c>
+      <c r="C34" s="42" t="s">
+        <v>130</v>
+      </c>
       <c r="D34" s="13"/>
-      <c r="E34" s="37" t="b">
+      <c r="E34" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="F34" s="38"/>
+      <c r="F34" s="44"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
       <c r="I34" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="J34" s="38"/>
+        <v>131</v>
+      </c>
+      <c r="J34" s="44"/>
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
@@ -4048,26 +4066,26 @@
       <c r="R34" s="13"/>
     </row>
     <row r="35">
-      <c r="A35" s="39" t="s">
-        <v>131</v>
+      <c r="A35" s="45" t="s">
+        <v>132</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C35" s="36" t="s">
         <v>129</v>
       </c>
+      <c r="C35" s="42" t="s">
+        <v>130</v>
+      </c>
       <c r="D35" s="13"/>
-      <c r="E35" s="40" t="b">
+      <c r="E35" s="46" t="b">
         <v>1</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
-      <c r="J35" s="41">
+      <c r="J35" s="47">
         <v>229.0</v>
       </c>
       <c r="K35" s="13"/>
@@ -4081,27 +4099,27 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="C36" s="36" t="s">
         <v>135</v>
       </c>
+      <c r="C36" s="42" t="s">
+        <v>136</v>
+      </c>
       <c r="D36" s="13"/>
-      <c r="E36" s="40" t="b">
+      <c r="E36" s="46" t="b">
         <v>1</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
       <c r="I36" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="J36" s="38"/>
+        <v>131</v>
+      </c>
+      <c r="J36" s="44"/>
       <c r="K36" s="13"/>
       <c r="L36" s="13"/>
       <c r="M36" s="13"/>
@@ -4112,28 +4130,28 @@
       <c r="R36" s="13"/>
     </row>
     <row r="37">
-      <c r="A37" s="39" t="s">
-        <v>137</v>
+      <c r="A37" s="45" t="s">
+        <v>138</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>135</v>
+        <v>139</v>
+      </c>
+      <c r="C37" s="42" t="s">
+        <v>136</v>
       </c>
       <c r="D37" s="13"/>
-      <c r="E37" s="40" t="b">
+      <c r="E37" s="46" t="b">
         <v>1</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
       <c r="I37" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="J37" s="38"/>
+        <v>131</v>
+      </c>
+      <c r="J37" s="44"/>
       <c r="K37" s="13"/>
       <c r="L37" s="13"/>
       <c r="M37" s="13"/>
@@ -4144,28 +4162,28 @@
       <c r="R37" s="13"/>
     </row>
     <row r="38">
-      <c r="A38" s="39" t="s">
-        <v>140</v>
+      <c r="A38" s="45" t="s">
+        <v>141</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C38" s="36" t="s">
         <v>142</v>
       </c>
+      <c r="C38" s="42" t="s">
+        <v>143</v>
+      </c>
       <c r="D38" s="13"/>
-      <c r="E38" s="40" t="b">
+      <c r="E38" s="46" t="b">
         <v>1</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
       <c r="I38" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="J38" s="38"/>
+        <v>131</v>
+      </c>
+      <c r="J38" s="44"/>
       <c r="K38" s="13"/>
       <c r="L38" s="13"/>
       <c r="M38" s="13"/>
@@ -4176,28 +4194,28 @@
       <c r="R38" s="13"/>
     </row>
     <row r="39">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C39" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="B39" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>142</v>
-      </c>
       <c r="D39" s="13"/>
-      <c r="E39" s="40" t="b">
+      <c r="E39" s="46" t="b">
         <v>1</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
       <c r="I39" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="J39" s="38"/>
+        <v>131</v>
+      </c>
+      <c r="J39" s="44"/>
       <c r="K39" s="13"/>
       <c r="L39" s="13"/>
       <c r="M39" s="13"/>
@@ -4209,13 +4227,13 @@
     </row>
     <row r="40">
       <c r="A40" s="14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
@@ -4235,13 +4253,13 @@
     </row>
     <row r="41">
       <c r="A41" s="14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="C41" s="34" t="s">
         <v>150</v>
+      </c>
+      <c r="C41" s="39" t="s">
+        <v>151</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
@@ -4264,10 +4282,10 @@
         <v>29</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="C42" s="42" t="s">
         <v>152</v>
+      </c>
+      <c r="C42" s="48" t="s">
+        <v>153</v>
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
@@ -4275,7 +4293,7 @@
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
       <c r="I42" s="16"/>
-      <c r="J42" s="41">
+      <c r="J42" s="47">
         <v>229.0</v>
       </c>
       <c r="K42" s="13"/>
@@ -4286,18 +4304,18 @@
       <c r="P42" s="13"/>
       <c r="Q42" s="13"/>
       <c r="R42" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="C43" s="42" t="s">
-        <v>152</v>
+        <v>156</v>
+      </c>
+      <c r="C43" s="48" t="s">
+        <v>153</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
@@ -4305,7 +4323,7 @@
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
       <c r="I43" s="16"/>
-      <c r="J43" s="41">
+      <c r="J43" s="47">
         <v>229.0</v>
       </c>
       <c r="K43" s="13"/>
@@ -4316,18 +4334,18 @@
       <c r="P43" s="13"/>
       <c r="Q43" s="13"/>
       <c r="R43" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="C44" s="42" t="s">
-        <v>152</v>
+        <v>159</v>
+      </c>
+      <c r="C44" s="48" t="s">
+        <v>153</v>
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
@@ -4335,7 +4353,7 @@
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
       <c r="I44" s="16"/>
-      <c r="J44" s="41">
+      <c r="J44" s="47">
         <v>229.0</v>
       </c>
       <c r="K44" s="13"/>
@@ -4346,18 +4364,18 @@
       <c r="P44" s="13"/>
       <c r="Q44" s="13"/>
       <c r="R44" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="C45" s="42" t="s">
-        <v>152</v>
+        <v>162</v>
+      </c>
+      <c r="C45" s="48" t="s">
+        <v>153</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
@@ -4365,7 +4383,7 @@
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
       <c r="I45" s="16"/>
-      <c r="J45" s="41">
+      <c r="J45" s="47">
         <v>229.0</v>
       </c>
       <c r="K45" s="13"/>
@@ -4376,7 +4394,7 @@
       <c r="P45" s="13"/>
       <c r="Q45" s="13"/>
       <c r="R45" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46">
@@ -4384,10 +4402,10 @@
         <v>37</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="C46" s="42" t="s">
-        <v>152</v>
+        <v>164</v>
+      </c>
+      <c r="C46" s="48" t="s">
+        <v>153</v>
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="13"/>
@@ -4395,7 +4413,7 @@
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
       <c r="I46" s="16"/>
-      <c r="J46" s="41">
+      <c r="J46" s="47">
         <v>229.0</v>
       </c>
       <c r="K46" s="13"/>
@@ -4406,18 +4424,18 @@
       <c r="P46" s="13"/>
       <c r="Q46" s="13"/>
       <c r="R46" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="C47" s="42" t="s">
-        <v>152</v>
+        <v>167</v>
+      </c>
+      <c r="C47" s="48" t="s">
+        <v>153</v>
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
@@ -4425,7 +4443,7 @@
       <c r="G47" s="13"/>
       <c r="H47" s="13"/>
       <c r="I47" s="16"/>
-      <c r="J47" s="41">
+      <c r="J47" s="47">
         <v>229.0</v>
       </c>
       <c r="K47" s="13"/>
@@ -4436,18 +4454,18 @@
       <c r="P47" s="13"/>
       <c r="Q47" s="13"/>
       <c r="R47" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="C48" s="42" t="s">
-        <v>152</v>
+        <v>170</v>
+      </c>
+      <c r="C48" s="48" t="s">
+        <v>153</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="13"/>
@@ -4455,7 +4473,7 @@
       <c r="G48" s="13"/>
       <c r="H48" s="13"/>
       <c r="I48" s="16"/>
-      <c r="J48" s="41">
+      <c r="J48" s="47">
         <v>229.0</v>
       </c>
       <c r="K48" s="13"/>
@@ -4466,18 +4484,18 @@
       <c r="P48" s="13"/>
       <c r="Q48" s="13"/>
       <c r="R48" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="C49" s="42" t="s">
-        <v>152</v>
+        <v>173</v>
+      </c>
+      <c r="C49" s="48" t="s">
+        <v>153</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
@@ -4485,7 +4503,7 @@
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
       <c r="I49" s="16"/>
-      <c r="J49" s="41">
+      <c r="J49" s="47">
         <v>229.0</v>
       </c>
       <c r="K49" s="13"/>
@@ -4496,18 +4514,18 @@
       <c r="P49" s="13"/>
       <c r="Q49" s="13"/>
       <c r="R49" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="C50" s="42" t="s">
-        <v>152</v>
+        <v>176</v>
+      </c>
+      <c r="C50" s="48" t="s">
+        <v>153</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="13"/>
@@ -4515,7 +4533,7 @@
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
       <c r="I50" s="16"/>
-      <c r="J50" s="41">
+      <c r="J50" s="47">
         <v>229.0</v>
       </c>
       <c r="K50" s="13"/>
@@ -4526,18 +4544,18 @@
       <c r="P50" s="13"/>
       <c r="Q50" s="13"/>
       <c r="R50" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C51" s="42" t="s">
-        <v>152</v>
+        <v>179</v>
+      </c>
+      <c r="C51" s="48" t="s">
+        <v>153</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="13"/>
@@ -4545,7 +4563,7 @@
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
       <c r="I51" s="16"/>
-      <c r="J51" s="41">
+      <c r="J51" s="47">
         <v>229.0</v>
       </c>
       <c r="K51" s="13"/>
@@ -4556,18 +4574,18 @@
       <c r="P51" s="13"/>
       <c r="Q51" s="13"/>
       <c r="R51" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="C52" s="42" t="s">
-        <v>152</v>
+        <v>182</v>
+      </c>
+      <c r="C52" s="48" t="s">
+        <v>153</v>
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
@@ -4575,7 +4593,7 @@
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
       <c r="I52" s="16"/>
-      <c r="J52" s="41">
+      <c r="J52" s="47">
         <v>229.0</v>
       </c>
       <c r="K52" s="13"/>
@@ -4586,18 +4604,18 @@
       <c r="P52" s="13"/>
       <c r="Q52" s="13"/>
       <c r="R52" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="C53" s="42" t="s">
-        <v>152</v>
+        <v>185</v>
+      </c>
+      <c r="C53" s="48" t="s">
+        <v>153</v>
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
@@ -4605,7 +4623,7 @@
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
       <c r="I53" s="16"/>
-      <c r="J53" s="41">
+      <c r="J53" s="47">
         <v>229.0</v>
       </c>
       <c r="K53" s="13"/>
@@ -4616,18 +4634,18 @@
       <c r="P53" s="13"/>
       <c r="Q53" s="13"/>
       <c r="R53" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="C54" s="42" t="s">
-        <v>152</v>
+        <v>188</v>
+      </c>
+      <c r="C54" s="48" t="s">
+        <v>153</v>
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
@@ -4635,7 +4653,7 @@
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
       <c r="I54" s="16"/>
-      <c r="J54" s="41">
+      <c r="J54" s="47">
         <v>229.0</v>
       </c>
       <c r="K54" s="13"/>
@@ -4646,18 +4664,18 @@
       <c r="P54" s="13"/>
       <c r="Q54" s="13"/>
       <c r="R54" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="C55" s="42" t="s">
-        <v>152</v>
+        <v>191</v>
+      </c>
+      <c r="C55" s="48" t="s">
+        <v>153</v>
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
@@ -4665,7 +4683,7 @@
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
       <c r="I55" s="16"/>
-      <c r="J55" s="41">
+      <c r="J55" s="47">
         <v>229.0</v>
       </c>
       <c r="K55" s="13"/>
@@ -4676,7 +4694,7 @@
       <c r="P55" s="13"/>
       <c r="Q55" s="13"/>
       <c r="R55" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -4701,312 +4719,312 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="49" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="B2" s="36" t="s">
+      <c r="A2" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="B2" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="38"/>
+      <c r="C2" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="44"/>
     </row>
     <row r="3">
-      <c r="A3" s="45" t="s">
-        <v>195</v>
-      </c>
-      <c r="B3" s="36" t="s">
+      <c r="A3" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="B3" s="42" t="s">
         <v>197</v>
       </c>
+      <c r="C3" s="42" t="s">
+        <v>198</v>
+      </c>
       <c r="D3" s="13"/>
     </row>
     <row r="4">
-      <c r="A4" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="B4" s="38" t="s">
+      <c r="A4" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="B4" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="46"/>
+      <c r="C4" s="42" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" s="52"/>
     </row>
     <row r="5">
-      <c r="A5" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="B5" s="38" t="s">
+      <c r="A5" s="51" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="B5" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="C5" s="42" t="s">
         <v>204</v>
       </c>
+      <c r="D5" s="52" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="45" t="s">
-        <v>204</v>
-      </c>
-      <c r="B6" s="38" t="s">
+      <c r="A6" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="B6" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="C6" s="42" t="s">
         <v>207</v>
       </c>
+      <c r="D6" s="53" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="45" t="s">
-        <v>208</v>
-      </c>
-      <c r="B7" s="38" t="s">
+      <c r="A7" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="B7" s="44" t="s">
         <v>210</v>
       </c>
-      <c r="D7" s="46" t="s">
-        <v>204</v>
+      <c r="C7" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="45" t="s">
-        <v>211</v>
-      </c>
-      <c r="B8" s="36" t="s">
+      <c r="A8" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="B8" s="42" t="s">
         <v>213</v>
       </c>
+      <c r="C8" s="42" t="s">
+        <v>214</v>
+      </c>
       <c r="D8" s="13"/>
     </row>
     <row r="9">
-      <c r="A9" s="45" t="s">
-        <v>214</v>
-      </c>
-      <c r="B9" s="36" t="s">
+      <c r="A9" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="B9" s="42" t="s">
         <v>216</v>
       </c>
+      <c r="C9" s="42" t="s">
+        <v>217</v>
+      </c>
       <c r="D9" s="13"/>
     </row>
     <row r="10">
-      <c r="A10" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="B10" s="36" t="s">
+      <c r="A10" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="B10" s="42" t="s">
         <v>219</v>
       </c>
+      <c r="C10" s="42" t="s">
+        <v>220</v>
+      </c>
       <c r="D10" s="13"/>
     </row>
     <row r="11">
-      <c r="A11" s="45" t="s">
-        <v>220</v>
-      </c>
-      <c r="B11" s="36" t="s">
+      <c r="A11" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="B11" s="42" t="s">
         <v>222</v>
       </c>
+      <c r="C11" s="42" t="s">
+        <v>223</v>
+      </c>
       <c r="D11" s="13"/>
     </row>
     <row r="12">
-      <c r="A12" s="45" t="s">
-        <v>223</v>
-      </c>
-      <c r="B12" s="36" t="s">
+      <c r="A12" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="B12" s="42" t="s">
         <v>225</v>
       </c>
+      <c r="C12" s="42" t="s">
+        <v>226</v>
+      </c>
       <c r="D12" s="13"/>
     </row>
     <row r="13">
-      <c r="A13" s="45" t="s">
-        <v>226</v>
-      </c>
-      <c r="B13" s="36" t="s">
+      <c r="A13" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="B13" s="42" t="s">
         <v>228</v>
       </c>
+      <c r="C13" s="42" t="s">
+        <v>229</v>
+      </c>
       <c r="D13" s="13"/>
     </row>
     <row r="14">
-      <c r="A14" s="45" t="s">
-        <v>229</v>
-      </c>
-      <c r="B14" s="36" t="s">
+      <c r="A14" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="B14" s="42" t="s">
         <v>231</v>
       </c>
+      <c r="C14" s="42" t="s">
+        <v>232</v>
+      </c>
       <c r="D14" s="13"/>
     </row>
     <row r="15">
-      <c r="A15" s="45" t="s">
-        <v>232</v>
-      </c>
-      <c r="B15" s="36" t="s">
+      <c r="A15" s="51" t="s">
         <v>233</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="B15" s="42" t="s">
         <v>234</v>
       </c>
+      <c r="C15" s="42" t="s">
+        <v>235</v>
+      </c>
       <c r="D15" s="13"/>
     </row>
     <row r="16">
-      <c r="A16" s="45" t="s">
-        <v>235</v>
-      </c>
-      <c r="B16" s="36" t="s">
+      <c r="A16" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="B16" s="42" t="s">
         <v>237</v>
       </c>
+      <c r="C16" s="42" t="s">
+        <v>238</v>
+      </c>
       <c r="D16" s="13"/>
     </row>
     <row r="17">
-      <c r="A17" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="B17" s="36" t="s">
+      <c r="A17" s="51" t="s">
         <v>239</v>
       </c>
+      <c r="B17" s="42" t="s">
+        <v>240</v>
+      </c>
       <c r="C17" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D17" s="13"/>
     </row>
     <row r="18">
-      <c r="A18" s="45" t="s">
-        <v>240</v>
-      </c>
-      <c r="B18" s="36" t="s">
+      <c r="A18" s="51" t="s">
         <v>241</v>
       </c>
+      <c r="B18" s="42" t="s">
+        <v>242</v>
+      </c>
       <c r="C18" s="17" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D18" s="13"/>
     </row>
     <row r="19">
-      <c r="A19" s="45" t="s">
-        <v>243</v>
-      </c>
-      <c r="B19" s="36" t="s">
+      <c r="A19" s="51" t="s">
         <v>244</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="B19" s="42" t="s">
         <v>245</v>
       </c>
-      <c r="D19" s="46" t="s">
-        <v>195</v>
+      <c r="C19" s="54" t="s">
+        <v>246</v>
+      </c>
+      <c r="D19" s="52" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="B20" s="38" t="s">
+      <c r="A20" s="55" t="s">
         <v>247</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="B20" s="44" t="s">
         <v>248</v>
       </c>
+      <c r="C20" s="56" t="s">
+        <v>249</v>
+      </c>
       <c r="D20" s="13"/>
     </row>
     <row r="21">
-      <c r="A21" s="49" t="s">
-        <v>249</v>
-      </c>
-      <c r="B21" s="38" t="s">
+      <c r="A21" s="55" t="s">
         <v>250</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="B21" s="44" t="s">
         <v>251</v>
       </c>
+      <c r="C21" s="56" t="s">
+        <v>252</v>
+      </c>
       <c r="D21" s="13"/>
     </row>
     <row r="22">
-      <c r="A22" s="49" t="s">
-        <v>252</v>
-      </c>
-      <c r="B22" s="38" t="s">
+      <c r="A22" s="55" t="s">
         <v>253</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="B22" s="44" t="s">
         <v>254</v>
       </c>
+      <c r="C22" s="56" t="s">
+        <v>255</v>
+      </c>
       <c r="D22" s="13"/>
     </row>
     <row r="23">
-      <c r="A23" s="49" t="s">
-        <v>255</v>
-      </c>
-      <c r="B23" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="C23" s="51" t="s">
+      <c r="A23" s="55" t="s">
         <v>256</v>
       </c>
+      <c r="B23" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>257</v>
+      </c>
       <c r="D23" s="13"/>
     </row>
     <row r="24">
-      <c r="A24" s="49" t="s">
-        <v>257</v>
-      </c>
-      <c r="B24" s="38" t="s">
+      <c r="A24" s="55" t="s">
         <v>258</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="B24" s="44" t="s">
         <v>259</v>
       </c>
+      <c r="C24" s="57" t="s">
+        <v>260</v>
+      </c>
       <c r="D24" s="13"/>
     </row>
     <row r="25">
-      <c r="A25" s="49" t="s">
-        <v>260</v>
-      </c>
-      <c r="B25" s="38" t="s">
+      <c r="A25" s="55" t="s">
         <v>261</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="B25" s="44" t="s">
         <v>262</v>
+      </c>
+      <c r="C25" s="58" t="s">
+        <v>263</v>
       </c>
       <c r="D25" s="13"/>
     </row>
@@ -5034,292 +5052,292 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53" t="s">
-        <v>263</v>
-      </c>
-      <c r="D1" s="53" t="s">
+      <c r="C1" s="59" t="s">
         <v>264</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="D1" s="59" t="s">
         <v>265</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="E1" s="59" t="s">
+        <v>266</v>
+      </c>
+      <c r="F1" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="54" t="s">
-        <v>266</v>
+      <c r="G1" s="60" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="B2" s="55" t="s">
         <v>268</v>
       </c>
+      <c r="B2" s="61" t="s">
+        <v>269</v>
+      </c>
       <c r="C2" s="20" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="49"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="62"/>
     </row>
     <row r="3">
       <c r="A3" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="B3" s="55" t="s">
         <v>272</v>
       </c>
+      <c r="B3" s="61" t="s">
+        <v>273</v>
+      </c>
       <c r="C3" s="20" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="F3" s="49"/>
+        <v>155</v>
+      </c>
+      <c r="F3" s="55"/>
       <c r="G3" s="13"/>
     </row>
     <row r="4">
       <c r="A4" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="B4" s="55" t="s">
         <v>276</v>
       </c>
+      <c r="B4" s="61" t="s">
+        <v>277</v>
+      </c>
       <c r="C4" s="20" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="F4" s="49"/>
+        <v>158</v>
+      </c>
+      <c r="F4" s="55"/>
       <c r="G4" s="13"/>
     </row>
     <row r="5">
       <c r="A5" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="B5" s="55" t="s">
         <v>280</v>
       </c>
+      <c r="B5" s="61" t="s">
+        <v>281</v>
+      </c>
       <c r="C5" s="20" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="F5" s="49"/>
+        <v>161</v>
+      </c>
+      <c r="F5" s="55"/>
       <c r="G5" s="13"/>
     </row>
     <row r="6">
       <c r="A6" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="B6" s="55" t="s">
         <v>284</v>
       </c>
+      <c r="B6" s="61" t="s">
+        <v>285</v>
+      </c>
       <c r="C6" s="20" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="49"/>
+      <c r="F6" s="55"/>
       <c r="G6" s="13"/>
     </row>
     <row r="7">
       <c r="A7" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="B7" s="55" t="s">
         <v>288</v>
       </c>
+      <c r="B7" s="61" t="s">
+        <v>289</v>
+      </c>
       <c r="C7" s="20" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="F7" s="49"/>
+        <v>166</v>
+      </c>
+      <c r="F7" s="55"/>
       <c r="G7" s="13"/>
     </row>
     <row r="8">
       <c r="A8" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="B8" s="55" t="s">
         <v>292</v>
       </c>
+      <c r="B8" s="61" t="s">
+        <v>293</v>
+      </c>
       <c r="C8" s="20" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="F8" s="49"/>
+        <v>169</v>
+      </c>
+      <c r="F8" s="55"/>
       <c r="G8" s="13"/>
     </row>
     <row r="9">
       <c r="A9" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="B9" s="55" t="s">
         <v>296</v>
       </c>
+      <c r="B9" s="61" t="s">
+        <v>297</v>
+      </c>
       <c r="C9" s="20" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="F9" s="49"/>
+        <v>172</v>
+      </c>
+      <c r="F9" s="55"/>
       <c r="G9" s="13"/>
     </row>
     <row r="10">
       <c r="A10" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="B10" s="55" t="s">
         <v>300</v>
       </c>
+      <c r="B10" s="61" t="s">
+        <v>301</v>
+      </c>
       <c r="C10" s="20" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="F10" s="49"/>
+        <v>175</v>
+      </c>
+      <c r="F10" s="55"/>
       <c r="G10" s="13"/>
     </row>
     <row r="11">
       <c r="A11" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="B11" s="55" t="s">
         <v>304</v>
       </c>
+      <c r="B11" s="61" t="s">
+        <v>305</v>
+      </c>
       <c r="C11" s="20" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F11" s="49"/>
+        <v>178</v>
+      </c>
+      <c r="F11" s="55"/>
       <c r="G11" s="13"/>
     </row>
     <row r="12">
       <c r="A12" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="B12" s="55" t="s">
         <v>308</v>
       </c>
+      <c r="B12" s="61" t="s">
+        <v>309</v>
+      </c>
       <c r="C12" s="20" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="F12" s="49"/>
+        <v>181</v>
+      </c>
+      <c r="F12" s="55"/>
       <c r="G12" s="13"/>
     </row>
     <row r="13">
       <c r="A13" s="20" t="s">
-        <v>311</v>
-      </c>
-      <c r="B13" s="55" t="s">
         <v>312</v>
       </c>
+      <c r="B13" s="61" t="s">
+        <v>313</v>
+      </c>
       <c r="C13" s="20" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="F13" s="49"/>
+        <v>184</v>
+      </c>
+      <c r="F13" s="55"/>
       <c r="G13" s="13"/>
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="F14" s="49"/>
+        <v>187</v>
+      </c>
+      <c r="F14" s="55"/>
       <c r="G14" s="13"/>
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="F15" s="49"/>
+        <v>190</v>
+      </c>
+      <c r="F15" s="55"/>
       <c r="G15" s="13"/>
     </row>
   </sheetData>
@@ -5358,1810 +5376,1810 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="E1" s="53" t="s">
+      <c r="D1" s="59" t="s">
         <v>324</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="E1" s="59" t="s">
         <v>325</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="F1" s="59" t="s">
         <v>326</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="G1" s="59" t="s">
+        <v>327</v>
+      </c>
+      <c r="H1" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="53" t="s">
-        <v>327</v>
-      </c>
-      <c r="J1" s="58" t="s">
+      <c r="I1" s="59" t="s">
         <v>328</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="J1" s="64" t="s">
         <v>329</v>
       </c>
-      <c r="L1" s="59" t="s">
+      <c r="K1" s="63" t="s">
         <v>330</v>
       </c>
+      <c r="L1" s="65" t="s">
+        <v>331</v>
+      </c>
       <c r="M1" s="20" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="B2" s="60" t="s">
         <v>332</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="B2" s="66" t="s">
         <v>333</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="39" t="s">
-        <v>140</v>
+      <c r="C2" s="67" t="s">
+        <v>334</v>
+      </c>
+      <c r="D2" s="68"/>
+      <c r="E2" s="45" t="s">
+        <v>141</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="H2" s="49"/>
+        <v>335</v>
+      </c>
+      <c r="H2" s="55"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
       <c r="K2" s="4">
         <v>0.0</v>
       </c>
-      <c r="L2" s="55" t="s">
+      <c r="L2" s="61" t="s">
         <v>26</v>
       </c>
       <c r="M2" s="13"/>
     </row>
     <row r="3">
       <c r="A3" s="20" t="s">
-        <v>335</v>
-      </c>
-      <c r="B3" s="60" t="s">
         <v>336</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="B3" s="66" t="s">
         <v>337</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="39" t="s">
-        <v>133</v>
+      <c r="C3" s="67" t="s">
+        <v>338</v>
+      </c>
+      <c r="D3" s="68"/>
+      <c r="E3" s="45" t="s">
+        <v>134</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="H3" s="49"/>
+        <v>339</v>
+      </c>
+      <c r="H3" s="55"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
       <c r="K3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L3" s="55" t="s">
-        <v>339</v>
+      <c r="L3" s="61" t="s">
+        <v>340</v>
       </c>
       <c r="M3" s="13"/>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="B4" s="60" t="s">
         <v>341</v>
       </c>
-      <c r="C4" s="42" t="s">
-        <v>333</v>
-      </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39" t="s">
-        <v>140</v>
+      <c r="B4" s="66" t="s">
+        <v>342</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>334</v>
+      </c>
+      <c r="D4" s="44"/>
+      <c r="E4" s="45" t="s">
+        <v>141</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>342</v>
-      </c>
-      <c r="H4" s="49"/>
+        <v>343</v>
+      </c>
+      <c r="H4" s="55"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
       <c r="K4" s="4">
         <v>0.0</v>
       </c>
-      <c r="L4" s="55" t="s">
+      <c r="L4" s="61" t="s">
         <v>22</v>
       </c>
       <c r="M4" s="13"/>
     </row>
     <row r="5">
       <c r="A5" s="20" t="s">
-        <v>343</v>
-      </c>
-      <c r="B5" s="60" t="s">
         <v>344</v>
       </c>
-      <c r="C5" s="61" t="s">
-        <v>337</v>
-      </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="39" t="s">
-        <v>133</v>
+      <c r="B5" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>338</v>
+      </c>
+      <c r="D5" s="68"/>
+      <c r="E5" s="45" t="s">
+        <v>134</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="H5" s="49"/>
+        <v>346</v>
+      </c>
+      <c r="H5" s="55"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
       <c r="K5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="55" t="s">
-        <v>346</v>
+      <c r="L5" s="61" t="s">
+        <v>347</v>
       </c>
       <c r="M5" s="13"/>
     </row>
     <row r="6">
       <c r="A6" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="B6" s="60" t="s">
         <v>348</v>
       </c>
-      <c r="C6" s="42" t="s">
-        <v>333</v>
-      </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39" t="s">
-        <v>140</v>
+      <c r="B6" s="66" t="s">
+        <v>349</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>334</v>
+      </c>
+      <c r="D6" s="44"/>
+      <c r="E6" s="45" t="s">
+        <v>141</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="H6" s="49"/>
+        <v>350</v>
+      </c>
+      <c r="H6" s="55"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="4">
         <v>0.0</v>
       </c>
-      <c r="L6" s="55" t="s">
+      <c r="L6" s="61" t="s">
         <v>22</v>
       </c>
       <c r="M6" s="13"/>
     </row>
     <row r="7">
       <c r="A7" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="B7" s="60" t="s">
         <v>351</v>
       </c>
-      <c r="C7" s="42" t="s">
-        <v>337</v>
-      </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="39" t="s">
-        <v>133</v>
+      <c r="B7" s="66" t="s">
+        <v>352</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="D7" s="68"/>
+      <c r="E7" s="45" t="s">
+        <v>134</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="H7" s="49"/>
+        <v>353</v>
+      </c>
+      <c r="H7" s="55"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
       <c r="K7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="55" t="s">
-        <v>353</v>
+      <c r="L7" s="61" t="s">
+        <v>354</v>
       </c>
       <c r="M7" s="13"/>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="B8" s="60" t="s">
         <v>355</v>
       </c>
-      <c r="C8" s="42" t="s">
-        <v>333</v>
-      </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39" t="s">
-        <v>140</v>
+      <c r="B8" s="66" t="s">
+        <v>356</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>334</v>
+      </c>
+      <c r="D8" s="44"/>
+      <c r="E8" s="45" t="s">
+        <v>141</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="H8" s="49"/>
+        <v>283</v>
+      </c>
+      <c r="H8" s="55"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
       <c r="K8" s="4">
         <v>0.0</v>
       </c>
-      <c r="L8" s="55" t="s">
+      <c r="L8" s="61" t="s">
         <v>30</v>
       </c>
       <c r="M8" s="13"/>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>356</v>
-      </c>
-      <c r="B9" s="60" t="s">
         <v>357</v>
       </c>
-      <c r="C9" s="42" t="s">
-        <v>337</v>
-      </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39" t="s">
-        <v>133</v>
+      <c r="B9" s="66" t="s">
+        <v>358</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="D9" s="44"/>
+      <c r="E9" s="45" t="s">
+        <v>134</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>359</v>
-      </c>
-      <c r="H9" s="49"/>
+        <v>360</v>
+      </c>
+      <c r="H9" s="55"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
       <c r="K9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L9" s="55" t="s">
-        <v>360</v>
+      <c r="L9" s="61" t="s">
+        <v>361</v>
       </c>
       <c r="M9" s="13"/>
     </row>
     <row r="10">
       <c r="A10" s="22" t="s">
-        <v>361</v>
-      </c>
-      <c r="B10" s="63" t="s">
         <v>362</v>
       </c>
-      <c r="C10" s="64" t="s">
-        <v>333</v>
-      </c>
-      <c r="D10" s="65"/>
-      <c r="E10" s="39" t="s">
-        <v>140</v>
+      <c r="B10" s="69" t="s">
+        <v>363</v>
+      </c>
+      <c r="C10" s="70" t="s">
+        <v>334</v>
+      </c>
+      <c r="D10" s="71"/>
+      <c r="E10" s="45" t="s">
+        <v>141</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="H10" s="66"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
+        <v>364</v>
+      </c>
+      <c r="H10" s="72"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
       <c r="K10" s="23">
         <v>0.0</v>
       </c>
-      <c r="L10" s="68" t="s">
+      <c r="L10" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="M10" s="67"/>
+      <c r="M10" s="25"/>
     </row>
     <row r="11">
       <c r="A11" s="20" t="s">
-        <v>364</v>
-      </c>
-      <c r="B11" s="60" t="s">
         <v>365</v>
       </c>
-      <c r="C11" s="42" t="s">
-        <v>337</v>
-      </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39" t="s">
-        <v>133</v>
+      <c r="B11" s="66" t="s">
+        <v>366</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="D11" s="44"/>
+      <c r="E11" s="45" t="s">
+        <v>134</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>366</v>
-      </c>
-      <c r="H11" s="49"/>
+        <v>367</v>
+      </c>
+      <c r="H11" s="55"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
       <c r="K11" s="4" t="s">
         <v>49</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M11" s="13"/>
     </row>
     <row r="12">
-      <c r="A12" s="69" t="s">
-        <v>368</v>
-      </c>
-      <c r="B12" s="60" t="s">
+      <c r="A12" s="74" t="s">
         <v>369</v>
       </c>
-      <c r="C12" s="42" t="s">
-        <v>333</v>
-      </c>
-      <c r="D12" s="38"/>
+      <c r="B12" s="66" t="s">
+        <v>370</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>334</v>
+      </c>
+      <c r="D12" s="44"/>
       <c r="E12" s="20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>370</v>
-      </c>
-      <c r="H12" s="49"/>
+        <v>371</v>
+      </c>
+      <c r="H12" s="55"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
       <c r="K12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L12" s="55" t="s">
+      <c r="L12" s="61" t="s">
+        <v>372</v>
+      </c>
+      <c r="M12" s="13"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="74" t="s">
+        <v>373</v>
+      </c>
+      <c r="B13" s="66" t="s">
+        <v>374</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>334</v>
+      </c>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="20" t="s">
         <v>371</v>
       </c>
-      <c r="M12" s="13"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="69" t="s">
-        <v>372</v>
-      </c>
-      <c r="B13" s="60" t="s">
-        <v>373</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>333</v>
-      </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>370</v>
-      </c>
       <c r="G13" s="20" t="s">
-        <v>374</v>
-      </c>
-      <c r="H13" s="49"/>
+        <v>375</v>
+      </c>
+      <c r="H13" s="55"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
-      <c r="K13" s="55" t="s">
-        <v>375</v>
-      </c>
-      <c r="L13" s="70" t="s">
+      <c r="K13" s="61" t="s">
         <v>376</v>
       </c>
+      <c r="L13" s="75" t="s">
+        <v>377</v>
+      </c>
       <c r="M13" s="13"/>
     </row>
     <row r="14">
-      <c r="A14" s="69" t="s">
-        <v>377</v>
-      </c>
-      <c r="B14" s="60" t="s">
+      <c r="A14" s="74" t="s">
         <v>378</v>
       </c>
-      <c r="C14" s="42" t="s">
-        <v>333</v>
-      </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39" t="s">
-        <v>140</v>
+      <c r="B14" s="66" t="s">
+        <v>379</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>334</v>
+      </c>
+      <c r="D14" s="44"/>
+      <c r="E14" s="45" t="s">
+        <v>141</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>379</v>
-      </c>
-      <c r="H14" s="49"/>
+        <v>380</v>
+      </c>
+      <c r="H14" s="55"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
-      <c r="K14" s="55" t="s">
-        <v>380</v>
-      </c>
-      <c r="L14" s="70" t="s">
+      <c r="K14" s="61" t="s">
         <v>381</v>
       </c>
+      <c r="L14" s="75" t="s">
+        <v>382</v>
+      </c>
       <c r="M14" s="13"/>
     </row>
     <row r="15">
-      <c r="A15" s="69" t="s">
-        <v>382</v>
-      </c>
-      <c r="B15" s="60" t="s">
+      <c r="A15" s="74" t="s">
         <v>383</v>
       </c>
-      <c r="C15" s="42" t="s">
-        <v>333</v>
-      </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39" t="s">
-        <v>140</v>
+      <c r="B15" s="66" t="s">
+        <v>384</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>334</v>
+      </c>
+      <c r="D15" s="44"/>
+      <c r="E15" s="45" t="s">
+        <v>141</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="H15" s="49"/>
+        <v>385</v>
+      </c>
+      <c r="H15" s="55"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
-      <c r="K15" s="55" t="s">
-        <v>385</v>
-      </c>
-      <c r="L15" s="70" t="s">
+      <c r="K15" s="61" t="s">
         <v>386</v>
       </c>
+      <c r="L15" s="75" t="s">
+        <v>387</v>
+      </c>
       <c r="M15" s="13"/>
     </row>
     <row r="16">
-      <c r="A16" s="69" t="s">
-        <v>387</v>
-      </c>
-      <c r="B16" s="60" t="s">
+      <c r="A16" s="74" t="s">
         <v>388</v>
       </c>
-      <c r="C16" s="42" t="s">
-        <v>333</v>
-      </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39" t="s">
-        <v>140</v>
+      <c r="B16" s="66" t="s">
+        <v>389</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>334</v>
+      </c>
+      <c r="D16" s="44"/>
+      <c r="E16" s="45" t="s">
+        <v>141</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>389</v>
-      </c>
-      <c r="H16" s="49"/>
+        <v>390</v>
+      </c>
+      <c r="H16" s="55"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
-      <c r="K16" s="55" t="s">
-        <v>390</v>
-      </c>
-      <c r="L16" s="70" t="s">
+      <c r="K16" s="61" t="s">
         <v>391</v>
       </c>
+      <c r="L16" s="75" t="s">
+        <v>392</v>
+      </c>
       <c r="M16" s="13"/>
     </row>
     <row r="17">
-      <c r="A17" s="69" t="s">
-        <v>392</v>
-      </c>
-      <c r="B17" s="60" t="s">
+      <c r="A17" s="74" t="s">
         <v>393</v>
       </c>
-      <c r="C17" s="42" t="s">
-        <v>333</v>
-      </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39" t="s">
-        <v>140</v>
+      <c r="B17" s="66" t="s">
+        <v>394</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>334</v>
+      </c>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45" t="s">
+        <v>141</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>394</v>
-      </c>
-      <c r="H17" s="49"/>
+        <v>395</v>
+      </c>
+      <c r="H17" s="55"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
-      <c r="K17" s="55" t="s">
-        <v>375</v>
-      </c>
-      <c r="L17" s="70" t="s">
-        <v>395</v>
+      <c r="K17" s="61" t="s">
+        <v>376</v>
+      </c>
+      <c r="L17" s="75" t="s">
+        <v>396</v>
       </c>
       <c r="M17" s="13"/>
     </row>
     <row r="18">
-      <c r="A18" s="69" t="s">
-        <v>396</v>
-      </c>
-      <c r="B18" s="60" t="s">
+      <c r="A18" s="74" t="s">
         <v>397</v>
       </c>
-      <c r="C18" s="42" t="s">
-        <v>333</v>
-      </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39" t="s">
-        <v>140</v>
+      <c r="B18" s="66" t="s">
+        <v>398</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>334</v>
+      </c>
+      <c r="D18" s="44"/>
+      <c r="E18" s="45" t="s">
+        <v>141</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>398</v>
-      </c>
-      <c r="H18" s="49"/>
+        <v>399</v>
+      </c>
+      <c r="H18" s="55"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
-      <c r="K18" s="55" t="s">
-        <v>380</v>
-      </c>
-      <c r="L18" s="70" t="s">
-        <v>399</v>
+      <c r="K18" s="61" t="s">
+        <v>381</v>
+      </c>
+      <c r="L18" s="75" t="s">
+        <v>400</v>
       </c>
       <c r="M18" s="13"/>
     </row>
     <row r="19">
-      <c r="A19" s="69" t="s">
-        <v>400</v>
-      </c>
-      <c r="B19" s="60" t="s">
+      <c r="A19" s="74" t="s">
         <v>401</v>
       </c>
-      <c r="C19" s="42" t="s">
-        <v>333</v>
-      </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39" t="s">
-        <v>140</v>
+      <c r="B19" s="66" t="s">
+        <v>402</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>334</v>
+      </c>
+      <c r="D19" s="44"/>
+      <c r="E19" s="45" t="s">
+        <v>141</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>402</v>
-      </c>
-      <c r="H19" s="49"/>
+        <v>403</v>
+      </c>
+      <c r="H19" s="55"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
-      <c r="K19" s="55" t="s">
-        <v>385</v>
-      </c>
-      <c r="L19" s="70" t="s">
-        <v>403</v>
+      <c r="K19" s="61" t="s">
+        <v>386</v>
+      </c>
+      <c r="L19" s="75" t="s">
+        <v>404</v>
       </c>
       <c r="M19" s="13"/>
     </row>
     <row r="20">
-      <c r="A20" s="69" t="s">
-        <v>404</v>
-      </c>
-      <c r="B20" s="60" t="s">
+      <c r="A20" s="74" t="s">
         <v>405</v>
       </c>
-      <c r="C20" s="42" t="s">
-        <v>333</v>
-      </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39" t="s">
-        <v>140</v>
+      <c r="B20" s="66" t="s">
+        <v>406</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>334</v>
+      </c>
+      <c r="D20" s="44"/>
+      <c r="E20" s="45" t="s">
+        <v>141</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>406</v>
-      </c>
-      <c r="H20" s="49"/>
+        <v>407</v>
+      </c>
+      <c r="H20" s="55"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
-      <c r="K20" s="55" t="s">
-        <v>390</v>
-      </c>
-      <c r="L20" s="70" t="s">
-        <v>407</v>
+      <c r="K20" s="61" t="s">
+        <v>391</v>
+      </c>
+      <c r="L20" s="75" t="s">
+        <v>408</v>
       </c>
       <c r="M20" s="13"/>
     </row>
     <row r="21">
-      <c r="A21" s="69" t="s">
-        <v>408</v>
-      </c>
-      <c r="B21" s="60" t="s">
+      <c r="A21" s="74" t="s">
         <v>409</v>
       </c>
-      <c r="C21" s="42" t="s">
-        <v>333</v>
-      </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39" t="s">
-        <v>140</v>
+      <c r="B21" s="66" t="s">
+        <v>410</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>334</v>
+      </c>
+      <c r="D21" s="44"/>
+      <c r="E21" s="45" t="s">
+        <v>141</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>410</v>
-      </c>
-      <c r="H21" s="49"/>
+        <v>411</v>
+      </c>
+      <c r="H21" s="55"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
-      <c r="K21" s="55" t="s">
-        <v>411</v>
-      </c>
-      <c r="L21" s="70" t="s">
+      <c r="K21" s="61" t="s">
         <v>412</v>
       </c>
+      <c r="L21" s="75" t="s">
+        <v>413</v>
+      </c>
       <c r="M21" s="13"/>
     </row>
     <row r="22">
-      <c r="A22" s="69" t="s">
-        <v>413</v>
-      </c>
-      <c r="B22" s="60" t="s">
+      <c r="A22" s="74" t="s">
         <v>414</v>
       </c>
-      <c r="C22" s="42" t="s">
-        <v>333</v>
-      </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39" t="s">
-        <v>140</v>
+      <c r="B22" s="66" t="s">
+        <v>415</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>334</v>
+      </c>
+      <c r="D22" s="44"/>
+      <c r="E22" s="45" t="s">
+        <v>141</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="H22" s="49"/>
+        <v>416</v>
+      </c>
+      <c r="H22" s="55"/>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
-      <c r="K22" s="55" t="s">
-        <v>416</v>
-      </c>
-      <c r="L22" s="70" t="s">
+      <c r="K22" s="61" t="s">
         <v>417</v>
+      </c>
+      <c r="L22" s="75" t="s">
+        <v>418</v>
       </c>
       <c r="M22" s="13"/>
     </row>
     <row r="23">
       <c r="A23" s="14" t="s">
-        <v>418</v>
-      </c>
-      <c r="B23" s="60" t="s">
         <v>419</v>
       </c>
-      <c r="C23" s="61" t="s">
-        <v>333</v>
-      </c>
-      <c r="D23" s="71"/>
-      <c r="E23" s="39" t="s">
-        <v>140</v>
+      <c r="B23" s="66" t="s">
+        <v>420</v>
+      </c>
+      <c r="C23" s="67" t="s">
+        <v>334</v>
+      </c>
+      <c r="D23" s="76"/>
+      <c r="E23" s="45" t="s">
+        <v>141</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>420</v>
-      </c>
-      <c r="H23" s="49"/>
-      <c r="I23" s="72"/>
+        <v>421</v>
+      </c>
+      <c r="H23" s="55"/>
+      <c r="I23" s="77"/>
       <c r="J23" s="13"/>
-      <c r="K23" s="55">
+      <c r="K23" s="61">
         <v>0.0</v>
       </c>
-      <c r="L23" s="70" t="s">
+      <c r="L23" s="75" t="s">
         <v>30</v>
       </c>
       <c r="M23" s="13"/>
     </row>
     <row r="24">
       <c r="A24" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="B24" s="60" t="s">
         <v>422</v>
       </c>
-      <c r="C24" s="61" t="s">
-        <v>337</v>
-      </c>
-      <c r="D24" s="71"/>
-      <c r="E24" s="39" t="s">
-        <v>133</v>
+      <c r="B24" s="66" t="s">
+        <v>423</v>
+      </c>
+      <c r="C24" s="67" t="s">
+        <v>338</v>
+      </c>
+      <c r="D24" s="76"/>
+      <c r="E24" s="45" t="s">
+        <v>134</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>423</v>
-      </c>
-      <c r="H24" s="49"/>
-      <c r="I24" s="72"/>
+        <v>424</v>
+      </c>
+      <c r="H24" s="55"/>
+      <c r="I24" s="77"/>
       <c r="J24" s="13"/>
-      <c r="K24" s="55" t="s">
+      <c r="K24" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="L24" s="70" t="s">
-        <v>424</v>
+      <c r="L24" s="75" t="s">
+        <v>425</v>
       </c>
       <c r="M24" s="13"/>
     </row>
     <row r="25">
       <c r="A25" s="20" t="s">
-        <v>425</v>
-      </c>
-      <c r="B25" s="60" t="s">
         <v>426</v>
       </c>
-      <c r="C25" s="61" t="s">
-        <v>333</v>
-      </c>
-      <c r="D25" s="71"/>
-      <c r="E25" s="39" t="s">
-        <v>140</v>
+      <c r="B25" s="66" t="s">
+        <v>427</v>
+      </c>
+      <c r="C25" s="67" t="s">
+        <v>334</v>
+      </c>
+      <c r="D25" s="76"/>
+      <c r="E25" s="45" t="s">
+        <v>141</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>427</v>
-      </c>
-      <c r="H25" s="49"/>
-      <c r="I25" s="72"/>
+        <v>428</v>
+      </c>
+      <c r="H25" s="55"/>
+      <c r="I25" s="77"/>
       <c r="J25" s="13"/>
-      <c r="K25" s="55">
+      <c r="K25" s="61">
         <v>0.0</v>
       </c>
-      <c r="L25" s="70" t="s">
+      <c r="L25" s="75" t="s">
         <v>38</v>
       </c>
       <c r="M25" s="13"/>
     </row>
     <row r="26">
       <c r="A26" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="B26" s="60" t="s">
         <v>429</v>
       </c>
-      <c r="C26" s="42" t="s">
-        <v>337</v>
-      </c>
-      <c r="D26" s="38"/>
-      <c r="E26" s="39" t="s">
-        <v>133</v>
+      <c r="B26" s="66" t="s">
+        <v>430</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="D26" s="44"/>
+      <c r="E26" s="45" t="s">
+        <v>134</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>430</v>
-      </c>
-      <c r="H26" s="49"/>
+        <v>431</v>
+      </c>
+      <c r="H26" s="55"/>
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
-      <c r="K26" s="55" t="s">
-        <v>431</v>
-      </c>
-      <c r="L26" s="70" t="s">
+      <c r="K26" s="61" t="s">
         <v>432</v>
+      </c>
+      <c r="L26" s="75" t="s">
+        <v>433</v>
       </c>
       <c r="M26" s="13"/>
     </row>
     <row r="27">
       <c r="A27" s="14" t="s">
-        <v>433</v>
-      </c>
-      <c r="B27" s="60" t="s">
         <v>434</v>
       </c>
-      <c r="C27" s="42" t="s">
-        <v>333</v>
-      </c>
-      <c r="D27" s="38"/>
-      <c r="E27" s="39" t="s">
-        <v>140</v>
+      <c r="B27" s="66" t="s">
+        <v>435</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>334</v>
+      </c>
+      <c r="D27" s="44"/>
+      <c r="E27" s="45" t="s">
+        <v>141</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>435</v>
-      </c>
-      <c r="H27" s="49"/>
+        <v>436</v>
+      </c>
+      <c r="H27" s="55"/>
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
-      <c r="K27" s="55">
+      <c r="K27" s="61">
         <v>0.0</v>
       </c>
-      <c r="L27" s="70" t="s">
+      <c r="L27" s="75" t="s">
         <v>38</v>
       </c>
       <c r="M27" s="13"/>
     </row>
     <row r="28">
       <c r="A28" s="14" t="s">
-        <v>436</v>
-      </c>
-      <c r="B28" s="60" t="s">
         <v>437</v>
       </c>
-      <c r="C28" s="42" t="s">
-        <v>337</v>
-      </c>
-      <c r="D28" s="38"/>
-      <c r="E28" s="39" t="s">
-        <v>133</v>
+      <c r="B28" s="66" t="s">
+        <v>438</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="D28" s="44"/>
+      <c r="E28" s="45" t="s">
+        <v>134</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>438</v>
-      </c>
-      <c r="H28" s="49"/>
+        <v>439</v>
+      </c>
+      <c r="H28" s="55"/>
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
-      <c r="K28" s="55" t="s">
-        <v>431</v>
-      </c>
-      <c r="L28" s="70" t="s">
-        <v>439</v>
+      <c r="K28" s="61" t="s">
+        <v>432</v>
+      </c>
+      <c r="L28" s="75" t="s">
+        <v>440</v>
       </c>
       <c r="M28" s="13"/>
     </row>
     <row r="29">
       <c r="A29" s="20" t="s">
-        <v>440</v>
-      </c>
-      <c r="B29" s="60" t="s">
         <v>441</v>
       </c>
-      <c r="C29" s="61" t="s">
-        <v>333</v>
-      </c>
-      <c r="D29" s="71"/>
-      <c r="E29" s="39" t="s">
-        <v>140</v>
+      <c r="B29" s="66" t="s">
+        <v>442</v>
+      </c>
+      <c r="C29" s="67" t="s">
+        <v>334</v>
+      </c>
+      <c r="D29" s="76"/>
+      <c r="E29" s="45" t="s">
+        <v>141</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>442</v>
-      </c>
-      <c r="H29" s="49"/>
-      <c r="I29" s="72"/>
+        <v>443</v>
+      </c>
+      <c r="H29" s="55"/>
+      <c r="I29" s="77"/>
       <c r="J29" s="13"/>
-      <c r="K29" s="55">
+      <c r="K29" s="61">
         <v>0.0</v>
       </c>
-      <c r="L29" s="70" t="s">
+      <c r="L29" s="75" t="s">
         <v>38</v>
       </c>
       <c r="M29" s="13"/>
     </row>
     <row r="30">
       <c r="A30" s="20" t="s">
-        <v>443</v>
-      </c>
-      <c r="B30" s="60" t="s">
         <v>444</v>
       </c>
-      <c r="C30" s="42" t="s">
-        <v>337</v>
-      </c>
-      <c r="D30" s="38"/>
-      <c r="E30" s="39" t="s">
-        <v>133</v>
+      <c r="B30" s="66" t="s">
+        <v>445</v>
+      </c>
+      <c r="C30" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="D30" s="44"/>
+      <c r="E30" s="45" t="s">
+        <v>134</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>445</v>
-      </c>
-      <c r="H30" s="49"/>
+        <v>446</v>
+      </c>
+      <c r="H30" s="55"/>
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
-      <c r="K30" s="55" t="s">
-        <v>431</v>
-      </c>
-      <c r="L30" s="70" t="s">
-        <v>446</v>
+      <c r="K30" s="61" t="s">
+        <v>432</v>
+      </c>
+      <c r="L30" s="75" t="s">
+        <v>447</v>
       </c>
       <c r="M30" s="13"/>
     </row>
     <row r="31">
       <c r="A31" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="B31" s="60" t="s">
         <v>448</v>
       </c>
-      <c r="C31" s="42" t="s">
-        <v>333</v>
-      </c>
-      <c r="D31" s="38"/>
-      <c r="E31" s="39" t="s">
-        <v>140</v>
+      <c r="B31" s="66" t="s">
+        <v>449</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>334</v>
+      </c>
+      <c r="D31" s="44"/>
+      <c r="E31" s="45" t="s">
+        <v>141</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>449</v>
-      </c>
-      <c r="H31" s="49"/>
+        <v>450</v>
+      </c>
+      <c r="H31" s="55"/>
       <c r="I31" s="13"/>
       <c r="J31" s="13"/>
-      <c r="K31" s="55">
+      <c r="K31" s="61">
         <v>0.0</v>
       </c>
-      <c r="L31" s="70" t="s">
+      <c r="L31" s="75" t="s">
         <v>38</v>
       </c>
       <c r="M31" s="13"/>
     </row>
     <row r="32">
       <c r="A32" s="20" t="s">
-        <v>450</v>
-      </c>
-      <c r="B32" s="60" t="s">
         <v>451</v>
       </c>
-      <c r="C32" s="42" t="s">
-        <v>337</v>
-      </c>
-      <c r="D32" s="38"/>
-      <c r="E32" s="39" t="s">
-        <v>133</v>
+      <c r="B32" s="66" t="s">
+        <v>452</v>
+      </c>
+      <c r="C32" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="D32" s="44"/>
+      <c r="E32" s="45" t="s">
+        <v>134</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>452</v>
-      </c>
-      <c r="H32" s="49"/>
+        <v>453</v>
+      </c>
+      <c r="H32" s="55"/>
       <c r="I32" s="13"/>
       <c r="J32" s="13"/>
-      <c r="K32" s="55" t="s">
-        <v>431</v>
-      </c>
-      <c r="L32" s="70" t="s">
-        <v>446</v>
+      <c r="K32" s="61" t="s">
+        <v>432</v>
+      </c>
+      <c r="L32" s="75" t="s">
+        <v>447</v>
       </c>
       <c r="M32" s="13"/>
     </row>
     <row r="33">
       <c r="A33" s="20" t="s">
-        <v>453</v>
-      </c>
-      <c r="B33" s="60" t="s">
         <v>454</v>
       </c>
-      <c r="C33" s="61" t="s">
-        <v>333</v>
-      </c>
-      <c r="D33" s="71"/>
-      <c r="E33" s="39" t="s">
-        <v>140</v>
+      <c r="B33" s="66" t="s">
+        <v>455</v>
+      </c>
+      <c r="C33" s="67" t="s">
+        <v>334</v>
+      </c>
+      <c r="D33" s="76"/>
+      <c r="E33" s="45" t="s">
+        <v>141</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>455</v>
-      </c>
-      <c r="H33" s="49"/>
-      <c r="I33" s="72"/>
+        <v>456</v>
+      </c>
+      <c r="H33" s="55"/>
+      <c r="I33" s="77"/>
       <c r="J33" s="13"/>
-      <c r="K33" s="55">
+      <c r="K33" s="61">
         <v>6.0</v>
       </c>
-      <c r="L33" s="70" t="s">
+      <c r="L33" s="75" t="s">
         <v>83</v>
       </c>
       <c r="M33" s="13"/>
     </row>
     <row r="34">
       <c r="A34" s="22" t="s">
-        <v>456</v>
-      </c>
-      <c r="B34" s="63" t="s">
         <v>457</v>
       </c>
-      <c r="C34" s="64" t="s">
-        <v>337</v>
-      </c>
-      <c r="D34" s="65"/>
-      <c r="E34" s="39" t="s">
-        <v>137</v>
+      <c r="B34" s="69" t="s">
+        <v>458</v>
+      </c>
+      <c r="C34" s="70" t="s">
+        <v>338</v>
+      </c>
+      <c r="D34" s="71"/>
+      <c r="E34" s="45" t="s">
+        <v>138</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>458</v>
-      </c>
-      <c r="H34" s="66"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="67"/>
-      <c r="K34" s="68" t="s">
         <v>459</v>
       </c>
-      <c r="L34" s="73" t="s">
+      <c r="H34" s="72"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="73" t="s">
         <v>460</v>
       </c>
-      <c r="M34" s="67"/>
+      <c r="L34" s="78" t="s">
+        <v>461</v>
+      </c>
+      <c r="M34" s="25"/>
     </row>
     <row r="35">
       <c r="A35" s="22" t="s">
+        <v>462</v>
+      </c>
+      <c r="B35" s="69" t="s">
+        <v>463</v>
+      </c>
+      <c r="C35" s="70" t="s">
+        <v>338</v>
+      </c>
+      <c r="D35" s="71"/>
+      <c r="E35" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>459</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="H35" s="72"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="L35" s="78" t="s">
         <v>461</v>
       </c>
-      <c r="B35" s="63" t="s">
-        <v>462</v>
-      </c>
-      <c r="C35" s="64" t="s">
-        <v>337</v>
-      </c>
-      <c r="D35" s="65"/>
-      <c r="E35" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="F35" s="22" t="s">
-        <v>458</v>
-      </c>
-      <c r="G35" s="22" t="s">
-        <v>463</v>
-      </c>
-      <c r="H35" s="66"/>
-      <c r="I35" s="67"/>
-      <c r="J35" s="67"/>
-      <c r="K35" s="23" t="s">
-        <v>464</v>
-      </c>
-      <c r="L35" s="73" t="s">
-        <v>460</v>
-      </c>
-      <c r="M35" s="67"/>
+      <c r="M35" s="25"/>
     </row>
     <row r="36">
       <c r="A36" s="20" t="s">
-        <v>465</v>
-      </c>
-      <c r="B36" s="60" t="s">
         <v>466</v>
       </c>
-      <c r="C36" s="61" t="s">
-        <v>337</v>
-      </c>
-      <c r="D36" s="71"/>
-      <c r="E36" s="39" t="s">
-        <v>133</v>
+      <c r="B36" s="66" t="s">
+        <v>467</v>
+      </c>
+      <c r="C36" s="67" t="s">
+        <v>338</v>
+      </c>
+      <c r="D36" s="76"/>
+      <c r="E36" s="45" t="s">
+        <v>134</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>467</v>
-      </c>
-      <c r="H36" s="49"/>
-      <c r="I36" s="72"/>
+        <v>468</v>
+      </c>
+      <c r="H36" s="55"/>
+      <c r="I36" s="77"/>
       <c r="J36" s="13"/>
-      <c r="K36" s="55" t="s">
-        <v>468</v>
-      </c>
-      <c r="L36" s="70" t="s">
+      <c r="K36" s="61" t="s">
         <v>469</v>
+      </c>
+      <c r="L36" s="75" t="s">
+        <v>470</v>
       </c>
       <c r="M36" s="13"/>
     </row>
     <row r="37">
       <c r="A37" s="14" t="s">
-        <v>470</v>
-      </c>
-      <c r="B37" s="60" t="s">
         <v>471</v>
       </c>
-      <c r="C37" s="61" t="s">
-        <v>333</v>
-      </c>
-      <c r="D37" s="71"/>
-      <c r="E37" s="39" t="s">
-        <v>140</v>
+      <c r="B37" s="66" t="s">
+        <v>472</v>
+      </c>
+      <c r="C37" s="67" t="s">
+        <v>334</v>
+      </c>
+      <c r="D37" s="76"/>
+      <c r="E37" s="45" t="s">
+        <v>141</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>472</v>
-      </c>
-      <c r="H37" s="49"/>
-      <c r="I37" s="72"/>
+        <v>473</v>
+      </c>
+      <c r="H37" s="55"/>
+      <c r="I37" s="77"/>
       <c r="J37" s="13"/>
-      <c r="K37" s="55">
+      <c r="K37" s="61">
         <v>6.0</v>
       </c>
-      <c r="L37" s="74" t="s">
+      <c r="L37" s="79" t="s">
         <v>83</v>
       </c>
       <c r="M37" s="13"/>
     </row>
     <row r="38">
       <c r="A38" s="14" t="s">
-        <v>473</v>
-      </c>
-      <c r="B38" s="60" t="s">
         <v>474</v>
       </c>
-      <c r="C38" s="61" t="s">
-        <v>337</v>
-      </c>
-      <c r="D38" s="71"/>
-      <c r="E38" s="39" t="s">
-        <v>133</v>
+      <c r="B38" s="66" t="s">
+        <v>475</v>
+      </c>
+      <c r="C38" s="67" t="s">
+        <v>338</v>
+      </c>
+      <c r="D38" s="76"/>
+      <c r="E38" s="45" t="s">
+        <v>134</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>475</v>
-      </c>
-      <c r="H38" s="49"/>
-      <c r="I38" s="72"/>
+        <v>476</v>
+      </c>
+      <c r="H38" s="55"/>
+      <c r="I38" s="77"/>
       <c r="J38" s="13"/>
-      <c r="K38" s="55" t="s">
-        <v>459</v>
-      </c>
-      <c r="L38" s="74" t="s">
-        <v>476</v>
+      <c r="K38" s="61" t="s">
+        <v>460</v>
+      </c>
+      <c r="L38" s="79" t="s">
+        <v>477</v>
       </c>
       <c r="M38" s="13"/>
     </row>
     <row r="39">
       <c r="A39" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="B39" s="66" t="s">
+        <v>479</v>
+      </c>
+      <c r="C39" s="67" t="s">
+        <v>338</v>
+      </c>
+      <c r="D39" s="76"/>
+      <c r="E39" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="H39" s="55"/>
+      <c r="I39" s="77"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="61" t="s">
+        <v>465</v>
+      </c>
+      <c r="L39" s="79" t="s">
         <v>477</v>
-      </c>
-      <c r="B39" s="60" t="s">
-        <v>478</v>
-      </c>
-      <c r="C39" s="61" t="s">
-        <v>337</v>
-      </c>
-      <c r="D39" s="71"/>
-      <c r="E39" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="F39" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="G39" s="20" t="s">
-        <v>479</v>
-      </c>
-      <c r="H39" s="49"/>
-      <c r="I39" s="72"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="55" t="s">
-        <v>464</v>
-      </c>
-      <c r="L39" s="74" t="s">
-        <v>476</v>
       </c>
       <c r="M39" s="13"/>
     </row>
     <row r="40">
       <c r="A40" s="14" t="s">
-        <v>480</v>
-      </c>
-      <c r="B40" s="60" t="s">
         <v>481</v>
       </c>
-      <c r="C40" s="42" t="s">
-        <v>337</v>
-      </c>
-      <c r="D40" s="38"/>
-      <c r="E40" s="39" t="s">
-        <v>137</v>
+      <c r="B40" s="66" t="s">
+        <v>482</v>
+      </c>
+      <c r="C40" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="D40" s="44"/>
+      <c r="E40" s="45" t="s">
+        <v>138</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>482</v>
-      </c>
-      <c r="H40" s="49"/>
+        <v>483</v>
+      </c>
+      <c r="H40" s="55"/>
       <c r="I40" s="13"/>
       <c r="J40" s="13"/>
-      <c r="K40" s="55" t="s">
-        <v>464</v>
-      </c>
-      <c r="L40" s="56" t="s">
-        <v>476</v>
+      <c r="K40" s="61" t="s">
+        <v>465</v>
+      </c>
+      <c r="L40" s="62" t="s">
+        <v>477</v>
       </c>
       <c r="M40" s="13"/>
     </row>
     <row r="41">
       <c r="A41" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="B41" s="66" t="s">
+        <v>485</v>
+      </c>
+      <c r="C41" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="D41" s="44"/>
+      <c r="E41" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="F41" s="20" t="s">
         <v>483</v>
       </c>
-      <c r="B41" s="60" t="s">
-        <v>484</v>
-      </c>
-      <c r="C41" s="42" t="s">
-        <v>337</v>
-      </c>
-      <c r="D41" s="38"/>
-      <c r="E41" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="F41" s="20" t="s">
-        <v>482</v>
-      </c>
       <c r="G41" s="20" t="s">
-        <v>485</v>
-      </c>
-      <c r="H41" s="49"/>
+        <v>486</v>
+      </c>
+      <c r="H41" s="55"/>
       <c r="I41" s="13"/>
       <c r="J41" s="13"/>
-      <c r="K41" s="55" t="s">
-        <v>486</v>
-      </c>
-      <c r="L41" s="70" t="s">
+      <c r="K41" s="61" t="s">
         <v>487</v>
+      </c>
+      <c r="L41" s="75" t="s">
+        <v>488</v>
       </c>
       <c r="M41" s="13"/>
     </row>
     <row r="42">
       <c r="A42" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="B42" s="60" t="s">
         <v>489</v>
       </c>
-      <c r="C42" s="42" t="s">
-        <v>337</v>
-      </c>
-      <c r="D42" s="38"/>
-      <c r="E42" s="39" t="s">
-        <v>133</v>
+      <c r="B42" s="66" t="s">
+        <v>490</v>
+      </c>
+      <c r="C42" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="D42" s="44"/>
+      <c r="E42" s="45" t="s">
+        <v>134</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>490</v>
-      </c>
-      <c r="H42" s="49"/>
+        <v>491</v>
+      </c>
+      <c r="H42" s="55"/>
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
-      <c r="K42" s="55" t="s">
-        <v>486</v>
-      </c>
-      <c r="L42" s="70" t="s">
+      <c r="K42" s="61" t="s">
         <v>487</v>
+      </c>
+      <c r="L42" s="75" t="s">
+        <v>488</v>
       </c>
       <c r="M42" s="13"/>
     </row>
     <row r="43">
       <c r="A43" s="14" t="s">
-        <v>491</v>
-      </c>
-      <c r="B43" s="60" t="s">
         <v>492</v>
       </c>
-      <c r="C43" s="42" t="s">
-        <v>337</v>
-      </c>
-      <c r="D43" s="38"/>
-      <c r="E43" s="39" t="s">
-        <v>133</v>
+      <c r="B43" s="66" t="s">
+        <v>493</v>
+      </c>
+      <c r="C43" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="D43" s="44"/>
+      <c r="E43" s="45" t="s">
+        <v>134</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>493</v>
-      </c>
-      <c r="H43" s="49"/>
+        <v>494</v>
+      </c>
+      <c r="H43" s="55"/>
       <c r="I43" s="13"/>
       <c r="J43" s="13"/>
-      <c r="K43" s="55" t="s">
-        <v>486</v>
-      </c>
-      <c r="L43" s="70" t="s">
+      <c r="K43" s="61" t="s">
         <v>487</v>
+      </c>
+      <c r="L43" s="75" t="s">
+        <v>488</v>
       </c>
       <c r="M43" s="13"/>
     </row>
     <row r="44">
       <c r="A44" s="14" t="s">
-        <v>494</v>
-      </c>
-      <c r="B44" s="60" t="s">
         <v>495</v>
       </c>
-      <c r="C44" s="42" t="s">
-        <v>333</v>
-      </c>
-      <c r="D44" s="38"/>
-      <c r="E44" s="39" t="s">
-        <v>140</v>
+      <c r="B44" s="66" t="s">
+        <v>496</v>
+      </c>
+      <c r="C44" s="48" t="s">
+        <v>334</v>
+      </c>
+      <c r="D44" s="44"/>
+      <c r="E44" s="45" t="s">
+        <v>141</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>496</v>
-      </c>
-      <c r="H44" s="49"/>
+        <v>497</v>
+      </c>
+      <c r="H44" s="55"/>
       <c r="I44" s="13"/>
       <c r="J44" s="13"/>
-      <c r="K44" s="55">
+      <c r="K44" s="61">
         <v>6.0</v>
       </c>
-      <c r="L44" s="70" t="s">
+      <c r="L44" s="75" t="s">
         <v>83</v>
       </c>
       <c r="M44" s="13"/>
     </row>
     <row r="45">
       <c r="A45" s="14" t="s">
-        <v>497</v>
-      </c>
-      <c r="B45" s="60" t="s">
         <v>498</v>
       </c>
-      <c r="C45" s="42" t="s">
-        <v>337</v>
-      </c>
-      <c r="D45" s="38"/>
-      <c r="E45" s="39" t="s">
-        <v>137</v>
+      <c r="B45" s="66" t="s">
+        <v>499</v>
+      </c>
+      <c r="C45" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="D45" s="44"/>
+      <c r="E45" s="45" t="s">
+        <v>138</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>499</v>
-      </c>
-      <c r="H45" s="49"/>
+        <v>500</v>
+      </c>
+      <c r="H45" s="55"/>
       <c r="I45" s="13"/>
       <c r="J45" s="13"/>
-      <c r="K45" s="55" t="s">
-        <v>459</v>
-      </c>
-      <c r="L45" s="70" t="s">
-        <v>476</v>
+      <c r="K45" s="61" t="s">
+        <v>460</v>
+      </c>
+      <c r="L45" s="75" t="s">
+        <v>477</v>
       </c>
       <c r="M45" s="13"/>
     </row>
     <row r="46">
       <c r="A46" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="B46" s="66" t="s">
+        <v>502</v>
+      </c>
+      <c r="C46" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="D46" s="44"/>
+      <c r="E46" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="F46" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="B46" s="60" t="s">
-        <v>501</v>
-      </c>
-      <c r="C46" s="42" t="s">
-        <v>337</v>
-      </c>
-      <c r="D46" s="38"/>
-      <c r="E46" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="F46" s="20" t="s">
-        <v>499</v>
-      </c>
       <c r="G46" s="20" t="s">
-        <v>502</v>
-      </c>
-      <c r="H46" s="49"/>
+        <v>503</v>
+      </c>
+      <c r="H46" s="55"/>
       <c r="I46" s="13"/>
       <c r="J46" s="13"/>
-      <c r="K46" s="55">
+      <c r="K46" s="61">
         <v>7.0</v>
       </c>
-      <c r="L46" s="70" t="s">
+      <c r="L46" s="75" t="s">
         <v>83</v>
       </c>
       <c r="M46" s="13"/>
     </row>
     <row r="47">
       <c r="A47" s="14" t="s">
-        <v>503</v>
-      </c>
-      <c r="B47" s="60" t="s">
         <v>504</v>
       </c>
-      <c r="C47" s="42" t="s">
-        <v>337</v>
-      </c>
-      <c r="D47" s="38"/>
-      <c r="E47" s="39" t="s">
-        <v>133</v>
+      <c r="B47" s="66" t="s">
+        <v>505</v>
+      </c>
+      <c r="C47" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="D47" s="44"/>
+      <c r="E47" s="45" t="s">
+        <v>134</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>505</v>
-      </c>
-      <c r="H47" s="49"/>
+        <v>506</v>
+      </c>
+      <c r="H47" s="55"/>
       <c r="I47" s="13"/>
       <c r="J47" s="13"/>
-      <c r="K47" s="55">
+      <c r="K47" s="61">
         <v>7.0</v>
       </c>
-      <c r="L47" s="70" t="s">
+      <c r="L47" s="75" t="s">
         <v>83</v>
       </c>
       <c r="M47" s="13"/>
     </row>
     <row r="48">
       <c r="A48" s="14" t="s">
-        <v>506</v>
-      </c>
-      <c r="B48" s="60" t="s">
         <v>507</v>
       </c>
-      <c r="C48" s="42" t="s">
-        <v>337</v>
-      </c>
-      <c r="D48" s="38"/>
-      <c r="E48" s="39" t="s">
-        <v>133</v>
+      <c r="B48" s="66" t="s">
+        <v>508</v>
+      </c>
+      <c r="C48" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="D48" s="44"/>
+      <c r="E48" s="45" t="s">
+        <v>134</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>508</v>
-      </c>
-      <c r="H48" s="49"/>
+        <v>509</v>
+      </c>
+      <c r="H48" s="55"/>
       <c r="I48" s="13"/>
       <c r="J48" s="13"/>
-      <c r="K48" s="55">
+      <c r="K48" s="61">
         <v>7.0</v>
       </c>
-      <c r="L48" s="70" t="s">
+      <c r="L48" s="75" t="s">
         <v>83</v>
       </c>
       <c r="M48" s="13"/>
     </row>
     <row r="49">
       <c r="A49" s="14" t="s">
-        <v>509</v>
-      </c>
-      <c r="B49" s="60" t="s">
         <v>510</v>
       </c>
-      <c r="C49" s="42" t="s">
-        <v>337</v>
-      </c>
-      <c r="D49" s="38"/>
-      <c r="E49" s="39" t="s">
-        <v>137</v>
+      <c r="B49" s="66" t="s">
+        <v>511</v>
+      </c>
+      <c r="C49" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="D49" s="44"/>
+      <c r="E49" s="45" t="s">
+        <v>138</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>511</v>
-      </c>
-      <c r="H49" s="49"/>
+        <v>512</v>
+      </c>
+      <c r="H49" s="55"/>
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
-      <c r="K49" s="55" t="s">
-        <v>464</v>
-      </c>
-      <c r="L49" s="70" t="s">
-        <v>476</v>
+      <c r="K49" s="61" t="s">
+        <v>465</v>
+      </c>
+      <c r="L49" s="75" t="s">
+        <v>477</v>
       </c>
       <c r="M49" s="13"/>
     </row>
     <row r="50">
       <c r="A50" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="B50" s="66" t="s">
+        <v>514</v>
+      </c>
+      <c r="C50" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="D50" s="44"/>
+      <c r="E50" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="F50" s="20" t="s">
         <v>512</v>
       </c>
-      <c r="B50" s="60" t="s">
-        <v>513</v>
-      </c>
-      <c r="C50" s="42" t="s">
-        <v>337</v>
-      </c>
-      <c r="D50" s="38"/>
-      <c r="E50" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="F50" s="20" t="s">
-        <v>511</v>
-      </c>
       <c r="G50" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="H50" s="49"/>
+        <v>515</v>
+      </c>
+      <c r="H50" s="55"/>
       <c r="I50" s="13"/>
       <c r="J50" s="13"/>
-      <c r="K50" s="55">
+      <c r="K50" s="61">
         <v>5.0</v>
       </c>
-      <c r="L50" s="70" t="s">
+      <c r="L50" s="75" t="s">
         <v>83</v>
       </c>
       <c r="M50" s="13"/>
     </row>
     <row r="51">
       <c r="A51" s="14" t="s">
-        <v>515</v>
-      </c>
-      <c r="B51" s="60" t="s">
         <v>516</v>
       </c>
-      <c r="C51" s="42" t="s">
-        <v>337</v>
-      </c>
-      <c r="D51" s="38"/>
-      <c r="E51" s="39" t="s">
-        <v>133</v>
+      <c r="B51" s="66" t="s">
+        <v>517</v>
+      </c>
+      <c r="C51" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="D51" s="44"/>
+      <c r="E51" s="45" t="s">
+        <v>134</v>
       </c>
       <c r="F51" s="20" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G51" s="20" t="s">
-        <v>517</v>
-      </c>
-      <c r="H51" s="49"/>
+        <v>518</v>
+      </c>
+      <c r="H51" s="55"/>
       <c r="I51" s="13"/>
       <c r="J51" s="13"/>
-      <c r="K51" s="55">
+      <c r="K51" s="61">
         <v>5.0</v>
       </c>
-      <c r="L51" s="70" t="s">
+      <c r="L51" s="75" t="s">
         <v>83</v>
       </c>
       <c r="M51" s="13"/>
     </row>
     <row r="52">
       <c r="A52" s="14" t="s">
-        <v>518</v>
-      </c>
-      <c r="B52" s="60" t="s">
         <v>519</v>
       </c>
-      <c r="C52" s="42" t="s">
-        <v>337</v>
-      </c>
-      <c r="D52" s="38"/>
-      <c r="E52" s="39" t="s">
-        <v>133</v>
+      <c r="B52" s="66" t="s">
+        <v>520</v>
+      </c>
+      <c r="C52" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="D52" s="44"/>
+      <c r="E52" s="45" t="s">
+        <v>134</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G52" s="20" t="s">
-        <v>520</v>
-      </c>
-      <c r="H52" s="49"/>
+        <v>521</v>
+      </c>
+      <c r="H52" s="55"/>
       <c r="I52" s="13"/>
       <c r="J52" s="13"/>
-      <c r="K52" s="55">
+      <c r="K52" s="61">
         <v>5.0</v>
       </c>
-      <c r="L52" s="70" t="s">
+      <c r="L52" s="75" t="s">
         <v>83</v>
       </c>
       <c r="M52" s="13"/>
     </row>
     <row r="53">
       <c r="A53" s="14" t="s">
-        <v>521</v>
-      </c>
-      <c r="B53" s="60" t="s">
         <v>522</v>
       </c>
-      <c r="C53" s="42" t="s">
-        <v>333</v>
-      </c>
-      <c r="D53" s="38"/>
-      <c r="E53" s="39" t="s">
-        <v>140</v>
+      <c r="B53" s="66" t="s">
+        <v>523</v>
+      </c>
+      <c r="C53" s="48" t="s">
+        <v>334</v>
+      </c>
+      <c r="D53" s="44"/>
+      <c r="E53" s="45" t="s">
+        <v>141</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>523</v>
-      </c>
-      <c r="H53" s="49"/>
+        <v>524</v>
+      </c>
+      <c r="H53" s="55"/>
       <c r="I53" s="13"/>
       <c r="J53" s="13"/>
-      <c r="K53" s="55">
+      <c r="K53" s="61">
         <v>6.0</v>
       </c>
-      <c r="L53" s="70" t="s">
+      <c r="L53" s="75" t="s">
         <v>83</v>
       </c>
       <c r="M53" s="13"/>
     </row>
     <row r="54">
       <c r="A54" s="14" t="s">
-        <v>524</v>
-      </c>
-      <c r="B54" s="60" t="s">
         <v>525</v>
       </c>
-      <c r="C54" s="42" t="s">
-        <v>337</v>
-      </c>
-      <c r="D54" s="38"/>
-      <c r="E54" s="39" t="s">
-        <v>133</v>
+      <c r="B54" s="66" t="s">
+        <v>526</v>
+      </c>
+      <c r="C54" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="D54" s="44"/>
+      <c r="E54" s="45" t="s">
+        <v>134</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>526</v>
-      </c>
-      <c r="H54" s="49"/>
+        <v>527</v>
+      </c>
+      <c r="H54" s="55"/>
       <c r="I54" s="13"/>
       <c r="J54" s="13"/>
-      <c r="K54" s="55" t="s">
-        <v>459</v>
-      </c>
-      <c r="L54" s="70" t="s">
+      <c r="K54" s="61" t="s">
         <v>460</v>
+      </c>
+      <c r="L54" s="75" t="s">
+        <v>461</v>
       </c>
       <c r="M54" s="13"/>
     </row>
     <row r="55">
       <c r="A55" s="14" t="s">
-        <v>527</v>
-      </c>
-      <c r="B55" s="60" t="s">
         <v>528</v>
       </c>
-      <c r="C55" s="42" t="s">
-        <v>337</v>
-      </c>
-      <c r="D55" s="38"/>
-      <c r="E55" s="39" t="s">
-        <v>133</v>
+      <c r="B55" s="66" t="s">
+        <v>529</v>
+      </c>
+      <c r="C55" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="D55" s="44"/>
+      <c r="E55" s="45" t="s">
+        <v>134</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>529</v>
-      </c>
-      <c r="H55" s="49"/>
+        <v>530</v>
+      </c>
+      <c r="H55" s="55"/>
       <c r="I55" s="13"/>
       <c r="J55" s="13"/>
-      <c r="K55" s="55" t="s">
-        <v>464</v>
-      </c>
-      <c r="L55" s="70" t="s">
-        <v>460</v>
+      <c r="K55" s="61" t="s">
+        <v>465</v>
+      </c>
+      <c r="L55" s="75" t="s">
+        <v>461</v>
       </c>
       <c r="M55" s="13"/>
     </row>
     <row r="56">
       <c r="A56" s="14" t="s">
-        <v>530</v>
-      </c>
-      <c r="B56" s="60" t="s">
         <v>531</v>
       </c>
-      <c r="C56" s="42" t="s">
-        <v>337</v>
-      </c>
-      <c r="D56" s="38"/>
-      <c r="E56" s="39" t="s">
-        <v>137</v>
+      <c r="B56" s="66" t="s">
+        <v>532</v>
+      </c>
+      <c r="C56" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="D56" s="44"/>
+      <c r="E56" s="45" t="s">
+        <v>138</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G56" s="20" t="s">
-        <v>532</v>
-      </c>
-      <c r="H56" s="49"/>
+        <v>533</v>
+      </c>
+      <c r="H56" s="55"/>
       <c r="I56" s="13"/>
       <c r="J56" s="13"/>
-      <c r="K56" s="55" t="s">
-        <v>464</v>
-      </c>
-      <c r="L56" s="70" t="s">
-        <v>460</v>
+      <c r="K56" s="61" t="s">
+        <v>465</v>
+      </c>
+      <c r="L56" s="75" t="s">
+        <v>461</v>
       </c>
       <c r="M56" s="13"/>
     </row>
     <row r="57">
       <c r="A57" s="14" t="s">
+        <v>534</v>
+      </c>
+      <c r="B57" s="66" t="s">
+        <v>535</v>
+      </c>
+      <c r="C57" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="D57" s="44"/>
+      <c r="E57" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="F57" s="20" t="s">
         <v>533</v>
       </c>
-      <c r="B57" s="60" t="s">
-        <v>534</v>
-      </c>
-      <c r="C57" s="42" t="s">
-        <v>337</v>
-      </c>
-      <c r="D57" s="38"/>
-      <c r="E57" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="F57" s="20" t="s">
-        <v>532</v>
-      </c>
       <c r="G57" s="20" t="s">
-        <v>535</v>
-      </c>
-      <c r="H57" s="49"/>
+        <v>536</v>
+      </c>
+      <c r="H57" s="55"/>
       <c r="I57" s="13"/>
       <c r="J57" s="13"/>
-      <c r="K57" s="55" t="s">
-        <v>536</v>
-      </c>
-      <c r="L57" s="70" t="s">
+      <c r="K57" s="61" t="s">
         <v>537</v>
+      </c>
+      <c r="L57" s="75" t="s">
+        <v>538</v>
       </c>
       <c r="M57" s="13"/>
     </row>
     <row r="58">
       <c r="A58" s="14" t="s">
-        <v>538</v>
-      </c>
-      <c r="B58" s="60" t="s">
         <v>539</v>
       </c>
-      <c r="C58" s="42" t="s">
-        <v>337</v>
-      </c>
-      <c r="D58" s="38"/>
-      <c r="E58" s="39" t="s">
-        <v>133</v>
+      <c r="B58" s="66" t="s">
+        <v>540</v>
+      </c>
+      <c r="C58" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="D58" s="44"/>
+      <c r="E58" s="45" t="s">
+        <v>134</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G58" s="20" t="s">
-        <v>540</v>
-      </c>
-      <c r="H58" s="49"/>
+        <v>541</v>
+      </c>
+      <c r="H58" s="55"/>
       <c r="I58" s="13"/>
       <c r="J58" s="13"/>
-      <c r="K58" s="55" t="s">
-        <v>536</v>
-      </c>
-      <c r="L58" s="70" t="s">
+      <c r="K58" s="61" t="s">
         <v>537</v>
+      </c>
+      <c r="L58" s="75" t="s">
+        <v>538</v>
       </c>
       <c r="M58" s="13"/>
     </row>
@@ -7184,20 +7202,20 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="53" t="s">
-        <v>541</v>
+      <c r="D1" s="59" t="s">
+        <v>542</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="2">
@@ -7246,31 +7264,31 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="38" t="s">
-        <v>543</v>
-      </c>
-      <c r="B1" s="38" t="s">
+      <c r="A1" s="44" t="s">
         <v>544</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="B1" s="44" t="s">
         <v>545</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="C1" s="44" t="s">
         <v>546</v>
       </c>
+      <c r="D1" s="44" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="38" t="s">
-        <v>547</v>
-      </c>
-      <c r="C2" s="38" t="s">
+      <c r="B2" s="44" t="s">
         <v>548</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="C2" s="44" t="s">
         <v>549</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="3">
@@ -7286,56 +7304,56 @@
       <c r="D4" s="13"/>
     </row>
     <row r="5">
-      <c r="A5" s="38" t="s">
-        <v>550</v>
-      </c>
-      <c r="B5" s="38" t="s">
+      <c r="A5" s="44" t="s">
         <v>551</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="B5" s="44" t="s">
         <v>552</v>
       </c>
+      <c r="C5" s="44" t="s">
+        <v>553</v>
+      </c>
       <c r="D5" s="13"/>
     </row>
     <row r="6">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="38" t="s">
-        <v>553</v>
+      <c r="B6" s="44" t="s">
+        <v>554</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D6" s="13"/>
     </row>
     <row r="7">
       <c r="A7" s="13"/>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="44" t="s">
+        <v>556</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>555</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>554</v>
       </c>
       <c r="D7" s="13"/>
     </row>
     <row r="8">
       <c r="A8" s="13"/>
-      <c r="B8" s="38" t="s">
-        <v>556</v>
+      <c r="B8" s="44" t="s">
+        <v>557</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D8" s="13"/>
     </row>
     <row r="9">
       <c r="A9" s="13"/>
-      <c r="B9" s="38" t="s">
-        <v>557</v>
+      <c r="B9" s="44" t="s">
+        <v>558</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D9" s="13"/>
     </row>
@@ -7347,70 +7365,70 @@
     </row>
     <row r="11">
       <c r="A11" s="13" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
     </row>
     <row r="12">
       <c r="A12" s="13" t="s">
-        <v>560</v>
-      </c>
-      <c r="B12" s="75" t="s">
         <v>561</v>
+      </c>
+      <c r="B12" s="80" t="s">
+        <v>562</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
     </row>
     <row r="13">
       <c r="A13" s="13" t="s">
-        <v>562</v>
-      </c>
-      <c r="B13" s="75" t="s">
         <v>563</v>
+      </c>
+      <c r="B13" s="80" t="s">
+        <v>564</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
     </row>
     <row r="14">
       <c r="A14" s="13" t="s">
-        <v>564</v>
-      </c>
-      <c r="B14" s="75" t="s">
         <v>565</v>
+      </c>
+      <c r="B14" s="80" t="s">
+        <v>566</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
     </row>
     <row r="15">
       <c r="A15" s="13" t="s">
-        <v>566</v>
-      </c>
-      <c r="B15" s="75" t="s">
         <v>567</v>
+      </c>
+      <c r="B15" s="80" t="s">
+        <v>568</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
     </row>
     <row r="16">
       <c r="A16" s="13" t="s">
-        <v>568</v>
-      </c>
-      <c r="B16" s="75" t="s">
         <v>569</v>
+      </c>
+      <c r="B16" s="80" t="s">
+        <v>570</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
     </row>
     <row r="17">
       <c r="A17" s="13" t="s">
-        <v>570</v>
-      </c>
-      <c r="B17" s="75" t="s">
         <v>571</v>
+      </c>
+      <c r="B17" s="80" t="s">
+        <v>572</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -7423,9 +7441,9 @@
     </row>
     <row r="19">
       <c r="A19" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="B19" s="76" t="s">
+        <v>573</v>
+      </c>
+      <c r="B19" s="81" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="13"/>
@@ -7433,7 +7451,7 @@
     </row>
     <row r="20">
       <c r="A20" s="13" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B20" s="21" t="s">
         <v>6</v>
@@ -7443,10 +7461,10 @@
     </row>
     <row r="21">
       <c r="A21" s="13" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="22">
@@ -7469,36 +7487,36 @@
     </row>
     <row r="28">
       <c r="A28" s="16" t="s">
-        <v>576</v>
-      </c>
-      <c r="B28" s="77" t="s">
         <v>577</v>
+      </c>
+      <c r="B28" s="82" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="16" t="s">
-        <v>578</v>
-      </c>
-      <c r="B29" s="78" t="s">
         <v>579</v>
+      </c>
+      <c r="B29" s="83" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="B30" s="77" t="s">
         <v>581</v>
+      </c>
+      <c r="B30" s="82" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="13" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="13" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="33">
@@ -7547,291 +7565,291 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="79" t="s">
-        <v>323</v>
-      </c>
-      <c r="E1" s="79" t="s">
-        <v>584</v>
+      <c r="D1" s="84" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1" s="84" t="s">
+        <v>585</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>587</v>
-      </c>
-      <c r="I1" s="80" t="s">
-        <v>266</v>
-      </c>
-      <c r="J1" s="38" t="s">
         <v>588</v>
       </c>
+      <c r="I1" s="85" t="s">
+        <v>267</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>589</v>
+      </c>
       <c r="K1" s="20" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B2" s="4" t="str">
         <f t="shared" ref="B2:B15" si="1">CONCATENATE("Neuron ",RIGHT(A2,LEN(A2) - (FIND("-",A2))))</f>
         <v>Neuron 1</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E2" s="20"/>
-      <c r="I2" s="33"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="13"/>
       <c r="K2" s="22" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B3" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 2</v>
       </c>
       <c r="C3" s="20" t="s">
+        <v>593</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="22" t="s">
         <v>592</v>
-      </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="22" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B4" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 3</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E4" s="20"/>
-      <c r="I4" s="33"/>
+      <c r="I4" s="38"/>
       <c r="J4" s="13"/>
       <c r="K4" s="22" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B5" s="81" t="str">
+        <v>163</v>
+      </c>
+      <c r="B5" s="86" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 4</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E5" s="20"/>
-      <c r="I5" s="33"/>
+      <c r="I5" s="38"/>
       <c r="J5" s="13"/>
       <c r="K5" s="20" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B6" s="81" t="str">
+        <v>165</v>
+      </c>
+      <c r="B6" s="86" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 5</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E6" s="20"/>
-      <c r="I6" s="33"/>
+      <c r="I6" s="38"/>
       <c r="J6" s="13"/>
       <c r="K6" s="20" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B7" s="81" t="str">
+        <v>168</v>
+      </c>
+      <c r="B7" s="86" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 6</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E7" s="20"/>
-      <c r="I7" s="33"/>
+      <c r="I7" s="38"/>
       <c r="J7" s="13"/>
       <c r="K7" s="22" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B8" s="81" t="str">
+        <v>171</v>
+      </c>
+      <c r="B8" s="86" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 7</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E8" s="20"/>
-      <c r="I8" s="33"/>
+      <c r="I8" s="38"/>
       <c r="J8" s="13"/>
       <c r="K8" s="20" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B9" s="81" t="str">
+        <v>174</v>
+      </c>
+      <c r="B9" s="86" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 8</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E9" s="20"/>
-      <c r="I9" s="33"/>
+      <c r="I9" s="38"/>
       <c r="J9" s="13"/>
       <c r="K9" s="20" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B10" s="81" t="str">
+        <v>177</v>
+      </c>
+      <c r="B10" s="86" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 9</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E10" s="20"/>
-      <c r="I10" s="33"/>
+      <c r="I10" s="38"/>
       <c r="J10" s="13"/>
       <c r="K10" s="20" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B11" s="81" t="str">
+        <v>180</v>
+      </c>
+      <c r="B11" s="86" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 10</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E11" s="20"/>
-      <c r="I11" s="33"/>
+      <c r="I11" s="38"/>
       <c r="J11" s="13"/>
       <c r="K11" s="20" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B12" s="81" t="str">
+        <v>183</v>
+      </c>
+      <c r="B12" s="86" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 11</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E12" s="20"/>
-      <c r="I12" s="33"/>
+      <c r="I12" s="38"/>
       <c r="J12" s="13"/>
       <c r="K12" s="20" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B13" s="81" t="str">
+        <v>186</v>
+      </c>
+      <c r="B13" s="86" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 12</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E13" s="20"/>
-      <c r="I13" s="33"/>
+      <c r="I13" s="38"/>
       <c r="J13" s="13"/>
       <c r="K13" s="20" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B14" s="81" t="str">
+        <v>189</v>
+      </c>
+      <c r="B14" s="86" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 13</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E14" s="14"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
       <c r="K14" s="20" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B15" s="81" t="str">
+        <v>192</v>
+      </c>
+      <c r="B15" s="86" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 14</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E15" s="14"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
       <c r="K15" s="20" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
   </sheetData>
@@ -7854,87 +7872,87 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="83" t="s">
-        <v>611</v>
-      </c>
-      <c r="C2" s="84" t="str">
+      <c r="A2" s="88" t="s">
+        <v>612</v>
+      </c>
+      <c r="C2" s="89" t="str">
         <f t="array" ref="C2">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A2,6,LEN(A2))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/12576302</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="85" t="s">
-        <v>612</v>
-      </c>
-      <c r="C3" s="84" t="str">
+      <c r="A3" s="90" t="s">
+        <v>613</v>
+      </c>
+      <c r="C3" s="89" t="str">
         <f t="array" ref="C3">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A3,6,LEN(A3))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/24306100</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="86" t="s">
-        <v>613</v>
-      </c>
-      <c r="C4" s="84" t="str">
+      <c r="A4" s="91" t="s">
+        <v>614</v>
+      </c>
+      <c r="C4" s="89" t="str">
         <f t="array" ref="C4">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A4,6,LEN(A4))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/18924442</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="86" t="s">
-        <v>614</v>
-      </c>
-      <c r="C5" s="84" t="str">
+      <c r="A5" s="91" t="s">
+        <v>615</v>
+      </c>
+      <c r="C5" s="89" t="str">
         <f t="array" ref="C5">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A5,6,LEN(A5))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/23438947</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="86" t="s">
-        <v>615</v>
-      </c>
-      <c r="C6" s="84" t="str">
+      <c r="A6" s="91" t="s">
+        <v>616</v>
+      </c>
+      <c r="C6" s="89" t="str">
         <f t="array" ref="C6">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A6,6,LEN(A6))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/11437981</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="86" t="s">
-        <v>616</v>
-      </c>
-      <c r="C7" s="84" t="str">
+      <c r="A7" s="91" t="s">
+        <v>617</v>
+      </c>
+      <c r="C7" s="89" t="str">
         <f t="array" ref="C7">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A7,6,LEN(A7))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/18364578</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="86" t="s">
-        <v>617</v>
-      </c>
-      <c r="C8" s="84" t="str">
+      <c r="A8" s="91" t="s">
+        <v>618</v>
+      </c>
+      <c r="C8" s="89" t="str">
         <f t="array" ref="C8">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A8,6,LEN(A8))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/2902218</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="86" t="s">
-        <v>618</v>
-      </c>
-      <c r="C9" s="84" t="str">
+      <c r="A9" s="91" t="s">
+        <v>619</v>
+      </c>
+      <c r="C9" s="89" t="str">
         <f t="array" ref="C9">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A9,6,LEN(A9))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/18286675</v>
       </c>

--- a/models/sawg-stomach/source/sawg-stomach.xlsx
+++ b/models/sawg-stomach/source/sawg-stomach.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="633">
   <si>
     <t>id</t>
   </si>
@@ -1265,6 +1265,9 @@
     <t>ns83</t>
   </si>
   <si>
+    <t>external</t>
+  </si>
+  <si>
     <t>SM_2</t>
   </si>
   <si>
@@ -1424,6 +1427,9 @@
     <t>Peripheral nervous system tissue</t>
   </si>
   <si>
+    <t>UBERON:0003714</t>
+  </si>
+  <si>
     <t>UBERON:0000010</t>
   </si>
   <si>
@@ -1724,16 +1730,16 @@
     <t>ilxtr:neuron-type-sstom-1</t>
   </si>
   <si>
+    <t>ilxtr:neuron-type-sstom-2</t>
+  </si>
+  <si>
+    <t>ilxtr:neuron-type-sstom-3</t>
+  </si>
+  <si>
+    <t>ilxtr:neuron-type-sstom-4</t>
+  </si>
+  <si>
     <t>visceral sensory neuron</t>
-  </si>
-  <si>
-    <t>ilxtr:neuron-type-sstom-2</t>
-  </si>
-  <si>
-    <t>ilxtr:neuron-type-sstom-3</t>
-  </si>
-  <si>
-    <t>ilxtr:neuron-type-sstom-4</t>
   </si>
   <si>
     <t>ilxtr:neuron-type-sstom-5</t>
@@ -2116,14 +2122,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor theme="5"/>
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor rgb="FFF4CCCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4CCCC"/>
-        <bgColor rgb="FFF4CCCC"/>
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
       </patternFill>
     </fill>
   </fills>
@@ -2147,7 +2153,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="126">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2401,6 +2407,36 @@
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -2413,13 +2449,13 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2455,13 +2491,10 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -2796,123 +2829,123 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="111" t="s">
-        <v>585</v>
-      </c>
-      <c r="B1" s="111" t="s">
-        <v>586</v>
+      <c r="A1" s="120" t="s">
+        <v>587</v>
+      </c>
+      <c r="B1" s="120" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="104" t="s">
-        <v>587</v>
-      </c>
-      <c r="B2" s="112" t="s">
-        <v>588</v>
+      <c r="A2" s="114" t="s">
+        <v>589</v>
+      </c>
+      <c r="B2" s="121" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="104" t="s">
-        <v>589</v>
-      </c>
-      <c r="B3" s="112" t="s">
-        <v>590</v>
+      <c r="A3" s="114" t="s">
+        <v>591</v>
+      </c>
+      <c r="B3" s="121" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="104" t="s">
-        <v>591</v>
-      </c>
-      <c r="B4" s="113" t="s">
-        <v>592</v>
+      <c r="A4" s="114" t="s">
+        <v>593</v>
+      </c>
+      <c r="B4" s="122" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="104" t="s">
-        <v>593</v>
-      </c>
-      <c r="B5" s="113" t="s">
-        <v>594</v>
+      <c r="A5" s="114" t="s">
+        <v>595</v>
+      </c>
+      <c r="B5" s="122" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="104" t="s">
-        <v>595</v>
-      </c>
-      <c r="B6" s="113" t="s">
-        <v>596</v>
+      <c r="A6" s="114" t="s">
+        <v>597</v>
+      </c>
+      <c r="B6" s="122" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="104" t="s">
-        <v>597</v>
-      </c>
-      <c r="B7" s="113" t="s">
-        <v>598</v>
+      <c r="A7" s="114" t="s">
+        <v>599</v>
+      </c>
+      <c r="B7" s="122" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="104" t="s">
-        <v>599</v>
-      </c>
-      <c r="B8" s="113" t="s">
-        <v>600</v>
+      <c r="A8" s="114" t="s">
+        <v>601</v>
+      </c>
+      <c r="B8" s="122" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="104" t="s">
-        <v>601</v>
-      </c>
-      <c r="B9" s="113" t="s">
-        <v>602</v>
+      <c r="A9" s="114" t="s">
+        <v>603</v>
+      </c>
+      <c r="B9" s="122" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="104" t="s">
-        <v>603</v>
-      </c>
-      <c r="B10" s="113" t="s">
-        <v>604</v>
+      <c r="A10" s="114" t="s">
+        <v>605</v>
+      </c>
+      <c r="B10" s="122" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="104" t="s">
-        <v>605</v>
-      </c>
-      <c r="B11" s="113" t="s">
-        <v>606</v>
+      <c r="A11" s="114" t="s">
+        <v>607</v>
+      </c>
+      <c r="B11" s="122" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="84" t="s">
-        <v>607</v>
-      </c>
-      <c r="B12" s="112" t="s">
-        <v>608</v>
+        <v>609</v>
+      </c>
+      <c r="B12" s="121" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="84" t="s">
-        <v>609</v>
-      </c>
-      <c r="B13" s="112" t="s">
-        <v>610</v>
+        <v>611</v>
+      </c>
+      <c r="B13" s="121" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="84" t="s">
-        <v>611</v>
-      </c>
-      <c r="B14" s="112" t="s">
-        <v>612</v>
+        <v>613</v>
+      </c>
+      <c r="B14" s="121" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="84" t="s">
-        <v>613</v>
-      </c>
-      <c r="B15" s="112" t="s">
-        <v>614</v>
+        <v>615</v>
+      </c>
+      <c r="B15" s="121" t="s">
+        <v>616</v>
       </c>
     </row>
   </sheetData>
@@ -2957,90 +2990,90 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="114" t="s">
-        <v>616</v>
-      </c>
-      <c r="B2" s="115" t="s">
-        <v>617</v>
+      <c r="A2" s="123" t="s">
+        <v>618</v>
+      </c>
+      <c r="B2" s="124" t="s">
+        <v>619</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="114" t="s">
-        <v>619</v>
-      </c>
-      <c r="B3" s="115" t="s">
+      <c r="A3" s="123" t="s">
+        <v>621</v>
+      </c>
+      <c r="B3" s="124" t="s">
+        <v>622</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>620</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>618</v>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" s="114" t="s">
-        <v>621</v>
-      </c>
-      <c r="B4" s="115" t="s">
-        <v>622</v>
+      <c r="A4" s="123" t="s">
+        <v>623</v>
+      </c>
+      <c r="B4" s="124" t="s">
+        <v>624</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="4" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="116" t="s">
-        <v>624</v>
+      <c r="B6" s="125" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="116" t="s">
-        <v>625</v>
+      <c r="B7" s="125" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="116" t="s">
-        <v>626</v>
+      <c r="B8" s="125" t="s">
+        <v>628</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="116" t="s">
-        <v>628</v>
+      <c r="B9" s="125" t="s">
+        <v>630</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="116" t="s">
+      <c r="B10" s="125" t="s">
+        <v>631</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>627</v>
-      </c>
     </row>
     <row r="11">
-      <c r="B11" s="116" t="s">
-        <v>630</v>
+      <c r="B11" s="125" t="s">
+        <v>632</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -6029,35 +6062,35 @@
       <c r="M42" s="63"/>
     </row>
     <row r="43">
-      <c r="A43" s="66" t="s">
+      <c r="A43" s="85" t="s">
         <v>386</v>
       </c>
-      <c r="B43" s="58" t="s">
+      <c r="B43" s="86" t="s">
         <v>387</v>
       </c>
-      <c r="C43" s="59" t="s">
+      <c r="C43" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="D43" s="72"/>
-      <c r="E43" s="61" t="s">
+      <c r="D43" s="88"/>
+      <c r="E43" s="89" t="s">
         <v>131</v>
       </c>
-      <c r="F43" s="57" t="s">
+      <c r="F43" s="90" t="s">
         <v>380</v>
       </c>
-      <c r="G43" s="57" t="s">
+      <c r="G43" s="90" t="s">
         <v>388</v>
       </c>
-      <c r="H43" s="62"/>
-      <c r="I43" s="63"/>
-      <c r="J43" s="63"/>
-      <c r="K43" s="65" t="s">
+      <c r="H43" s="91"/>
+      <c r="I43" s="92"/>
+      <c r="J43" s="92"/>
+      <c r="K43" s="93" t="s">
         <v>358</v>
       </c>
-      <c r="L43" s="75" t="s">
+      <c r="L43" s="94" t="s">
         <v>389</v>
       </c>
-      <c r="M43" s="63"/>
+      <c r="M43" s="92"/>
     </row>
     <row r="44">
       <c r="A44" s="14" t="s">
@@ -6197,324 +6230,356 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="18.25"/>
-    <col customWidth="1" min="3" max="3" width="23.0"/>
-    <col customWidth="1" min="4" max="4" width="25.25"/>
+    <col customWidth="1" min="2" max="2" width="25.0"/>
+    <col customWidth="1" min="3" max="4" width="23.0"/>
+    <col customWidth="1" min="5" max="5" width="25.25"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="96" t="s">
+        <v>404</v>
+      </c>
+      <c r="E1" s="95" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="87" t="s">
-        <v>404</v>
+      <c r="A2" s="97" t="s">
+        <v>405</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>405</v>
-      </c>
-      <c r="C2" s="88" t="s">
         <v>406</v>
       </c>
-      <c r="D2" s="43"/>
+      <c r="C2" s="98" t="s">
+        <v>407</v>
+      </c>
+      <c r="D2" s="98"/>
+      <c r="E2" s="43"/>
     </row>
     <row r="3">
-      <c r="A3" s="87" t="s">
-        <v>407</v>
+      <c r="A3" s="97" t="s">
+        <v>408</v>
       </c>
       <c r="B3" s="41" t="s">
+        <v>409</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>410</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="97" t="s">
+        <v>411</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>412</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>413</v>
+      </c>
+      <c r="D4" s="41"/>
+      <c r="E4" s="98"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="97" t="s">
+        <v>414</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>415</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>416</v>
+      </c>
+      <c r="D5" s="41"/>
+      <c r="E5" s="98" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="97" t="s">
+        <v>417</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>418</v>
+      </c>
+      <c r="C6" s="99" t="s">
+        <v>419</v>
+      </c>
+      <c r="D6" s="99"/>
+      <c r="E6" s="100" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>422</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>423</v>
+      </c>
+      <c r="D7" s="41"/>
+      <c r="E7" s="98" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>425</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>426</v>
+      </c>
+      <c r="D8" s="41"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="97" t="s">
+        <v>427</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>428</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>429</v>
+      </c>
+      <c r="D9" s="41"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="97" t="s">
+        <v>430</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>431</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>432</v>
+      </c>
+      <c r="D10" s="41"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="97" t="s">
+        <v>433</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>434</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>435</v>
+      </c>
+      <c r="D11" s="41"/>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="97" t="s">
+        <v>436</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>437</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>438</v>
+      </c>
+      <c r="D12" s="41"/>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="97" t="s">
+        <v>439</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>440</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>441</v>
+      </c>
+      <c r="D13" s="41"/>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="97" t="s">
+        <v>442</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>443</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>444</v>
+      </c>
+      <c r="D14" s="41"/>
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="97" t="s">
+        <v>445</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>446</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>447</v>
+      </c>
+      <c r="D15" s="41"/>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="97" t="s">
+        <v>448</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>449</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>450</v>
+      </c>
+      <c r="D16" s="41"/>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="97" t="s">
+        <v>451</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>452</v>
+      </c>
+      <c r="C17" s="101" t="s">
+        <v>419</v>
+      </c>
+      <c r="D17" s="101"/>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="97" t="s">
+        <v>453</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>454</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>455</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="97" t="s">
+        <v>456</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>457</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="D19" s="102" t="s">
+        <v>459</v>
+      </c>
+      <c r="E19" s="98" t="s">
         <v>408</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>409</v>
-      </c>
-      <c r="D3" s="13"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="87" t="s">
-        <v>410</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>411</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>412</v>
-      </c>
-      <c r="D4" s="88"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="87" t="s">
-        <v>413</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>414</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>415</v>
-      </c>
-      <c r="D5" s="88" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="87" t="s">
-        <v>416</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>417</v>
-      </c>
-      <c r="C6" s="89" t="s">
-        <v>418</v>
-      </c>
-      <c r="D6" s="90" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="87" t="s">
-        <v>420</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>421</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>422</v>
-      </c>
-      <c r="D7" s="88" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="87" t="s">
-        <v>423</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>424</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>425</v>
-      </c>
-      <c r="D8" s="13"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="87" t="s">
-        <v>426</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>427</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>428</v>
-      </c>
-      <c r="D9" s="13"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="87" t="s">
-        <v>429</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>430</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>431</v>
-      </c>
-      <c r="D10" s="13"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="87" t="s">
-        <v>432</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>433</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>434</v>
-      </c>
-      <c r="D11" s="13"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="87" t="s">
-        <v>435</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>436</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>437</v>
-      </c>
-      <c r="D12" s="13"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="87" t="s">
-        <v>438</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>439</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>440</v>
-      </c>
-      <c r="D13" s="13"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="87" t="s">
-        <v>441</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>442</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>443</v>
-      </c>
-      <c r="D14" s="13"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="87" t="s">
-        <v>444</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>445</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>446</v>
-      </c>
-      <c r="D15" s="13"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="87" t="s">
-        <v>447</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>448</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>449</v>
-      </c>
-      <c r="D16" s="13"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="87" t="s">
-        <v>450</v>
-      </c>
-      <c r="B17" s="41" t="s">
-        <v>451</v>
-      </c>
-      <c r="C17" s="91" t="s">
-        <v>418</v>
-      </c>
-      <c r="D17" s="13"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="87" t="s">
-        <v>452</v>
-      </c>
-      <c r="B18" s="41" t="s">
-        <v>453</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="D18" s="13"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="87" t="s">
-        <v>455</v>
-      </c>
-      <c r="B19" s="41" t="s">
-        <v>456</v>
-      </c>
-      <c r="C19" s="92" t="s">
-        <v>457</v>
-      </c>
-      <c r="D19" s="88" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="68" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>459</v>
-      </c>
-      <c r="C20" s="93" t="s">
-        <v>460</v>
-      </c>
-      <c r="D20" s="13"/>
+        <v>461</v>
+      </c>
+      <c r="C20" s="103" t="s">
+        <v>462</v>
+      </c>
+      <c r="D20" s="103"/>
+      <c r="E20" s="13"/>
     </row>
     <row r="21">
       <c r="A21" s="68" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>462</v>
-      </c>
-      <c r="C21" s="93" t="s">
-        <v>463</v>
-      </c>
-      <c r="D21" s="13"/>
+        <v>464</v>
+      </c>
+      <c r="C21" s="103" t="s">
+        <v>465</v>
+      </c>
+      <c r="D21" s="103"/>
+      <c r="E21" s="13"/>
     </row>
     <row r="22">
       <c r="A22" s="68" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>465</v>
-      </c>
-      <c r="C22" s="93" t="s">
-        <v>466</v>
-      </c>
-      <c r="D22" s="13"/>
+        <v>467</v>
+      </c>
+      <c r="C22" s="103" t="s">
+        <v>468</v>
+      </c>
+      <c r="D22" s="103"/>
+      <c r="E22" s="13"/>
     </row>
     <row r="23">
       <c r="A23" s="68" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>408</v>
-      </c>
-      <c r="C23" s="94" t="s">
-        <v>468</v>
-      </c>
-      <c r="D23" s="13"/>
+        <v>409</v>
+      </c>
+      <c r="C23" s="104" t="s">
+        <v>470</v>
+      </c>
+      <c r="D23" s="104"/>
+      <c r="E23" s="13"/>
     </row>
     <row r="24">
       <c r="A24" s="68" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>470</v>
-      </c>
-      <c r="C24" s="94" t="s">
-        <v>471</v>
-      </c>
-      <c r="D24" s="13"/>
+        <v>472</v>
+      </c>
+      <c r="C24" s="104" t="s">
+        <v>473</v>
+      </c>
+      <c r="D24" s="104"/>
+      <c r="E24" s="13"/>
     </row>
     <row r="25">
       <c r="A25" s="68" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>473</v>
-      </c>
-      <c r="C25" s="95" t="s">
-        <v>474</v>
-      </c>
-      <c r="D25" s="13"/>
+        <v>475</v>
+      </c>
+      <c r="C25" s="105" t="s">
+        <v>476</v>
+      </c>
+      <c r="D25" s="105"/>
+      <c r="E25" s="13"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -6547,13 +6612,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="51" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F1" s="51" t="s">
         <v>10</v>
@@ -6564,10 +6629,10 @@
     </row>
     <row r="2">
       <c r="A2" s="19" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B2" s="69" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>205</v>
@@ -6579,14 +6644,14 @@
         <v>29</v>
       </c>
       <c r="F2" s="68"/>
-      <c r="G2" s="96"/>
+      <c r="G2" s="106"/>
     </row>
     <row r="3">
       <c r="A3" s="19" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B3" s="69" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>216</v>
@@ -6602,10 +6667,10 @@
     </row>
     <row r="4">
       <c r="A4" s="19" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B4" s="69" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>225</v>
@@ -6621,10 +6686,10 @@
     </row>
     <row r="5">
       <c r="A5" s="19" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B5" s="69" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>234</v>
@@ -6640,10 +6705,10 @@
     </row>
     <row r="6">
       <c r="A6" s="19" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B6" s="69" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>243</v>
@@ -6659,10 +6724,10 @@
     </row>
     <row r="7">
       <c r="A7" s="19" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B7" s="69" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>299</v>
@@ -6678,10 +6743,10 @@
     </row>
     <row r="8">
       <c r="A8" s="19" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B8" s="69" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>308</v>
@@ -6697,10 +6762,10 @@
     </row>
     <row r="9">
       <c r="A9" s="19" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B9" s="69" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>318</v>
@@ -6716,10 +6781,10 @@
     </row>
     <row r="10">
       <c r="A10" s="19" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>326</v>
@@ -6735,10 +6800,10 @@
     </row>
     <row r="11">
       <c r="A11" s="19" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B11" s="69" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>335</v>
@@ -6754,10 +6819,10 @@
     </row>
     <row r="12">
       <c r="A12" s="19" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B12" s="69" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>343</v>
@@ -6773,10 +6838,10 @@
     </row>
     <row r="13">
       <c r="A13" s="19" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B13" s="69" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>362</v>
@@ -6792,10 +6857,10 @@
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>376</v>
@@ -6811,10 +6876,10 @@
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>392</v>
@@ -6857,10 +6922,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="2">
@@ -6910,16 +6975,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="43" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C1" s="43" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D1" s="43" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="2">
@@ -6927,13 +6992,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="3">
@@ -6950,13 +7015,13 @@
     </row>
     <row r="5">
       <c r="A5" s="43" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D5" s="13"/>
     </row>
@@ -6965,40 +7030,40 @@
         <v>0</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D6" s="13"/>
     </row>
     <row r="7">
       <c r="A7" s="13"/>
       <c r="B7" s="43" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D7" s="13"/>
     </row>
     <row r="8">
       <c r="A8" s="13"/>
       <c r="B8" s="43" t="s">
+        <v>523</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>521</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>519</v>
       </c>
       <c r="D8" s="13"/>
     </row>
     <row r="9">
       <c r="A9" s="13"/>
       <c r="B9" s="43" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D9" s="13"/>
     </row>
@@ -7010,70 +7075,70 @@
     </row>
     <row r="11">
       <c r="A11" s="13" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
     </row>
     <row r="12">
       <c r="A12" s="13" t="s">
-        <v>525</v>
-      </c>
-      <c r="B12" s="97" t="s">
-        <v>526</v>
+        <v>527</v>
+      </c>
+      <c r="B12" s="107" t="s">
+        <v>528</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
     </row>
     <row r="13">
       <c r="A13" s="13" t="s">
-        <v>527</v>
-      </c>
-      <c r="B13" s="97" t="s">
-        <v>528</v>
+        <v>529</v>
+      </c>
+      <c r="B13" s="107" t="s">
+        <v>530</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
     </row>
     <row r="14">
       <c r="A14" s="13" t="s">
-        <v>529</v>
-      </c>
-      <c r="B14" s="97" t="s">
-        <v>530</v>
+        <v>531</v>
+      </c>
+      <c r="B14" s="107" t="s">
+        <v>532</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
     </row>
     <row r="15">
       <c r="A15" s="13" t="s">
-        <v>531</v>
-      </c>
-      <c r="B15" s="97" t="s">
-        <v>532</v>
+        <v>533</v>
+      </c>
+      <c r="B15" s="107" t="s">
+        <v>534</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
     </row>
     <row r="16">
       <c r="A16" s="13" t="s">
-        <v>533</v>
-      </c>
-      <c r="B16" s="97" t="s">
-        <v>534</v>
+        <v>535</v>
+      </c>
+      <c r="B16" s="107" t="s">
+        <v>536</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
     </row>
     <row r="17">
       <c r="A17" s="13" t="s">
-        <v>535</v>
-      </c>
-      <c r="B17" s="97" t="s">
-        <v>536</v>
+        <v>537</v>
+      </c>
+      <c r="B17" s="107" t="s">
+        <v>538</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -7086,9 +7151,9 @@
     </row>
     <row r="19">
       <c r="A19" s="13" t="s">
-        <v>537</v>
-      </c>
-      <c r="B19" s="98" t="s">
+        <v>539</v>
+      </c>
+      <c r="B19" s="108" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="13"/>
@@ -7096,7 +7161,7 @@
     </row>
     <row r="20">
       <c r="A20" s="13" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>6</v>
@@ -7106,10 +7171,10 @@
     </row>
     <row r="21">
       <c r="A21" s="13" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="22">
@@ -7132,36 +7197,36 @@
     </row>
     <row r="28">
       <c r="A28" s="16" t="s">
-        <v>541</v>
-      </c>
-      <c r="B28" s="99" t="s">
-        <v>542</v>
+        <v>543</v>
+      </c>
+      <c r="B28" s="109" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="16" t="s">
-        <v>543</v>
-      </c>
-      <c r="B29" s="100" t="s">
-        <v>544</v>
+        <v>545</v>
+      </c>
+      <c r="B29" s="110" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="16" t="s">
-        <v>545</v>
-      </c>
-      <c r="B30" s="99" t="s">
-        <v>546</v>
+        <v>547</v>
+      </c>
+      <c r="B30" s="109" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="13" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="13" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="33">
@@ -7202,16 +7267,17 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="38.13"/>
+    <col customWidth="1" min="3" max="3" width="19.88"/>
     <col customWidth="1" min="4" max="4" width="25.5"/>
-    <col customWidth="1" min="5" max="5" width="13.75"/>
-    <col customWidth="1" min="6" max="6" width="27.0"/>
-    <col customWidth="1" min="7" max="7" width="24.5"/>
+    <col customWidth="1" hidden="1" min="5" max="5" width="13.75"/>
+    <col customWidth="1" hidden="1" min="6" max="6" width="27.0"/>
+    <col customWidth="1" hidden="1" min="7" max="7" width="24.5"/>
+    <col hidden="1" min="8" max="10" width="12.63"/>
     <col customWidth="1" min="12" max="12" width="34.13"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="111" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -7220,32 +7286,32 @@
       <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="101" t="s">
-        <v>549</v>
-      </c>
-      <c r="E1" s="101" t="s">
+      <c r="D1" s="111" t="s">
+        <v>551</v>
+      </c>
+      <c r="E1" s="111" t="s">
         <v>193</v>
       </c>
-      <c r="F1" s="101" t="s">
-        <v>550</v>
+      <c r="F1" s="111" t="s">
+        <v>552</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="J1" s="102" t="s">
+        <v>555</v>
+      </c>
+      <c r="J1" s="112" t="s">
         <v>201</v>
       </c>
       <c r="K1" s="43" t="s">
-        <v>554</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>555</v>
+        <v>556</v>
+      </c>
+      <c r="L1" s="113" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="2">
@@ -7257,14 +7323,12 @@
         <v>Neuron 1</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="F2" s="19"/>
       <c r="J2" s="31"/>
       <c r="K2" s="13"/>
-      <c r="L2" s="103" t="s">
-        <v>557</v>
-      </c>
+      <c r="L2" s="21"/>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
@@ -7275,15 +7339,13 @@
         <v>Neuron 2</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F3" s="19"/>
-      <c r="G3" s="102"/>
-      <c r="J3" s="102"/>
+      <c r="G3" s="112"/>
+      <c r="J3" s="112"/>
       <c r="K3" s="43"/>
-      <c r="L3" s="103" t="s">
-        <v>557</v>
-      </c>
+      <c r="L3" s="21"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
@@ -7294,223 +7356,219 @@
         <v>Neuron 3</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F4" s="19"/>
       <c r="J4" s="31"/>
       <c r="K4" s="13"/>
-      <c r="L4" s="103" t="s">
-        <v>557</v>
-      </c>
+      <c r="L4" s="21"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B5" s="104" t="str">
+      <c r="B5" s="114" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 4</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F5" s="19"/>
       <c r="J5" s="31"/>
-      <c r="K5" s="13"/>
+      <c r="K5" s="19"/>
       <c r="L5" s="19" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B6" s="104" t="str">
+      <c r="B6" s="114" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 5</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="F6" s="19"/>
       <c r="J6" s="31"/>
       <c r="K6" s="13"/>
       <c r="L6" s="19" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B7" s="104" t="str">
+      <c r="B7" s="114" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 6</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F7" s="19"/>
       <c r="J7" s="31"/>
       <c r="K7" s="13"/>
-      <c r="L7" s="103" t="s">
-        <v>557</v>
-      </c>
+      <c r="L7" s="21"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B8" s="104" t="str">
+      <c r="B8" s="114" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 7</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F8" s="19"/>
       <c r="J8" s="31"/>
-      <c r="K8" s="13"/>
+      <c r="K8" s="19"/>
       <c r="L8" s="19" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B9" s="104" t="str">
+      <c r="B9" s="114" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 8</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="F9" s="19"/>
       <c r="J9" s="31"/>
-      <c r="K9" s="13"/>
+      <c r="K9" s="19"/>
       <c r="L9" s="19" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B10" s="104" t="str">
+      <c r="B10" s="114" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 9</v>
       </c>
-      <c r="C10" s="105" t="s">
-        <v>567</v>
+      <c r="C10" s="90" t="s">
+        <v>569</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F10" s="19"/>
       <c r="J10" s="31"/>
-      <c r="K10" s="13"/>
+      <c r="K10" s="19"/>
       <c r="L10" s="19" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B11" s="104" t="str">
+      <c r="B11" s="114" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 10</v>
       </c>
-      <c r="C11" s="105" t="s">
+      <c r="C11" s="90" t="s">
+        <v>570</v>
+      </c>
+      <c r="D11" s="21" t="s">
         <v>568</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>566</v>
       </c>
       <c r="F11" s="19"/>
       <c r="J11" s="31"/>
-      <c r="K11" s="13"/>
+      <c r="K11" s="19"/>
       <c r="L11" s="19" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B12" s="104" t="str">
+      <c r="B12" s="114" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 11</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="F12" s="19"/>
       <c r="J12" s="31"/>
       <c r="K12" s="13"/>
       <c r="L12" s="19" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B13" s="104" t="str">
+      <c r="B13" s="114" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 12</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="F13" s="19"/>
       <c r="J13" s="31"/>
       <c r="K13" s="13"/>
       <c r="L13" s="19" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B14" s="104" t="str">
+      <c r="B14" s="114" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 13</v>
       </c>
-      <c r="C14" s="105" t="s">
-        <v>573</v>
+      <c r="C14" s="90" t="s">
+        <v>575</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="F14" s="14"/>
       <c r="J14" s="31"/>
       <c r="K14" s="31"/>
       <c r="L14" s="19" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B15" s="104" t="str">
+      <c r="B15" s="114" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 14</v>
       </c>
-      <c r="C15" s="105" t="s">
-        <v>574</v>
+      <c r="C15" s="90" t="s">
+        <v>576</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="F15" s="14"/>
       <c r="J15" s="31"/>
       <c r="K15" s="31"/>
       <c r="L15" s="19" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -7533,87 +7591,87 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="115" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="107" t="s">
-        <v>577</v>
-      </c>
-      <c r="C2" s="108" t="str">
+      <c r="A2" s="116" t="s">
+        <v>579</v>
+      </c>
+      <c r="C2" s="117" t="str">
         <f t="array" ref="C2">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A2,6,LEN(A2))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/12576302</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="109" t="s">
-        <v>578</v>
-      </c>
-      <c r="C3" s="108" t="str">
+      <c r="A3" s="118" t="s">
+        <v>580</v>
+      </c>
+      <c r="C3" s="117" t="str">
         <f t="array" ref="C3">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A3,6,LEN(A3))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/24306100</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="110" t="s">
-        <v>579</v>
-      </c>
-      <c r="C4" s="108" t="str">
+      <c r="A4" s="119" t="s">
+        <v>581</v>
+      </c>
+      <c r="C4" s="117" t="str">
         <f t="array" ref="C4">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A4,6,LEN(A4))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/18924442</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="110" t="s">
-        <v>580</v>
-      </c>
-      <c r="C5" s="108" t="str">
+      <c r="A5" s="119" t="s">
+        <v>582</v>
+      </c>
+      <c r="C5" s="117" t="str">
         <f t="array" ref="C5">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A5,6,LEN(A5))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/23438947</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="110" t="s">
-        <v>581</v>
-      </c>
-      <c r="C6" s="108" t="str">
+      <c r="A6" s="119" t="s">
+        <v>583</v>
+      </c>
+      <c r="C6" s="117" t="str">
         <f t="array" ref="C6">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A6,6,LEN(A6))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/11437981</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="110" t="s">
-        <v>582</v>
-      </c>
-      <c r="C7" s="108" t="str">
+      <c r="A7" s="119" t="s">
+        <v>584</v>
+      </c>
+      <c r="C7" s="117" t="str">
         <f t="array" ref="C7">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A7,6,LEN(A7))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/18364578</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="110" t="s">
-        <v>583</v>
-      </c>
-      <c r="C8" s="108" t="str">
+      <c r="A8" s="119" t="s">
+        <v>585</v>
+      </c>
+      <c r="C8" s="117" t="str">
         <f t="array" ref="C8">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A8,6,LEN(A8))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/2902218</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="110" t="s">
-        <v>584</v>
-      </c>
-      <c r="C9" s="108" t="str">
+      <c r="A9" s="119" t="s">
+        <v>586</v>
+      </c>
+      <c r="C9" s="117" t="str">
         <f t="array" ref="C9">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A9,6,LEN(A9))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/18286675</v>
       </c>

--- a/models/sawg-stomach/source/sawg-stomach.xlsx
+++ b/models/sawg-stomach/source/sawg-stomach.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="630">
   <si>
     <t>id</t>
   </si>
@@ -1211,58 +1211,49 @@
     <t>ns71</t>
   </si>
   <si>
-    <t>ac_13br_pdgfr</t>
-  </si>
-  <si>
-    <t>Axon chain in the myenteric plexus in the proximal stomach to longitudinal muscle to PGDFR -branch_Neuron 13 (sstom)</t>
-  </si>
-  <si>
-    <t>ns72</t>
+    <t>dc_14</t>
+  </si>
+  <si>
+    <t>Dendrite chain in myenteric plexus in the proximal stomach_Neuron 14 (sstom)</t>
+  </si>
+  <si>
+    <t>ns78</t>
+  </si>
+  <si>
+    <t>ns79</t>
+  </si>
+  <si>
+    <t>ac_14_lm</t>
+  </si>
+  <si>
+    <t>Axon chain in myenteric plexus in the proximal stomach to longitudinal muscle_Neuron 14 (sstom)</t>
+  </si>
+  <si>
+    <t>ns80</t>
+  </si>
+  <si>
+    <t>ns81</t>
+  </si>
+  <si>
+    <t>ac_14_cm</t>
+  </si>
+  <si>
+    <t>Axon chain in myenteric plexus in the proximal stomach to circular muscle_Neuron 14 (sstom)</t>
+  </si>
+  <si>
+    <t>ns82</t>
+  </si>
+  <si>
+    <t>ac-14br</t>
+  </si>
+  <si>
+    <t>Axon chain in myenteric plexus in the proximal stomach to mucosa-branch_Neuron 14 (sstom)</t>
+  </si>
+  <si>
+    <t>ns83</t>
   </si>
   <si>
     <t>pro_sto,pro_sto,pro_sto,pro_sto,pro_sto,pro_sto</t>
-  </si>
-  <si>
-    <t>dc_14</t>
-  </si>
-  <si>
-    <t>Dendrite chain in myenteric plexus in the proximal stomach_Neuron 14 (sstom)</t>
-  </si>
-  <si>
-    <t>ns78</t>
-  </si>
-  <si>
-    <t>ns79</t>
-  </si>
-  <si>
-    <t>ac_14_lm</t>
-  </si>
-  <si>
-    <t>Axon chain in myenteric plexus in the proximal stomach to longitudinal muscle_Neuron 14 (sstom)</t>
-  </si>
-  <si>
-    <t>ns80</t>
-  </si>
-  <si>
-    <t>ns81</t>
-  </si>
-  <si>
-    <t>ac_14_cm</t>
-  </si>
-  <si>
-    <t>Axon chain in myenteric plexus in the proximal stomach to circular muscle_Neuron 14 (sstom)</t>
-  </si>
-  <si>
-    <t>ns82</t>
-  </si>
-  <si>
-    <t>ac-14br</t>
-  </si>
-  <si>
-    <t>Axon chain in myenteric plexus in the proximal stomach to mucosa-branch_Neuron 14 (sstom)</t>
-  </si>
-  <si>
-    <t>ns83</t>
   </si>
   <si>
     <t>external</t>
@@ -2122,14 +2113,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4CCCC"/>
-        <bgColor rgb="FFF4CCCC"/>
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor theme="5"/>
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor rgb="FFF4CCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -2153,7 +2144,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="117">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2407,36 +2398,6 @@
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -2449,13 +2410,13 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2495,6 +2456,9 @@
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -2829,123 +2793,123 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="111" t="s">
+        <v>584</v>
+      </c>
+      <c r="B1" s="111" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="104" t="s">
+        <v>586</v>
+      </c>
+      <c r="B2" s="112" t="s">
         <v>587</v>
       </c>
-      <c r="B1" s="120" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="104" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="114" t="s">
+      <c r="B3" s="112" t="s">
         <v>589</v>
       </c>
-      <c r="B2" s="121" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="104" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="114" t="s">
+      <c r="B4" s="113" t="s">
         <v>591</v>
       </c>
-      <c r="B3" s="121" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="104" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="114" t="s">
+      <c r="B5" s="113" t="s">
         <v>593</v>
       </c>
-      <c r="B4" s="122" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="104" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="114" t="s">
+      <c r="B6" s="113" t="s">
         <v>595</v>
       </c>
-      <c r="B5" s="122" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="104" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="114" t="s">
+      <c r="B7" s="113" t="s">
         <v>597</v>
       </c>
-      <c r="B6" s="122" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" s="104" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="114" t="s">
+      <c r="B8" s="113" t="s">
         <v>599</v>
       </c>
-      <c r="B7" s="122" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" s="104" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="114" t="s">
+      <c r="B9" s="113" t="s">
         <v>601</v>
       </c>
-      <c r="B8" s="122" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" s="104" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="114" t="s">
+      <c r="B10" s="113" t="s">
         <v>603</v>
       </c>
-      <c r="B9" s="122" t="s">
+    </row>
+    <row r="11">
+      <c r="A11" s="104" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="114" t="s">
+      <c r="B11" s="113" t="s">
         <v>605</v>
-      </c>
-      <c r="B10" s="122" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="114" t="s">
-        <v>607</v>
-      </c>
-      <c r="B11" s="122" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="84" t="s">
-        <v>609</v>
-      </c>
-      <c r="B12" s="121" t="s">
-        <v>610</v>
+        <v>606</v>
+      </c>
+      <c r="B12" s="112" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="84" t="s">
-        <v>611</v>
-      </c>
-      <c r="B13" s="121" t="s">
-        <v>612</v>
+        <v>608</v>
+      </c>
+      <c r="B13" s="112" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="84" t="s">
-        <v>613</v>
-      </c>
-      <c r="B14" s="121" t="s">
-        <v>614</v>
+        <v>610</v>
+      </c>
+      <c r="B14" s="112" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="84" t="s">
-        <v>615</v>
-      </c>
-      <c r="B15" s="121" t="s">
-        <v>616</v>
+        <v>612</v>
+      </c>
+      <c r="B15" s="112" t="s">
+        <v>613</v>
       </c>
     </row>
   </sheetData>
@@ -2990,90 +2954,90 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="114" t="s">
+        <v>615</v>
+      </c>
+      <c r="B2" s="115" t="s">
+        <v>616</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="123" t="s">
+    <row r="3">
+      <c r="A3" s="114" t="s">
         <v>618</v>
       </c>
-      <c r="B2" s="124" t="s">
+      <c r="B3" s="115" t="s">
         <v>619</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C3" s="4" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="114" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="123" t="s">
+      <c r="B4" s="115" t="s">
         <v>621</v>
       </c>
-      <c r="B3" s="124" t="s">
-        <v>622</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="123" t="s">
-        <v>623</v>
-      </c>
-      <c r="B4" s="124" t="s">
-        <v>624</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="116" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="116" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="116" t="s">
         <v>625</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="125" t="s">
+      <c r="C8" s="4" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="125" t="s">
+    <row r="9">
+      <c r="B9" s="116" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="125" t="s">
+      <c r="C9" s="4" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="116" t="s">
         <v>628</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C10" s="4" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="116" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="125" t="s">
-        <v>630</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="125" t="s">
-        <v>631</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="125" t="s">
-        <v>632</v>
-      </c>
       <c r="C11" s="4" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -6062,35 +6026,35 @@
       <c r="M42" s="63"/>
     </row>
     <row r="43">
-      <c r="A43" s="85" t="s">
+      <c r="A43" s="14" t="s">
         <v>386</v>
       </c>
-      <c r="B43" s="86" t="s">
+      <c r="B43" s="67" t="s">
         <v>387</v>
       </c>
-      <c r="C43" s="87" t="s">
-        <v>209</v>
-      </c>
-      <c r="D43" s="88"/>
-      <c r="E43" s="89" t="s">
-        <v>131</v>
-      </c>
-      <c r="F43" s="90" t="s">
-        <v>380</v>
-      </c>
-      <c r="G43" s="90" t="s">
+      <c r="C43" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="D43" s="43"/>
+      <c r="E43" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="F43" s="19" t="s">
         <v>388</v>
       </c>
-      <c r="H43" s="91"/>
-      <c r="I43" s="92"/>
-      <c r="J43" s="92"/>
-      <c r="K43" s="93" t="s">
-        <v>358</v>
-      </c>
-      <c r="L43" s="94" t="s">
+      <c r="G43" s="19" t="s">
         <v>389</v>
       </c>
-      <c r="M43" s="92"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="69">
+        <v>6.0</v>
+      </c>
+      <c r="L43" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="M43" s="13"/>
     </row>
     <row r="44">
       <c r="A44" s="14" t="s">
@@ -6100,11 +6064,11 @@
         <v>391</v>
       </c>
       <c r="C44" s="50" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D44" s="43"/>
       <c r="E44" s="44" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F44" s="19" t="s">
         <v>392</v>
@@ -6115,11 +6079,11 @@
       <c r="H44" s="68"/>
       <c r="I44" s="13"/>
       <c r="J44" s="13"/>
-      <c r="K44" s="69">
-        <v>6.0</v>
+      <c r="K44" s="69" t="s">
+        <v>349</v>
       </c>
       <c r="L44" s="79" t="s">
-        <v>81</v>
+        <v>382</v>
       </c>
       <c r="M44" s="13"/>
     </row>
@@ -6138,16 +6102,16 @@
         <v>131</v>
       </c>
       <c r="F45" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="G45" s="19" t="s">
         <v>396</v>
-      </c>
-      <c r="G45" s="19" t="s">
-        <v>397</v>
       </c>
       <c r="H45" s="68"/>
       <c r="I45" s="13"/>
       <c r="J45" s="13"/>
       <c r="K45" s="69" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="L45" s="79" t="s">
         <v>382</v>
@@ -6156,65 +6120,34 @@
     </row>
     <row r="46">
       <c r="A46" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="B46" s="67" t="s">
         <v>398</v>
-      </c>
-      <c r="B46" s="67" t="s">
-        <v>399</v>
       </c>
       <c r="C46" s="50" t="s">
         <v>209</v>
       </c>
       <c r="D46" s="43"/>
-      <c r="E46" s="44" t="s">
+      <c r="E46" s="47" t="s">
         <v>131</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H46" s="68"/>
       <c r="I46" s="13"/>
       <c r="J46" s="13"/>
       <c r="K46" s="69" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="L46" s="79" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
       <c r="M46" s="13"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="B47" s="67" t="s">
-        <v>402</v>
-      </c>
-      <c r="C47" s="50" t="s">
-        <v>209</v>
-      </c>
-      <c r="D47" s="43"/>
-      <c r="E47" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="F47" s="19" t="s">
-        <v>396</v>
-      </c>
-      <c r="G47" s="19" t="s">
-        <v>403</v>
-      </c>
-      <c r="H47" s="68"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="69" t="s">
-        <v>358</v>
-      </c>
-      <c r="L47" s="79" t="s">
-        <v>389</v>
-      </c>
-      <c r="M47" s="13"/>
     </row>
   </sheetData>
   <printOptions gridLines="1" horizontalCentered="1"/>
@@ -6243,342 +6176,342 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="96" t="s">
+      <c r="C1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="86" t="s">
+        <v>401</v>
+      </c>
+      <c r="E1" s="85" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="87" t="s">
+        <v>402</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>403</v>
+      </c>
+      <c r="C2" s="88" t="s">
         <v>404</v>
       </c>
-      <c r="E1" s="95" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="97" t="s">
+      <c r="D2" s="88"/>
+      <c r="E2" s="43"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="87" t="s">
         <v>405</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B3" s="41" t="s">
         <v>406</v>
       </c>
-      <c r="C2" s="98" t="s">
+      <c r="C3" s="41" t="s">
         <v>407</v>
-      </c>
-      <c r="D2" s="98"/>
-      <c r="E2" s="43"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="97" t="s">
-        <v>408</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>409</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>410</v>
       </c>
       <c r="D3" s="41"/>
       <c r="E3" s="13"/>
     </row>
     <row r="4">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="87" t="s">
+        <v>408</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>409</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>410</v>
+      </c>
+      <c r="D4" s="41"/>
+      <c r="E4" s="88"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="87" t="s">
         <v>411</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B5" s="43" t="s">
         <v>412</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C5" s="41" t="s">
         <v>413</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="98"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="97" t="s">
+      <c r="D5" s="41"/>
+      <c r="E5" s="88" t="s">
         <v>414</v>
       </c>
-      <c r="B5" s="43" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="87" t="s">
+        <v>414</v>
+      </c>
+      <c r="B6" s="43" t="s">
         <v>415</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C6" s="89" t="s">
         <v>416</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="98" t="s">
+      <c r="D6" s="89"/>
+      <c r="E6" s="90" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="97" t="s">
-        <v>417</v>
-      </c>
-      <c r="B6" s="43" t="s">
+    <row r="7">
+      <c r="A7" s="87" t="s">
         <v>418</v>
       </c>
-      <c r="C6" s="99" t="s">
+      <c r="B7" s="43" t="s">
         <v>419</v>
       </c>
-      <c r="D6" s="99"/>
-      <c r="E6" s="100" t="s">
+      <c r="C7" s="41" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="97" t="s">
+      <c r="D7" s="41"/>
+      <c r="E7" s="88" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="87" t="s">
         <v>421</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B8" s="41" t="s">
         <v>422</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C8" s="41" t="s">
         <v>423</v>
-      </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="98" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="97" t="s">
-        <v>424</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>425</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>426</v>
       </c>
       <c r="D8" s="41"/>
       <c r="E8" s="13"/>
     </row>
     <row r="9">
-      <c r="A9" s="97" t="s">
-        <v>427</v>
+      <c r="A9" s="87" t="s">
+        <v>424</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D9" s="41"/>
       <c r="E9" s="13"/>
     </row>
     <row r="10">
-      <c r="A10" s="97" t="s">
-        <v>430</v>
+      <c r="A10" s="87" t="s">
+        <v>427</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D10" s="41"/>
       <c r="E10" s="13"/>
     </row>
     <row r="11">
-      <c r="A11" s="97" t="s">
-        <v>433</v>
+      <c r="A11" s="87" t="s">
+        <v>430</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D11" s="41"/>
       <c r="E11" s="13"/>
     </row>
     <row r="12">
-      <c r="A12" s="97" t="s">
-        <v>436</v>
+      <c r="A12" s="87" t="s">
+        <v>433</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D12" s="41"/>
       <c r="E12" s="13"/>
     </row>
     <row r="13">
-      <c r="A13" s="97" t="s">
-        <v>439</v>
+      <c r="A13" s="87" t="s">
+        <v>436</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D13" s="41"/>
       <c r="E13" s="13"/>
     </row>
     <row r="14">
-      <c r="A14" s="97" t="s">
-        <v>442</v>
+      <c r="A14" s="87" t="s">
+        <v>439</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D14" s="41"/>
       <c r="E14" s="13"/>
     </row>
     <row r="15">
-      <c r="A15" s="97" t="s">
-        <v>445</v>
+      <c r="A15" s="87" t="s">
+        <v>442</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D15" s="41"/>
       <c r="E15" s="13"/>
     </row>
     <row r="16">
-      <c r="A16" s="97" t="s">
-        <v>448</v>
+      <c r="A16" s="87" t="s">
+        <v>445</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D16" s="41"/>
       <c r="E16" s="13"/>
     </row>
     <row r="17">
-      <c r="A17" s="97" t="s">
+      <c r="A17" s="87" t="s">
+        <v>448</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>449</v>
+      </c>
+      <c r="C17" s="91" t="s">
+        <v>416</v>
+      </c>
+      <c r="D17" s="91"/>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="87" t="s">
+        <v>450</v>
+      </c>
+      <c r="B18" s="41" t="s">
         <v>451</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="C18" s="17" t="s">
         <v>452</v>
-      </c>
-      <c r="C17" s="101" t="s">
-        <v>419</v>
-      </c>
-      <c r="D17" s="101"/>
-      <c r="E17" s="13"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="97" t="s">
-        <v>453</v>
-      </c>
-      <c r="B18" s="41" t="s">
-        <v>454</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>455</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="13"/>
     </row>
     <row r="19">
-      <c r="A19" s="97" t="s">
+      <c r="A19" s="87" t="s">
+        <v>453</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>454</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="D19" s="92" t="s">
         <v>456</v>
       </c>
-      <c r="B19" s="41" t="s">
-        <v>457</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="D19" s="102" t="s">
-        <v>459</v>
-      </c>
-      <c r="E19" s="98" t="s">
-        <v>408</v>
+      <c r="E19" s="88" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="68" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>461</v>
-      </c>
-      <c r="C20" s="103" t="s">
-        <v>462</v>
-      </c>
-      <c r="D20" s="103"/>
+        <v>458</v>
+      </c>
+      <c r="C20" s="93" t="s">
+        <v>459</v>
+      </c>
+      <c r="D20" s="93"/>
       <c r="E20" s="13"/>
     </row>
     <row r="21">
       <c r="A21" s="68" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>464</v>
-      </c>
-      <c r="C21" s="103" t="s">
-        <v>465</v>
-      </c>
-      <c r="D21" s="103"/>
+        <v>461</v>
+      </c>
+      <c r="C21" s="93" t="s">
+        <v>462</v>
+      </c>
+      <c r="D21" s="93"/>
       <c r="E21" s="13"/>
     </row>
     <row r="22">
       <c r="A22" s="68" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>467</v>
-      </c>
-      <c r="C22" s="103" t="s">
-        <v>468</v>
-      </c>
-      <c r="D22" s="103"/>
+        <v>464</v>
+      </c>
+      <c r="C22" s="93" t="s">
+        <v>465</v>
+      </c>
+      <c r="D22" s="93"/>
       <c r="E22" s="13"/>
     </row>
     <row r="23">
       <c r="A23" s="68" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>409</v>
-      </c>
-      <c r="C23" s="104" t="s">
-        <v>470</v>
-      </c>
-      <c r="D23" s="104"/>
+        <v>406</v>
+      </c>
+      <c r="C23" s="94" t="s">
+        <v>467</v>
+      </c>
+      <c r="D23" s="94"/>
       <c r="E23" s="13"/>
     </row>
     <row r="24">
       <c r="A24" s="68" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>472</v>
-      </c>
-      <c r="C24" s="104" t="s">
-        <v>473</v>
-      </c>
-      <c r="D24" s="104"/>
+        <v>469</v>
+      </c>
+      <c r="C24" s="94" t="s">
+        <v>470</v>
+      </c>
+      <c r="D24" s="94"/>
       <c r="E24" s="13"/>
     </row>
     <row r="25">
       <c r="A25" s="68" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>475</v>
-      </c>
-      <c r="C25" s="105" t="s">
-        <v>476</v>
-      </c>
-      <c r="D25" s="105"/>
+        <v>472</v>
+      </c>
+      <c r="C25" s="95" t="s">
+        <v>473</v>
+      </c>
+      <c r="D25" s="95"/>
       <c r="E25" s="13"/>
     </row>
   </sheetData>
@@ -6612,13 +6545,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="51" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F1" s="51" t="s">
         <v>10</v>
@@ -6629,10 +6562,10 @@
     </row>
     <row r="2">
       <c r="A2" s="19" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B2" s="69" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>205</v>
@@ -6644,14 +6577,14 @@
         <v>29</v>
       </c>
       <c r="F2" s="68"/>
-      <c r="G2" s="106"/>
+      <c r="G2" s="96"/>
     </row>
     <row r="3">
       <c r="A3" s="19" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B3" s="69" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>216</v>
@@ -6667,10 +6600,10 @@
     </row>
     <row r="4">
       <c r="A4" s="19" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B4" s="69" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>225</v>
@@ -6686,10 +6619,10 @@
     </row>
     <row r="5">
       <c r="A5" s="19" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B5" s="69" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>234</v>
@@ -6705,10 +6638,10 @@
     </row>
     <row r="6">
       <c r="A6" s="19" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B6" s="69" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>243</v>
@@ -6724,10 +6657,10 @@
     </row>
     <row r="7">
       <c r="A7" s="19" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B7" s="69" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>299</v>
@@ -6743,10 +6676,10 @@
     </row>
     <row r="8">
       <c r="A8" s="19" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B8" s="69" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>308</v>
@@ -6762,10 +6695,10 @@
     </row>
     <row r="9">
       <c r="A9" s="19" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B9" s="69" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>318</v>
@@ -6781,10 +6714,10 @@
     </row>
     <row r="10">
       <c r="A10" s="19" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>326</v>
@@ -6800,10 +6733,10 @@
     </row>
     <row r="11">
       <c r="A11" s="19" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B11" s="69" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>335</v>
@@ -6819,10 +6752,10 @@
     </row>
     <row r="12">
       <c r="A12" s="19" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B12" s="69" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>343</v>
@@ -6838,10 +6771,10 @@
     </row>
     <row r="13">
       <c r="A13" s="19" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B13" s="69" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>362</v>
@@ -6857,10 +6790,10 @@
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>376</v>
@@ -6876,16 +6809,16 @@
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C15" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>392</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>396</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>190</v>
@@ -6922,10 +6855,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="2">
@@ -6975,16 +6908,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="43" t="s">
+        <v>507</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>508</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1" s="43" t="s">
         <v>510</v>
-      </c>
-      <c r="B1" s="43" t="s">
-        <v>511</v>
-      </c>
-      <c r="C1" s="43" t="s">
-        <v>512</v>
-      </c>
-      <c r="D1" s="43" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="2">
@@ -6992,13 +6925,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="3">
@@ -7015,13 +6948,13 @@
     </row>
     <row r="5">
       <c r="A5" s="43" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D5" s="13"/>
     </row>
@@ -7030,40 +6963,40 @@
         <v>0</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D6" s="13"/>
     </row>
     <row r="7">
       <c r="A7" s="13"/>
       <c r="B7" s="43" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D7" s="13"/>
     </row>
     <row r="8">
       <c r="A8" s="13"/>
       <c r="B8" s="43" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D8" s="13"/>
     </row>
     <row r="9">
       <c r="A9" s="13"/>
       <c r="B9" s="43" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D9" s="13"/>
     </row>
@@ -7075,70 +7008,70 @@
     </row>
     <row r="11">
       <c r="A11" s="13" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
     </row>
     <row r="12">
       <c r="A12" s="13" t="s">
-        <v>527</v>
-      </c>
-      <c r="B12" s="107" t="s">
-        <v>528</v>
+        <v>524</v>
+      </c>
+      <c r="B12" s="97" t="s">
+        <v>525</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
     </row>
     <row r="13">
       <c r="A13" s="13" t="s">
-        <v>529</v>
-      </c>
-      <c r="B13" s="107" t="s">
-        <v>530</v>
+        <v>526</v>
+      </c>
+      <c r="B13" s="97" t="s">
+        <v>527</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
     </row>
     <row r="14">
       <c r="A14" s="13" t="s">
-        <v>531</v>
-      </c>
-      <c r="B14" s="107" t="s">
-        <v>532</v>
+        <v>528</v>
+      </c>
+      <c r="B14" s="97" t="s">
+        <v>529</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
     </row>
     <row r="15">
       <c r="A15" s="13" t="s">
-        <v>533</v>
-      </c>
-      <c r="B15" s="107" t="s">
-        <v>534</v>
+        <v>530</v>
+      </c>
+      <c r="B15" s="97" t="s">
+        <v>531</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
     </row>
     <row r="16">
       <c r="A16" s="13" t="s">
-        <v>535</v>
-      </c>
-      <c r="B16" s="107" t="s">
-        <v>536</v>
+        <v>532</v>
+      </c>
+      <c r="B16" s="97" t="s">
+        <v>533</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
     </row>
     <row r="17">
       <c r="A17" s="13" t="s">
-        <v>537</v>
-      </c>
-      <c r="B17" s="107" t="s">
-        <v>538</v>
+        <v>534</v>
+      </c>
+      <c r="B17" s="97" t="s">
+        <v>535</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -7151,9 +7084,9 @@
     </row>
     <row r="19">
       <c r="A19" s="13" t="s">
-        <v>539</v>
-      </c>
-      <c r="B19" s="108" t="s">
+        <v>536</v>
+      </c>
+      <c r="B19" s="98" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="13"/>
@@ -7161,7 +7094,7 @@
     </row>
     <row r="20">
       <c r="A20" s="13" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>6</v>
@@ -7171,10 +7104,10 @@
     </row>
     <row r="21">
       <c r="A21" s="13" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="22">
@@ -7197,36 +7130,36 @@
     </row>
     <row r="28">
       <c r="A28" s="16" t="s">
-        <v>543</v>
-      </c>
-      <c r="B28" s="109" t="s">
-        <v>544</v>
+        <v>540</v>
+      </c>
+      <c r="B28" s="99" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="16" t="s">
-        <v>545</v>
-      </c>
-      <c r="B29" s="110" t="s">
-        <v>546</v>
+        <v>542</v>
+      </c>
+      <c r="B29" s="100" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="16" t="s">
-        <v>547</v>
-      </c>
-      <c r="B30" s="109" t="s">
-        <v>548</v>
+        <v>544</v>
+      </c>
+      <c r="B30" s="99" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="13" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="13" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="33">
@@ -7277,7 +7210,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="101" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -7286,32 +7219,32 @@
       <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="101" t="s">
+        <v>548</v>
+      </c>
+      <c r="E1" s="101" t="s">
+        <v>193</v>
+      </c>
+      <c r="F1" s="101" t="s">
+        <v>549</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="E1" s="111" t="s">
-        <v>193</v>
-      </c>
-      <c r="F1" s="111" t="s">
+      <c r="I1" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="102" t="s">
+        <v>201</v>
+      </c>
+      <c r="K1" s="43" t="s">
         <v>553</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="L1" s="103" t="s">
         <v>554</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="J1" s="112" t="s">
-        <v>201</v>
-      </c>
-      <c r="K1" s="43" t="s">
-        <v>556</v>
-      </c>
-      <c r="L1" s="113" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="2">
@@ -7323,7 +7256,7 @@
         <v>Neuron 1</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F2" s="19"/>
       <c r="J2" s="31"/>
@@ -7339,11 +7272,11 @@
         <v>Neuron 2</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F3" s="19"/>
-      <c r="G3" s="112"/>
-      <c r="J3" s="112"/>
+      <c r="G3" s="102"/>
+      <c r="J3" s="102"/>
       <c r="K3" s="43"/>
       <c r="L3" s="21"/>
     </row>
@@ -7356,7 +7289,7 @@
         <v>Neuron 3</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="F4" s="19"/>
       <c r="J4" s="31"/>
@@ -7367,48 +7300,48 @@
       <c r="A5" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B5" s="114" t="str">
+      <c r="B5" s="104" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 4</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F5" s="19"/>
       <c r="J5" s="31"/>
       <c r="K5" s="19"/>
       <c r="L5" s="19" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B6" s="114" t="str">
+      <c r="B6" s="104" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 5</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F6" s="19"/>
       <c r="J6" s="31"/>
       <c r="K6" s="13"/>
       <c r="L6" s="19" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B7" s="114" t="str">
+      <c r="B7" s="104" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 6</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F7" s="19"/>
       <c r="J7" s="31"/>
@@ -7419,156 +7352,156 @@
       <c r="A8" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B8" s="114" t="str">
+      <c r="B8" s="104" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 7</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F8" s="19"/>
       <c r="J8" s="31"/>
       <c r="K8" s="19"/>
       <c r="L8" s="19" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B9" s="114" t="str">
+      <c r="B9" s="104" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 8</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="F9" s="19"/>
       <c r="J9" s="31"/>
       <c r="K9" s="19"/>
       <c r="L9" s="19" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B10" s="114" t="str">
+      <c r="B10" s="104" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 9</v>
       </c>
-      <c r="C10" s="90" t="s">
-        <v>569</v>
+      <c r="C10" s="105" t="s">
+        <v>566</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F10" s="19"/>
       <c r="J10" s="31"/>
       <c r="K10" s="19"/>
       <c r="L10" s="19" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B11" s="114" t="str">
+      <c r="B11" s="104" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 10</v>
       </c>
-      <c r="C11" s="90" t="s">
-        <v>570</v>
+      <c r="C11" s="105" t="s">
+        <v>567</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="F11" s="19"/>
       <c r="J11" s="31"/>
       <c r="K11" s="19"/>
       <c r="L11" s="19" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B12" s="114" t="str">
+      <c r="B12" s="104" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 11</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F12" s="19"/>
       <c r="J12" s="31"/>
       <c r="K12" s="13"/>
       <c r="L12" s="19" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B13" s="114" t="str">
+      <c r="B13" s="104" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 12</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F13" s="19"/>
       <c r="J13" s="31"/>
       <c r="K13" s="13"/>
       <c r="L13" s="19" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B14" s="114" t="str">
+      <c r="B14" s="104" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 13</v>
       </c>
-      <c r="C14" s="90" t="s">
-        <v>575</v>
+      <c r="C14" s="105" t="s">
+        <v>572</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F14" s="14"/>
       <c r="J14" s="31"/>
       <c r="K14" s="31"/>
       <c r="L14" s="19" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B15" s="114" t="str">
+      <c r="B15" s="104" t="str">
         <f t="shared" si="1"/>
         <v>Neuron 14</v>
       </c>
-      <c r="C15" s="90" t="s">
-        <v>576</v>
+      <c r="C15" s="105" t="s">
+        <v>573</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F15" s="14"/>
       <c r="J15" s="31"/>
       <c r="K15" s="31"/>
       <c r="L15" s="19" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
   </sheetData>
@@ -7591,87 +7524,87 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="116" t="s">
-        <v>579</v>
-      </c>
-      <c r="C2" s="117" t="str">
+      <c r="A2" s="107" t="s">
+        <v>576</v>
+      </c>
+      <c r="C2" s="108" t="str">
         <f t="array" ref="C2">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A2,6,LEN(A2))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/12576302</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="118" t="s">
-        <v>580</v>
-      </c>
-      <c r="C3" s="117" t="str">
+      <c r="A3" s="109" t="s">
+        <v>577</v>
+      </c>
+      <c r="C3" s="108" t="str">
         <f t="array" ref="C3">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A3,6,LEN(A3))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/24306100</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="119" t="s">
-        <v>581</v>
-      </c>
-      <c r="C4" s="117" t="str">
+      <c r="A4" s="110" t="s">
+        <v>578</v>
+      </c>
+      <c r="C4" s="108" t="str">
         <f t="array" ref="C4">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A4,6,LEN(A4))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/18924442</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="119" t="s">
-        <v>582</v>
-      </c>
-      <c r="C5" s="117" t="str">
+      <c r="A5" s="110" t="s">
+        <v>579</v>
+      </c>
+      <c r="C5" s="108" t="str">
         <f t="array" ref="C5">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A5,6,LEN(A5))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/23438947</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="119" t="s">
-        <v>583</v>
-      </c>
-      <c r="C6" s="117" t="str">
+      <c r="A6" s="110" t="s">
+        <v>580</v>
+      </c>
+      <c r="C6" s="108" t="str">
         <f t="array" ref="C6">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A6,6,LEN(A6))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/11437981</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="119" t="s">
-        <v>584</v>
-      </c>
-      <c r="C7" s="117" t="str">
+      <c r="A7" s="110" t="s">
+        <v>581</v>
+      </c>
+      <c r="C7" s="108" t="str">
         <f t="array" ref="C7">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A7,6,LEN(A7))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/18364578</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="119" t="s">
-        <v>585</v>
-      </c>
-      <c r="C8" s="117" t="str">
+      <c r="A8" s="110" t="s">
+        <v>582</v>
+      </c>
+      <c r="C8" s="108" t="str">
         <f t="array" ref="C8">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A8,6,LEN(A8))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/2902218</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="119" t="s">
-        <v>586</v>
-      </c>
-      <c r="C9" s="117" t="str">
+      <c r="A9" s="110" t="s">
+        <v>583</v>
+      </c>
+      <c r="C9" s="108" t="str">
         <f t="array" ref="C9">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A9,6,LEN(A9))</f>
         <v>https://pubmed.ncbi.nlm.nih.gov/18286675</v>
       </c>
